--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NQSO" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -105,25 +105,31 @@
     <t xml:space="preserve">UNVESTED VALUE</t>
   </si>
   <si>
+    <t xml:space="preserve">UNVESTED VALUE (65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std Deduct</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI</t>
   </si>
   <si>
-    <t xml:space="preserve">Bargain Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Std Deduct</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMT Exemption</t>
   </si>
   <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phaseout Threshold</t>
   </si>
   <si>
     <t xml:space="preserve">Phaseout Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">$0.25 per $1</t>
+    <t xml:space="preserve">Benefit</t>
   </si>
   <si>
     <t xml:space="preserve">ORDINARY</t>
@@ -135,64 +141,43 @@
     <t xml:space="preserve">Singles</t>
   </si>
   <si>
+    <t xml:space="preserve">Phase</t>
+  </si>
+  <si>
     <t xml:space="preserve">10%</t>
   </si>
   <si>
-    <t xml:space="preserve">Up to $9,950</t>
+    <t xml:space="preserve">FAMTI</t>
   </si>
   <si>
     <t xml:space="preserve">12%</t>
   </si>
   <si>
-    <t xml:space="preserve">$9,951 to $40,525</t>
+    <t xml:space="preserve">AMT</t>
   </si>
   <si>
     <t xml:space="preserve">22%</t>
   </si>
   <si>
-    <t xml:space="preserve">$40,526 to $86,375</t>
-  </si>
-  <si>
     <t xml:space="preserve">24%</t>
   </si>
   <si>
-    <t xml:space="preserve">$86,376 to $164,925</t>
-  </si>
-  <si>
     <t xml:space="preserve">32%</t>
   </si>
   <si>
-    <t xml:space="preserve">$164,926 to $209,425</t>
+    <t xml:space="preserve">Budget</t>
   </si>
   <si>
     <t xml:space="preserve">35%</t>
   </si>
   <si>
-    <t xml:space="preserve">$209,426 to $523,600</t>
-  </si>
-  <si>
     <t xml:space="preserve">37%</t>
   </si>
   <si>
-    <t xml:space="preserve">$523,601 or more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMT</t>
-  </si>
-  <si>
     <t xml:space="preserve">26%</t>
   </si>
   <si>
-    <t xml:space="preserve">Up to $199,900</t>
-  </si>
-  <si>
     <t xml:space="preserve">28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$199,901 or more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carryover Tax Credit?</t>
   </si>
 </sst>
 </file>
@@ -432,7 +417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -701,6 +686,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,6 +707,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -729,7 +726,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -817,7 +814,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.13"/>
@@ -1783,8 +1780,8 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,20 +1791,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="4.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1827,7 +1824,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1981,7 +1978,7 @@
       </c>
       <c r="R4" s="22" t="n">
         <f aca="false">P4*M$1</f>
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="S4" s="11" t="n">
         <f aca="false">DATE(YEAR(N4)+1,MONTH(N4),DAY(N4))</f>
@@ -1989,7 +1986,7 @@
       </c>
       <c r="T4" s="23" t="n">
         <f aca="false">IF($C$18&gt;S4, R4*0.15, R4*0.35)</f>
-        <v>11250</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,7 +2046,7 @@
       </c>
       <c r="R5" s="22" t="n">
         <f aca="false">P5*M$1</f>
-        <v>208437.5</v>
+        <v>416875</v>
       </c>
       <c r="S5" s="11" t="n">
         <f aca="false">DATE(YEAR(N5)+1,MONTH(N5),DAY(N5))</f>
@@ -2057,7 +2054,7 @@
       </c>
       <c r="T5" s="23" t="n">
         <f aca="false">IF($C$18&gt;S5, R5*0.15, R5*0.35)</f>
-        <v>31265.625</v>
+        <v>62531.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,7 +2115,7 @@
       </c>
       <c r="R6" s="31" t="n">
         <f aca="false">P6*M$1</f>
-        <v>25985</v>
+        <v>51970</v>
       </c>
       <c r="S6" s="27" t="n">
         <f aca="false">DATE(YEAR(N6)+1,MONTH(N6),DAY(N6))</f>
@@ -2126,7 +2123,7 @@
       </c>
       <c r="T6" s="32" t="n">
         <f aca="false">IF($C$18&gt;S6, R6*0.15, R6*0.35)</f>
-        <v>3897.75</v>
+        <v>7795.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,7 +2185,7 @@
       </c>
       <c r="R7" s="22" t="n">
         <f aca="false">P7*M$1</f>
-        <v>44604.8958333334</v>
+        <v>89209.7916666667</v>
       </c>
       <c r="S7" s="11" t="n">
         <f aca="false">DATE(YEAR(N7)+1,MONTH(N7),DAY(N7))</f>
@@ -2196,7 +2193,7 @@
       </c>
       <c r="T7" s="23" t="n">
         <f aca="false">IF($C$18&gt;S7, R7*0.15, R7*0.35)</f>
-        <v>15611.7135416667</v>
+        <v>31223.4270833334</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,7 +2228,7 @@
       </c>
       <c r="R8" s="22" t="n">
         <f aca="false">P8*M$1</f>
-        <v>15993.125</v>
+        <v>31986.25</v>
       </c>
       <c r="S8" s="11" t="n">
         <f aca="false">DATE(YEAR(N8)+1,MONTH(N8),DAY(N8))</f>
@@ -2239,7 +2236,7 @@
       </c>
       <c r="T8" s="23" t="n">
         <f aca="false">IF($C$18&gt;S8, R8*0.15, R8*0.35)</f>
-        <v>5597.59375</v>
+        <v>11195.1875</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,7 +2271,7 @@
       </c>
       <c r="R9" s="22" t="n">
         <f aca="false">P9*M$1</f>
-        <v>108566.40625</v>
+        <v>217132.8125</v>
       </c>
       <c r="S9" s="11" t="n">
         <f aca="false">DATE(YEAR(N9)+1,MONTH(N9),DAY(N9))</f>
@@ -2282,7 +2279,7 @@
       </c>
       <c r="T9" s="23" t="n">
         <f aca="false">IF($C$18&gt;S9, R9*0.15, R9*0.35)</f>
-        <v>37998.2421875</v>
+        <v>75996.484375</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,8 +2450,8 @@
       <c r="P16" s="50"/>
       <c r="Q16" s="50"/>
       <c r="R16" s="51" t="n">
-        <f aca="false">SUM(R4:R8)</f>
-        <v>370020.520833333</v>
+        <f aca="false">SUM(R4:R9)</f>
+        <v>957173.854166667</v>
       </c>
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
@@ -2481,7 +2478,7 @@
       <c r="Q17" s="50"/>
       <c r="R17" s="60" t="n">
         <f aca="false">SUM(T4:T9)</f>
-        <v>105620.924479167</v>
+        <v>211241.848958333</v>
       </c>
       <c r="S17" s="60"/>
       <c r="T17" s="60"/>
@@ -2512,7 +2509,7 @@
       <c r="Q18" s="63"/>
       <c r="R18" s="64" t="n">
         <f aca="false">R16-R17</f>
-        <v>264399.596354167</v>
+        <v>745932.005208333</v>
       </c>
       <c r="S18" s="64"/>
       <c r="T18" s="64"/>
@@ -2531,7 +2528,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
       <c r="M19" s="65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>
@@ -2539,7 +2536,7 @@
       <c r="Q19" s="65"/>
       <c r="R19" s="66" t="n">
         <f aca="false">(C16-H16)*M1*0.65</f>
-        <v>226572.497395833</v>
+        <v>453144.994791667</v>
       </c>
       <c r="S19" s="66"/>
       <c r="T19" s="66"/>
@@ -2574,176 +2571,263 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>27</v>
+      <c r="E1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="67" t="n">
+        <v>160000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>12550</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="67" t="n">
+        <f aca="false">F1-B2</f>
+        <v>147450</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>12550</v>
+        <v>73600</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="68" t="n">
+        <f aca="false">SUM(C9:C15)</f>
+        <v>29409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>73600</v>
-      </c>
+        <v>523600</v>
+      </c>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5" s="69" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="67" t="n">
+        <f aca="false">F1+F6</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="67" t="n">
+        <f aca="false">MIN(B3,MAX(0,B5*(F7-B4)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="72" t="n">
+        <v>9950</v>
+      </c>
+      <c r="C9" s="73" t="n">
+        <f aca="false">IF($F$2&gt;$B9,($B9-0)*A9,($F$2-0)*$A9)</f>
+        <v>995</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="67" t="n">
+        <f aca="false">F7-B3+F8</f>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="72" t="n">
+        <v>40525</v>
+      </c>
+      <c r="C10" s="73" t="n">
+        <f aca="false">MAX(0,IF($F$2&gt;B9,MIN((B10-B9),($F$2-B9))*A10, 0))</f>
+        <v>3669</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="68" t="n">
+        <f aca="false">C20+C21</f>
+        <v>22464</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="72" t="n">
+        <v>86375</v>
+      </c>
+      <c r="C11" s="73" t="n">
+        <f aca="false">MAX(0,IF($F$2&gt;B10,MIN((B11-B10),($F$2-B10))*A11, 0))</f>
+        <v>10087</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="72"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="72" t="n">
+        <v>164925</v>
+      </c>
+      <c r="C12" s="73" t="n">
+        <f aca="false">MAX(0,IF($F$2&gt;B11,MIN((B12-B11),($F$2-B11))*A12, 0))</f>
+        <v>14658</v>
+      </c>
+      <c r="D12" s="73"/>
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="72" t="n">
+        <v>209425</v>
+      </c>
+      <c r="C13" s="73" t="n">
+        <f aca="false">MAX(0,IF($F$2&gt;B12,MIN((B13-B12),($F$2-B12))*A13, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="73"/>
+      <c r="E13" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="67" t="n">
+        <f aca="false">IF(F3&gt;F10,(F3-F10)/A20,0)</f>
+        <v>26711.5384615385</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="72" t="n">
         <v>523600</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69" t="s">
+      <c r="C14" s="73" t="n">
+        <f aca="false">MAX(0,IF($F$2&gt;B13,MIN((B14-B13),($F$2-B13))*A14, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="72"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73" t="n">
+        <f aca="false">MAX(0,IF($F$2&gt;B14,($F$2-B14)*A15, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="73"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B19" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="70" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="71" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B20" s="72" t="n">
+        <v>199900</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">MIN(B20,F9)*A20</f>
+        <v>22464</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="71" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>56</v>
+      <c r="B21" s="74"/>
+      <c r="C21" s="0" t="n">
+        <f aca="false">MAX(0,(F9-B20)*A21)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -126,64 +126,67 @@
     <t xml:space="preserve">Pay</t>
   </si>
   <si>
+    <t xml:space="preserve">AGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST Gains</t>
   </si>
   <si>
-    <t xml:space="preserve">10%</t>
+    <t xml:space="preserve">12%</t>
   </si>
   <si>
     <t xml:space="preserve">LT Gains</t>
   </si>
   <si>
-    <t xml:space="preserve">12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGI</t>
-  </si>
-  <si>
     <t xml:space="preserve">22%</t>
   </si>
   <si>
-    <t xml:space="preserve">Normal</t>
+    <t xml:space="preserve">Total In</t>
   </si>
   <si>
     <t xml:space="preserve">24%</t>
   </si>
   <si>
+    <t xml:space="preserve">Ordinary</t>
+  </si>
+  <si>
     <t xml:space="preserve">32%</t>
   </si>
   <si>
     <t xml:space="preserve">35%</t>
   </si>
   <si>
+    <t xml:space="preserve">37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONG-TERM CAPITAL GAINS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Benefit</t>
   </si>
   <si>
-    <t xml:space="preserve">37%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phased</t>
   </si>
   <si>
+    <t xml:space="preserve">FAMTI</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMT</t>
   </si>
   <si>
-    <t xml:space="preserve">FAMTI</t>
+    <t xml:space="preserve">MEDICARE SURTAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget</t>
   </si>
   <si>
     <t xml:space="preserve">26%</t>
   </si>
   <si>
     <t xml:space="preserve">28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONG-TERM CAPITAL GAINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICARE SURTAX</t>
   </si>
   <si>
     <t xml:space="preserve">ISO?</t>
@@ -445,7 +448,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,10 +719,6 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -866,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -879,8 +878,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.26"/>
@@ -1598,8 +1597,8 @@
   </sheetPr>
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,10 +1607,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="5.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1659,7 +1658,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="56" t="n">
-        <v>150000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +1676,8 @@
         <v>34</v>
       </c>
       <c r="F8" s="56" t="n">
-        <v>0</v>
+        <f aca="false">F7-B2+F9</f>
+        <v>162450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,7 +1688,7 @@
         <v>9950</v>
       </c>
       <c r="C9" s="63" t="n">
-        <f aca="false">IF($F$10&gt;$B9,($B9-0)*A9,($F$10-0)*$A9)</f>
+        <f aca="false">IF($F$8&gt;$B9,($B9-0)*A9,($F$8-0)*$A9)</f>
         <v>995</v>
       </c>
       <c r="D9" s="64"/>
@@ -1696,7 +1696,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="56" t="n">
-        <v>1250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,7 +1707,7 @@
         <v>40525</v>
       </c>
       <c r="C10" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$10&gt;B9,MIN((B10-B9),($F$10-B9))*A10, 0))</f>
+        <f aca="false">MAX(0,IF($F$8&gt;B9,MIN((B10-B9),($F$8-B9))*A10, 0))</f>
         <v>3669</v>
       </c>
       <c r="D10" s="64"/>
@@ -1715,8 +1715,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="56" t="n">
-        <f aca="false">F7-B2+F8</f>
-        <v>137450</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,16 +1726,16 @@
         <v>86375</v>
       </c>
       <c r="C11" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$10&gt;B10,MIN((B11-B10),($F$10-B10))*A11, 0))</f>
+        <f aca="false">MAX(0,IF($F$8&gt;B10,MIN((B11-B10),($F$8-B10))*A11, 0))</f>
         <v>10087</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="65" t="n">
-        <f aca="false">SUM(C9:C15)+SUM(C24:C26)+SUM(C30:C31)</f>
-        <v>214509</v>
+      <c r="F11" s="56" t="n">
+        <f aca="false">F8+F10</f>
+        <v>1412450</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,51 +1746,51 @@
         <v>164925</v>
       </c>
       <c r="C12" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$10&gt;B11,MIN((B12-B11),($F$10-B11))*A12, 0))</f>
-        <v>12258</v>
+        <f aca="false">MAX(0,IF($F$8&gt;B11,MIN((B12-B11),($F$8-B11))*A12, 0))</f>
+        <v>18258</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="66" t="n">
-        <f aca="false">F11/(F7+F8+F9)</f>
-        <v>0.153220714285714</v>
+        <v>42</v>
+      </c>
+      <c r="F12" s="65" t="n">
+        <f aca="false">SUM(C9:C15)+SUM(C19:C21)+SUM(C25:C26)</f>
+        <v>300729.6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="62" t="n">
         <v>209425</v>
       </c>
       <c r="C13" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$10&gt;B12,MIN((B13-B12),($F$10-B12))*A13, 0))</f>
+        <f aca="false">MAX(0,IF($F$8&gt;B12,MIN((B13-B12),($F$8-B12))*A13, 0))</f>
         <v>0</v>
       </c>
       <c r="D13" s="64"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="66" t="n">
+        <f aca="false">F12/(F7+F9+F10)</f>
+        <v>0.211038315789474</v>
+      </c>
       <c r="G13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="62" t="n">
         <v>523600</v>
       </c>
       <c r="C14" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$10&gt;B13,MIN((B14-B13),($F$10-B13))*A14, 0))</f>
+        <f aca="false">MAX(0,IF($F$8&gt;B13,MIN((B14-B13),($F$8-B13))*A14, 0))</f>
         <v>0</v>
       </c>
       <c r="D14" s="64"/>
-      <c r="E14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
@@ -1799,40 +1798,17 @@
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$10&gt;B14,($F$10-B14)*A15, 0))</f>
+        <f aca="false">MAX(0,IF($F$8&gt;B14,($F$8-B14)*A15, 0))</f>
         <v>0</v>
       </c>
       <c r="D15" s="64"/>
-      <c r="E15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="56" t="n">
-        <f aca="false">F7+F8+F9+F14</f>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="56" t="n">
-        <f aca="false">MIN(B3,MAX(0,B5*(F15-B4)))</f>
-        <v>73600</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
-      <c r="E17" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="56" t="n">
-        <f aca="false">F15-B3+F16</f>
-        <v>1400000</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="60" t="s">
@@ -1844,111 +1820,137 @@
       <c r="C18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="65" t="n">
-        <f aca="false">C19+C20</f>
-        <v>388002</v>
+      <c r="F18" s="56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" s="62" t="n">
+        <v>40400</v>
+      </c>
+      <c r="C19" s="57" t="n">
+        <f aca="false">IF(F$11&lt;=B19, F$10*A19, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="56" t="n">
+        <f aca="false">F7+F9+F10+F18</f>
+        <v>1425000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="68" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B20" s="63" t="n">
+        <v>445850</v>
+      </c>
+      <c r="C20" s="57" t="n">
+        <f aca="false">MAX(0,IF(F$11&gt;B19,MIN((B20-B19),(F$10-B19))*A20, 0))</f>
+        <v>60817.5</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="56" t="n">
+        <f aca="false">MIN(B3,MAX(0,B5*(F19-B4)))</f>
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="57" t="n">
+        <f aca="false">MAX(0,IF(F$11&gt;B20,(F$10-B20)*A21, 0))</f>
+        <v>160830</v>
+      </c>
+      <c r="E21" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="62" t="n">
-        <v>199900</v>
-      </c>
-      <c r="C19" s="57" t="n">
-        <f aca="false">MIN(B19,F17)*A19</f>
-        <v>51974</v>
-      </c>
-      <c r="E19" s="64" t="s">
+      <c r="F21" s="56" t="n">
+        <f aca="false">F19-B3+F20</f>
+        <v>1425000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="65" t="n">
+        <f aca="false">C30+C31</f>
+        <v>395002</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="E23" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="66" t="n">
-        <f aca="false">F18/F15</f>
-        <v>0.277144285714286</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="57" t="n">
-        <f aca="false">MAX(0,IF(F$17&gt;B19,(F$17-B19)*A20, 0))</f>
-        <v>336028</v>
-      </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="56" t="n">
-        <f aca="false">IF(F11&gt;F18,(F11-F18)/A19,0)</f>
+      <c r="F23" s="66" t="n">
+        <f aca="false">F22/F19</f>
+        <v>0.277194385964912</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="70" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68" t="s">
+      <c r="B25" s="62" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C25" s="57" t="n">
+        <f aca="false">IF(F$7&lt;=B25, F$10*A25, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69" t="n">
+      <c r="F25" s="56" t="n">
+        <f aca="false">IF(F12&gt;F22,(F12-F22)/A30,0)</f>
         <v>0</v>
-      </c>
-      <c r="B24" s="62" t="n">
-        <v>40400</v>
-      </c>
-      <c r="C24" s="57" t="n">
-        <f aca="false">IF(F$7&lt;=B24, F$9*A24, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="69" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B25" s="63" t="n">
-        <v>445850</v>
-      </c>
-      <c r="C25" s="57" t="n">
-        <f aca="false">IF(F$7&lt;=B24, 0, IF(F$7&lt;=B25, F$9*A25, 0))</f>
-        <v>187500</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="70" t="n">
-        <v>0.2</v>
+        <v>0.038</v>
       </c>
       <c r="C26" s="57" t="n">
-        <f aca="false">IF(F$7&lt;=B24, 0, IF(F$7&lt;=B25, 0, F$9*A26))</f>
-        <v>0</v>
+        <f aca="false">MAX(0,IF(F$11&gt;B25,(F$11-B25)*A26, 0))</f>
+        <v>46073.1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
+      <c r="A28" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="60" t="s">
@@ -1962,31 +1964,32 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="71" t="n">
-        <v>0</v>
+      <c r="A30" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="B30" s="62" t="n">
-        <v>200000</v>
+        <v>199900</v>
       </c>
       <c r="C30" s="57" t="n">
-        <f aca="false">IF(F$7&lt;=B30, F$9*A30, 0)</f>
-        <v>0</v>
+        <f aca="false">MIN(B30,F21)*A30</f>
+        <v>51974</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="71" t="n">
-        <v>0.038</v>
-      </c>
+      <c r="A31" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="63"/>
       <c r="C31" s="57" t="n">
-        <f aca="false">IF(F$7&gt;B30, F$9*A31, 0)</f>
-        <v>0</v>
+        <f aca="false">MAX(0,IF(F$21&gt;B30,(F$21-B30)*A31, 0))</f>
+        <v>343028</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2012,25 +2015,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="72" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="72" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="72" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="73" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="72" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="72" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="72" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="72" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="72" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="72" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="72" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="72" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="72" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="72" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="72" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="72" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="72" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="72" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="72" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="71" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="71" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="72" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="71" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="71" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="71" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="71" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="71" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="71" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="71" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="71" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="71" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="71" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="71" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="71" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="71" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="71" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="71" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,13 +2119,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -2134,10 +2137,10 @@
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
@@ -2185,13 +2188,13 @@
       <c r="C4" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="74" t="n">
+      <c r="D4" s="73" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="75" t="n">
+      <c r="F4" s="74" t="n">
         <f aca="false">DATEDIF(A4,C18,"Y")</f>
         <v>4</v>
       </c>
@@ -2206,7 +2209,7 @@
       <c r="I4" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="J4" s="76" t="n">
+      <c r="J4" s="75" t="n">
         <f aca="false">H4/C4</f>
         <v>1</v>
       </c>
@@ -2264,14 +2267,14 @@
       <c r="C5" s="11" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="74" t="n">
+      <c r="D5" s="73" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="77" t="s">
-        <v>58</v>
+      <c r="F5" s="76" t="s">
+        <v>59</v>
       </c>
       <c r="G5" s="13" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
@@ -2284,7 +2287,7 @@
       <c r="I5" s="20" t="n">
         <v>83375</v>
       </c>
-      <c r="J5" s="76" t="n">
+      <c r="J5" s="75" t="n">
         <f aca="false">H5/C5</f>
         <v>0.675</v>
       </c>
@@ -2342,13 +2345,13 @@
       <c r="C6" s="11" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="74" t="n">
+      <c r="D6" s="73" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="75" t="n">
+      <c r="F6" s="74" t="n">
         <f aca="false">DATEDIF(A6,C18,"Y")</f>
         <v>1</v>
       </c>
@@ -2363,7 +2366,7 @@
       <c r="I6" s="20" t="n">
         <v>10394</v>
       </c>
-      <c r="J6" s="76" t="n">
+      <c r="J6" s="75" t="n">
         <f aca="false">H6/C6</f>
         <v>0.270833333333333</v>
       </c>
@@ -2421,13 +2424,13 @@
       <c r="C7" s="11" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="74" t="n">
+      <c r="D7" s="73" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="75" t="n">
+      <c r="F7" s="74" t="n">
         <f aca="false">DATEDIF(A7,C18,"Y")</f>
         <v>0</v>
       </c>
@@ -2442,7 +2445,7 @@
       <c r="I7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="76" t="n">
+      <c r="J7" s="75" t="n">
         <f aca="false">H7/C7</f>
         <v>0</v>
       </c>
@@ -2495,9 +2498,9 @@
       <c r="A8" s="13"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="74"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="76"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8" s="11"/>
@@ -2548,7 +2551,7 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="78"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -2601,7 +2604,7 @@
       <c r="A10" s="30"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="78"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2611,7 +2614,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="29"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="79"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="13"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="17"/>
@@ -2633,7 +2636,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="78"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2665,7 +2668,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="30"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="78"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2729,7 +2732,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="74"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -2761,7 +2764,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="74"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2789,7 +2792,7 @@
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
@@ -2799,7 +2802,7 @@
         <f aca="false">SUM(C4:C7)</f>
         <v>330864</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="37"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
@@ -2841,13 +2844,13 @@
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
     </row>
-    <row r="17" s="84" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="82"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="83"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -2888,7 +2891,7 @@
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -2925,7 +2928,7 @@
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="76"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2933,7 +2936,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N19" s="54"/>
       <c r="O19" s="54"/>

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ISO" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="AMT" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="NQSO" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Scenarios" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="NQSO" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -187,6 +188,27 @@
   </si>
   <si>
     <t xml:space="preserve">28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPO Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock Out Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMT Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phased Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONG-TERM CAPITAL</t>
   </si>
   <si>
     <t xml:space="preserve">ISO?</t>
@@ -230,7 +252,7 @@
     <numFmt numFmtId="179" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -361,8 +383,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
@@ -448,7 +483,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -731,6 +766,62 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -844,7 +935,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666666"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -866,7 +957,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1597,8 +1688,8 @@
   </sheetPr>
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2005,6 +2096,399 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.84"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="56" t="n">
+        <v>12550</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="56" t="n">
+        <f aca="false">B8-B1+E2</f>
+        <v>237450</v>
+      </c>
+      <c r="F1" s="72"/>
+      <c r="I1" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>73600</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="72"/>
+      <c r="I2" s="56" t="n">
+        <f aca="false">MAX(0,E1-B18)*A19+MIN(B18-B17,MAX(0,E1-B17))*A18+MIN(B17-B16,MAX(0,E1-B16))*A17+MIN(B16-B15,MAX(0,E1-B15))*A16+MIN(B15-B14,MAX(0,E1-B14))*A15+MIN(B14-B13,MAX(0,E1-B13))*A14+MIN(B13,MAX(0,E1))*A13+MAX(0,IF(E4&gt;E13,(E4-E13)*D14, 0))+MAX(0,IF(E4&gt;B23,MIN((B24-B23),(E3-B23))*A24, 0))+MAX(0,IF(E4&gt;B24,(E3-B24)*A25, 0))</f>
+        <v>59074.85</v>
+      </c>
+      <c r="J2" s="66" t="n">
+        <f aca="false">I2/(E4)</f>
+        <v>0.248788587070962</v>
+      </c>
+      <c r="K2" s="56" t="n">
+        <f aca="false">MIN(E18,E8)*D18+MAX(0,IF(E8&gt;E18,(E8-E18)*D19, 0))</f>
+        <v>45864</v>
+      </c>
+      <c r="L2" s="66" t="n">
+        <f aca="false">K2/(E6)</f>
+        <v>0.183456</v>
+      </c>
+      <c r="M2" s="56" t="n">
+        <f aca="false">MAX(0,(I2-K2))/((D18+D19)/2)</f>
+        <v>48929.0740740741</v>
+      </c>
+      <c r="N2" s="56" t="n">
+        <f aca="false">MAX(0,(K2-I2))/0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>523600</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="74"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="56" t="n">
+        <f aca="false">E1+E3</f>
+        <v>237450</v>
+      </c>
+      <c r="F4" s="74"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="75" t="n">
+        <v>44378</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="72"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="56" t="n">
+        <f aca="false">B8+E2+E3+E5</f>
+        <v>250000</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="I6" s="57"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="75" t="n">
+        <f aca="false">B5+B6</f>
+        <v>44558</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="56" t="n">
+        <f aca="false">MIN(B2,MAX(0,B4*(E6-B3)))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="76" t="n">
+        <v>250000</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="56" t="n">
+        <f aca="false">E6-B2+E7</f>
+        <v>176400</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="62" t="n">
+        <v>9950</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="62" t="n">
+        <v>200000</v>
+      </c>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="62" t="n">
+        <v>40525</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="62" t="n">
+        <v>86375</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="62" t="n">
+        <v>164925</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="62" t="n">
+        <v>209425</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" s="57"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="62" t="n">
+        <v>523600</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="62" t="n">
+        <v>199900</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="63"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="F22" s="56"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="62" t="n">
+        <v>40400</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="83" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B24" s="63" t="n">
+        <v>445850</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="F25" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:AD19"/>
@@ -2015,25 +2499,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="71" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="71" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="72" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="71" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="71" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="71" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="71" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="71" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="71" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="71" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="71" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="71" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="71" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="71" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="71" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="71" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="71" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="71" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="85" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="86" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="85" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="85" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="85" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="85" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="85" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="85" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="85" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="85" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="85" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="85" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="85" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="85" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="85" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="85" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="85" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,13 +2603,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -2137,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
@@ -2188,13 +2672,13 @@
       <c r="C4" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="73" t="n">
+      <c r="D4" s="87" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="74" t="n">
+      <c r="F4" s="88" t="n">
         <f aca="false">DATEDIF(A4,C18,"Y")</f>
         <v>4</v>
       </c>
@@ -2209,7 +2693,7 @@
       <c r="I4" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="J4" s="75" t="n">
+      <c r="J4" s="89" t="n">
         <f aca="false">H4/C4</f>
         <v>1</v>
       </c>
@@ -2267,14 +2751,14 @@
       <c r="C5" s="11" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="73" t="n">
+      <c r="D5" s="87" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="76" t="s">
-        <v>59</v>
+      <c r="F5" s="90" t="s">
+        <v>66</v>
       </c>
       <c r="G5" s="13" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
@@ -2287,7 +2771,7 @@
       <c r="I5" s="20" t="n">
         <v>83375</v>
       </c>
-      <c r="J5" s="75" t="n">
+      <c r="J5" s="89" t="n">
         <f aca="false">H5/C5</f>
         <v>0.675</v>
       </c>
@@ -2345,13 +2829,13 @@
       <c r="C6" s="11" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="73" t="n">
+      <c r="D6" s="87" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="74" t="n">
+      <c r="F6" s="88" t="n">
         <f aca="false">DATEDIF(A6,C18,"Y")</f>
         <v>1</v>
       </c>
@@ -2366,7 +2850,7 @@
       <c r="I6" s="20" t="n">
         <v>10394</v>
       </c>
-      <c r="J6" s="75" t="n">
+      <c r="J6" s="89" t="n">
         <f aca="false">H6/C6</f>
         <v>0.270833333333333</v>
       </c>
@@ -2424,13 +2908,13 @@
       <c r="C7" s="11" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="73" t="n">
+      <c r="D7" s="87" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="74" t="n">
+      <c r="F7" s="88" t="n">
         <f aca="false">DATEDIF(A7,C18,"Y")</f>
         <v>0</v>
       </c>
@@ -2445,7 +2929,7 @@
       <c r="I7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="75" t="n">
+      <c r="J7" s="89" t="n">
         <f aca="false">H7/C7</f>
         <v>0</v>
       </c>
@@ -2498,9 +2982,9 @@
       <c r="A8" s="13"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="73"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="75"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8" s="11"/>
@@ -2551,7 +3035,7 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="77"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -2604,7 +3088,7 @@
       <c r="A10" s="30"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="77"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2614,7 +3098,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="29"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="78"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="13"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="17"/>
@@ -2636,7 +3120,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="77"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2668,7 +3152,7 @@
       <c r="A12" s="31"/>
       <c r="B12" s="30"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="77"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -2732,7 +3216,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="73"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -2764,7 +3248,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="73"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2792,7 +3276,7 @@
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="94" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
@@ -2802,7 +3286,7 @@
         <f aca="false">SUM(C4:C7)</f>
         <v>330864</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="37"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
@@ -2844,13 +3328,13 @@
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
     </row>
-    <row r="17" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="97" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="44"/>
       <c r="B17" s="45"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="81"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="82"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
@@ -2891,7 +3375,7 @@
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="75"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -2928,7 +3412,7 @@
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="75"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -2936,7 +3420,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="54" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N19" s="54"/>
       <c r="O19" s="54"/>

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ISO" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">35% now -&gt; 1/36/mo</t>
   </si>
   <si>
+    <t xml:space="preserve">50% @ open, 1/36/mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNREALIZED GAINS</t>
   </si>
   <si>
@@ -97,7 +100,7 @@
     <t xml:space="preserve">TAKEAWAY</t>
   </si>
   <si>
-    <t xml:space="preserve">UNVESTED VALUE (65%)</t>
+    <t xml:space="preserve">UNEXERCISED VALUE (65%)</t>
   </si>
   <si>
     <t xml:space="preserve">Std Deduct</t>
@@ -127,33 +130,30 @@
     <t xml:space="preserve">Pay</t>
   </si>
   <si>
+    <t xml:space="preserve">ST Gains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT Gains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12%</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGI</t>
   </si>
   <si>
-    <t xml:space="preserve">10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST Gains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT Gains</t>
-  </si>
-  <si>
     <t xml:space="preserve">22%</t>
   </si>
   <si>
-    <t xml:space="preserve">Total In</t>
+    <t xml:space="preserve">Ordinary</t>
   </si>
   <si>
     <t xml:space="preserve">24%</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordinary</t>
-  </si>
-  <si>
     <t xml:space="preserve">32%</t>
   </si>
   <si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shares to exercise</t>
   </si>
   <si>
     <t xml:space="preserve">26%</t>
@@ -233,24 +236,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="17">
+  <numFmts count="20">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="DD\-MMM\-YYYY"/>
-    <numFmt numFmtId="168" formatCode="\$#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="#,##0"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.00"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0"/>
-    <numFmt numFmtId="176" formatCode="0%"/>
-    <numFmt numFmtId="177" formatCode="0.00%"/>
-    <numFmt numFmtId="178" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="179" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="DD\-MMM\-YYYY"/>
+    <numFmt numFmtId="169" formatCode="\$#,##0.0000"/>
+    <numFmt numFmtId="170" formatCode="#,##0"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.00"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00"/>
+    <numFmt numFmtId="175" formatCode="0.0000%"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0"/>
+    <numFmt numFmtId="178" formatCode="[$$-409]#,##0;\-[$$-409]#,##0"/>
+    <numFmt numFmtId="179" formatCode="0%"/>
+    <numFmt numFmtId="180" formatCode="0.00%"/>
+    <numFmt numFmtId="181" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="182" formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -483,7 +489,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,6 +506,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,10 +530,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,47 +538,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,7 +598,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,11 +606,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,11 +634,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,27 +654,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,10 +690,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,11 +698,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,7 +718,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -708,7 +738,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -732,7 +762,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -744,35 +774,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,20 +786,44 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="182" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -808,7 +838,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,11 +846,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -832,15 +862,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,7 +890,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -864,11 +898,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,6 +920,28 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -954,10 +1010,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -966,10 +1022,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.58"/>
@@ -997,669 +1053,681 @@
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="n">
-        <v>10</v>
+        <f aca="false">N1*Q1</f>
+        <v>0.8</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="N1" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="Q1" s="4" t="n">
+        <f aca="false">0.08</f>
+        <v>0.08</v>
+      </c>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="14" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="15" t="n">
         <f aca="false">0.25*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, MIN(36,E4)/36, 0)</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="H4" s="15" t="n">
-        <f aca="false">IF(G4=F4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4/48, 0))</f>
+      <c r="H4" s="16" t="n">
+        <f aca="false">IF(F4=C4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4/48, 0))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="10" t="n">
         <f aca="false">DATE(YEAR(A4)+1, MONTH(A4)+(0.75*48), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="9" t="n">
+      <c r="J4" s="17"/>
+      <c r="K4" s="10" t="n">
         <v>42457</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="10" t="n">
         <v>44001</v>
       </c>
-      <c r="M4" s="10" t="n">
+      <c r="M4" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="18" t="n">
         <f aca="false">N4*M4</f>
         <v>33</v>
       </c>
-      <c r="P4" s="18" t="n">
+      <c r="P4" s="19" t="n">
         <f aca="false">N4*K$1</f>
-        <v>300000</v>
-      </c>
-      <c r="Q4" s="9" t="n">
+        <v>24000</v>
+      </c>
+      <c r="Q4" s="10" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
         <v>44366</v>
       </c>
-      <c r="R4" s="19" t="n">
+      <c r="R4" s="20" t="n">
         <f aca="false">IF($C$18&gt;Q4, P4*0.15, P4*0.35)</f>
-        <v>105000</v>
+        <v>8400</v>
+      </c>
+      <c r="T4" s="21" t="n">
+        <v>0.000276</v>
+      </c>
+      <c r="U4" s="22" t="n">
+        <f aca="false">N4/T4</f>
+        <v>108695652.173913</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="14" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
-        <v>26</v>
-      </c>
-      <c r="F5" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F5" s="15" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*MIN(36,E5)/36</f>
-        <v>101216.958333333</v>
-      </c>
-      <c r="G5" s="20" t="n">
+        <v>105677.366666667</v>
+      </c>
+      <c r="G5" s="23" t="n">
         <v>83375</v>
       </c>
-      <c r="H5" s="15" t="n">
-        <f aca="false">IF(G5=F5, 0, C5/36)</f>
+      <c r="H5" s="16" t="n">
+        <f aca="false">IF(F5=C5, 0, C5/36)</f>
         <v>3431.08333333333</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="10" t="n">
         <f aca="false">DATE(YEAR(A5), MONTH(A5)+36, DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="9" t="n">
+      <c r="J5" s="24"/>
+      <c r="K5" s="10" t="n">
         <v>43447</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="10" t="n">
         <v>44001</v>
       </c>
-      <c r="M5" s="10" t="n">
+      <c r="M5" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N5" s="20" t="n">
+      <c r="N5" s="23" t="n">
         <v>83375</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="18" t="n">
         <f aca="false">M5*N5</f>
         <v>91.7125</v>
       </c>
-      <c r="P5" s="18" t="n">
+      <c r="P5" s="19" t="n">
         <f aca="false">N5*K$1</f>
-        <v>833750</v>
-      </c>
-      <c r="Q5" s="9" t="n">
+        <v>66700</v>
+      </c>
+      <c r="Q5" s="10" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
         <v>44366</v>
       </c>
-      <c r="R5" s="19" t="n">
+      <c r="R5" s="20" t="n">
         <f aca="false">IF($C$18&gt;Q5, P5*0.15, P5*0.35)</f>
-        <v>291812.5</v>
+        <v>23345</v>
+      </c>
+      <c r="T5" s="21" t="n">
+        <v>0.000766</v>
+      </c>
+      <c r="U5" s="22" t="n">
+        <f aca="false">N5/T5</f>
+        <v>108844647.519582</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="10" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13" t="n">
-        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C18,"M")-12))</f>
-        <v>9</v>
-      </c>
-      <c r="F6" s="14" t="n">
+      <c r="E6" s="14" t="n">
+        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$18,"M")-12))</f>
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="n">
         <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
-        <v>16791.25</v>
-      </c>
-      <c r="G6" s="20" t="n">
+        <v>18390.4166666667</v>
+      </c>
+      <c r="G6" s="23" t="n">
         <v>10394</v>
       </c>
-      <c r="H6" s="15" t="n">
-        <f aca="false">IF(G6=F6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6/48, 0))</f>
+      <c r="H6" s="16" t="n">
+        <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6/48, 0))</f>
         <v>799.583333333333</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="10" t="n">
         <f aca="false">DATE(YEAR(A6)+1, MONTH(A6)+(48*0.75), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22" t="n">
+      <c r="J6" s="24"/>
+      <c r="K6" s="25" t="n">
         <v>43602</v>
       </c>
-      <c r="L6" s="22" t="n">
+      <c r="L6" s="25" t="n">
         <v>44001</v>
       </c>
-      <c r="M6" s="23" t="n">
+      <c r="M6" s="26" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N6" s="24" t="n">
+      <c r="N6" s="27" t="n">
         <v>10394</v>
       </c>
-      <c r="O6" s="25" t="n">
+      <c r="O6" s="28" t="n">
         <f aca="false">M6*N6</f>
         <v>11.4334</v>
       </c>
-      <c r="P6" s="26" t="n">
+      <c r="P6" s="29" t="n">
         <f aca="false">N6*K$1</f>
-        <v>103940</v>
-      </c>
-      <c r="Q6" s="22" t="n">
+        <v>8315.2</v>
+      </c>
+      <c r="Q6" s="25" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
         <v>44366</v>
       </c>
-      <c r="R6" s="27" t="n">
+      <c r="R6" s="30" t="n">
         <f aca="false">IF($C$18&gt;Q6, P6*0.15, P6*0.35)</f>
-        <v>36379</v>
+        <v>2910.32</v>
+      </c>
+      <c r="T6" s="21" t="n">
+        <v>9.6E-005</v>
+      </c>
+      <c r="U6" s="22" t="n">
+        <f aca="false">N6/T6</f>
+        <v>108270833.333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="13" t="n">
-        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C18,"M")-12))</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="14" t="n">
+      <c r="E7" s="14" t="n">
+        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$18,"M")-12))</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="15" t="n">
         <f aca="false">0.25*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
-        <v>43426.5625</v>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <f aca="false">IF(G7=F7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7/48, 0))</f>
+        <v>52111.875</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>32400</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <f aca="false">IF(F7=C7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7/48, 0))</f>
         <v>2895.10416666667</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="10" t="n">
         <f aca="false">DATE(YEAR(A7)+1, MONTH(A7)+(48*0.75), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="9" t="n">
-        <v>43447</v>
-      </c>
-      <c r="L8" s="28" t="n">
-        <v>44256</v>
-      </c>
-      <c r="M8" s="10" t="n">
+      <c r="A8" s="10" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A8,C$18,"M")-12))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <f aca="false">0.5*C8*IF($C$18 &gt;= DATE(2022,1,1), 1, 0) + 0.5*C8*IF(DATEDIF(A8,$C$18,"Y")&gt;=1, MIN(36,E8)/36, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <f aca="false">IF(F8=C8, 0, IF($C$18 &gt;= DATE(2022,1,1), C8/36, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <f aca="false">DATE(YEAR(A8), MONTH(A8)+36, DAY(A8))</f>
+        <v>45359</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="10" t="n">
+        <v>43769</v>
+      </c>
+      <c r="L8" s="33" t="n">
+        <v>44324</v>
+      </c>
+      <c r="M8" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N8" s="11" t="n">
-        <f aca="false">F5-G5</f>
-        <v>17841.9583333333</v>
-      </c>
-      <c r="O8" s="17" t="n">
+      <c r="N8" s="12" t="n">
+        <v>32400</v>
+      </c>
+      <c r="O8" s="18" t="n">
         <f aca="false">M8*N8</f>
-        <v>19.6261541666667</v>
-      </c>
-      <c r="P8" s="18" t="n">
-        <f aca="false">N8*K$1</f>
-        <v>178419.583333333</v>
-      </c>
-      <c r="Q8" s="9" t="n">
+        <v>35.64</v>
+      </c>
+      <c r="P8" s="19" t="n">
+        <f aca="false">N8*K1</f>
+        <v>25920</v>
+      </c>
+      <c r="Q8" s="31" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
-        <v>44621</v>
-      </c>
-      <c r="R8" s="19" t="n">
+        <v>44689</v>
+      </c>
+      <c r="R8" s="20" t="n">
         <f aca="false">IF($C$18&gt;Q8, P8*0.15, P8*0.35)</f>
-        <v>62446.8541666667</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="9" t="n">
-        <v>43602</v>
-      </c>
-      <c r="L9" s="28" t="n">
-        <v>44256</v>
-      </c>
-      <c r="M9" s="10" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <f aca="false">F6-G6</f>
-        <v>6397.25</v>
-      </c>
-      <c r="O9" s="17" t="n">
-        <f aca="false">M9*N9</f>
-        <v>7.036975</v>
-      </c>
-      <c r="P9" s="18" t="n">
-        <f aca="false">N9*K$1</f>
-        <v>63972.5</v>
-      </c>
-      <c r="Q9" s="9" t="n">
-        <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
-        <v>44621</v>
-      </c>
-      <c r="R9" s="19" t="n">
-        <f aca="false">IF($C$18&gt;Q9, P9*0.15, P9*0.35)</f>
-        <v>22390.375</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="9" t="n">
-        <v>43769</v>
-      </c>
-      <c r="L10" s="28" t="n">
-        <v>44256</v>
-      </c>
-      <c r="M10" s="10" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <f aca="false">F7-G7</f>
-        <v>43426.5625</v>
-      </c>
-      <c r="O10" s="17" t="n">
-        <f aca="false">M10*N10</f>
-        <v>47.76921875</v>
-      </c>
-      <c r="P10" s="18" t="n">
-        <f aca="false">N10*K$1</f>
-        <v>434265.625</v>
-      </c>
-      <c r="Q10" s="9" t="n">
-        <f aca="false">MAX(DATE(YEAR(L10)+1,MONTH(L10),DAY(L10)),DATE(YEAR(K10)+2,MONTH(K10),DAY(K10)))</f>
-        <v>44621</v>
-      </c>
-      <c r="R10" s="19" t="n">
-        <f aca="false">IF($C$18&gt;Q10, P10*0.15, P10*0.35)</f>
-        <v>151992.96875</v>
-      </c>
+      <c r="A10" s="35"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="str">
+      <c r="A16" s="40" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="n">
-        <f aca="false">SUM(C4:C7)</f>
-        <v>330864</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39" t="n">
-        <f aca="false">SUM(F4:F8)</f>
-        <v>191434.770833333</v>
-      </c>
-      <c r="G16" s="37" t="n">
-        <f aca="false">SUM(G4:G8)</f>
-        <v>123769</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43" t="n">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42" t="n">
+        <f aca="false">SUM(C4:C14)</f>
+        <v>660864</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44" t="n">
+        <f aca="false">SUM(F4:F14)</f>
+        <v>206179.658333333</v>
+      </c>
+      <c r="G16" s="42" t="n">
+        <f aca="false">SUM(G4:G14)</f>
+        <v>156169</v>
+      </c>
+      <c r="H16" s="45" t="n">
+        <f aca="false">SUM(H4:H8)*K1</f>
+        <v>5700.61666666667</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="49" t="n">
         <f aca="false">SUM(P4:P10)</f>
-        <v>1914347.70833333</v>
-      </c>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
+        <v>124935.2</v>
+      </c>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46" t="n">
-        <f aca="false">SUM(H4:H7)</f>
+      <c r="A17" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52" t="n">
+        <f aca="false">SUM(H4:H14)</f>
         <v>7125.77083333333</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48" t="n">
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54" t="n">
         <f aca="false">F16/C16</f>
-        <v>0.578590511005529</v>
-      </c>
-      <c r="G17" s="48" t="n">
+        <v>0.311985004983375</v>
+      </c>
+      <c r="G17" s="54" t="n">
         <f aca="false">G16/F16</f>
-        <v>0.646533539655424</v>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="50" t="n">
+        <v>0.757441356060061</v>
+      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="56" t="n">
         <f aca="false">SUM(R4:R10)</f>
-        <v>670021.697916667</v>
-      </c>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
+        <v>43727.32</v>
+      </c>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="51" t="n">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="57" t="n">
         <f aca="true">TODAY()</f>
-        <v>44250</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53" t="n">
+        <v>44326</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="59" t="n">
         <f aca="false">P16-P17</f>
-        <v>1244326.01041667</v>
-      </c>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
+        <v>81207.88</v>
+      </c>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55" t="n">
-        <f aca="false">(C16-F16)*K1*0.65</f>
-        <v>906289.989583333</v>
-      </c>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="61" t="n">
+        <f aca="false">(C16-G16)*K1*0.65</f>
+        <v>262441.4</v>
+      </c>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="K16:O16"/>
@@ -1671,6 +1739,11 @@
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="P19:R19"/>
   </mergeCells>
+  <conditionalFormatting sqref="I4:I8">
+    <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1689,13 +1762,13 @@
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.13"/>
@@ -1707,15 +1780,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2" s="62" t="n">
         <v>12550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>73600</v>
@@ -1723,365 +1796,367 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>523600</v>
       </c>
-      <c r="F4" s="57"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="58" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
       <c r="E7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="56" t="n">
-        <v>175000</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="62" t="n">
+        <v>165000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="C8" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="66"/>
       <c r="E8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="68" t="n">
+        <v>9950</v>
+      </c>
+      <c r="C9" s="69" t="n">
+        <f aca="false">IF($F$10&gt;$B9,($B9-0)*A9,($F$10-0)*$A9)</f>
+        <v>995</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="68" t="n">
+        <v>40525</v>
+      </c>
+      <c r="C10" s="69" t="n">
+        <f aca="false">MAX(0,IF($F$10&gt;B9,MIN((B10-B9),($F$10-B9))*A10, 0))</f>
+        <v>3669</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="62" t="n">
+        <f aca="false">F7-B2+F8+F9</f>
+        <v>152450</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="68" t="n">
+        <v>86375</v>
+      </c>
+      <c r="C11" s="69" t="n">
+        <f aca="false">MAX(0,IF($F$10&gt;B10,MIN((B11-B10),($F$10-B10))*A11, 0))</f>
+        <v>10087</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="71" t="n">
+        <f aca="false">SUM(C9:C15)+SUM(C19:C21)+SUM(C25:C26)</f>
+        <v>30609</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="68" t="n">
+        <v>164925</v>
+      </c>
+      <c r="C12" s="69" t="n">
+        <f aca="false">MAX(0,IF($F$10&gt;B11,MIN((B12-B11),($F$10-B11))*A12, 0))</f>
+        <v>15858</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="72" t="n">
+        <f aca="false">F11/(F7+F8+F9)</f>
+        <v>0.185509090909091</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="68" t="n">
+        <v>209425</v>
+      </c>
+      <c r="C13" s="69" t="n">
+        <f aca="false">MAX(0,IF($F$10&gt;B12,MIN((B13-B12),($F$10-B12))*A13, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="G13" s="63"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="68" t="n">
+        <v>523600</v>
+      </c>
+      <c r="C14" s="69" t="n">
+        <f aca="false">MAX(0,IF($F$10&gt;B13,MIN((B14-B13),($F$10-B13))*A14, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="70"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69" t="n">
+        <f aca="false">MAX(0,IF($F$10&gt;B14,($F$10-B14)*A15, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="73" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="56" t="n">
-        <f aca="false">F7-B2+F9</f>
-        <v>162450</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="62" t="n">
-        <v>9950</v>
-      </c>
-      <c r="C9" s="63" t="n">
-        <f aca="false">IF($F$8&gt;$B9,($B9-0)*A9,($F$8-0)*$A9)</f>
-        <v>995</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="62" t="n">
-        <v>40525</v>
-      </c>
-      <c r="C10" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$8&gt;B9,MIN((B10-B9),($F$8-B9))*A10, 0))</f>
-        <v>3669</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="56" t="n">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="62" t="n">
-        <v>86375</v>
-      </c>
-      <c r="C11" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$8&gt;B10,MIN((B11-B10),($F$8-B10))*A11, 0))</f>
-        <v>10087</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="56" t="n">
-        <f aca="false">F8+F10</f>
-        <v>1412450</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="62" t="n">
-        <v>164925</v>
-      </c>
-      <c r="C12" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$8&gt;B11,MIN((B12-B11),($F$8-B11))*A12, 0))</f>
-        <v>18258</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="65" t="n">
-        <f aca="false">SUM(C9:C15)+SUM(C19:C21)+SUM(C25:C26)</f>
-        <v>300729.6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="62" t="n">
-        <v>209425</v>
-      </c>
-      <c r="C13" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$8&gt;B12,MIN((B13-B12),($F$8-B12))*A13, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="66" t="n">
-        <f aca="false">F12/(F7+F9+F10)</f>
-        <v>0.211038315789474</v>
-      </c>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="62" t="n">
-        <v>523600</v>
-      </c>
-      <c r="C14" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$8&gt;B13,MIN((B14-B13),($F$8-B13))*A14, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="64"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63" t="n">
-        <f aca="false">MAX(0,IF($F$8&gt;B14,($F$8-B14)*A15, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="64"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>33</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="56" t="n">
+      <c r="F18" s="62"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="74" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68" t="n">
+      <c r="B19" s="68" t="n">
+        <v>40400</v>
+      </c>
+      <c r="C19" s="63" t="n">
+        <f aca="false">IF(F$10&lt;=B19, F$9*A19, 0)</f>
         <v>0</v>
       </c>
-      <c r="B19" s="62" t="n">
-        <v>40400</v>
-      </c>
-      <c r="C19" s="57" t="n">
-        <f aca="false">IF(F$11&lt;=B19, F$10*A19, 0)</f>
+      <c r="E19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="62" t="n">
+        <f aca="false">F7+F8+F9+F18</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="74" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B20" s="69" t="n">
+        <v>445850</v>
+      </c>
+      <c r="C20" s="63" t="n">
+        <f aca="false">IF(F$10&gt;B19,IF(F$10&lt;=B20, F$9*A20, 0),0)</f>
         <v>0</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="56" t="n">
-        <f aca="false">F7+F9+F10+F18</f>
-        <v>1425000</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B20" s="63" t="n">
-        <v>445850</v>
-      </c>
-      <c r="C20" s="57" t="n">
-        <f aca="false">MAX(0,IF(F$11&gt;B19,MIN((B20-B19),(F$10-B19))*A20, 0))</f>
-        <v>60817.5</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="56" t="n">
+      <c r="F20" s="62" t="n">
         <f aca="false">MIN(B3,MAX(0,B5*(F19-B4)))</f>
-        <v>73600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="69" t="n">
+      <c r="A21" s="75" t="n">
         <v>0.2</v>
       </c>
-      <c r="C21" s="57" t="n">
-        <f aca="false">MAX(0,IF(F$11&gt;B20,(F$10-B20)*A21, 0))</f>
-        <v>160830</v>
-      </c>
-      <c r="E21" s="64" t="s">
+      <c r="C21" s="63" t="n">
+        <f aca="false">IF(F$10&gt;B20,(F$9)*A21, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="56" t="n">
+      <c r="F21" s="62" t="n">
         <f aca="false">F19-B3+F20</f>
-        <v>1425000</v>
+        <v>91400</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="64" t="s">
+      <c r="E22" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="65" t="n">
+      <c r="F22" s="71" t="n">
         <f aca="false">C30+C31</f>
-        <v>395002</v>
+        <v>23764</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="E23" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="66" t="n">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="E23" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="72" t="n">
         <f aca="false">F22/F19</f>
-        <v>0.277194385964912</v>
+        <v>0.144024242424242</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="B24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="70"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="70" t="n">
+      <c r="A25" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="B25" s="62" t="n">
+      <c r="B25" s="68" t="n">
         <v>200000</v>
       </c>
-      <c r="C25" s="57" t="n">
-        <f aca="false">IF(F$7&lt;=B25, F$10*A25, 0)</f>
+      <c r="C25" s="63" t="n">
+        <f aca="false">IF(F$7&lt;=B25, F$9*A25, 0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="56" t="n">
-        <f aca="false">IF(F12&gt;F22,(F12-F22)/A30,0)</f>
+      <c r="F25" s="62" t="n">
+        <f aca="false">IF(F11&gt;F22,(F11-F22)/A30,0)</f>
+        <v>26326.9230769231</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="76" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="C26" s="63" t="n">
+        <f aca="false">MAX(0,IF(F$10&gt;B25,(F$10-B25)*A26, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="70" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="C26" s="57" t="n">
-        <f aca="false">MAX(0,IF(F$11&gt;B25,(F$11-B25)*A26, 0))</f>
-        <v>46073.1</v>
-      </c>
-    </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="E28" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="77"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="60" t="s">
+      <c r="A29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="66" t="s">
         <v>33</v>
       </c>
+      <c r="C29" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="78" t="n">
+        <f aca="false">F25/ISO!K1</f>
+        <v>32908.6538461539</v>
+      </c>
+      <c r="F29" s="78"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="62" t="n">
+      <c r="A30" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="68" t="n">
         <v>199900</v>
       </c>
-      <c r="C30" s="57" t="n">
+      <c r="C30" s="63" t="n">
         <f aca="false">MIN(B30,F21)*A30</f>
-        <v>51974</v>
+        <v>23764</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="57" t="n">
+      <c r="A31" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="63" t="n">
         <f aca="false">MAX(0,IF(F$21&gt;B30,(F$21-B30)*A31, 0))</f>
-        <v>343028</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2100,14 +2175,14 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.73"/>
@@ -2118,37 +2193,37 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="56" t="n">
+        <v>26</v>
+      </c>
+      <c r="B1" s="62" t="n">
         <v>12550</v>
       </c>
-      <c r="C1" s="71"/>
+      <c r="C1" s="79"/>
       <c r="D1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="56" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1" s="62" t="n">
         <f aca="false">B8-B1+E2</f>
         <v>237450</v>
       </c>
-      <c r="F1" s="72"/>
+      <c r="F1" s="80"/>
       <c r="I1" s="73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="73" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="73" t="s">
         <v>52</v>
@@ -2156,318 +2231,312 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>73600</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="72"/>
-      <c r="I2" s="56" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="80"/>
+      <c r="I2" s="62" t="n">
         <f aca="false">MAX(0,E1-B18)*A19+MIN(B18-B17,MAX(0,E1-B17))*A18+MIN(B17-B16,MAX(0,E1-B16))*A17+MIN(B16-B15,MAX(0,E1-B15))*A16+MIN(B15-B14,MAX(0,E1-B14))*A15+MIN(B14-B13,MAX(0,E1-B13))*A14+MIN(B13,MAX(0,E1))*A13+MAX(0,IF(E4&gt;E13,(E4-E13)*D14, 0))+MAX(0,IF(E4&gt;B23,MIN((B24-B23),(E3-B23))*A24, 0))+MAX(0,IF(E4&gt;B24,(E3-B24)*A25, 0))</f>
         <v>59074.85</v>
       </c>
-      <c r="J2" s="66" t="n">
+      <c r="J2" s="72" t="n">
         <f aca="false">I2/(E4)</f>
         <v>0.248788587070962</v>
       </c>
-      <c r="K2" s="56" t="n">
+      <c r="K2" s="62" t="n">
         <f aca="false">MIN(E18,E8)*D18+MAX(0,IF(E8&gt;E18,(E8-E18)*D19, 0))</f>
         <v>45864</v>
       </c>
-      <c r="L2" s="66" t="n">
+      <c r="L2" s="72" t="n">
         <f aca="false">K2/(E6)</f>
         <v>0.183456</v>
       </c>
-      <c r="M2" s="56" t="n">
+      <c r="M2" s="62" t="n">
         <f aca="false">MAX(0,(I2-K2))/((D18+D19)/2)</f>
         <v>48929.0740740741</v>
       </c>
-      <c r="N2" s="56" t="n">
+      <c r="N2" s="62" t="n">
         <f aca="false">MAX(0,(K2-I2))/0.35</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>523600</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="74"/>
+        <v>37</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="58" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" s="64" t="n">
         <v>0.25</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="56" t="n">
+        <v>56</v>
+      </c>
+      <c r="E4" s="62" t="n">
         <f aca="false">E1+E3</f>
         <v>237450</v>
       </c>
-      <c r="F4" s="74"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="75" t="n">
+        <v>57</v>
+      </c>
+      <c r="B5" s="82" t="n">
         <v>44378</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="56" t="n">
+      <c r="E5" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="56" t="n">
+        <v>59</v>
+      </c>
+      <c r="E6" s="62" t="n">
         <f aca="false">B8+E2+E3+E5</f>
         <v>250000</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="I6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="F6" s="80"/>
+      <c r="I6" s="63"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="75" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" s="82" t="n">
         <f aca="false">B5+B6</f>
         <v>44558</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="56" t="n">
+        <v>61</v>
+      </c>
+      <c r="E7" s="62" t="n">
         <f aca="false">MIN(B2,MAX(0,B4*(E6-B3)))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="I7" s="56"/>
+      <c r="F7" s="80"/>
+      <c r="I7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="76" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8" s="83" t="n">
         <v>250000</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="56" t="n">
+      <c r="E8" s="62" t="n">
         <f aca="false">E6-B2+E7</f>
         <v>176400</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="I8" s="56"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
+      <c r="F8" s="80"/>
+      <c r="I8" s="62"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59" t="s">
+      <c r="A11" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="60" t="s">
+      <c r="B12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="E12" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="62" t="n">
+      <c r="A13" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="68" t="n">
         <v>9950</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81" t="n">
+      <c r="C13" s="86"/>
+      <c r="D13" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="62" t="n">
+      <c r="E13" s="68" t="n">
         <v>200000</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="62" t="n">
+      <c r="A14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="68" t="n">
         <v>40525</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81" t="n">
+      <c r="C14" s="86"/>
+      <c r="D14" s="87" t="n">
         <v>0.038</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="62" t="n">
+      <c r="A15" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="68" t="n">
         <v>86375</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="86"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="62" t="n">
+      <c r="A16" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="68" t="n">
         <v>164925</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="62" t="n">
+      <c r="B17" s="68" t="n">
         <v>209425</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="60" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="57"/>
+      <c r="E17" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="72"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="62" t="n">
+      <c r="B18" s="68" t="n">
         <v>523600</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="62" t="n">
+      <c r="C18" s="86"/>
+      <c r="D18" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="68" t="n">
         <v>199900</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="63"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="69"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="F22" s="56"/>
+      <c r="B22" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="83" t="n">
+      <c r="A23" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="B23" s="62" t="n">
+      <c r="B23" s="68" t="n">
         <v>40400</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="63"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="83" t="n">
+      <c r="A24" s="89" t="n">
         <v>0.15</v>
       </c>
-      <c r="B24" s="63" t="n">
+      <c r="B24" s="69" t="n">
         <v>445850</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="63"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="84" t="n">
+      <c r="A25" s="90" t="n">
         <v>0.2</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="63"/>
+      <c r="F25" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2494,30 +2563,30 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="85" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="85" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="86" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="85" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="85" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="85" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="85" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="85" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="85" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="85" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="85" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="85" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="85" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="85" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="85" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="85" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="85" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="85" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="91" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="91" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="91" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="92" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="91" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="91" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="91" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="91" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="91" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="91" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="91" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="91" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="91" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="91" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="91" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="91" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="91" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="91" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="91" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,903 +2614,903 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="8"/>
+      <c r="U1" s="9"/>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="87" t="n">
+      <c r="D4" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="88" t="n">
+      <c r="F4" s="95" t="n">
         <f aca="false">DATEDIF(A4,C18,"Y")</f>
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="15" t="n">
         <f aca="false">C4*0.25+C4*G4/48</f>
         <v>30000</v>
       </c>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="J4" s="89" t="n">
+      <c r="J4" s="96" t="n">
         <f aca="false">H4/C4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="10" t="n">
         <f aca="false">DATE(YEAR(A4)+4, MONTH(A4), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="9" t="n">
+      <c r="L4" s="17"/>
+      <c r="M4" s="10" t="n">
         <v>42457</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="10" t="n">
         <v>44001</v>
       </c>
-      <c r="O4" s="10" t="n">
+      <c r="O4" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12" t="n">
         <v>30000</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="18" t="n">
         <f aca="false">P4*O4</f>
         <v>33</v>
       </c>
-      <c r="R4" s="18" t="n">
+      <c r="R4" s="19" t="n">
         <f aca="false">P4*M$1</f>
         <v>75000</v>
       </c>
-      <c r="S4" s="9" t="n">
+      <c r="S4" s="10" t="n">
         <f aca="false">DATE(YEAR(N4)+1,MONTH(N4),DAY(N4))</f>
         <v>44366</v>
       </c>
-      <c r="T4" s="19" t="n">
+      <c r="T4" s="20" t="n">
         <f aca="false">IF($C$18&gt;S4, R4*0.15, R4*0.35)</f>
         <v>26250</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="87" t="n">
+      <c r="D5" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="13" t="n">
+      <c r="F5" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="14" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>18</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="15" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*G5/36</f>
         <v>83375.325</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="23" t="n">
         <v>83375</v>
       </c>
-      <c r="J5" s="89" t="n">
+      <c r="J5" s="96" t="n">
         <f aca="false">H5/C5</f>
         <v>0.675</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="10" t="n">
         <f aca="false">DATE(YEAR(A5)+3, MONTH(A5), DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="9" t="n">
+      <c r="L5" s="24"/>
+      <c r="M5" s="10" t="n">
         <v>43447</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="N5" s="10" t="n">
         <v>44001</v>
       </c>
-      <c r="O5" s="10" t="n">
+      <c r="O5" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P5" s="20" t="n">
+      <c r="P5" s="23" t="n">
         <v>83375</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="18" t="n">
         <f aca="false">O5*P5</f>
         <v>91.7125</v>
       </c>
-      <c r="R5" s="18" t="n">
+      <c r="R5" s="19" t="n">
         <f aca="false">P5*M$1</f>
         <v>208437.5</v>
       </c>
-      <c r="S5" s="9" t="n">
+      <c r="S5" s="10" t="n">
         <f aca="false">DATE(YEAR(N5)+1,MONTH(N5),DAY(N5))</f>
         <v>44366</v>
       </c>
-      <c r="T5" s="19" t="n">
+      <c r="T5" s="20" t="n">
         <f aca="false">IF($C$18&gt;S5, R5*0.15, R5*0.35)</f>
         <v>72953.125</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="10" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="87" t="n">
+      <c r="D6" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="88" t="n">
+      <c r="F6" s="95" t="n">
         <f aca="false">DATEDIF(A6,C18,"Y")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="15" t="n">
         <f aca="false">C6*0.25+C6*G6/48</f>
         <v>10394.5833333333</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="23" t="n">
         <v>10394</v>
       </c>
-      <c r="J6" s="89" t="n">
+      <c r="J6" s="96" t="n">
         <f aca="false">H6/C6</f>
         <v>0.270833333333333</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="10" t="n">
         <f aca="false">DATE(YEAR(A6)+4, MONTH(A6), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22" t="n">
+      <c r="L6" s="24"/>
+      <c r="M6" s="25" t="n">
         <v>43602</v>
       </c>
-      <c r="N6" s="22" t="n">
+      <c r="N6" s="25" t="n">
         <v>44001</v>
       </c>
-      <c r="O6" s="23" t="n">
+      <c r="O6" s="26" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P6" s="24" t="n">
+      <c r="P6" s="27" t="n">
         <v>10394</v>
       </c>
-      <c r="Q6" s="25" t="n">
+      <c r="Q6" s="28" t="n">
         <f aca="false">O6*P6</f>
         <v>11.4334</v>
       </c>
-      <c r="R6" s="26" t="n">
+      <c r="R6" s="29" t="n">
         <f aca="false">P6*M$1</f>
         <v>25985</v>
       </c>
-      <c r="S6" s="22" t="n">
+      <c r="S6" s="25" t="n">
         <f aca="false">DATE(YEAR(N6)+1,MONTH(N6),DAY(N6))</f>
         <v>44366</v>
       </c>
-      <c r="T6" s="27" t="n">
+      <c r="T6" s="30" t="n">
         <f aca="false">IF($C$18&gt;S6, R6*0.15, R6*0.35)</f>
         <v>9094.75</v>
       </c>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="87" t="n">
+      <c r="D7" s="93" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="88" t="n">
+      <c r="F7" s="95" t="n">
         <f aca="false">DATEDIF(A7,C18,"Y")</f>
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="14" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C18,"M")-12))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="15" t="n">
         <f aca="false">C7*IF(F7&gt;=1,0.25,0)+C7*G7/48</f>
         <v>0</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="89" t="n">
+      <c r="J7" s="96" t="n">
         <f aca="false">H7/C7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="10" t="n">
         <f aca="false">DATE(YEAR(A7)+4, MONTH(A7), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="9" t="n">
+      <c r="L7" s="17"/>
+      <c r="M7" s="10" t="n">
         <v>43447</v>
       </c>
-      <c r="N7" s="28" t="n">
+      <c r="N7" s="33" t="n">
         <v>47848</v>
       </c>
-      <c r="O7" s="10" t="n">
+      <c r="O7" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P7" s="11" t="n">
+      <c r="P7" s="12" t="n">
         <f aca="false">H5-I5</f>
         <v>0.325000000011642</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="18" t="n">
         <f aca="false">O7*P7</f>
         <v>0.000357500000012806</v>
       </c>
-      <c r="R7" s="18" t="n">
+      <c r="R7" s="19" t="n">
         <f aca="false">P7*M$1</f>
         <v>0.812500000029104</v>
       </c>
-      <c r="S7" s="9" t="n">
+      <c r="S7" s="10" t="n">
         <f aca="false">DATE(YEAR(N7)+1,MONTH(N7),DAY(N7))</f>
         <v>48213</v>
       </c>
-      <c r="T7" s="19" t="n">
+      <c r="T7" s="20" t="n">
         <f aca="false">IF($C$18&gt;S7, R7*0.15, R7*0.35)</f>
         <v>0.284375000010186</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="9" t="n">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="10" t="n">
         <v>43602</v>
       </c>
-      <c r="N8" s="28" t="n">
+      <c r="N8" s="33" t="n">
         <v>47848</v>
       </c>
-      <c r="O8" s="10" t="n">
+      <c r="O8" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P8" s="11" t="n">
+      <c r="P8" s="12" t="n">
         <f aca="false">H6-I6</f>
         <v>0.58333333333394</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="18" t="n">
         <f aca="false">O8*P8</f>
         <v>0.000641666666667334</v>
       </c>
-      <c r="R8" s="18" t="n">
+      <c r="R8" s="19" t="n">
         <f aca="false">P8*M$1</f>
         <v>1.45833333333485</v>
       </c>
-      <c r="S8" s="9" t="n">
+      <c r="S8" s="10" t="n">
         <f aca="false">DATE(YEAR(N8)+1,MONTH(N8),DAY(N8))</f>
         <v>48213</v>
       </c>
-      <c r="T8" s="19" t="n">
+      <c r="T8" s="20" t="n">
         <f aca="false">IF($C$18&gt;S8, R8*0.15, R8*0.35)</f>
         <v>0.510416666667197</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="9" t="n">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="10" t="n">
         <v>43769</v>
       </c>
-      <c r="N9" s="28" t="n">
+      <c r="N9" s="33" t="n">
         <v>47848</v>
       </c>
-      <c r="O9" s="10" t="n">
+      <c r="O9" s="11" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="12" t="n">
         <f aca="false">H7-I7</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="18" t="n">
         <f aca="false">O9*P9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="18" t="n">
+      <c r="R9" s="19" t="n">
         <f aca="false">P9*M$1</f>
         <v>0</v>
       </c>
-      <c r="S9" s="9" t="n">
+      <c r="S9" s="10" t="n">
         <f aca="false">DATE(YEAR(N9)+1,MONTH(N9),DAY(N9))</f>
         <v>48213</v>
       </c>
-      <c r="T9" s="19" t="n">
+      <c r="T9" s="20" t="n">
         <f aca="false">IF($C$18&gt;S9, R9*0.15, R9*0.35)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-    </row>
-    <row r="16" s="94" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="str">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+    </row>
+    <row r="16" s="101" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="n">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42" t="n">
         <f aca="false">SUM(C4:C7)</f>
         <v>330864</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39" t="n">
+      <c r="D16" s="100"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44" t="n">
         <f aca="false">SUM(H4:H8)</f>
         <v>123769.908333333</v>
       </c>
-      <c r="I16" s="37" t="n">
+      <c r="I16" s="42" t="n">
         <f aca="false">SUM(I4:I8)</f>
         <v>123769</v>
       </c>
-      <c r="J16" s="40" t="n">
+      <c r="J16" s="46" t="n">
         <f aca="false">H16/C16</f>
         <v>0.374080916428905</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43" t="n">
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49" t="n">
         <f aca="false">SUM(R4:R8)</f>
         <v>309424.770833333</v>
       </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="50" t="n">
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+    </row>
+    <row r="17" s="104" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="56" t="n">
         <f aca="false">SUM(T4:T9)</f>
         <v>108298.669791667</v>
       </c>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="51" t="n">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="57" t="n">
         <v>44001</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53" t="n">
+      <c r="D18" s="57"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59" t="n">
         <f aca="false">R16-R17</f>
         <v>201126.101041667</v>
       </c>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="55" t="n">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61" t="n">
         <f aca="false">(C16-H16)*M1*0.65</f>
         <v>336527.898958333</v>
       </c>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1054,7 +1054,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="3" t="n">
         <f aca="false">N1*Q1</f>
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1064,8 +1064,8 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="4" t="n">
-        <f aca="false">0.08</f>
-        <v>0.08</v>
+        <f aca="false">0.092</f>
+        <v>0.092</v>
       </c>
       <c r="R1" s="4"/>
     </row>
@@ -1172,7 +1172,7 @@
         <v>30000</v>
       </c>
       <c r="H4" s="16" t="n">
-        <f aca="false">IF(F4=C4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4/48, 0))</f>
+        <f aca="false">IF(F4=C4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4*0.75/48, 0))</f>
         <v>0</v>
       </c>
       <c r="I4" s="10" t="n">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="P4" s="19" t="n">
         <f aca="false">N4*K$1</f>
-        <v>24000</v>
+        <v>27600</v>
       </c>
       <c r="Q4" s="10" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="R4" s="20" t="n">
         <f aca="false">IF($C$18&gt;Q4, P4*0.15, P4*0.35)</f>
-        <v>8400</v>
+        <v>4140</v>
       </c>
       <c r="T4" s="21" t="n">
         <v>0.000276</v>
@@ -1231,18 +1231,18 @@
       </c>
       <c r="E5" s="14" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" s="15" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*MIN(36,E5)/36</f>
-        <v>105677.366666667</v>
+        <v>119058.591666667</v>
       </c>
       <c r="G5" s="23" t="n">
         <v>83375</v>
       </c>
       <c r="H5" s="16" t="n">
-        <f aca="false">IF(F5=C5, 0, C5/36)</f>
-        <v>3431.08333333333</v>
+        <f aca="false">IF(F5=C5, 0, C5*0.65/36)</f>
+        <v>2230.20416666667</v>
       </c>
       <c r="I5" s="10" t="n">
         <f aca="false">DATE(YEAR(A5), MONTH(A5)+36, DAY(A5))</f>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="P5" s="19" t="n">
         <f aca="false">N5*K$1</f>
-        <v>66700</v>
+        <v>76705</v>
       </c>
       <c r="Q5" s="10" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="R5" s="20" t="n">
         <f aca="false">IF($C$18&gt;Q5, P5*0.15, P5*0.35)</f>
-        <v>23345</v>
+        <v>11505.75</v>
       </c>
       <c r="T5" s="21" t="n">
         <v>0.000766</v>
@@ -1300,18 +1300,18 @@
       </c>
       <c r="E6" s="14" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$18,"M")-12))</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="15" t="n">
         <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
-        <v>18390.4166666667</v>
+        <v>23187.9166666667</v>
       </c>
       <c r="G6" s="23" t="n">
         <v>10394</v>
       </c>
       <c r="H6" s="16" t="n">
-        <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6/48, 0))</f>
-        <v>799.583333333333</v>
+        <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6*0.75/48, 0))</f>
+        <v>599.6875</v>
       </c>
       <c r="I6" s="10" t="n">
         <f aca="false">DATE(YEAR(A6)+1, MONTH(A6)+(48*0.75), DAY(A6))</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="P6" s="29" t="n">
         <f aca="false">N6*K$1</f>
-        <v>8315.2</v>
+        <v>9562.48</v>
       </c>
       <c r="Q6" s="25" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="R6" s="30" t="n">
         <f aca="false">IF($C$18&gt;Q6, P6*0.15, P6*0.35)</f>
-        <v>2910.32</v>
+        <v>1434.372</v>
       </c>
       <c r="T6" s="21" t="n">
         <v>9.6E-005</v>
@@ -1369,18 +1369,18 @@
       </c>
       <c r="E7" s="14" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$18,"M")-12))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" s="15" t="n">
         <f aca="false">0.25*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
-        <v>52111.875</v>
+        <v>66587.3958333333</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>32400</v>
       </c>
       <c r="H7" s="16" t="n">
-        <f aca="false">IF(F7=C7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7/48, 0))</f>
-        <v>2895.10416666667</v>
+        <f aca="false">IF(F7=C7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7*0.75/48, 0))</f>
+        <v>2171.328125</v>
       </c>
       <c r="I7" s="10" t="n">
         <f aca="false">DATE(YEAR(A7)+1, MONTH(A7)+(48*0.75), DAY(A7))</f>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="16" t="n">
-        <f aca="false">IF(F8=C8, 0, IF($C$18 &gt;= DATE(2022,1,1), C8/36, 0))</f>
+        <f aca="false">IF(F8=C8, 0, IF($C$18 &gt;= L9, C8*0.5/36, 0))</f>
         <v>0</v>
       </c>
       <c r="I8" s="10" t="n">
@@ -1439,8 +1439,8 @@
         <v>35.64</v>
       </c>
       <c r="P8" s="19" t="n">
-        <f aca="false">N8*K1</f>
-        <v>25920</v>
+        <f aca="false">N8*$K$1</f>
+        <v>29808</v>
       </c>
       <c r="Q8" s="31" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="R8" s="20" t="n">
         <f aca="false">IF($C$18&gt;Q8, P8*0.15, P8*0.35)</f>
-        <v>9072</v>
+        <v>10432.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,14 +1462,34 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="20"/>
+      <c r="K9" s="10" t="n">
+        <v>44263</v>
+      </c>
+      <c r="L9" s="33" t="n">
+        <v>44642</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>165000</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <f aca="false">M9*N9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="19" t="n">
+        <f aca="false">N9*$K$1</f>
+        <v>151800</v>
+      </c>
+      <c r="Q9" s="31" t="n">
+        <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
+        <v>45007</v>
+      </c>
+      <c r="R9" s="20" t="n">
+        <f aca="false">IF($C$18&gt;Q9, P9*0.15, P9*0.35)</f>
+        <v>53130</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35"/>
@@ -1605,7 +1625,7 @@
       <c r="E16" s="43"/>
       <c r="F16" s="44" t="n">
         <f aca="false">SUM(F4:F14)</f>
-        <v>206179.658333333</v>
+        <v>238833.904166667</v>
       </c>
       <c r="G16" s="42" t="n">
         <f aca="false">SUM(G4:G14)</f>
@@ -1613,7 +1633,7 @@
       </c>
       <c r="H16" s="45" t="n">
         <f aca="false">SUM(H4:H8)*K1</f>
-        <v>5700.61666666667</v>
+        <v>4601.12220833333</v>
       </c>
       <c r="I16" s="46"/>
       <c r="J16" s="47"/>
@@ -1626,7 +1646,7 @@
       <c r="O16" s="48"/>
       <c r="P16" s="49" t="n">
         <f aca="false">SUM(P4:P10)</f>
-        <v>124935.2</v>
+        <v>295475.48</v>
       </c>
       <c r="Q16" s="49"/>
       <c r="R16" s="49"/>
@@ -1638,17 +1658,17 @@
       <c r="B17" s="51"/>
       <c r="C17" s="52" t="n">
         <f aca="false">SUM(H4:H14)</f>
-        <v>7125.77083333333</v>
+        <v>5001.21979166667</v>
       </c>
       <c r="D17" s="52"/>
       <c r="E17" s="53"/>
       <c r="F17" s="54" t="n">
         <f aca="false">F16/C16</f>
-        <v>0.311985004983375</v>
+        <v>0.361396450959148</v>
       </c>
       <c r="G17" s="54" t="n">
         <f aca="false">G16/F16</f>
-        <v>0.757441356060061</v>
+        <v>0.653881200597968</v>
       </c>
       <c r="H17" s="53"/>
       <c r="I17" s="53"/>
@@ -1662,7 +1682,7 @@
       <c r="O17" s="48"/>
       <c r="P17" s="56" t="n">
         <f aca="false">SUM(R4:R10)</f>
-        <v>43727.32</v>
+        <v>80642.922</v>
       </c>
       <c r="Q17" s="56"/>
       <c r="R17" s="56"/>
@@ -1674,7 +1694,7 @@
       </c>
       <c r="C18" s="57" t="n">
         <f aca="true">TODAY()</f>
-        <v>44326</v>
+        <v>44496</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="14"/>
@@ -1692,7 +1712,7 @@
       <c r="O18" s="58"/>
       <c r="P18" s="59" t="n">
         <f aca="false">P16-P17</f>
-        <v>81207.88</v>
+        <v>214832.558</v>
       </c>
       <c r="Q18" s="59"/>
       <c r="R18" s="59"/>
@@ -1717,7 +1737,7 @@
       <c r="O19" s="60"/>
       <c r="P19" s="61" t="n">
         <f aca="false">(C16-G16)*K1*0.65</f>
-        <v>262441.4</v>
+        <v>301807.61</v>
       </c>
       <c r="Q19" s="61"/>
       <c r="R19" s="61"/>
@@ -2123,7 +2143,7 @@
       </c>
       <c r="E29" s="78" t="n">
         <f aca="false">F25/ISO!K1</f>
-        <v>32908.6538461539</v>
+        <v>28616.220735786</v>
       </c>
       <c r="F29" s="78"/>
     </row>

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="116">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -215,6 +215,12 @@
     <t xml:space="preserve">Invest Tax</t>
   </si>
   <si>
+    <t xml:space="preserve">Options Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~16,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">37%</t>
   </si>
   <si>
@@ -230,121 +236,121 @@
     <t xml:space="preserve">AMTI</t>
   </si>
   <si>
+    <t xml:space="preserve">Phased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDICARE SURTAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shares to exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURCHASES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANT DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VESTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># VESTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># OWNED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXERCISED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-T DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25% @ 1yr -&gt; 1/48/mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35% now -&gt; 1/36/mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% @ open, 1/36/mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNREALIZED GAINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vesting/Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIMATED TAX OWED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEAWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNEXERCISED VALUE (65%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST Gains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPO Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock Out Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMT Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phased Out</t>
+  </si>
+  <si>
     <t xml:space="preserve">Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICARE SURTAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAMTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shares to exercise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURCHASES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANT DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VESTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># VESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># OWNED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PER MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXERCISED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-T DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25% @ 1yr -&gt; 1/48/mo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35% now -&gt; 1/36/mo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% @ open, 1/36/mo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNREALIZED GAINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vesting/Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIMATED TAX OWED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAKEAWAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNEXERCISED VALUE (65%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST Gains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPO Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock Out Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMT Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phased Out</t>
   </si>
   <si>
     <t xml:space="preserve">LONG-TERM CAPITAL</t>
@@ -782,7 +788,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -835,46 +841,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1007,10 +1013,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1033,10 +1035,6 @@
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1534,7 +1532,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1716,12 +1714,12 @@
       <c r="E7" s="11" t="n">
         <v>45361</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="10"/>
@@ -1730,43 +1728,43 @@
       <c r="C9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="14" t="n">
         <f aca="false">SUM(B4:B7)</f>
         <v>540</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <f aca="false">SUM(C4:C7)</f>
         <v>4320</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="16" t="n">
         <f aca="false">C10*12</f>
         <v>51840</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="18" t="n">
         <f aca="true">TODAY()</f>
-        <v>44523</v>
+        <v>44533</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1789,7 +1787,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
@@ -1800,24 +1798,24 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="21" t="n">
+      <c r="G16" s="20" t="n">
         <v>14241</v>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="H16" s="21" t="n">
         <f aca="false">G16*$A$1</f>
         <v>113928</v>
       </c>
-      <c r="I16" s="22" t="n">
+      <c r="I16" s="21" t="n">
         <f aca="false">H16*0.15</f>
         <v>17089.2</v>
       </c>
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="21" t="n">
         <f aca="false">H16-I16</f>
         <v>96838.8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="23"/>
@@ -1825,18 +1823,18 @@
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="21" t="n">
+      <c r="G17" s="20" t="n">
         <v>15048</v>
       </c>
-      <c r="H17" s="22" t="n">
+      <c r="H17" s="21" t="n">
         <f aca="false">G17*$A$1</f>
         <v>120384</v>
       </c>
-      <c r="I17" s="22" t="n">
+      <c r="I17" s="21" t="n">
         <f aca="false">H17*0.35</f>
         <v>42134.4</v>
       </c>
-      <c r="J17" s="22" t="n">
+      <c r="J17" s="21" t="n">
         <f aca="false">H17-I17</f>
         <v>78249.6</v>
       </c>
@@ -1850,18 +1848,18 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="21" t="n">
+      <c r="G18" s="20" t="n">
         <v>1880</v>
       </c>
-      <c r="H18" s="22" t="n">
+      <c r="H18" s="21" t="n">
         <f aca="false">G18*$A$1</f>
         <v>15040</v>
       </c>
-      <c r="I18" s="22" t="n">
+      <c r="I18" s="21" t="n">
         <f aca="false">H18*0.35</f>
         <v>5264</v>
       </c>
-      <c r="J18" s="22" t="n">
+      <c r="J18" s="21" t="n">
         <f aca="false">H18-I18</f>
         <v>9776</v>
       </c>
@@ -1875,18 +1873,18 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="20" t="n">
         <v>1881</v>
       </c>
-      <c r="H19" s="22" t="n">
+      <c r="H19" s="21" t="n">
         <f aca="false">G19*$A$1</f>
         <v>15048</v>
       </c>
-      <c r="I19" s="22" t="n">
+      <c r="I19" s="21" t="n">
         <f aca="false">H19*0.35</f>
         <v>5266.8</v>
       </c>
-      <c r="J19" s="22" t="n">
+      <c r="J19" s="21" t="n">
         <f aca="false">H19-I19</f>
         <v>9781.2</v>
       </c>
@@ -1900,18 +1898,18 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="20" t="n">
         <v>1881</v>
       </c>
-      <c r="H20" s="22" t="n">
+      <c r="H20" s="21" t="n">
         <f aca="false">G20*$A$1</f>
         <v>15048</v>
       </c>
-      <c r="I20" s="22" t="n">
+      <c r="I20" s="21" t="n">
         <f aca="false">H20*0.35</f>
         <v>5266.8</v>
       </c>
-      <c r="J20" s="22" t="n">
+      <c r="J20" s="21" t="n">
         <f aca="false">H20-I20</f>
         <v>9781.2</v>
       </c>
@@ -1923,10 +1921,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
@@ -1937,10 +1935,10 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
@@ -1951,18 +1949,18 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="20" t="n">
         <v>4000</v>
       </c>
-      <c r="H23" s="22" t="n">
+      <c r="H23" s="21" t="n">
         <f aca="false">G23*$A$1</f>
         <v>32000</v>
       </c>
-      <c r="I23" s="22" t="n">
+      <c r="I23" s="21" t="n">
         <f aca="false">H23*0.15</f>
         <v>4800</v>
       </c>
-      <c r="J23" s="22" t="n">
+      <c r="J23" s="21" t="n">
         <f aca="false">H23-I23</f>
         <v>27200</v>
       </c>
@@ -1976,18 +1974,18 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="20" t="n">
         <v>1881</v>
       </c>
-      <c r="H24" s="22" t="n">
+      <c r="H24" s="21" t="n">
         <f aca="false">G24*$A$1</f>
         <v>15048</v>
       </c>
-      <c r="I24" s="22" t="n">
+      <c r="I24" s="21" t="n">
         <f aca="false">H24*0.35</f>
         <v>5266.8</v>
       </c>
-      <c r="J24" s="22" t="n">
+      <c r="J24" s="21" t="n">
         <f aca="false">H24-I24</f>
         <v>9781.2</v>
       </c>
@@ -2001,18 +1999,18 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="20" t="n">
         <v>1881</v>
       </c>
-      <c r="H25" s="22" t="n">
+      <c r="H25" s="21" t="n">
         <f aca="false">G25*$A$1</f>
         <v>15048</v>
       </c>
-      <c r="I25" s="22" t="n">
+      <c r="I25" s="21" t="n">
         <f aca="false">H25*0.35</f>
         <v>5266.8</v>
       </c>
-      <c r="J25" s="22" t="n">
+      <c r="J25" s="21" t="n">
         <f aca="false">H25-I25</f>
         <v>9781.2</v>
       </c>
@@ -2026,18 +2024,18 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="20" t="n">
         <v>1881</v>
       </c>
-      <c r="H26" s="22" t="n">
+      <c r="H26" s="21" t="n">
         <f aca="false">G26*$A$1</f>
         <v>15048</v>
       </c>
-      <c r="I26" s="22" t="n">
+      <c r="I26" s="21" t="n">
         <f aca="false">H26*0.35</f>
         <v>5266.8</v>
       </c>
-      <c r="J26" s="22" t="n">
+      <c r="J26" s="21" t="n">
         <f aca="false">H26-I26</f>
         <v>9781.2</v>
       </c>
@@ -2051,18 +2049,18 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="20" t="n">
         <v>1881</v>
       </c>
-      <c r="H27" s="22" t="n">
+      <c r="H27" s="21" t="n">
         <f aca="false">G27*$A$1</f>
         <v>15048</v>
       </c>
-      <c r="I27" s="22" t="n">
+      <c r="I27" s="21" t="n">
         <f aca="false">H27*0.35</f>
         <v>5266.8</v>
       </c>
-      <c r="J27" s="22" t="n">
+      <c r="J27" s="21" t="n">
         <f aca="false">H27-I27</f>
         <v>9781.2</v>
       </c>
@@ -2074,10 +2072,10 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
@@ -2088,10 +2086,10 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
@@ -2102,18 +2100,18 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="21" t="n">
+      <c r="G30" s="20" t="n">
         <v>3000</v>
       </c>
-      <c r="H30" s="22" t="n">
+      <c r="H30" s="21" t="n">
         <f aca="false">G30*$A$1</f>
         <v>24000</v>
       </c>
-      <c r="I30" s="22" t="n">
+      <c r="I30" s="21" t="n">
         <f aca="false">H30*0.15</f>
         <v>3600</v>
       </c>
-      <c r="J30" s="22" t="n">
+      <c r="J30" s="21" t="n">
         <f aca="false">H30-I30</f>
         <v>20400</v>
       </c>
@@ -2127,18 +2125,18 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="20" t="n">
         <v>1881</v>
       </c>
-      <c r="H31" s="22" t="n">
+      <c r="H31" s="21" t="n">
         <f aca="false">G31*$A$1</f>
         <v>15048</v>
       </c>
-      <c r="I31" s="22" t="n">
+      <c r="I31" s="21" t="n">
         <f aca="false">H31*0.35</f>
         <v>5266.8</v>
       </c>
-      <c r="J31" s="22" t="n">
+      <c r="J31" s="21" t="n">
         <f aca="false">H31-I31</f>
         <v>9781.2</v>
       </c>
@@ -2152,10 +2150,10 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
@@ -2166,18 +2164,18 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="21" t="n">
+      <c r="G34" s="20" t="n">
         <v>1500</v>
       </c>
-      <c r="H34" s="22" t="n">
+      <c r="H34" s="21" t="n">
         <f aca="false">G34*$A$1</f>
         <v>12000</v>
       </c>
-      <c r="I34" s="22" t="n">
+      <c r="I34" s="21" t="n">
         <f aca="false">H34*0.15</f>
         <v>1800</v>
       </c>
-      <c r="J34" s="22" t="n">
+      <c r="J34" s="21" t="n">
         <f aca="false">H34-I34</f>
         <v>10200</v>
       </c>
@@ -2189,20 +2187,20 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="24" t="n">
         <f aca="false">SUM(G15:G34)</f>
         <v>52836</v>
@@ -2275,7 +2273,7 @@
   <dimension ref="A2:R52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2283,16 +2281,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="9.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="22" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
@@ -2301,7 +2299,7 @@
       <c r="A2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="21" t="n">
         <v>12550</v>
       </c>
       <c r="D2" s="27" t="s">
@@ -2593,11 +2591,17 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="38" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E9,((I$7-I$5)-E9)*D10, 0))</f>
@@ -2612,10 +2616,10 @@
         <v>0.185509090909091</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="38" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L9,((P$7-P$5)-L9)*K10, 0))</f>
@@ -2637,13 +2641,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="I12" s="50"/>
       <c r="K12" s="51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
@@ -2679,7 +2683,7 @@
       <c r="E14" s="38" t="n">
         <v>40400</v>
       </c>
-      <c r="F14" s="22" t="n">
+      <c r="F14" s="21" t="n">
         <f aca="false">IF(I$6&lt;=E14, I$5*D14, 0)</f>
         <v>0</v>
       </c>
@@ -2690,12 +2694,11 @@
       <c r="L14" s="38" t="n">
         <v>41675</v>
       </c>
-      <c r="M14" s="22" t="n">
+      <c r="M14" s="21" t="n">
         <f aca="false">IF(P$6&lt;=L14, P$5*K14, 0)</f>
         <v>0</v>
       </c>
       <c r="P14" s="52"/>
-      <c r="R14" s="56"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="54" t="n">
@@ -2704,12 +2707,12 @@
       <c r="E15" s="38" t="n">
         <v>445850</v>
       </c>
-      <c r="F15" s="22" t="n">
+      <c r="F15" s="21" t="n">
         <f aca="false">IF(I$6&gt;E14,IF(I$6&lt;=E15, I$5*D15, 0),0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I15" s="40" t="n">
         <f aca="false">(1831+656+468)*9.5</f>
@@ -2721,57 +2724,57 @@
       <c r="L15" s="38" t="n">
         <v>459750</v>
       </c>
-      <c r="M15" s="22" t="n">
+      <c r="M15" s="21" t="n">
         <f aca="false">IF(P$6&gt;L14,IF(P$6&lt;=L15, P$5*K15, 0),0)</f>
         <v>7500</v>
       </c>
       <c r="O15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="P15" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="58" t="n">
+      <c r="F16" s="21" t="n">
+        <f aca="false">IF(I$6&gt;E15,I$5*D16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="40" t="n">
+        <f aca="false">I6+I15</f>
+        <v>193072.5</v>
+      </c>
+      <c r="K16" s="58" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="22" t="n">
-        <f aca="false">IF(I$6&gt;E15,I$5*D16, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="40" t="n">
-        <f aca="false">I7+I15</f>
-        <v>180522.5</v>
-      </c>
-      <c r="K16" s="59" t="n">
-        <v>0.2</v>
-      </c>
       <c r="L16" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="M16" s="21" t="n">
         <f aca="false">IF(P$6&gt;L15,P$5*K16, 0)</f>
         <v>0</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="57" t="n">
-        <f aca="false">P7+P15</f>
-        <v>387057.185</v>
+        <v>69</v>
+      </c>
+      <c r="P16" s="56" t="n">
+        <f aca="false">P6+P15</f>
+        <v>400000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="46"/>
       <c r="H17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I17" s="40" t="n">
         <f aca="false">MIN(B3,MAX(0,B5*(I16-B4)))</f>
@@ -2779,37 +2782,37 @@
       </c>
       <c r="K17" s="47"/>
       <c r="O17" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" s="57" t="n">
+        <v>70</v>
+      </c>
+      <c r="P17" s="56" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(P16-$B4)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="H18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="40" t="n">
+        <f aca="false">I16-B3+I17-I5</f>
+        <v>119472.5</v>
+      </c>
+      <c r="K18" s="51" t="s">
         <v>71</v>
-      </c>
-      <c r="I18" s="40" t="n">
-        <f aca="false">I16-B3+I17</f>
-        <v>106922.5</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>70</v>
       </c>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
       <c r="O18" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="57" t="n">
-        <f aca="false">P16+P17-($B3*$B$7)</f>
-        <v>311153.505</v>
+        <v>72</v>
+      </c>
+      <c r="P18" s="56" t="n">
+        <f aca="false">P16+P17-($B3*$B$7)-P5</f>
+        <v>274096.32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,11 +2826,11 @@
         <v>47</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I19" s="43" t="n">
         <f aca="false">F25+F26</f>
-        <v>27799.85</v>
+        <v>31062.85</v>
       </c>
       <c r="K19" s="36" t="s">
         <v>45</v>
@@ -2839,102 +2842,112 @@
         <v>47</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="60" t="n">
+        <v>73</v>
+      </c>
+      <c r="P19" s="59" t="n">
         <f aca="false">M25+M26</f>
-        <v>83000.9814</v>
+        <v>72624.9696</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="61" t="n">
+      <c r="D20" s="60" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="38" t="n">
         <v>200000</v>
       </c>
-      <c r="F20" s="22" t="n">
+      <c r="F20" s="21" t="n">
         <f aca="false">IF((I$7-I$5)&lt;=E20, I$5*D20, 0)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="45" t="n">
-        <f aca="false">I19/I16</f>
-        <v>0.153996593222452</v>
-      </c>
-      <c r="K20" s="62" t="n">
+      <c r="H20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="25" t="n">
+        <f aca="false">I9</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="61" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="38" t="n">
         <v>200000</v>
       </c>
-      <c r="M20" s="22" t="n">
+      <c r="M20" s="21" t="n">
         <f aca="false">IF((P$7-P$5)&lt;=L20, P$5*K20, 0)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="25" t="n">
+        <f aca="false">P9</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="60" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="21" t="n">
+        <f aca="false">MAX(0,IF((I$7-I$5)&gt;E20,(I$5-E20)*D21, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="P20" s="63" t="n">
-        <f aca="false">P19/P16</f>
-        <v>0.214441133291454</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="61" t="n">
+      <c r="I21" s="45" t="n">
+        <f aca="false">(I19+I20)/I16</f>
+        <v>0.160886972510326</v>
+      </c>
+      <c r="K21" s="61" t="n">
         <v>0.038</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="22" t="n">
-        <f aca="false">MAX(0,IF((I$7-I$5)&gt;E20,(I$5-E20)*D21, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="K21" s="62" t="n">
-        <v>0.038</v>
-      </c>
       <c r="L21" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="M21" s="21" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L20,(P$5-L20)*K21, 0))</f>
         <v>0</v>
       </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="57"/>
+      <c r="O21" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="45" t="n">
+        <f aca="false">(P19+P20)/P16</f>
+        <v>0.200312424</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="46"/>
       <c r="H22" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="40" t="n">
-        <f aca="false">IF((I8+I9)&gt;I19,((I8+I9)-I19)/D25,0)</f>
-        <v>10804.4230769231</v>
+        <f aca="false">IF(I8&gt;I19,((I8+I9)-(I19+I20))/D25,0)</f>
+        <v>0</v>
       </c>
       <c r="K22" s="47"/>
       <c r="O22" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="40" t="n">
-        <f aca="false">IF((P8+P9)&gt;P19,((P8+P9)-P19)/K26,0)</f>
-        <v>57935.8333928571</v>
+        <f aca="false">IF(P8&gt;P19,((P8+P9)-(P19+P20))/K25,0)</f>
+        <v>73454.0198076923</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
       <c r="I23" s="50"/>
       <c r="K23" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23" s="51"/>
       <c r="M23" s="51"/>
@@ -2964,67 +2977,67 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" s="38" t="n">
         <v>199900</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="21" t="n">
         <f aca="false">MIN((MIN(I18,E25)*D25),((I7-I5)*D25+I9))</f>
-        <v>27799.85</v>
-      </c>
-      <c r="H25" s="64" t="s">
+        <v>31062.85</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="62"/>
+      <c r="K25" s="41" t="s">
         <v>75</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="K25" s="41" t="s">
-        <v>74</v>
       </c>
       <c r="L25" s="38" t="n">
         <v>206100</v>
       </c>
-      <c r="M25" s="22" t="n">
+      <c r="M25" s="21" t="n">
         <f aca="false">MIN(P18,L25)*K25</f>
         <v>53586</v>
       </c>
-      <c r="O25" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" s="65"/>
+      <c r="O25" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="63"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="68" t="n">
+      <c r="D26" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="66" t="n">
         <f aca="false">MIN(IF(I18&gt;E25,(I18-E25)*D26, 0),IF((I5-I18)&gt;E25,(I5*D26),0))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70" t="n">
+      <c r="G26" s="67"/>
+      <c r="H26" s="68" t="n">
         <f aca="false">I22/Schedule!A1</f>
-        <v>1350.55288461538</v>
-      </c>
-      <c r="I26" s="70"/>
-      <c r="K26" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="L26" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="M26" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="68"/>
+      <c r="K26" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" s="66" t="n">
         <f aca="false">IF(P18&gt;L25,(P18-L25)*K26, 0)</f>
-        <v>29414.9814</v>
-      </c>
-      <c r="N26" s="73"/>
-      <c r="O26" s="74" t="n">
+        <v>19038.9696</v>
+      </c>
+      <c r="N26" s="71"/>
+      <c r="O26" s="72" t="n">
         <f aca="false">P22/Schedule!A1</f>
-        <v>7241.97917410714</v>
-      </c>
-      <c r="P26" s="74"/>
+        <v>9181.75247596153</v>
+      </c>
+      <c r="P26" s="72"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="30" t="s">
@@ -3298,10 +3311,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F36" s="38" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E35,((I$33-I$31)-E35)*D36, 0))</f>
@@ -3315,10 +3328,10 @@
         <v>0.196730836903156</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L36" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M36" s="38" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L35,((P$33-P$31)-L35)*K36, 0))</f>
@@ -3340,13 +3353,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E38" s="51"/>
       <c r="F38" s="51"/>
       <c r="I38" s="52"/>
       <c r="K38" s="51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
@@ -3382,7 +3395,7 @@
         <f aca="false">L14*(L14/E14)</f>
         <v>42990.2382425743</v>
       </c>
-      <c r="F40" s="22" t="n">
+      <c r="F40" s="21" t="n">
         <f aca="false">IF(I$32&lt;=E40, I$32*D40, 0)</f>
         <v>0</v>
       </c>
@@ -3394,7 +3407,7 @@
         <f aca="false">E40*$B$7</f>
         <v>44335.8326995668</v>
       </c>
-      <c r="M40" s="22" t="n">
+      <c r="M40" s="21" t="n">
         <f aca="false">IF(P$32&lt;=L40, P$32*K40, 0)</f>
         <v>0</v>
       </c>
@@ -3408,14 +3421,14 @@
         <f aca="false">L15*(L15/E15)</f>
         <v>474083.352024223</v>
       </c>
-      <c r="F41" s="22" t="n">
+      <c r="F41" s="21" t="n">
         <f aca="false">IF(I$32&gt;E40,IF(I$32&lt;=E41, I$31*D41, 0),0)</f>
         <v>0</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="57" t="n">
+        <v>68</v>
+      </c>
+      <c r="I41" s="56" t="n">
         <v>0</v>
       </c>
       <c r="K41" s="55" t="n">
@@ -3425,95 +3438,95 @@
         <f aca="false">E41*$B$7</f>
         <v>488922.160942582</v>
       </c>
-      <c r="M41" s="22" t="n">
+      <c r="M41" s="21" t="n">
         <f aca="false">IF(P$32&gt;L40,IF(P$32&lt;=L41, P$31*K41, 0),0)</f>
         <v>0</v>
       </c>
       <c r="O41" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" s="56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="P41" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="59" t="n">
+      <c r="F42" s="21" t="n">
+        <f aca="false">IF(I$32&gt;E41,I$31*D42, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="56" t="n">
+        <f aca="false">I32+I41</f>
+        <v>200000</v>
+      </c>
+      <c r="K42" s="58" t="n">
         <v>0.2</v>
       </c>
-      <c r="E42" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="22" t="n">
-        <f aca="false">IF(I$32&gt;E41,I$31*D42, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="57" t="n">
-        <f aca="false">I33+I41</f>
-        <v>186652.0748905</v>
-      </c>
-      <c r="K42" s="59" t="n">
-        <v>0.2</v>
-      </c>
       <c r="L42" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="M42" s="22" t="n">
+        <v>66</v>
+      </c>
+      <c r="M42" s="21" t="n">
         <f aca="false">IF(P$32&gt;L41,P$31*K42, 0)</f>
         <v>0</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="P42" s="57" t="n">
-        <f aca="false">P33+P41</f>
-        <v>186234.284834573</v>
+        <v>69</v>
+      </c>
+      <c r="P42" s="56" t="n">
+        <f aca="false">P32+P41</f>
+        <v>200000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="47"/>
       <c r="H43" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="57" t="n">
+        <v>70</v>
+      </c>
+      <c r="I43" s="56" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(I42-$B4)))</f>
         <v>0</v>
       </c>
       <c r="K43" s="47"/>
       <c r="O43" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P43" s="57" t="n">
+        <v>70</v>
+      </c>
+      <c r="P43" s="56" t="n">
         <f aca="false">MIN($B29,MAX(0,$B31*(P42-$B30)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44" s="51"/>
       <c r="F44" s="51"/>
       <c r="H44" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="56" t="n">
+        <f aca="false">I42+I43-($B3*$B$7^2)-I31</f>
+        <v>121720.534816</v>
+      </c>
+      <c r="K44" s="51" t="s">
         <v>71</v>
-      </c>
-      <c r="I44" s="57" t="n">
-        <f aca="false">I42+I43-($B3*$B$7^2)</f>
-        <v>108372.6097065</v>
-      </c>
-      <c r="K44" s="51" t="s">
-        <v>70</v>
       </c>
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
       <c r="O44" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="P44" s="57" t="n">
-        <f aca="false">P42+P43-($B3*$B$7^3)</f>
-        <v>105504.672390313</v>
+        <v>72</v>
+      </c>
+      <c r="P44" s="56" t="n">
+        <f aca="false">P42+P43-($B3*$B$7^3)-P31</f>
+        <v>119270.387555741</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,11 +3540,11 @@
         <v>47</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I45" s="60" t="n">
+        <v>73</v>
+      </c>
+      <c r="I45" s="59" t="n">
         <f aca="false">F51+F52</f>
-        <v>28176.87852369</v>
+        <v>31647.33905216</v>
       </c>
       <c r="K45" s="36" t="s">
         <v>45</v>
@@ -3543,102 +3556,112 @@
         <v>47</v>
       </c>
       <c r="O45" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="P45" s="60" t="n">
+        <v>73</v>
+      </c>
+      <c r="P45" s="59" t="n">
         <f aca="false">M51+M52</f>
-        <v>27431.2148214815</v>
+        <v>31010.3007644926</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="62" t="n">
+      <c r="D46" s="61" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="38" t="n">
         <v>200000</v>
       </c>
-      <c r="F46" s="22" t="n">
+      <c r="F46" s="21" t="n">
         <f aca="false">IF((I$33-I$31)&lt;=E46, I$31*D46, 0)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" s="63" t="n">
-        <f aca="false">I45/I42</f>
-        <v>0.150959364047895</v>
-      </c>
-      <c r="K46" s="62" t="n">
+      <c r="H46" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="25" t="n">
+        <f aca="false">I35</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="61" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="38" t="n">
         <v>200000</v>
       </c>
-      <c r="M46" s="22" t="n">
+      <c r="M46" s="21" t="n">
         <f aca="false">IF((P$33-P$31)&lt;=L46, P$31*K46, 0)</f>
         <v>0</v>
       </c>
-      <c r="O46" s="39" t="s">
+      <c r="O46" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" s="25" t="n">
+        <f aca="false">P35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="61" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="21" t="n">
+        <f aca="false">MAX(0,IF((I$33-I$31)&gt;E46,(I$31-E46)*D47, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="P46" s="63" t="n">
+      <c r="I47" s="45" t="n">
+        <f aca="false">I45/I42</f>
+        <v>0.1582366952608</v>
+      </c>
+      <c r="K47" s="61" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="21" t="n">
+        <f aca="false">MAX(0,IF((P$33-P$31)&gt;L46,(P$31-L46)*K47, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P47" s="45" t="n">
         <f aca="false">P45/P42</f>
-        <v>0.147294118512324</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="62" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="22" t="n">
-        <f aca="false">MAX(0,IF((I$33-I$31)&gt;E46,(I$31-E46)*D47, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="57"/>
-      <c r="K47" s="62" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="L47" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="M47" s="22" t="n">
-        <f aca="false">MAX(0,IF((P$33-P$31)&gt;L46,(P$31-L46)*K47, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="57"/>
+        <v>0.155051503822463</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="47"/>
       <c r="H48" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I48" s="40" t="n">
-        <f aca="false">IF((I34+I35)&gt;I45,((I34+I35)-I45)/D51,0)</f>
-        <v>42958.8032959275</v>
+        <f aca="false">IF(I34&gt;I45,((I34+I35)-(I45+I46))/D51,0)</f>
+        <v>29610.8781864273</v>
       </c>
       <c r="K48" s="47"/>
       <c r="O48" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P48" s="40" t="n">
-        <f aca="false">IF((P34+P35)&gt;P45,((P34+P35)-P45)/K51,0)</f>
-        <v>42858.7984544746</v>
+        <f aca="false">IF(P34&gt;P45,((P34+P35)-(P45+P46))/K51,0)</f>
+        <v>29093.0832890473</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
       <c r="I49" s="52"/>
       <c r="K49" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L49" s="51"/>
       <c r="M49" s="51"/>
@@ -3668,69 +3691,69 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E51" s="38" t="n">
         <f aca="false">L25*(L25/E25)</f>
         <v>212492.296148074</v>
       </c>
-      <c r="F51" s="22" t="n">
+      <c r="F51" s="21" t="n">
         <f aca="false">MIN(I44,E51)*D51</f>
-        <v>28176.87852369</v>
-      </c>
-      <c r="H51" s="65" t="s">
+        <v>31647.33905216</v>
+      </c>
+      <c r="H51" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="63"/>
+      <c r="K51" s="41" t="s">
         <v>75</v>
-      </c>
-      <c r="I51" s="65"/>
-      <c r="K51" s="41" t="s">
-        <v>74</v>
       </c>
       <c r="L51" s="38" t="n">
         <f aca="false">E51*$B$7</f>
         <v>219143.305017509</v>
       </c>
-      <c r="M51" s="22" t="n">
+      <c r="M51" s="21" t="n">
         <f aca="false">MIN(P44,L51)*K51</f>
-        <v>27431.2148214815</v>
-      </c>
-      <c r="O51" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="P51" s="65"/>
+        <v>31010.3007644926</v>
+      </c>
+      <c r="O51" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" s="63"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="68" t="n">
+      <c r="D52" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="66" t="n">
         <f aca="false">IF(I44&gt;E51,(I44-E51)*D52, 0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="73"/>
-      <c r="H52" s="74" t="n">
+      <c r="G52" s="71"/>
+      <c r="H52" s="72" t="n">
         <f aca="false">I48/Schedule!$A$1</f>
-        <v>5369.85041199094</v>
-      </c>
-      <c r="I52" s="74"/>
-      <c r="K52" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="L52" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="M52" s="68" t="n">
+        <v>3701.35977330341</v>
+      </c>
+      <c r="I52" s="72"/>
+      <c r="K52" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="66" t="n">
         <f aca="false">IF(P44&gt;L51,(P44-L51)*K52, 0)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="73"/>
-      <c r="O52" s="74" t="n">
+      <c r="N52" s="71"/>
+      <c r="O52" s="72" t="n">
         <f aca="false">P48/Schedule!$A$1</f>
-        <v>5357.34980680933</v>
-      </c>
-      <c r="P52" s="74"/>
+        <v>3636.63541113091</v>
+      </c>
+      <c r="P52" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3780,8 +3803,8 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3808,709 +3831,709 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78" t="n">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76" t="n">
         <f aca="false">N1*Q1</f>
         <v>0.8436</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78" t="n">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76" t="n">
         <v>9.25</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="79" t="n">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77" t="n">
         <f aca="false">0.0912</f>
         <v>0.0912</v>
       </c>
-      <c r="R1" s="79"/>
+      <c r="R1" s="77"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="81"/>
+      <c r="K3" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="82" t="s">
+      <c r="O3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="84" t="s">
+      <c r="P3" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="Q3" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="n">
+      <c r="A4" s="83" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="86" t="n">
+      <c r="B4" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="87" t="n">
+      <c r="C4" s="85" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="89" t="n">
+      <c r="D4" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="87" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="F4" s="90" t="n">
+      <c r="F4" s="88" t="n">
         <f aca="false">0.25*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, MIN(36,E4)/36, 0)</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="87" t="n">
+      <c r="G4" s="85" t="n">
         <v>30000</v>
       </c>
-      <c r="H4" s="91" t="n">
+      <c r="H4" s="89" t="n">
         <f aca="false">IF(F4=C4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4*0.75/48, 0))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="85" t="n">
+      <c r="I4" s="83" t="n">
         <f aca="false">DATE(YEAR(A4)+1, MONTH(A4)+(0.75*48), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="85" t="n">
+      <c r="J4" s="90"/>
+      <c r="K4" s="83" t="n">
         <v>42457</v>
       </c>
-      <c r="L4" s="85" t="n">
+      <c r="L4" s="83" t="n">
         <v>44001</v>
       </c>
-      <c r="M4" s="86" t="n">
+      <c r="M4" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N4" s="87" t="n">
+      <c r="N4" s="85" t="n">
         <v>30000</v>
       </c>
-      <c r="O4" s="93" t="n">
+      <c r="O4" s="91" t="n">
         <f aca="false">N4*M4</f>
         <v>33</v>
       </c>
-      <c r="P4" s="94" t="n">
+      <c r="P4" s="92" t="n">
         <f aca="false">N4*K$1</f>
         <v>25308</v>
       </c>
-      <c r="Q4" s="85" t="n">
+      <c r="Q4" s="83" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
         <v>44366</v>
       </c>
-      <c r="R4" s="95" t="n">
+      <c r="R4" s="93" t="n">
         <f aca="false">IF($C$18&gt;Q4, P4*0.15, P4*0.35)</f>
         <v>3796.2</v>
       </c>
-      <c r="T4" s="96" t="n">
+      <c r="T4" s="94" t="n">
         <v>0.000276</v>
       </c>
-      <c r="U4" s="21" t="n">
+      <c r="U4" s="20" t="n">
         <f aca="false">N4/T4</f>
         <v>108695652.173913</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="n">
+      <c r="A5" s="83" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="86" t="n">
+      <c r="B5" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="87" t="n">
+      <c r="C5" s="85" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="89" t="n">
+      <c r="D5" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="87" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>36</v>
       </c>
-      <c r="F5" s="90" t="n">
+      <c r="F5" s="88" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*MIN(36,E5)/36</f>
         <v>123519</v>
       </c>
-      <c r="G5" s="97" t="n">
+      <c r="G5" s="95" t="n">
         <v>83375</v>
       </c>
-      <c r="H5" s="91" t="n">
+      <c r="H5" s="89" t="n">
         <f aca="false">IF(F5=C5, 0, C5*0.65/36)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="85" t="n">
+      <c r="I5" s="83" t="n">
         <f aca="false">DATE(YEAR(A5), MONTH(A5)+36, DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="J5" s="98"/>
-      <c r="K5" s="85" t="n">
+      <c r="J5" s="96"/>
+      <c r="K5" s="83" t="n">
         <v>43447</v>
       </c>
-      <c r="L5" s="85" t="n">
+      <c r="L5" s="83" t="n">
         <v>44001</v>
       </c>
-      <c r="M5" s="86" t="n">
+      <c r="M5" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N5" s="97" t="n">
+      <c r="N5" s="95" t="n">
         <v>83375</v>
       </c>
-      <c r="O5" s="93" t="n">
+      <c r="O5" s="91" t="n">
         <f aca="false">M5*N5</f>
         <v>91.7125</v>
       </c>
-      <c r="P5" s="94" t="n">
+      <c r="P5" s="92" t="n">
         <f aca="false">N5*K$1</f>
         <v>70335.15</v>
       </c>
-      <c r="Q5" s="85" t="n">
+      <c r="Q5" s="83" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
         <v>44366</v>
       </c>
-      <c r="R5" s="95" t="n">
+      <c r="R5" s="93" t="n">
         <f aca="false">IF($C$18&gt;Q5, P5*0.15, P5*0.35)</f>
         <v>10550.2725</v>
       </c>
-      <c r="T5" s="96" t="n">
+      <c r="T5" s="94" t="n">
         <v>0.000766</v>
       </c>
-      <c r="U5" s="21" t="n">
+      <c r="U5" s="20" t="n">
         <f aca="false">N5/T5</f>
         <v>108844647.519582</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="85" t="n">
+      <c r="A6" s="83" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="86" t="n">
+      <c r="B6" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="87" t="n">
+      <c r="C6" s="85" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="89" t="n">
+      <c r="D6" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="87" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$18,"M")-12))</f>
         <v>23</v>
       </c>
-      <c r="F6" s="90" t="n">
+      <c r="F6" s="88" t="n">
         <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
         <v>27985.4166666667</v>
       </c>
-      <c r="G6" s="97" t="n">
+      <c r="G6" s="95" t="n">
         <v>10394</v>
       </c>
-      <c r="H6" s="91" t="n">
+      <c r="H6" s="89" t="n">
         <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6/48, 0))</f>
         <v>799.583333333333</v>
       </c>
-      <c r="I6" s="85" t="n">
+      <c r="I6" s="83" t="n">
         <f aca="false">DATE(YEAR(A6)+1, MONTH(A6)+(48*0.75), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="J6" s="98"/>
-      <c r="K6" s="99" t="n">
+      <c r="J6" s="96"/>
+      <c r="K6" s="97" t="n">
         <v>43602</v>
       </c>
-      <c r="L6" s="99" t="n">
+      <c r="L6" s="97" t="n">
         <v>44001</v>
       </c>
-      <c r="M6" s="100" t="n">
+      <c r="M6" s="98" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N6" s="101" t="n">
+      <c r="N6" s="99" t="n">
         <v>10394</v>
       </c>
-      <c r="O6" s="102" t="n">
+      <c r="O6" s="100" t="n">
         <f aca="false">M6*N6</f>
         <v>11.4334</v>
       </c>
-      <c r="P6" s="103" t="n">
+      <c r="P6" s="101" t="n">
         <f aca="false">N6*K$1</f>
         <v>8768.3784</v>
       </c>
-      <c r="Q6" s="99" t="n">
+      <c r="Q6" s="97" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
         <v>44366</v>
       </c>
-      <c r="R6" s="104" t="n">
+      <c r="R6" s="102" t="n">
         <f aca="false">IF($C$18&gt;Q6, P6*0.15, P6*0.35)</f>
         <v>1315.25676</v>
       </c>
-      <c r="T6" s="96" t="n">
+      <c r="T6" s="94" t="n">
         <v>9.6E-005</v>
       </c>
-      <c r="U6" s="21" t="n">
+      <c r="U6" s="20" t="n">
         <f aca="false">N6/T6</f>
         <v>108270833.333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="85" t="n">
+      <c r="A7" s="83" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="86" t="n">
+      <c r="B7" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="87" t="n">
+      <c r="C7" s="85" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="89" t="n">
+      <c r="D7" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="87" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$18,"M")-12))</f>
         <v>17</v>
       </c>
-      <c r="F7" s="90" t="n">
+      <c r="F7" s="88" t="n">
         <f aca="false">0.25*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
         <v>83958.0208333333</v>
       </c>
-      <c r="G7" s="87" t="n">
+      <c r="G7" s="85" t="n">
         <v>32400</v>
       </c>
-      <c r="H7" s="91" t="n">
+      <c r="H7" s="89" t="n">
         <f aca="false">IF(F7=C7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7/48, 0))</f>
         <v>2895.10416666667</v>
       </c>
-      <c r="I7" s="85" t="n">
+      <c r="I7" s="83" t="n">
         <f aca="false">DATE(YEAR(A7)+1, MONTH(A7)+(48*0.75), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="Q7" s="105"/>
+      <c r="J7" s="90"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="85" t="n">
+      <c r="A8" s="83" t="n">
         <v>44263</v>
       </c>
-      <c r="B8" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="87" t="n">
+      <c r="B8" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="85" t="n">
         <v>330000</v>
       </c>
-      <c r="D8" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="89" t="n">
+      <c r="D8" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="87" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A8,C$18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="90" t="n">
+      <c r="F8" s="88" t="n">
         <f aca="false">0.5*C8*IF($C$18 &gt;= DATE(2022,1,1), 1, 0) + 0.5*C8*IF(DATEDIF(A8,$C$18,"Y")&gt;=1, MIN(36,E8)/36, 0)</f>
         <v>169583.333333333</v>
       </c>
-      <c r="G8" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="91" t="n">
+      <c r="G8" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="89" t="n">
         <f aca="false">IF(F8=C8, 0, IF($C$18 &gt;= L9, C8*0.75/36, 0))</f>
         <v>6875</v>
       </c>
-      <c r="I8" s="85" t="n">
+      <c r="I8" s="83" t="n">
         <f aca="false">DATE(YEAR(A8), MONTH(A8)+36, DAY(A8))</f>
         <v>45359</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="85" t="n">
+      <c r="J8" s="90"/>
+      <c r="K8" s="83" t="n">
         <v>43769</v>
       </c>
-      <c r="L8" s="107" t="n">
+      <c r="L8" s="105" t="n">
         <v>44324</v>
       </c>
-      <c r="M8" s="86" t="n">
+      <c r="M8" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N8" s="87" t="n">
+      <c r="N8" s="85" t="n">
         <v>32400</v>
       </c>
-      <c r="O8" s="93" t="n">
+      <c r="O8" s="91" t="n">
         <f aca="false">M8*N8</f>
         <v>35.64</v>
       </c>
-      <c r="P8" s="94" t="n">
+      <c r="P8" s="92" t="n">
         <f aca="false">N8*$K$1</f>
         <v>27332.64</v>
       </c>
-      <c r="Q8" s="105" t="n">
+      <c r="Q8" s="103" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
         <v>44689</v>
       </c>
-      <c r="R8" s="95" t="n">
+      <c r="R8" s="93" t="n">
         <f aca="false">IF($C$18&gt;Q8, P8*0.15, P8*0.35)</f>
         <v>9566.424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="85" t="n">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="83" t="n">
         <v>44263</v>
       </c>
-      <c r="L9" s="107" t="n">
+      <c r="L9" s="105" t="n">
         <v>44642</v>
       </c>
-      <c r="M9" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="87" t="n">
+      <c r="M9" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="85" t="n">
         <v>165000</v>
       </c>
-      <c r="O9" s="93" t="n">
+      <c r="O9" s="91" t="n">
         <f aca="false">M9*N9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="94" t="n">
+      <c r="P9" s="92" t="n">
         <f aca="false">N9*$K$1</f>
         <v>139194</v>
       </c>
-      <c r="Q9" s="105" t="n">
+      <c r="Q9" s="103" t="n">
         <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
         <v>45007</v>
       </c>
-      <c r="R9" s="95" t="n">
+      <c r="R9" s="93" t="n">
         <f aca="false">IF($C$18&gt;Q9, P9*0.15, P9*0.35)</f>
         <v>48717.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="109"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="95"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="93"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="110"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="114" t="str">
+      <c r="A16" s="112" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116" t="n">
+      <c r="B16" s="113"/>
+      <c r="C16" s="114" t="n">
         <f aca="false">SUM(C4:C14)</f>
         <v>660864</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118" t="n">
+      <c r="D16" s="114"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116" t="n">
         <f aca="false">SUM(F4:F14)</f>
         <v>435045.770833333</v>
       </c>
-      <c r="G16" s="116" t="n">
+      <c r="G16" s="114" t="n">
         <f aca="false">SUM(G4:G14)</f>
         <v>156169</v>
       </c>
-      <c r="H16" s="119" t="n">
+      <c r="H16" s="117" t="n">
         <f aca="false">SUM(H4:H8)*K1</f>
         <v>8916.588375</v>
       </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="123" t="n">
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="121" t="n">
         <f aca="false">SUM(P4:P10)</f>
         <v>270938.1684</v>
       </c>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126" t="n">
+      <c r="A17" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124" t="n">
         <f aca="false">SUM(H4:H14)</f>
         <v>10569.6875</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="128" t="n">
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126" t="n">
         <f aca="false">F16/C16</f>
         <v>0.658298486274534</v>
       </c>
-      <c r="G17" s="128" t="n">
+      <c r="G17" s="126" t="n">
         <f aca="false">G16/F16</f>
         <v>0.358971424319002</v>
       </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="122" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="130" t="n">
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="128" t="n">
         <f aca="false">SUM(R4:R10)</f>
         <v>73946.05326</v>
       </c>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="85"/>
-      <c r="B18" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="131" t="n">
+      <c r="A18" s="83"/>
+      <c r="B18" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="129" t="n">
         <v>44671</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="132" t="n">
+      <c r="D18" s="85"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="130" t="n">
         <f aca="false">H16*12</f>
         <v>106999.0605</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="134" t="n">
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="132" t="n">
         <f aca="false">P16-P17</f>
         <v>196992.11514</v>
       </c>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="85"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="136" t="n">
+      <c r="A19" s="83"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="134" t="n">
         <f aca="false">(C16-G16)*K1*0.65</f>
         <v>276744.4563</v>
       </c>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N23" s="0" t="n">
@@ -4595,18 +4618,18 @@
       <c r="A1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="22" t="n">
+      <c r="B1" s="21" t="n">
         <v>12550</v>
       </c>
-      <c r="C1" s="137"/>
+      <c r="C1" s="135"/>
       <c r="D1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="22" t="n">
+      <c r="E1" s="21" t="n">
         <f aca="false">B8-B1+E2</f>
         <v>237450</v>
       </c>
-      <c r="F1" s="138"/>
+      <c r="F1" s="136"/>
       <c r="I1" s="7" t="s">
         <v>43</v>
       </c>
@@ -4614,13 +4637,13 @@
         <v>45</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>45</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,13 +4653,13 @@
       <c r="B2" s="0" t="n">
         <v>73600</v>
       </c>
-      <c r="C2" s="137"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="138"/>
-      <c r="I2" s="22" t="n">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="136"/>
+      <c r="I2" s="21" t="n">
         <f aca="false">MAX(0,E1-B18)*A19+MIN(B18-B17,MAX(0,E1-B17))*A18+MIN(B17-B16,MAX(0,E1-B16))*A17+MIN(B16-B15,MAX(0,E1-B15))*A16+MIN(B15-B14,MAX(0,E1-B14))*A15+MIN(B14-B13,MAX(0,E1-B13))*A14+MIN(B13,MAX(0,E1))*A13+MAX(0,IF(E4&gt;E13,(E4-E13)*D14, 0))+MAX(0,IF(E4&gt;B23,MIN((B24-B23),(E3-B23))*A24, 0))+MAX(0,IF(E4&gt;B24,(E3-B24)*A25, 0))</f>
         <v>59074.85</v>
       </c>
@@ -4644,7 +4667,7 @@
         <f aca="false">I2/(E4)</f>
         <v>0.248788587070962</v>
       </c>
-      <c r="K2" s="22" t="n">
+      <c r="K2" s="21" t="n">
         <f aca="false">MIN(E18,E8)*D18+MAX(0,IF(E8&gt;E18,(E8-E18)*D19, 0))</f>
         <v>45864</v>
       </c>
@@ -4652,11 +4675,11 @@
         <f aca="false">K2/(E6)</f>
         <v>0.183456</v>
       </c>
-      <c r="M2" s="22" t="n">
+      <c r="M2" s="21" t="n">
         <f aca="false">MAX(0,(I2-K2))/((D18+D19)/2)</f>
         <v>48929.0740740741</v>
       </c>
-      <c r="N2" s="22" t="n">
+      <c r="N2" s="21" t="n">
         <f aca="false">MAX(0,(K2-I2))/0.35</f>
         <v>0</v>
       </c>
@@ -4668,12 +4691,12 @@
       <c r="B3" s="0" t="n">
         <v>523600</v>
       </c>
-      <c r="C3" s="137"/>
+      <c r="C3" s="135"/>
       <c r="D3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="139"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4682,99 +4705,99 @@
       <c r="B4" s="42" t="n">
         <v>0.25</v>
       </c>
-      <c r="C4" s="137"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="22" t="n">
+        <v>102</v>
+      </c>
+      <c r="E4" s="21" t="n">
         <f aca="false">E1+E3</f>
         <v>237450</v>
       </c>
-      <c r="F4" s="139"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>44378</v>
       </c>
-      <c r="C5" s="137"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="138"/>
+        <v>68</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C6" s="137"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="22" t="n">
+        <v>105</v>
+      </c>
+      <c r="E6" s="21" t="n">
         <f aca="false">B8+E2+E3+E5</f>
         <v>250000</v>
       </c>
-      <c r="F6" s="138"/>
+      <c r="F6" s="136"/>
       <c r="I6" s="48"/>
       <c r="K6" s="48"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" s="11" t="n">
         <f aca="false">B5+B6</f>
         <v>44558</v>
       </c>
-      <c r="C7" s="137"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="22" t="n">
+        <v>107</v>
+      </c>
+      <c r="E7" s="21" t="n">
         <f aca="false">MIN(B2,MAX(0,B4*(E6-B3)))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="136"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B8" s="53" t="n">
         <v>250000</v>
       </c>
-      <c r="C8" s="138"/>
+      <c r="C8" s="136"/>
       <c r="D8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="22" t="n">
+        <v>72</v>
+      </c>
+      <c r="E8" s="21" t="n">
         <f aca="false">E6-B2+E7</f>
         <v>176400</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="136"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
@@ -4783,76 +4806,76 @@
       <c r="B12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="140"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="34" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="139" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="38" t="n">
         <v>9950</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143" t="n">
+      <c r="C13" s="140"/>
+      <c r="D13" s="141" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="38" t="n">
         <v>200000</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="139" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="38" t="n">
         <v>40525</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="143" t="n">
+      <c r="C14" s="140"/>
+      <c r="D14" s="141" t="n">
         <v>0.038</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="139" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="38" t="n">
         <v>86375</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="F15" s="22"/>
+      <c r="C15" s="140"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="139" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="38" t="n">
         <v>164925</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="20"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="139" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="38" t="n">
         <v>209425</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="34" t="s">
         <v>45</v>
       </c>
@@ -4863,37 +4886,37 @@
       <c r="G17" s="48"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="139" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="38" t="n">
         <v>523600</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="141" t="s">
-        <v>74</v>
+      <c r="C18" s="140"/>
+      <c r="D18" s="139" t="s">
+        <v>75</v>
       </c>
       <c r="E18" s="38" t="n">
         <v>199900</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="141" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="141" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="144"/>
+      <c r="A19" s="139" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="142"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="142"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
@@ -4902,35 +4925,35 @@
       <c r="B22" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="F22" s="22"/>
+      <c r="C22" s="143"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="146" t="n">
+      <c r="A23" s="144" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="38" t="n">
         <v>40400</v>
       </c>
       <c r="C23" s="48"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="146" t="n">
+      <c r="A24" s="144" t="n">
         <v>0.15</v>
       </c>
-      <c r="B24" s="144" t="n">
+      <c r="B24" s="142" t="n">
         <v>445850</v>
       </c>
       <c r="C24" s="48"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="147" t="n">
+      <c r="A25" s="145" t="n">
         <v>0.2</v>
       </c>
       <c r="C25" s="48"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4962,949 +4985,949 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="148" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="148" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="148" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="149" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="148" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="148" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="148" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="148" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="148" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="148" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="148" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="148" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="148" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="148" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="148" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="148" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="148" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="148" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="148" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="146" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="146" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="146" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="146" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="146" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="146" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="146" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="146" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="146" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="146" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="146" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="146" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="146" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="146" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="146" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="146" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="146" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="146" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78" t="n">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76" t="n">
         <v>2.5</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="84"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="82"/>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="82" t="s">
+      <c r="D3" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="81"/>
+      <c r="M3" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" s="83"/>
-      <c r="M3" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="82" t="s">
+      <c r="P3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="R3" s="82" t="s">
+      <c r="Q3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="R3" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="S3" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="n">
+      <c r="A4" s="83" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="86" t="n">
+      <c r="B4" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="87" t="n">
+      <c r="C4" s="85" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="150" t="n">
+      <c r="D4" s="148" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="152" t="n">
+      <c r="E4" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="150" t="n">
         <f aca="false">DATEDIF(A4,C18,"Y")</f>
         <v>4</v>
       </c>
-      <c r="G4" s="89" t="n">
+      <c r="G4" s="87" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="H4" s="90" t="n">
+      <c r="H4" s="88" t="n">
         <f aca="false">C4*0.25+C4*G4/48</f>
         <v>30000</v>
       </c>
-      <c r="I4" s="87" t="n">
+      <c r="I4" s="85" t="n">
         <v>30000</v>
       </c>
-      <c r="J4" s="153" t="n">
+      <c r="J4" s="151" t="n">
         <f aca="false">H4/C4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="85" t="n">
+      <c r="K4" s="83" t="n">
         <f aca="false">DATE(YEAR(A4)+4, MONTH(A4), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="85" t="n">
+      <c r="L4" s="90"/>
+      <c r="M4" s="83" t="n">
         <v>42457</v>
       </c>
-      <c r="N4" s="85" t="n">
+      <c r="N4" s="83" t="n">
         <v>44001</v>
       </c>
-      <c r="O4" s="86" t="n">
+      <c r="O4" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P4" s="87" t="n">
+      <c r="P4" s="85" t="n">
         <v>30000</v>
       </c>
-      <c r="Q4" s="93" t="n">
+      <c r="Q4" s="91" t="n">
         <f aca="false">P4*O4</f>
         <v>33</v>
       </c>
-      <c r="R4" s="94" t="n">
+      <c r="R4" s="92" t="n">
         <f aca="false">P4*M$1</f>
         <v>75000</v>
       </c>
-      <c r="S4" s="85" t="n">
+      <c r="S4" s="83" t="n">
         <f aca="false">DATE(YEAR(N4)+1,MONTH(N4),DAY(N4))</f>
         <v>44366</v>
       </c>
-      <c r="T4" s="95" t="n">
+      <c r="T4" s="93" t="n">
         <f aca="false">IF($C$18&gt;S4, R4*0.15, R4*0.35)</f>
         <v>26250</v>
       </c>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="n">
+      <c r="A5" s="83" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="86" t="n">
+      <c r="B5" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="87" t="n">
+      <c r="C5" s="85" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="150" t="n">
+      <c r="D5" s="148" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="89" t="n">
+      <c r="E5" s="149" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="87" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>18</v>
       </c>
-      <c r="H5" s="90" t="n">
+      <c r="H5" s="88" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*G5/36</f>
         <v>83375.325</v>
       </c>
-      <c r="I5" s="97" t="n">
+      <c r="I5" s="95" t="n">
         <v>83375</v>
       </c>
-      <c r="J5" s="153" t="n">
+      <c r="J5" s="151" t="n">
         <f aca="false">H5/C5</f>
         <v>0.675</v>
       </c>
-      <c r="K5" s="85" t="n">
+      <c r="K5" s="83" t="n">
         <f aca="false">DATE(YEAR(A5)+3, MONTH(A5), DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="L5" s="98"/>
-      <c r="M5" s="85" t="n">
+      <c r="L5" s="96"/>
+      <c r="M5" s="83" t="n">
         <v>43447</v>
       </c>
-      <c r="N5" s="85" t="n">
+      <c r="N5" s="83" t="n">
         <v>44001</v>
       </c>
-      <c r="O5" s="86" t="n">
+      <c r="O5" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P5" s="97" t="n">
+      <c r="P5" s="95" t="n">
         <v>83375</v>
       </c>
-      <c r="Q5" s="93" t="n">
+      <c r="Q5" s="91" t="n">
         <f aca="false">O5*P5</f>
         <v>91.7125</v>
       </c>
-      <c r="R5" s="94" t="n">
+      <c r="R5" s="92" t="n">
         <f aca="false">P5*M$1</f>
         <v>208437.5</v>
       </c>
-      <c r="S5" s="85" t="n">
+      <c r="S5" s="83" t="n">
         <f aca="false">DATE(YEAR(N5)+1,MONTH(N5),DAY(N5))</f>
         <v>44366</v>
       </c>
-      <c r="T5" s="95" t="n">
+      <c r="T5" s="93" t="n">
         <f aca="false">IF($C$18&gt;S5, R5*0.15, R5*0.35)</f>
         <v>72953.125</v>
       </c>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="85" t="n">
+      <c r="A6" s="83" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="86" t="n">
+      <c r="B6" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="87" t="n">
+      <c r="C6" s="85" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="150" t="n">
+      <c r="D6" s="148" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="152" t="n">
+      <c r="E6" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="150" t="n">
         <f aca="false">DATEDIF(A6,C18,"Y")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="89" t="n">
+      <c r="G6" s="87" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="H6" s="90" t="n">
+      <c r="H6" s="88" t="n">
         <f aca="false">C6*0.25+C6*G6/48</f>
         <v>10394.5833333333</v>
       </c>
-      <c r="I6" s="97" t="n">
+      <c r="I6" s="95" t="n">
         <v>10394</v>
       </c>
-      <c r="J6" s="153" t="n">
+      <c r="J6" s="151" t="n">
         <f aca="false">H6/C6</f>
         <v>0.270833333333333</v>
       </c>
-      <c r="K6" s="85" t="n">
+      <c r="K6" s="83" t="n">
         <f aca="false">DATE(YEAR(A6)+4, MONTH(A6), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99" t="n">
+      <c r="L6" s="96"/>
+      <c r="M6" s="97" t="n">
         <v>43602</v>
       </c>
-      <c r="N6" s="99" t="n">
+      <c r="N6" s="97" t="n">
         <v>44001</v>
       </c>
-      <c r="O6" s="100" t="n">
+      <c r="O6" s="98" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P6" s="101" t="n">
+      <c r="P6" s="99" t="n">
         <v>10394</v>
       </c>
-      <c r="Q6" s="102" t="n">
+      <c r="Q6" s="100" t="n">
         <f aca="false">O6*P6</f>
         <v>11.4334</v>
       </c>
-      <c r="R6" s="103" t="n">
+      <c r="R6" s="101" t="n">
         <f aca="false">P6*M$1</f>
         <v>25985</v>
       </c>
-      <c r="S6" s="99" t="n">
+      <c r="S6" s="97" t="n">
         <f aca="false">DATE(YEAR(N6)+1,MONTH(N6),DAY(N6))</f>
         <v>44366</v>
       </c>
-      <c r="T6" s="104" t="n">
+      <c r="T6" s="102" t="n">
         <f aca="false">IF($C$18&gt;S6, R6*0.15, R6*0.35)</f>
         <v>9094.75</v>
       </c>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="85" t="n">
+      <c r="A7" s="83" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="86" t="n">
+      <c r="B7" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="87" t="n">
+      <c r="C7" s="85" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="150" t="n">
+      <c r="D7" s="148" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="151" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="152" t="n">
+      <c r="E7" s="149" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="150" t="n">
         <f aca="false">DATEDIF(A7,C18,"Y")</f>
         <v>0</v>
       </c>
-      <c r="G7" s="89" t="n">
+      <c r="G7" s="87" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C18,"M")-12))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="90" t="n">
+      <c r="H7" s="88" t="n">
         <f aca="false">C7*IF(F7&gt;=1,0.25,0)+C7*G7/48</f>
         <v>0</v>
       </c>
-      <c r="I7" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="153" t="n">
+      <c r="I7" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="151" t="n">
         <f aca="false">H7/C7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="85" t="n">
+      <c r="K7" s="83" t="n">
         <f aca="false">DATE(YEAR(A7)+4, MONTH(A7), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="85" t="n">
+      <c r="L7" s="90"/>
+      <c r="M7" s="83" t="n">
         <v>43447</v>
       </c>
-      <c r="N7" s="107" t="n">
+      <c r="N7" s="105" t="n">
         <v>47848</v>
       </c>
-      <c r="O7" s="86" t="n">
+      <c r="O7" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P7" s="87" t="n">
+      <c r="P7" s="85" t="n">
         <f aca="false">H5-I5</f>
         <v>0.325000000011642</v>
       </c>
-      <c r="Q7" s="93" t="n">
+      <c r="Q7" s="91" t="n">
         <f aca="false">O7*P7</f>
         <v>0.000357500000012806</v>
       </c>
-      <c r="R7" s="94" t="n">
+      <c r="R7" s="92" t="n">
         <f aca="false">P7*M$1</f>
         <v>0.812500000029104</v>
       </c>
-      <c r="S7" s="85" t="n">
+      <c r="S7" s="83" t="n">
         <f aca="false">DATE(YEAR(N7)+1,MONTH(N7),DAY(N7))</f>
         <v>48213</v>
       </c>
-      <c r="T7" s="95" t="n">
+      <c r="T7" s="93" t="n">
         <f aca="false">IF($C$18&gt;S7, R7*0.15, R7*0.35)</f>
         <v>0.284375000010186</v>
       </c>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
     </row>
     <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="85" t="n">
+      <c r="A8" s="87"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="83" t="n">
         <v>43602</v>
       </c>
-      <c r="N8" s="107" t="n">
+      <c r="N8" s="105" t="n">
         <v>47848</v>
       </c>
-      <c r="O8" s="86" t="n">
+      <c r="O8" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P8" s="87" t="n">
+      <c r="P8" s="85" t="n">
         <f aca="false">H6-I6</f>
         <v>0.58333333333394</v>
       </c>
-      <c r="Q8" s="93" t="n">
+      <c r="Q8" s="91" t="n">
         <f aca="false">O8*P8</f>
         <v>0.000641666666667334</v>
       </c>
-      <c r="R8" s="94" t="n">
+      <c r="R8" s="92" t="n">
         <f aca="false">P8*M$1</f>
         <v>1.45833333333485</v>
       </c>
-      <c r="S8" s="85" t="n">
+      <c r="S8" s="83" t="n">
         <f aca="false">DATE(YEAR(N8)+1,MONTH(N8),DAY(N8))</f>
         <v>48213</v>
       </c>
-      <c r="T8" s="95" t="n">
+      <c r="T8" s="93" t="n">
         <f aca="false">IF($C$18&gt;S8, R8*0.15, R8*0.35)</f>
         <v>0.510416666667197</v>
       </c>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="85" t="n">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="83" t="n">
         <v>43769</v>
       </c>
-      <c r="N9" s="107" t="n">
+      <c r="N9" s="105" t="n">
         <v>47848</v>
       </c>
-      <c r="O9" s="86" t="n">
+      <c r="O9" s="84" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P9" s="87" t="n">
+      <c r="P9" s="85" t="n">
         <f aca="false">H7-I7</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="93" t="n">
+      <c r="Q9" s="91" t="n">
         <f aca="false">O9*P9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="94" t="n">
+      <c r="R9" s="92" t="n">
         <f aca="false">P9*M$1</f>
         <v>0</v>
       </c>
-      <c r="S9" s="85" t="n">
+      <c r="S9" s="83" t="n">
         <f aca="false">DATE(YEAR(N9)+1,MONTH(N9),DAY(N9))</f>
         <v>48213</v>
       </c>
-      <c r="T9" s="95" t="n">
+      <c r="T9" s="93" t="n">
         <f aca="false">IF($C$18&gt;S9, R9*0.15, R9*0.35)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="109"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="87"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="110"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-    </row>
-    <row r="16" s="158" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="114" t="str">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+    </row>
+    <row r="16" s="156" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="112" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116" t="n">
+      <c r="B16" s="113"/>
+      <c r="C16" s="114" t="n">
         <f aca="false">SUM(C4:C7)</f>
         <v>330864</v>
       </c>
-      <c r="D16" s="157"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118" t="n">
+      <c r="D16" s="155"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116" t="n">
         <f aca="false">SUM(H4:H8)</f>
         <v>123769.908333333</v>
       </c>
-      <c r="I16" s="116" t="n">
+      <c r="I16" s="114" t="n">
         <f aca="false">SUM(I4:I8)</f>
         <v>123769</v>
       </c>
-      <c r="J16" s="120" t="n">
+      <c r="J16" s="118" t="n">
         <f aca="false">H16/C16</f>
         <v>0.374080916428905</v>
       </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="123" t="n">
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="121" t="n">
         <f aca="false">SUM(R4:R8)</f>
         <v>309424.770833333</v>
       </c>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="117"/>
-    </row>
-    <row r="17" s="161" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="122" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="130" t="n">
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="115"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="115"/>
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="115"/>
+      <c r="AD16" s="115"/>
+    </row>
+    <row r="17" s="159" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="122"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="128" t="n">
         <f aca="false">SUM(T4:T9)</f>
         <v>108298.669791667</v>
       </c>
-      <c r="S17" s="130"/>
-      <c r="T17" s="130"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="85"/>
-      <c r="B18" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="131" t="n">
+      <c r="A18" s="83"/>
+      <c r="B18" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="129" t="n">
         <v>44001</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="134" t="n">
+      <c r="D18" s="129"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="132" t="n">
         <f aca="false">R16-R17</f>
         <v>201126.101041667</v>
       </c>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="85"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="135" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="136" t="n">
+      <c r="A19" s="83"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="134" t="n">
         <f aca="false">(C16-H16)*M1*0.65</f>
         <v>336527.898958333</v>
       </c>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="116">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">NET</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan 1, 2022: Exercise options up to AMT budget (4000)</t>
+    <t xml:space="preserve">Jan 1, 2022: Exercise options up to AMT budget</t>
   </si>
   <si>
     <t xml:space="preserve">First: Sell (LT) exercised options</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">Window Post Dec 10, 2022: Sell RSU Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan 1, 2023: Exercise options up to AMT budget (3000)</t>
+    <t xml:space="preserve">Jan 1, 2023: Exercise options up to AMT budget</t>
   </si>
   <si>
     <t xml:space="preserve">Window Post Jan 01 2023: Sell (LT) exercised options</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">Window Post Dec 10, 2023: Sell RSU Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan 1, 2024: Exercise options up to AMT budget (1500)</t>
+    <t xml:space="preserve">Jan 1, 2024: Exercise options up to AMT budget</t>
   </si>
   <si>
     <t xml:space="preserve">Window Post Jan 01 2024: Sell (LT) exercised options</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">Window Post Mar 10, 2024: Sell RSU Grant</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan 1, 2025: Exercise options up to AMT budget (2000)</t>
+    <t xml:space="preserve">Jan 1, 2025: Exercise options up to AMT budget</t>
   </si>
   <si>
     <t xml:space="preserve">Window Post Jan 01 2025: Sell (LT) exercised options</t>
@@ -152,6 +152,12 @@
     <t xml:space="preserve">SUMMATION</t>
   </si>
   <si>
+    <t xml:space="preserve">Options Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Std Deduct</t>
   </si>
   <si>
@@ -213,12 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">Invest Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Options Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~16,000</t>
   </si>
   <si>
     <t xml:space="preserve">37%</t>
@@ -788,7 +788,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -897,6 +897,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -957,10 +961,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1003,6 +1003,10 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1441,24 +1445,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color rgb="FF000000"/>
-        <u val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1529,10 +1516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1550,7 +1537,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1631,7 +1618,7 @@
       </c>
       <c r="C4" s="10" t="n">
         <f aca="false">B4*$A$1</f>
-        <v>1624</v>
+        <v>2030</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>43831</v>
@@ -1656,7 +1643,7 @@
       </c>
       <c r="C5" s="10" t="n">
         <f aca="false">B5*$A$1</f>
-        <v>584</v>
+        <v>730</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>43831</v>
@@ -1681,7 +1668,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">B6*$A$1</f>
-        <v>2112</v>
+        <v>2640</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>43831</v>
@@ -1737,14 +1724,14 @@
       </c>
       <c r="C10" s="15" t="n">
         <f aca="false">SUM(C4:C7)</f>
-        <v>4320</v>
+        <v>5400</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">C10*12</f>
-        <v>51840</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,15 +1790,15 @@
       </c>
       <c r="H16" s="21" t="n">
         <f aca="false">G16*$A$1</f>
-        <v>113928</v>
+        <v>142410</v>
       </c>
       <c r="I16" s="21" t="n">
         <f aca="false">H16*0.15</f>
-        <v>17089.2</v>
+        <v>21361.5</v>
       </c>
       <c r="J16" s="21" t="n">
         <f aca="false">H16-I16</f>
-        <v>96838.8</v>
+        <v>121048.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,15 +1815,15 @@
       </c>
       <c r="H17" s="21" t="n">
         <f aca="false">G17*$A$1</f>
-        <v>120384</v>
+        <v>150480</v>
       </c>
       <c r="I17" s="21" t="n">
         <f aca="false">H17*0.35</f>
-        <v>42134.4</v>
+        <v>52668</v>
       </c>
       <c r="J17" s="21" t="n">
         <f aca="false">H17-I17</f>
-        <v>78249.6</v>
+        <v>97812</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,15 +1840,15 @@
       </c>
       <c r="H18" s="21" t="n">
         <f aca="false">G18*$A$1</f>
-        <v>15040</v>
+        <v>18800</v>
       </c>
       <c r="I18" s="21" t="n">
         <f aca="false">H18*0.35</f>
-        <v>5264</v>
+        <v>6580</v>
       </c>
       <c r="J18" s="21" t="n">
         <f aca="false">H18-I18</f>
-        <v>9776</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,15 +1865,15 @@
       </c>
       <c r="H19" s="21" t="n">
         <f aca="false">G19*$A$1</f>
-        <v>15048</v>
+        <v>18810</v>
       </c>
       <c r="I19" s="21" t="n">
         <f aca="false">H19*0.35</f>
-        <v>5266.8</v>
+        <v>6583.5</v>
       </c>
       <c r="J19" s="21" t="n">
         <f aca="false">H19-I19</f>
-        <v>9781.2</v>
+        <v>12226.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,15 +1890,15 @@
       </c>
       <c r="H20" s="21" t="n">
         <f aca="false">G20*$A$1</f>
-        <v>15048</v>
+        <v>18810</v>
       </c>
       <c r="I20" s="21" t="n">
         <f aca="false">H20*0.35</f>
-        <v>5266.8</v>
+        <v>6583.5</v>
       </c>
       <c r="J20" s="21" t="n">
         <f aca="false">H20-I20</f>
-        <v>9781.2</v>
+        <v>12226.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,19 +1937,20 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="20" t="n">
-        <v>4000</v>
+        <f aca="false">AMT!O26</f>
+        <v>8050.51736538461</v>
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">G23*$A$1</f>
-        <v>32000</v>
+        <v>80505.1736538461</v>
       </c>
       <c r="I23" s="21" t="n">
         <f aca="false">H23*0.15</f>
-        <v>4800</v>
+        <v>12075.7760480769</v>
       </c>
       <c r="J23" s="21" t="n">
         <f aca="false">H23-I23</f>
-        <v>27200</v>
+        <v>68429.3976057692</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1979,15 +1967,15 @@
       </c>
       <c r="H24" s="21" t="n">
         <f aca="false">G24*$A$1</f>
-        <v>15048</v>
+        <v>18810</v>
       </c>
       <c r="I24" s="21" t="n">
         <f aca="false">H24*0.35</f>
-        <v>5266.8</v>
+        <v>6583.5</v>
       </c>
       <c r="J24" s="21" t="n">
         <f aca="false">H24-I24</f>
-        <v>9781.2</v>
+        <v>12226.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,15 +1992,15 @@
       </c>
       <c r="H25" s="21" t="n">
         <f aca="false">G25*$A$1</f>
-        <v>15048</v>
+        <v>18810</v>
       </c>
       <c r="I25" s="21" t="n">
         <f aca="false">H25*0.35</f>
-        <v>5266.8</v>
+        <v>6583.5</v>
       </c>
       <c r="J25" s="21" t="n">
         <f aca="false">H25-I25</f>
-        <v>9781.2</v>
+        <v>12226.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,15 +2017,15 @@
       </c>
       <c r="H26" s="21" t="n">
         <f aca="false">G26*$A$1</f>
-        <v>15048</v>
+        <v>18810</v>
       </c>
       <c r="I26" s="21" t="n">
         <f aca="false">H26*0.35</f>
-        <v>5266.8</v>
+        <v>6583.5</v>
       </c>
       <c r="J26" s="21" t="n">
         <f aca="false">H26-I26</f>
-        <v>9781.2</v>
+        <v>12226.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,15 +2042,15 @@
       </c>
       <c r="H27" s="21" t="n">
         <f aca="false">G27*$A$1</f>
-        <v>15048</v>
+        <v>18810</v>
       </c>
       <c r="I27" s="21" t="n">
         <f aca="false">H27*0.35</f>
-        <v>5266.8</v>
+        <v>6583.5</v>
       </c>
       <c r="J27" s="21" t="n">
         <f aca="false">H27-I27</f>
-        <v>9781.2</v>
+        <v>12226.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,19 +2089,20 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="20" t="n">
-        <v>3000</v>
+        <f aca="false">AMT!H52</f>
+        <v>4544.09293984143</v>
       </c>
       <c r="H30" s="21" t="n">
         <f aca="false">G30*$A$1</f>
-        <v>24000</v>
+        <v>45440.9293984143</v>
       </c>
       <c r="I30" s="21" t="n">
         <f aca="false">H30*0.15</f>
-        <v>3600</v>
+        <v>6816.13940976214</v>
       </c>
       <c r="J30" s="21" t="n">
         <f aca="false">H30-I30</f>
-        <v>20400</v>
+        <v>38624.7899886521</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,15 +2119,15 @@
       </c>
       <c r="H31" s="21" t="n">
         <f aca="false">G31*$A$1</f>
-        <v>15048</v>
+        <v>18810</v>
       </c>
       <c r="I31" s="21" t="n">
         <f aca="false">H31*0.35</f>
-        <v>5266.8</v>
+        <v>6583.5</v>
       </c>
       <c r="J31" s="21" t="n">
         <f aca="false">H31-I31</f>
-        <v>9781.2</v>
+        <v>12226.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,19 +2154,20 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="20" t="n">
-        <v>1500</v>
+        <f aca="false">MIN(AMT!B10-G30-G23, AMT!O52)</f>
+        <v>3112.61602121243</v>
       </c>
       <c r="H34" s="21" t="n">
         <f aca="false">G34*$A$1</f>
-        <v>12000</v>
+        <v>31126.1602121243</v>
       </c>
       <c r="I34" s="21" t="n">
         <f aca="false">H34*0.15</f>
-        <v>1800</v>
+        <v>4668.92403181865</v>
       </c>
       <c r="J34" s="21" t="n">
         <f aca="false">H34-I34</f>
-        <v>10200</v>
+        <v>26457.2361803057</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,26 +2193,42 @@
       <c r="F36" s="19"/>
       <c r="G36" s="24" t="n">
         <f aca="false">SUM(G15:G34)</f>
-        <v>52836</v>
+        <v>60043.2263264385</v>
       </c>
       <c r="H36" s="25" t="n">
         <f aca="false">SUM(H15:H34)</f>
-        <v>422688</v>
+        <v>600432.263264385</v>
       </c>
       <c r="I36" s="25" t="n">
         <f aca="false">SUM(I15:I34)</f>
-        <v>111555.2</v>
+        <v>150254.839489658</v>
       </c>
       <c r="J36" s="25" t="n">
         <f aca="false">SUM(J15:J34)</f>
-        <v>311132.8</v>
+        <v>450177.423774727</v>
       </c>
       <c r="K36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="26" t="n">
         <f aca="false">I36/H36</f>
-        <v>0.263918540389129</v>
+        <v>0.250244446680402</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="20" t="n">
+        <f aca="false">AMT!B10-G23-G30-G34</f>
+        <v>223.773673561531</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <f aca="false">A1*B38</f>
+        <v>2237.73673561531</v>
       </c>
     </row>
   </sheetData>
@@ -2272,8 +2278,8 @@
   </sheetPr>
   <dimension ref="A2:R52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2281,356 +2287,361 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="21" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="21" t="n">
         <v>12550</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="n">
+      <c r="D2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="n">
         <v>2021</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="K2" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32" t="n">
+      <c r="I2" s="30"/>
+      <c r="K2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33" t="n">
         <v>2022</v>
       </c>
-      <c r="P2" s="32"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>73600</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="K3" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="K3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="L3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>523600</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="38" t="n">
+      <c r="D4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="39" t="n">
         <v>9950</v>
       </c>
-      <c r="F4" s="38" t="n">
+      <c r="F4" s="39" t="n">
         <f aca="false">IF((I7-I5)&gt;E4,(E4-0)*D4,((I7-I5)-0)*D4)</f>
         <v>995</v>
       </c>
-      <c r="G4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="40" t="n">
-        <v>165000</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="38" t="n">
+        <v>52</v>
+      </c>
+      <c r="I4" s="41" t="n">
+        <v>160000</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="39" t="n">
         <v>10275</v>
       </c>
-      <c r="M4" s="38" t="n">
+      <c r="M4" s="39" t="n">
         <f aca="false">IF((P7-P5)&gt;L4,(L4-0)*K4,((P7-P5)-0)*K4)</f>
         <v>1027.5</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="40" t="n">
-        <v>350000</v>
+        <v>52</v>
+      </c>
+      <c r="P4" s="41" t="n">
+        <f aca="false">175000+SUM(Schedule!H17:H20)</f>
+        <v>381900</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="B5" s="27" t="n">
         <v>0.25</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="38" t="n">
+      <c r="D5" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="39" t="n">
         <v>40525</v>
       </c>
-      <c r="F5" s="38" t="n">
+      <c r="F5" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E4,MIN((E5-E4),((I$7-I$5)-E4))*D5, 0))</f>
         <v>3669</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="38" t="n">
+        <v>55</v>
+      </c>
+      <c r="I5" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="39" t="n">
         <v>41775</v>
       </c>
-      <c r="M5" s="38" t="n">
+      <c r="M5" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L4,MIN((L5-L4),((P$7-P$5)-L4))*K5, 0))</f>
         <v>3780</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="40" t="n">
-        <v>50000</v>
+        <v>55</v>
+      </c>
+      <c r="P5" s="41" t="n">
+        <f aca="false">Schedule!H16+5000</f>
+        <v>147410</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="38" t="n">
+      <c r="D6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="39" t="n">
         <v>86375</v>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F6" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E5,MIN((E6-E5),((I$7-I$5)-E5))*D6, 0))</f>
         <v>10087</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="40" t="n">
+        <v>57</v>
+      </c>
+      <c r="I6" s="41" t="n">
         <f aca="false">I4+I5</f>
-        <v>165000</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="38" t="n">
+        <v>160000</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="39" t="n">
         <v>89075</v>
       </c>
-      <c r="M6" s="38" t="n">
+      <c r="M6" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L5,MIN((L6-L5),((P$7-P$5)-L5))*K6, 0))</f>
         <v>10406</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="40" t="n">
+        <v>57</v>
+      </c>
+      <c r="P6" s="41" t="n">
         <f aca="false">P4+P5</f>
-        <v>400000</v>
+        <v>529310</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1.0313</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="38" t="n">
+      <c r="D7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="39" t="n">
         <v>164925</v>
       </c>
-      <c r="F7" s="38" t="n">
+      <c r="F7" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E6,MIN((E7-E6),((I$7-I$5)-E6))*D7, 0))</f>
-        <v>15858</v>
-      </c>
-      <c r="G7" s="39"/>
+        <v>14658</v>
+      </c>
+      <c r="G7" s="40"/>
       <c r="H7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="I7" s="41" t="n">
         <f aca="false">I6-$B$2</f>
-        <v>152450</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="38" t="n">
+        <v>147450</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="39" t="n">
         <v>170050</v>
       </c>
-      <c r="M7" s="38" t="n">
+      <c r="M7" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L6,MIN((L7-L6),((P$7-P$5)-L6))*K7, 0))</f>
         <v>19434</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="P7" s="41" t="n">
         <f aca="false">P6-($B$2*$B$7)</f>
-        <v>387057.185</v>
+        <v>516367.185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="38" t="n">
+      <c r="D8" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="39" t="n">
         <v>209425</v>
       </c>
-      <c r="F8" s="38" t="n">
+      <c r="F8" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E7,MIN((E8-E7),((I$7-I$5)-E7))*D8, 0))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" s="25" t="n">
         <f aca="false">SUM(F4:F10)</f>
-        <v>30609</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="38" t="n">
+        <v>29409</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="39" t="n">
         <v>215950</v>
       </c>
-      <c r="M8" s="38" t="n">
+      <c r="M8" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L7,MIN((L8-L7),((P$7-P$5)-L7))*K8, 0))</f>
         <v>14688</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" s="25" t="n">
         <f aca="false">SUM(M4:M10)</f>
-        <v>91723.01475</v>
+        <v>102888.01475</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="38" t="n">
+      <c r="D9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="39" t="n">
         <v>523600</v>
       </c>
-      <c r="F9" s="38" t="n">
+      <c r="F9" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E8,MIN((E9-E8),((I$7-I$5)-E8))*D9, 0))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I9" s="43" t="n">
         <f aca="false">SUM(F14:F16)+SUM(F20:F21)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="38" t="n">
+      <c r="K9" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="39" t="n">
         <v>539900</v>
       </c>
-      <c r="M9" s="38" t="n">
+      <c r="M9" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L8,MIN((L9-L8),((P$7-P$5)-L8))*K9, 0))</f>
-        <v>42387.51475</v>
+        <v>53552.51475</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" s="43" t="n">
         <f aca="false">SUM(M14:M16)+SUM(M20:M21)</f>
-        <v>7500</v>
+        <v>29482</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">8344+7587</f>
+        <v>15931</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="38" t="n">
+      <c r="F10" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E9,((I$7-I$5)-E9)*D10, 0))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" s="45" t="n">
         <f aca="false">(I8+I9)/I6</f>
-        <v>0.185509090909091</v>
-      </c>
-      <c r="K10" s="41" t="s">
+        <v>0.18380625</v>
+      </c>
+      <c r="K10" s="42" t="s">
         <v>65</v>
       </c>
       <c r="L10" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="38" t="n">
+      <c r="M10" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L9,((P$7-P$5)-L9)*K10, 0))</f>
         <v>0</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P10" s="45" t="n">
         <f aca="false">(P8+P9)/P6</f>
-        <v>0.248057536875</v>
+        <v>0.250080321078385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,32 +2666,33 @@
       <c r="R12" s="48"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>46</v>
+      <c r="D13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="50"/>
+      <c r="K13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="K13" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>46</v>
+      <c r="L13" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="M13" s="53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="38" t="n">
+      <c r="B14" s="54"/>
+      <c r="D14" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39" t="n">
         <v>40400</v>
       </c>
       <c r="F14" s="21" t="n">
@@ -2688,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="50"/>
-      <c r="K14" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="38" t="n">
+      <c r="K14" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="39" t="n">
         <v>41675</v>
       </c>
       <c r="M14" s="21" t="n">
@@ -2701,10 +2713,10 @@
       <c r="P14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="54" t="n">
+      <c r="D15" s="55" t="n">
         <v>0.15</v>
       </c>
-      <c r="E15" s="38" t="n">
+      <c r="E15" s="39" t="n">
         <v>445850</v>
       </c>
       <c r="F15" s="21" t="n">
@@ -2714,29 +2726,29 @@
       <c r="H15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="40" t="n">
+      <c r="I15" s="41" t="n">
         <f aca="false">(1831+656+468)*9.5</f>
         <v>28072.5</v>
       </c>
-      <c r="K15" s="55" t="n">
+      <c r="K15" s="56" t="n">
         <v>0.15</v>
       </c>
-      <c r="L15" s="38" t="n">
+      <c r="L15" s="39" t="n">
         <v>459750</v>
       </c>
       <c r="M15" s="21" t="n">
         <f aca="false">IF(P$6&gt;L14,IF(P$6&lt;=L15, P$5*K15, 0),0)</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="56" t="n">
+      <c r="P15" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="57" t="n">
+      <c r="D16" s="58" t="n">
         <v>0.2</v>
       </c>
       <c r="E16" s="44" t="s">
@@ -2749,11 +2761,11 @@
       <c r="H16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="41" t="n">
         <f aca="false">I6+I15</f>
-        <v>193072.5</v>
-      </c>
-      <c r="K16" s="58" t="n">
+        <v>188072.5</v>
+      </c>
+      <c r="K16" s="59" t="n">
         <v>0.2</v>
       </c>
       <c r="L16" s="44" t="s">
@@ -2761,14 +2773,14 @@
       </c>
       <c r="M16" s="21" t="n">
         <f aca="false">IF(P$6&gt;L15,P$5*K16, 0)</f>
-        <v>0</v>
+        <v>29482</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="56" t="n">
+      <c r="P16" s="57" t="n">
         <f aca="false">P6+P15</f>
-        <v>400000</v>
+        <v>529310</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2788,7 @@
       <c r="H17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="41" t="n">
         <f aca="false">MIN(B3,MAX(0,B5*(I16-B4)))</f>
         <v>0</v>
       </c>
@@ -2784,9 +2796,9 @@
       <c r="O17" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="P17" s="56" t="n">
+      <c r="P17" s="57" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(P16-$B4)))</f>
-        <v>0</v>
+        <v>1427.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,65 +2807,65 @@
       </c>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="41" t="n">
         <f aca="false">I16-B3+I17-I5</f>
-        <v>119472.5</v>
+        <v>114472.5</v>
       </c>
       <c r="K18" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="56" t="n">
+      <c r="P18" s="57" t="n">
         <f aca="false">P16+P17-($B3*$B$7)-P5</f>
-        <v>274096.32</v>
+        <v>307423.82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>46</v>
+      <c r="D19" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="43" t="n">
         <f aca="false">F25+F26</f>
-        <v>31062.85</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>46</v>
+        <v>29762.85</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="M19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="59" t="n">
+      <c r="P19" s="60" t="n">
         <f aca="false">M25+M26</f>
-        <v>72624.9696</v>
+        <v>81956.6696</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="38" t="n">
+      <c r="D20" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39" t="n">
         <v>200000</v>
       </c>
       <c r="F20" s="21" t="n">
@@ -2861,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" s="25" t="n">
         <f aca="false">I9</f>
         <v>0</v>
       </c>
-      <c r="K20" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="38" t="n">
+      <c r="K20" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="39" t="n">
         <v>200000</v>
       </c>
       <c r="M20" s="21" t="n">
@@ -2878,15 +2890,15 @@
         <v>0</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" s="25" t="n">
         <f aca="false">P9</f>
-        <v>7500</v>
+        <v>29482</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="60" t="n">
+      <c r="D21" s="61" t="n">
         <v>0.038</v>
       </c>
       <c r="E21" s="44" t="s">
@@ -2896,14 +2908,14 @@
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E20,(I$5-E20)*D21, 0))</f>
         <v>0</v>
       </c>
-      <c r="H21" s="39" t="s">
-        <v>45</v>
+      <c r="H21" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="I21" s="45" t="n">
         <f aca="false">(I19+I20)/I16</f>
-        <v>0.160886972510326</v>
-      </c>
-      <c r="K21" s="61" t="n">
+        <v>0.158252003881482</v>
+      </c>
+      <c r="K21" s="62" t="n">
         <v>0.038</v>
       </c>
       <c r="L21" s="44" t="s">
@@ -2913,30 +2925,30 @@
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L20,(P$5-L20)*K21, 0))</f>
         <v>0</v>
       </c>
-      <c r="O21" s="39" t="s">
-        <v>45</v>
+      <c r="O21" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="P21" s="45" t="n">
         <f aca="false">(P19+P20)/P16</f>
-        <v>0.200312424</v>
+        <v>0.210535734446733</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="46"/>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="40" t="n">
+      <c r="I22" s="41" t="n">
         <f aca="false">IF(I8&gt;I19,((I8+I9)-(I19+I20))/D25,0)</f>
         <v>0</v>
       </c>
       <c r="K22" s="47"/>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="P22" s="40" t="n">
+      <c r="P22" s="41" t="n">
         <f aca="false">IF(P8&gt;P19,((P8+P9)-(P19+P20))/K25,0)</f>
-        <v>73454.0198076923</v>
+        <v>80505.1736538461</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,395 +2966,399 @@
       <c r="P23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>46</v>
+      <c r="D24" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F24" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="K24" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="K24" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>46</v>
+      <c r="L24" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="M24" s="53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="38" t="n">
+      <c r="E25" s="39" t="n">
         <v>199900</v>
       </c>
       <c r="F25" s="21" t="n">
         <f aca="false">MIN((MIN(I18,E25)*D25),((I7-I5)*D25+I9))</f>
-        <v>31062.85</v>
-      </c>
-      <c r="H25" s="62" t="s">
+        <v>29762.85</v>
+      </c>
+      <c r="H25" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="K25" s="41" t="s">
+      <c r="I25" s="63"/>
+      <c r="K25" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="38" t="n">
+      <c r="L25" s="39" t="n">
         <v>206100</v>
       </c>
       <c r="M25" s="21" t="n">
         <f aca="false">MIN(P18,L25)*K25</f>
         <v>53586</v>
       </c>
-      <c r="O25" s="63" t="s">
+      <c r="O25" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="63"/>
+      <c r="P25" s="64"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="66" t="n">
+      <c r="F26" s="67" t="n">
         <f aca="false">MIN(IF(I18&gt;E25,(I18-E25)*D26, 0),IF((I5-I18)&gt;E25,(I5*D26),0))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68" t="n">
+      <c r="G26" s="68"/>
+      <c r="H26" s="69" t="n">
         <f aca="false">I22/Schedule!A1</f>
         <v>0</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="K26" s="69" t="s">
+      <c r="I26" s="69"/>
+      <c r="K26" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M26" s="66" t="n">
+      <c r="M26" s="67" t="n">
         <f aca="false">IF(P18&gt;L25,(P18-L25)*K26, 0)</f>
-        <v>19038.9696</v>
-      </c>
-      <c r="N26" s="71"/>
-      <c r="O26" s="72" t="n">
+        <v>28370.6696</v>
+      </c>
+      <c r="N26" s="72"/>
+      <c r="O26" s="73" t="n">
         <f aca="false">P22/Schedule!A1</f>
-        <v>9181.75247596153</v>
-      </c>
-      <c r="P26" s="72"/>
+        <v>8050.51736538461</v>
+      </c>
+      <c r="P26" s="73"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32" t="n">
+      <c r="D28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33" t="n">
         <v>2023</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="K28" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="32" t="n">
+      <c r="I28" s="33"/>
+      <c r="K28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33" t="n">
         <v>2024</v>
       </c>
-      <c r="P28" s="32"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="35" t="s">
+      <c r="D29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="K29" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="35" t="s">
+      <c r="E29" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="K29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
+      <c r="L29" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="38" t="n">
+      <c r="D30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="39" t="n">
         <f aca="false">L4*(L4/E4)</f>
         <v>10610.6155778894</v>
       </c>
-      <c r="F30" s="38" t="n">
+      <c r="F30" s="39" t="n">
         <f aca="false">IF((I33-I31)&gt;E30,(E30-0)*D30,((I33-I31)-0)*D30)</f>
         <v>1061.06155778894</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="40" t="n">
-        <v>200000</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="38" t="n">
+        <v>52</v>
+      </c>
+      <c r="I30" s="41" t="n">
+        <f aca="false">182500+SUM(Schedule!H24:H27)</f>
+        <v>257740</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="39" t="n">
         <f aca="false">E30*$B$7</f>
         <v>10942.7278454774</v>
       </c>
-      <c r="M30" s="38" t="n">
+      <c r="M30" s="39" t="n">
         <f aca="false">IF((P33-P31)&gt;L30,(L30-0)*K30,((P33-P31)-0)*K30)</f>
         <v>1094.27278454774</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="40" t="n">
-        <v>200000</v>
+        <v>52</v>
+      </c>
+      <c r="P30" s="41" t="n">
+        <f aca="false">190000+Schedule!H31</f>
+        <v>208810</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="38" t="n">
+      <c r="D31" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="39" t="n">
         <f aca="false">L5*(L5/E5)</f>
         <v>43063.5564466379</v>
       </c>
-      <c r="F31" s="38" t="n">
+      <c r="F31" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E30,MIN((E31-E30),((I$33-I$31)-E30))*D31, 0))</f>
-        <v>3894.35290424981</v>
+        <v>3894.35290424982</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31" s="38" t="n">
+        <v>55</v>
+      </c>
+      <c r="I31" s="41" t="n">
+        <f aca="false">Schedule!H23+5000</f>
+        <v>85505.1736538461</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="39" t="n">
         <f aca="false">E31*$B$7</f>
         <v>44411.4457634177</v>
       </c>
-      <c r="M31" s="38" t="n">
+      <c r="M31" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L30,MIN((L31-L30),((P$33-P$31)-L30))*K31, 0))</f>
-        <v>4016.24615015283</v>
+        <v>4016.24615015284</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" s="40" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="P31" s="41" t="n">
+        <f aca="false">Schedule!H30+5000</f>
+        <v>50440.9293984143</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="38" t="n">
+      <c r="D32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="39" t="n">
         <f aca="false">L6*(L6/E6)</f>
         <v>91859.3994211288</v>
       </c>
-      <c r="F32" s="38" t="n">
+      <c r="F32" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E31,MIN((E32-E31),((I$33-I$31)-E31))*D32, 0))</f>
         <v>10735.085454388</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="40" t="n">
+        <v>57</v>
+      </c>
+      <c r="I32" s="41" t="n">
         <f aca="false">I30+I31</f>
-        <v>200000</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="38" t="n">
+        <v>343245.173653846</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="39" t="n">
         <f aca="false">E32*$B$7</f>
         <v>94734.5986230101</v>
       </c>
-      <c r="M32" s="38" t="n">
+      <c r="M32" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L31,MIN((L32-L31),((P$33-P$31)-L31))*K32, 0))</f>
-        <v>11071.0936291104</v>
+        <v>11071.0936291103</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P32" s="40" t="n">
+        <v>57</v>
+      </c>
+      <c r="P32" s="41" t="n">
         <f aca="false">P30+P31</f>
-        <v>200000</v>
+        <v>259250.929398414</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="38" t="n">
+      <c r="D33" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="39" t="n">
         <f aca="false">L7*(L7/E7)</f>
         <v>175334.257996059</v>
       </c>
-      <c r="F33" s="38" t="n">
+      <c r="F33" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E32,MIN((E33-E32),((I$33-I$31)-E32))*D33, 0))</f>
         <v>20033.9660579832</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="I33" s="41" t="n">
         <f aca="false">I32-($B$2*$B$7^2)</f>
-        <v>186652.0748905</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="38" t="n">
+        <v>329897.248544346</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="39" t="n">
         <f aca="false">E33*$B$7</f>
         <v>180822.220271335</v>
       </c>
-      <c r="M33" s="38" t="n">
+      <c r="M33" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L32,MIN((L33-L32),((P$33-P$31)-L32))*K33, 0))</f>
-        <v>20661.0291955981</v>
+        <v>20661.029195598</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="P33" s="40" t="n">
+        <v>60</v>
+      </c>
+      <c r="P33" s="41" t="n">
         <f aca="false">P32-($B$2*$B$7^3)</f>
-        <v>186234.284834573</v>
+        <v>245485.214232987</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="38" t="n">
+      <c r="D34" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="39" t="n">
         <f aca="false">L8*(L8/E8)</f>
         <v>222678.297719947</v>
       </c>
-      <c r="F34" s="38" t="n">
+      <c r="F34" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E33,MIN((E34-E33),((I$33-I$31)-E33))*D34, 0))</f>
-        <v>3621.70140622118</v>
+        <v>15150.0927116442</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I34" s="25" t="n">
         <f aca="false">SUM(F30:F36)</f>
-        <v>39346.1673806311</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" s="38" t="n">
+        <v>58474.3806957477</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="39" t="n">
         <f aca="false">E34*$B$7</f>
         <v>229648.128438582</v>
       </c>
-      <c r="M34" s="38" t="n">
+      <c r="M34" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L33,MIN((L34-L33),((P$33-P$31)-L33))*K34, 0))</f>
-        <v>1731.86066023589</v>
+        <v>4551.06066023604</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" s="25" t="n">
         <f aca="false">SUM(M30:M36)</f>
-        <v>38574.5024196449</v>
+        <v>41393.7024196449</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="38" t="n">
+      <c r="D35" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="39" t="n">
         <f aca="false">L9*(L9/E9)</f>
         <v>556707.42933537</v>
       </c>
-      <c r="F35" s="38" t="n">
+      <c r="F35" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E34,MIN((E35-E34),((I$33-I$31)-E34))*D35, 0))</f>
-        <v>0</v>
+        <v>7599.82200969355</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I35" s="43" t="n">
         <f aca="false">SUM(F40:F42)+SUM(F46:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35" s="38" t="n">
+        <v>12825.7760480769</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="39" t="n">
         <f aca="false">E35*$B$7</f>
         <v>574132.371873568</v>
       </c>
-      <c r="M35" s="38" t="n">
+      <c r="M35" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L34,MIN((L35-L34),((P$33-P$31)-L34))*K35, 0))</f>
         <v>0</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" s="43" t="n">
         <f aca="false">SUM(M40:M42)+SUM(M46:M47)</f>
-        <v>0</v>
+        <v>7566.13940976214</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="42" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="38" t="n">
+      <c r="F36" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E35,((I$33-I$31)-E35)*D36, 0))</f>
         <v>0</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I36" s="45" t="n">
         <f aca="false">(I34+I35)/I32</f>
-        <v>0.196730836903156</v>
-      </c>
-      <c r="K36" s="41" t="s">
+        <v>0.207723697859563</v>
+      </c>
+      <c r="K36" s="42" t="s">
         <v>65</v>
       </c>
       <c r="L36" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="38" t="n">
+      <c r="M36" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L35,((P$33-P$31)-L35)*K36, 0))</f>
         <v>0</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P36" s="45" t="n">
         <f aca="false">(P34+P35)/P32</f>
-        <v>0.192872512098224</v>
+        <v>0.18885117188593</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,32 +3382,32 @@
       <c r="P38" s="52"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>46</v>
+      <c r="D39" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F39" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="K39" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="K39" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L39" s="34" t="s">
-        <v>46</v>
+      <c r="L39" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="M39" s="53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P39" s="52"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="38" t="n">
+      <c r="D40" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="39" t="n">
         <f aca="false">L14*(L14/E14)</f>
         <v>42990.2382425743</v>
       </c>
@@ -3400,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="52"/>
-      <c r="K40" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="38" t="n">
+      <c r="K40" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="39" t="n">
         <f aca="false">E40*$B$7</f>
         <v>44335.8326995668</v>
       </c>
@@ -3414,46 +3430,46 @@
       <c r="P40" s="52"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="55" t="n">
+      <c r="D41" s="56" t="n">
         <v>0.15</v>
       </c>
-      <c r="E41" s="38" t="n">
+      <c r="E41" s="39" t="n">
         <f aca="false">L15*(L15/E15)</f>
         <v>474083.352024223</v>
       </c>
       <c r="F41" s="21" t="n">
         <f aca="false">IF(I$32&gt;E40,IF(I$32&lt;=E41, I$31*D41, 0),0)</f>
-        <v>0</v>
+        <v>12825.7760480769</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I41" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="55" t="n">
+      <c r="I41" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="56" t="n">
         <v>0.15</v>
       </c>
-      <c r="L41" s="38" t="n">
+      <c r="L41" s="39" t="n">
         <f aca="false">E41*$B$7</f>
         <v>488922.160942582</v>
       </c>
       <c r="M41" s="21" t="n">
         <f aca="false">IF(P$32&gt;L40,IF(P$32&lt;=L41, P$31*K41, 0),0)</f>
-        <v>0</v>
+        <v>7566.13940976214</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="P41" s="56" t="n">
+      <c r="P41" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="58" t="n">
+      <c r="D42" s="59" t="n">
         <v>0.2</v>
       </c>
-      <c r="E42" s="73" t="s">
+      <c r="E42" s="74" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="21" t="n">
@@ -3463,11 +3479,11 @@
       <c r="H42" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="56" t="n">
+      <c r="I42" s="57" t="n">
         <f aca="false">I32+I41</f>
-        <v>200000</v>
-      </c>
-      <c r="K42" s="58" t="n">
+        <v>343245.173653846</v>
+      </c>
+      <c r="K42" s="59" t="n">
         <v>0.2</v>
       </c>
       <c r="L42" s="44" t="s">
@@ -3480,9 +3496,9 @@
       <c r="O42" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="P42" s="56" t="n">
+      <c r="P42" s="57" t="n">
         <f aca="false">P32+P41</f>
-        <v>200000</v>
+        <v>259250.929398414</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,7 +3506,7 @@
       <c r="H43" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="56" t="n">
+      <c r="I43" s="57" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(I42-$B4)))</f>
         <v>0</v>
       </c>
@@ -3498,7 +3514,7 @@
       <c r="O43" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="P43" s="56" t="n">
+      <c r="P43" s="57" t="n">
         <f aca="false">MIN($B29,MAX(0,$B31*(P42-$B30)))</f>
         <v>0</v>
       </c>
@@ -3509,65 +3525,65 @@
       </c>
       <c r="E44" s="51"/>
       <c r="F44" s="51"/>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="56" t="n">
+      <c r="I44" s="57" t="n">
         <f aca="false">I42+I43-($B3*$B$7^2)-I31</f>
-        <v>121720.534816</v>
+        <v>179460.534816</v>
       </c>
       <c r="K44" s="51" t="s">
         <v>71</v>
       </c>
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
-      <c r="O44" s="39" t="s">
+      <c r="O44" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="P44" s="56" t="n">
+      <c r="P44" s="57" t="n">
         <f aca="false">P42+P43-($B3*$B$7^3)-P31</f>
-        <v>119270.387555741</v>
+        <v>128080.387555741</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>46</v>
+      <c r="D45" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F45" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="60" t="n">
+        <f aca="false">F51+F52</f>
+        <v>46659.73905216</v>
+      </c>
+      <c r="K45" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="L45" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M45" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="O45" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="59" t="n">
-        <f aca="false">F51+F52</f>
-        <v>31647.33905216</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="P45" s="59" t="n">
+      <c r="P45" s="60" t="n">
         <f aca="false">M51+M52</f>
-        <v>31010.3007644926</v>
+        <v>33300.9007644926</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="38" t="n">
+      <c r="D46" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="39" t="n">
         <v>200000</v>
       </c>
       <c r="F46" s="21" t="n">
@@ -3575,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I46" s="25" t="n">
         <f aca="false">I35</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="38" t="n">
+        <v>12825.7760480769</v>
+      </c>
+      <c r="K46" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="39" t="n">
         <v>200000</v>
       </c>
       <c r="M46" s="21" t="n">
@@ -3592,32 +3608,32 @@
         <v>0</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" s="25" t="n">
         <f aca="false">P35</f>
-        <v>0</v>
+        <v>7566.13940976214</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="61" t="n">
+      <c r="D47" s="62" t="n">
         <v>0.038</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="74" t="s">
         <v>66</v>
       </c>
       <c r="F47" s="21" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E46,(I$31-E46)*D47, 0))</f>
         <v>0</v>
       </c>
-      <c r="H47" s="39" t="s">
-        <v>45</v>
+      <c r="H47" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="I47" s="45" t="n">
         <f aca="false">I45/I42</f>
-        <v>0.1582366952608</v>
-      </c>
-      <c r="K47" s="61" t="n">
+        <v>0.135937057921214</v>
+      </c>
+      <c r="K47" s="62" t="n">
         <v>0.038</v>
       </c>
       <c r="L47" s="44" t="s">
@@ -3627,30 +3643,30 @@
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L46,(P$31-L46)*K47, 0))</f>
         <v>0</v>
       </c>
-      <c r="O47" s="39" t="s">
-        <v>45</v>
+      <c r="O47" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="P47" s="45" t="n">
         <f aca="false">P45/P42</f>
-        <v>0.155051503822463</v>
+        <v>0.128450458564475</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="47"/>
-      <c r="H48" s="39" t="s">
+      <c r="H48" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="I48" s="40" t="n">
+      <c r="I48" s="41" t="n">
         <f aca="false">IF(I34&gt;I45,((I34+I35)-(I45+I46))/D51,0)</f>
-        <v>29610.8781864273</v>
+        <v>45440.9293984143</v>
       </c>
       <c r="K48" s="47"/>
-      <c r="O48" s="39" t="s">
+      <c r="O48" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="P48" s="40" t="n">
+      <c r="P48" s="41" t="n">
         <f aca="false">IF(P34&gt;P45,((P34+P35)-(P45+P46))/K51,0)</f>
-        <v>29093.0832890473</v>
+        <v>31126.1602121243</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,92 +3684,92 @@
       <c r="P49" s="52"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>46</v>
+      <c r="D50" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F50" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="52"/>
+      <c r="K50" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="K50" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="L50" s="34" t="s">
-        <v>46</v>
+      <c r="L50" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="M50" s="53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P50" s="52"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="38" t="n">
+      <c r="E51" s="39" t="n">
         <f aca="false">L25*(L25/E25)</f>
         <v>212492.296148074</v>
       </c>
       <c r="F51" s="21" t="n">
         <f aca="false">MIN(I44,E51)*D51</f>
-        <v>31647.33905216</v>
-      </c>
-      <c r="H51" s="63" t="s">
+        <v>46659.73905216</v>
+      </c>
+      <c r="H51" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="I51" s="63"/>
-      <c r="K51" s="41" t="s">
+      <c r="I51" s="64"/>
+      <c r="K51" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="L51" s="38" t="n">
+      <c r="L51" s="39" t="n">
         <f aca="false">E51*$B$7</f>
         <v>219143.305017509</v>
       </c>
       <c r="M51" s="21" t="n">
         <f aca="false">MIN(P44,L51)*K51</f>
-        <v>31010.3007644926</v>
-      </c>
-      <c r="O51" s="63" t="s">
+        <v>33300.9007644926</v>
+      </c>
+      <c r="O51" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="P51" s="63"/>
+      <c r="P51" s="64"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="66" t="n">
+      <c r="F52" s="67" t="n">
         <f aca="false">IF(I44&gt;E51,(I44-E51)*D52, 0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72" t="n">
+      <c r="G52" s="72"/>
+      <c r="H52" s="73" t="n">
         <f aca="false">I48/Schedule!$A$1</f>
-        <v>3701.35977330341</v>
-      </c>
-      <c r="I52" s="72"/>
-      <c r="K52" s="69" t="s">
+        <v>4544.09293984143</v>
+      </c>
+      <c r="I52" s="73"/>
+      <c r="K52" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="L52" s="70" t="s">
+      <c r="L52" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="M52" s="66" t="n">
+      <c r="M52" s="67" t="n">
         <f aca="false">IF(P44&gt;L51,(P44-L51)*K52, 0)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="71"/>
-      <c r="O52" s="72" t="n">
+      <c r="N52" s="72"/>
+      <c r="O52" s="73" t="n">
         <f aca="false">P48/Schedule!$A$1</f>
-        <v>3636.63541113091</v>
-      </c>
-      <c r="P52" s="72"/>
+        <v>3112.61602121243</v>
+      </c>
+      <c r="P52" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3831,175 +3847,175 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="n">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="n">
         <f aca="false">N1*Q1</f>
         <v>0.8436</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76" t="n">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77" t="n">
         <v>9.25</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77" t="n">
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78" t="n">
         <f aca="false">0.0912</f>
         <v>0.0912</v>
       </c>
-      <c r="R1" s="77"/>
+      <c r="R1" s="78"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="80" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83" t="n">
+      <c r="A4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="84" t="n">
+      <c r="B4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="85" t="n">
+      <c r="C4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="87" t="n">
+      <c r="E4" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="F4" s="88" t="n">
+      <c r="F4" s="89" t="n">
         <f aca="false">0.25*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, MIN(36,E4)/36, 0)</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="85" t="n">
+      <c r="G4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="H4" s="89" t="n">
+      <c r="H4" s="90" t="n">
         <f aca="false">IF(F4=C4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4*0.75/48, 0))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="83" t="n">
+      <c r="I4" s="84" t="n">
         <f aca="false">DATE(YEAR(A4)+1, MONTH(A4)+(0.75*48), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="83" t="n">
+      <c r="J4" s="91"/>
+      <c r="K4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="L4" s="83" t="n">
+      <c r="L4" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="M4" s="84" t="n">
+      <c r="M4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N4" s="85" t="n">
+      <c r="N4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="O4" s="91" t="n">
+      <c r="O4" s="92" t="n">
         <f aca="false">N4*M4</f>
         <v>33</v>
       </c>
-      <c r="P4" s="92" t="n">
+      <c r="P4" s="93" t="n">
         <f aca="false">N4*K$1</f>
         <v>25308</v>
       </c>
-      <c r="Q4" s="83" t="n">
+      <c r="Q4" s="84" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
         <v>44366</v>
       </c>
-      <c r="R4" s="93" t="n">
+      <c r="R4" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q4, P4*0.15, P4*0.35)</f>
         <v>3796.2</v>
       </c>
-      <c r="T4" s="94" t="n">
+      <c r="T4" s="95" t="n">
         <v>0.000276</v>
       </c>
       <c r="U4" s="20" t="n">
@@ -4008,67 +4024,67 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="83" t="n">
+      <c r="A5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="84" t="n">
+      <c r="B5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="85" t="n">
+      <c r="C5" s="86" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="87" t="n">
+      <c r="E5" s="88" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>36</v>
       </c>
-      <c r="F5" s="88" t="n">
+      <c r="F5" s="89" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*MIN(36,E5)/36</f>
         <v>123519</v>
       </c>
-      <c r="G5" s="95" t="n">
+      <c r="G5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="H5" s="89" t="n">
+      <c r="H5" s="90" t="n">
         <f aca="false">IF(F5=C5, 0, C5*0.65/36)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="83" t="n">
+      <c r="I5" s="84" t="n">
         <f aca="false">DATE(YEAR(A5), MONTH(A5)+36, DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="83" t="n">
+      <c r="J5" s="97"/>
+      <c r="K5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="L5" s="83" t="n">
+      <c r="L5" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="M5" s="84" t="n">
+      <c r="M5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N5" s="95" t="n">
+      <c r="N5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="O5" s="91" t="n">
+      <c r="O5" s="92" t="n">
         <f aca="false">M5*N5</f>
         <v>91.7125</v>
       </c>
-      <c r="P5" s="92" t="n">
+      <c r="P5" s="93" t="n">
         <f aca="false">N5*K$1</f>
         <v>70335.15</v>
       </c>
-      <c r="Q5" s="83" t="n">
+      <c r="Q5" s="84" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
         <v>44366</v>
       </c>
-      <c r="R5" s="93" t="n">
+      <c r="R5" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q5, P5*0.15, P5*0.35)</f>
         <v>10550.2725</v>
       </c>
-      <c r="T5" s="94" t="n">
+      <c r="T5" s="95" t="n">
         <v>0.000766</v>
       </c>
       <c r="U5" s="20" t="n">
@@ -4077,67 +4093,67 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="83" t="n">
+      <c r="A6" s="84" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="84" t="n">
+      <c r="B6" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="85" t="n">
+      <c r="C6" s="86" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="87" t="n">
+      <c r="E6" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$18,"M")-12))</f>
         <v>23</v>
       </c>
-      <c r="F6" s="88" t="n">
+      <c r="F6" s="89" t="n">
         <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
         <v>27985.4166666667</v>
       </c>
-      <c r="G6" s="95" t="n">
+      <c r="G6" s="96" t="n">
         <v>10394</v>
       </c>
-      <c r="H6" s="89" t="n">
+      <c r="H6" s="90" t="n">
         <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6/48, 0))</f>
         <v>799.583333333333</v>
       </c>
-      <c r="I6" s="83" t="n">
+      <c r="I6" s="84" t="n">
         <f aca="false">DATE(YEAR(A6)+1, MONTH(A6)+(48*0.75), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97" t="n">
+      <c r="J6" s="97"/>
+      <c r="K6" s="98" t="n">
         <v>43602</v>
       </c>
-      <c r="L6" s="97" t="n">
+      <c r="L6" s="98" t="n">
         <v>44001</v>
       </c>
-      <c r="M6" s="98" t="n">
+      <c r="M6" s="99" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N6" s="99" t="n">
+      <c r="N6" s="100" t="n">
         <v>10394</v>
       </c>
-      <c r="O6" s="100" t="n">
+      <c r="O6" s="101" t="n">
         <f aca="false">M6*N6</f>
         <v>11.4334</v>
       </c>
-      <c r="P6" s="101" t="n">
+      <c r="P6" s="102" t="n">
         <f aca="false">N6*K$1</f>
         <v>8768.3784</v>
       </c>
-      <c r="Q6" s="97" t="n">
+      <c r="Q6" s="98" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
         <v>44366</v>
       </c>
-      <c r="R6" s="102" t="n">
+      <c r="R6" s="103" t="n">
         <f aca="false">IF($C$18&gt;Q6, P6*0.15, P6*0.35)</f>
         <v>1315.25676</v>
       </c>
-      <c r="T6" s="94" t="n">
+      <c r="T6" s="95" t="n">
         <v>9.6E-005</v>
       </c>
       <c r="U6" s="20" t="n">
@@ -4146,394 +4162,394 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="83" t="n">
+      <c r="A7" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="84" t="n">
+      <c r="B7" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="85" t="n">
+      <c r="C7" s="86" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="87" t="n">
+      <c r="E7" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$18,"M")-12))</f>
         <v>17</v>
       </c>
-      <c r="F7" s="88" t="n">
+      <c r="F7" s="89" t="n">
         <f aca="false">0.25*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
         <v>83958.0208333333</v>
       </c>
-      <c r="G7" s="85" t="n">
+      <c r="G7" s="86" t="n">
         <v>32400</v>
       </c>
-      <c r="H7" s="89" t="n">
+      <c r="H7" s="90" t="n">
         <f aca="false">IF(F7=C7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7/48, 0))</f>
         <v>2895.10416666667</v>
       </c>
-      <c r="I7" s="83" t="n">
+      <c r="I7" s="84" t="n">
         <f aca="false">DATE(YEAR(A7)+1, MONTH(A7)+(48*0.75), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="J7" s="90"/>
-      <c r="Q7" s="103"/>
+      <c r="J7" s="91"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="83" t="n">
+      <c r="A8" s="84" t="n">
         <v>44263</v>
       </c>
-      <c r="B8" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="85" t="n">
+      <c r="B8" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="86" t="n">
         <v>330000</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="87" t="n">
+      <c r="E8" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A8,C$18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="88" t="n">
+      <c r="F8" s="89" t="n">
         <f aca="false">0.5*C8*IF($C$18 &gt;= DATE(2022,1,1), 1, 0) + 0.5*C8*IF(DATEDIF(A8,$C$18,"Y")&gt;=1, MIN(36,E8)/36, 0)</f>
         <v>169583.333333333</v>
       </c>
-      <c r="G8" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="89" t="n">
+      <c r="G8" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f aca="false">IF(F8=C8, 0, IF($C$18 &gt;= L9, C8*0.75/36, 0))</f>
         <v>6875</v>
       </c>
-      <c r="I8" s="83" t="n">
+      <c r="I8" s="84" t="n">
         <f aca="false">DATE(YEAR(A8), MONTH(A8)+36, DAY(A8))</f>
         <v>45359</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="83" t="n">
+      <c r="J8" s="91"/>
+      <c r="K8" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="L8" s="105" t="n">
+      <c r="L8" s="106" t="n">
         <v>44324</v>
       </c>
-      <c r="M8" s="84" t="n">
+      <c r="M8" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N8" s="85" t="n">
+      <c r="N8" s="86" t="n">
         <v>32400</v>
       </c>
-      <c r="O8" s="91" t="n">
+      <c r="O8" s="92" t="n">
         <f aca="false">M8*N8</f>
         <v>35.64</v>
       </c>
-      <c r="P8" s="92" t="n">
+      <c r="P8" s="93" t="n">
         <f aca="false">N8*$K$1</f>
         <v>27332.64</v>
       </c>
-      <c r="Q8" s="103" t="n">
+      <c r="Q8" s="104" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
         <v>44689</v>
       </c>
-      <c r="R8" s="93" t="n">
+      <c r="R8" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q8, P8*0.15, P8*0.35)</f>
         <v>9566.424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="83" t="n">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="84" t="n">
         <v>44263</v>
       </c>
-      <c r="L9" s="105" t="n">
+      <c r="L9" s="106" t="n">
         <v>44642</v>
       </c>
-      <c r="M9" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="85" t="n">
+      <c r="M9" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="86" t="n">
         <v>165000</v>
       </c>
-      <c r="O9" s="91" t="n">
+      <c r="O9" s="92" t="n">
         <f aca="false">M9*N9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="92" t="n">
+      <c r="P9" s="93" t="n">
         <f aca="false">N9*$K$1</f>
         <v>139194</v>
       </c>
-      <c r="Q9" s="103" t="n">
+      <c r="Q9" s="104" t="n">
         <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
         <v>45007</v>
       </c>
-      <c r="R9" s="93" t="n">
+      <c r="R9" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q9, P9*0.15, P9*0.35)</f>
         <v>48717.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="107"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="93"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="94"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="108"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="112" t="str">
+      <c r="A16" s="113" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114" t="n">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115" t="n">
         <f aca="false">SUM(C4:C14)</f>
         <v>660864</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="116" t="n">
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="117" t="n">
         <f aca="false">SUM(F4:F14)</f>
         <v>435045.770833333</v>
       </c>
-      <c r="G16" s="114" t="n">
+      <c r="G16" s="115" t="n">
         <f aca="false">SUM(G4:G14)</f>
         <v>156169</v>
       </c>
-      <c r="H16" s="117" t="n">
+      <c r="H16" s="118" t="n">
         <f aca="false">SUM(H4:H8)*K1</f>
         <v>8916.588375</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="120" t="s">
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="121" t="n">
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="122" t="n">
         <f aca="false">SUM(P4:P10)</f>
         <v>270938.1684</v>
       </c>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="124" t="n">
+      <c r="B17" s="124"/>
+      <c r="C17" s="125" t="n">
         <f aca="false">SUM(H4:H14)</f>
         <v>10569.6875</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126" t="n">
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127" t="n">
         <f aca="false">F16/C16</f>
         <v>0.658298486274534</v>
       </c>
-      <c r="G17" s="126" t="n">
+      <c r="G17" s="127" t="n">
         <f aca="false">G16/F16</f>
         <v>0.358971424319002</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="120" t="s">
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="128" t="n">
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="129" t="n">
         <f aca="false">SUM(R4:R10)</f>
         <v>73946.05326</v>
       </c>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="129" t="n">
+      <c r="C18" s="130" t="n">
         <v>44671</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="130" t="n">
+      <c r="D18" s="86"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="131" t="n">
         <f aca="false">H16*12</f>
         <v>106999.0605</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="131" t="s">
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="132" t="n">
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133" t="n">
         <f aca="false">P16-P17</f>
         <v>196992.11514</v>
       </c>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="133" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="134" t="n">
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135" t="n">
         <f aca="false">(C16-G16)*K1*0.65</f>
         <v>276744.4563</v>
       </c>
-      <c r="Q19" s="134"/>
-      <c r="R19" s="134"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N23" s="0" t="n">
@@ -4616,31 +4632,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="21" t="n">
         <v>12550</v>
       </c>
-      <c r="C1" s="135"/>
+      <c r="C1" s="136"/>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="21" t="n">
         <f aca="false">B8-B1+E2</f>
         <v>237450</v>
       </c>
-      <c r="F1" s="136"/>
+      <c r="F1" s="137"/>
       <c r="I1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>74</v>
@@ -4648,17 +4664,17 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>73600</v>
       </c>
-      <c r="C2" s="135"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="0" t="s">
         <v>101</v>
       </c>
       <c r="E2" s="21"/>
-      <c r="F2" s="136"/>
+      <c r="F2" s="137"/>
       <c r="I2" s="21" t="n">
         <f aca="false">MAX(0,E1-B18)*A19+MIN(B18-B17,MAX(0,E1-B17))*A18+MIN(B17-B16,MAX(0,E1-B16))*A17+MIN(B16-B15,MAX(0,E1-B15))*A16+MIN(B15-B14,MAX(0,E1-B14))*A15+MIN(B14-B13,MAX(0,E1-B13))*A14+MIN(B13,MAX(0,E1))*A13+MAX(0,IF(E4&gt;E13,(E4-E13)*D14, 0))+MAX(0,IF(E4&gt;B23,MIN((B24-B23),(E3-B23))*A24, 0))+MAX(0,IF(E4&gt;B24,(E3-B24)*A25, 0))</f>
         <v>59074.85</v>
@@ -4686,26 +4702,26 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>523600</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="137"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="42" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" s="27" t="n">
         <v>0.25</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="0" t="s">
         <v>102</v>
       </c>
@@ -4713,7 +4729,7 @@
         <f aca="false">E1+E3</f>
         <v>237450</v>
       </c>
-      <c r="F4" s="137"/>
+      <c r="F4" s="138"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -4722,14 +4738,14 @@
       <c r="B5" s="11" t="n">
         <v>44378</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="0" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="136"/>
+      <c r="F5" s="137"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4738,7 +4754,7 @@
       <c r="B6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="0" t="s">
         <v>105</v>
       </c>
@@ -4746,7 +4762,7 @@
         <f aca="false">B8+E2+E3+E5</f>
         <v>250000</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="137"/>
       <c r="I6" s="48"/>
       <c r="K6" s="48"/>
     </row>
@@ -4758,7 +4774,7 @@
         <f aca="false">B5+B6</f>
         <v>44558</v>
       </c>
-      <c r="C7" s="135"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="0" t="s">
         <v>107</v>
       </c>
@@ -4766,7 +4782,7 @@
         <f aca="false">MIN(B2,MAX(0,B4*(E6-B3)))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="136"/>
+      <c r="F7" s="137"/>
       <c r="I7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,20 +4792,20 @@
       <c r="B8" s="53" t="n">
         <v>250000</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="137"/>
+      <c r="D8" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="21" t="n">
         <f aca="false">E6-B2+E7</f>
         <v>176400</v>
       </c>
-      <c r="F8" s="136"/>
+      <c r="F8" s="137"/>
       <c r="I8" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4800,68 +4816,68 @@
       <c r="F11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>46</v>
+      <c r="A12" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="139"/>
+      <c r="D12" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="38" t="n">
+      <c r="A13" s="140" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="39" t="n">
         <v>9950</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="38" t="n">
+      <c r="C13" s="141"/>
+      <c r="D13" s="142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="39" t="n">
         <v>200000</v>
       </c>
       <c r="F13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="38" t="n">
+      <c r="A14" s="140" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="39" t="n">
         <v>40525</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141" t="n">
+      <c r="C14" s="141"/>
+      <c r="D14" s="142" t="n">
         <v>0.038</v>
       </c>
       <c r="F14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="38" t="n">
+      <c r="A15" s="140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="39" t="n">
         <v>86375</v>
       </c>
-      <c r="C15" s="140"/>
+      <c r="C15" s="141"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="38" t="n">
+      <c r="A16" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="39" t="n">
         <v>164925</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="141"/>
       <c r="D16" s="19" t="s">
         <v>73</v>
       </c>
@@ -4869,47 +4885,47 @@
       <c r="F16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="139" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="38" t="n">
+      <c r="A17" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="39" t="n">
         <v>209425</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>46</v>
+      <c r="C17" s="141"/>
+      <c r="D17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="48"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="139" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="38" t="n">
+      <c r="A18" s="140" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="39" t="n">
         <v>523600</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="139" t="s">
+      <c r="C18" s="141"/>
+      <c r="D18" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="38" t="n">
+      <c r="E18" s="39" t="n">
         <v>199900</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="142"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="139" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="142"/>
+      <c r="E19" s="143"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
@@ -4919,37 +4935,37 @@
       <c r="C21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="143"/>
+      <c r="A22" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="144"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="144" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" s="38" t="n">
+      <c r="A23" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="39" t="n">
         <v>40400</v>
       </c>
       <c r="C23" s="48"/>
       <c r="F23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="144" t="n">
+      <c r="A24" s="145" t="n">
         <v>0.15</v>
       </c>
-      <c r="B24" s="142" t="n">
+      <c r="B24" s="143" t="n">
         <v>445850</v>
       </c>
       <c r="C24" s="48"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="145" t="n">
+      <c r="A25" s="146" t="n">
         <v>0.2</v>
       </c>
       <c r="C25" s="48"/>
@@ -4985,949 +5001,949 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="146" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="146" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="146" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="146" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="146" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="146" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="146" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="146" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="146" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="146" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="146" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="146" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="146" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="146" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="146" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="146" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="146" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="146" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="147" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="148" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="147" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="147" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="147" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="147" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="147" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="147" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="147" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="147" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="147" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76" t="n">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77" t="n">
         <v>2.5</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="82"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="83"/>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="80" t="s">
+      <c r="L3" s="82"/>
+      <c r="M3" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="80" t="s">
+      <c r="Q3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="80" t="s">
+      <c r="R3" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="82" t="s">
+      <c r="T3" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83" t="n">
+      <c r="A4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="84" t="n">
+      <c r="B4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="85" t="n">
+      <c r="C4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="148" t="n">
+      <c r="D4" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="150" t="n">
+      <c r="F4" s="151" t="n">
         <f aca="false">DATEDIF(A4,C18,"Y")</f>
         <v>4</v>
       </c>
-      <c r="G4" s="87" t="n">
+      <c r="G4" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="H4" s="88" t="n">
+      <c r="H4" s="89" t="n">
         <f aca="false">C4*0.25+C4*G4/48</f>
         <v>30000</v>
       </c>
-      <c r="I4" s="85" t="n">
+      <c r="I4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="J4" s="151" t="n">
+      <c r="J4" s="152" t="n">
         <f aca="false">H4/C4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="83" t="n">
+      <c r="K4" s="84" t="n">
         <f aca="false">DATE(YEAR(A4)+4, MONTH(A4), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="83" t="n">
+      <c r="L4" s="91"/>
+      <c r="M4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="N4" s="83" t="n">
+      <c r="N4" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="O4" s="84" t="n">
+      <c r="O4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P4" s="85" t="n">
+      <c r="P4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="Q4" s="91" t="n">
+      <c r="Q4" s="92" t="n">
         <f aca="false">P4*O4</f>
         <v>33</v>
       </c>
-      <c r="R4" s="92" t="n">
+      <c r="R4" s="93" t="n">
         <f aca="false">P4*M$1</f>
         <v>75000</v>
       </c>
-      <c r="S4" s="83" t="n">
+      <c r="S4" s="84" t="n">
         <f aca="false">DATE(YEAR(N4)+1,MONTH(N4),DAY(N4))</f>
         <v>44366</v>
       </c>
-      <c r="T4" s="93" t="n">
+      <c r="T4" s="94" t="n">
         <f aca="false">IF($C$18&gt;S4, R4*0.15, R4*0.35)</f>
         <v>26250</v>
       </c>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="83" t="n">
+      <c r="A5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="84" t="n">
+      <c r="B5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="85" t="n">
+      <c r="C5" s="86" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="148" t="n">
+      <c r="D5" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="F5" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="87" t="n">
+      <c r="G5" s="88" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>18</v>
       </c>
-      <c r="H5" s="88" t="n">
+      <c r="H5" s="89" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*G5/36</f>
         <v>83375.325</v>
       </c>
-      <c r="I5" s="95" t="n">
+      <c r="I5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="J5" s="151" t="n">
+      <c r="J5" s="152" t="n">
         <f aca="false">H5/C5</f>
         <v>0.675</v>
       </c>
-      <c r="K5" s="83" t="n">
+      <c r="K5" s="84" t="n">
         <f aca="false">DATE(YEAR(A5)+3, MONTH(A5), DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="L5" s="96"/>
-      <c r="M5" s="83" t="n">
+      <c r="L5" s="97"/>
+      <c r="M5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="N5" s="83" t="n">
+      <c r="N5" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="O5" s="84" t="n">
+      <c r="O5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P5" s="95" t="n">
+      <c r="P5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="Q5" s="91" t="n">
+      <c r="Q5" s="92" t="n">
         <f aca="false">O5*P5</f>
         <v>91.7125</v>
       </c>
-      <c r="R5" s="92" t="n">
+      <c r="R5" s="93" t="n">
         <f aca="false">P5*M$1</f>
         <v>208437.5</v>
       </c>
-      <c r="S5" s="83" t="n">
+      <c r="S5" s="84" t="n">
         <f aca="false">DATE(YEAR(N5)+1,MONTH(N5),DAY(N5))</f>
         <v>44366</v>
       </c>
-      <c r="T5" s="93" t="n">
+      <c r="T5" s="94" t="n">
         <f aca="false">IF($C$18&gt;S5, R5*0.15, R5*0.35)</f>
         <v>72953.125</v>
       </c>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="83" t="n">
+      <c r="A6" s="84" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="84" t="n">
+      <c r="B6" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="85" t="n">
+      <c r="C6" s="86" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="148" t="n">
+      <c r="D6" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="149" t="s">
+      <c r="E6" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="150" t="n">
+      <c r="F6" s="151" t="n">
         <f aca="false">DATEDIF(A6,C18,"Y")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="87" t="n">
+      <c r="G6" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="H6" s="88" t="n">
+      <c r="H6" s="89" t="n">
         <f aca="false">C6*0.25+C6*G6/48</f>
         <v>10394.5833333333</v>
       </c>
-      <c r="I6" s="95" t="n">
+      <c r="I6" s="96" t="n">
         <v>10394</v>
       </c>
-      <c r="J6" s="151" t="n">
+      <c r="J6" s="152" t="n">
         <f aca="false">H6/C6</f>
         <v>0.270833333333333</v>
       </c>
-      <c r="K6" s="83" t="n">
+      <c r="K6" s="84" t="n">
         <f aca="false">DATE(YEAR(A6)+4, MONTH(A6), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97" t="n">
+      <c r="L6" s="97"/>
+      <c r="M6" s="98" t="n">
         <v>43602</v>
       </c>
-      <c r="N6" s="97" t="n">
+      <c r="N6" s="98" t="n">
         <v>44001</v>
       </c>
-      <c r="O6" s="98" t="n">
+      <c r="O6" s="99" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P6" s="99" t="n">
+      <c r="P6" s="100" t="n">
         <v>10394</v>
       </c>
-      <c r="Q6" s="100" t="n">
+      <c r="Q6" s="101" t="n">
         <f aca="false">O6*P6</f>
         <v>11.4334</v>
       </c>
-      <c r="R6" s="101" t="n">
+      <c r="R6" s="102" t="n">
         <f aca="false">P6*M$1</f>
         <v>25985</v>
       </c>
-      <c r="S6" s="97" t="n">
+      <c r="S6" s="98" t="n">
         <f aca="false">DATE(YEAR(N6)+1,MONTH(N6),DAY(N6))</f>
         <v>44366</v>
       </c>
-      <c r="T6" s="102" t="n">
+      <c r="T6" s="103" t="n">
         <f aca="false">IF($C$18&gt;S6, R6*0.15, R6*0.35)</f>
         <v>9094.75</v>
       </c>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="83" t="n">
+      <c r="A7" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="84" t="n">
+      <c r="B7" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="85" t="n">
+      <c r="C7" s="86" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="148" t="n">
+      <c r="D7" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="149" t="s">
+      <c r="E7" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="150" t="n">
+      <c r="F7" s="151" t="n">
         <f aca="false">DATEDIF(A7,C18,"Y")</f>
         <v>0</v>
       </c>
-      <c r="G7" s="87" t="n">
+      <c r="G7" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C18,"M")-12))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="88" t="n">
+      <c r="H7" s="89" t="n">
         <f aca="false">C7*IF(F7&gt;=1,0.25,0)+C7*G7/48</f>
         <v>0</v>
       </c>
-      <c r="I7" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="151" t="n">
+      <c r="I7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="152" t="n">
         <f aca="false">H7/C7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="83" t="n">
+      <c r="K7" s="84" t="n">
         <f aca="false">DATE(YEAR(A7)+4, MONTH(A7), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="83" t="n">
+      <c r="L7" s="91"/>
+      <c r="M7" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="N7" s="105" t="n">
+      <c r="N7" s="106" t="n">
         <v>47848</v>
       </c>
-      <c r="O7" s="84" t="n">
+      <c r="O7" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P7" s="85" t="n">
+      <c r="P7" s="86" t="n">
         <f aca="false">H5-I5</f>
         <v>0.325000000011642</v>
       </c>
-      <c r="Q7" s="91" t="n">
+      <c r="Q7" s="92" t="n">
         <f aca="false">O7*P7</f>
         <v>0.000357500000012806</v>
       </c>
-      <c r="R7" s="92" t="n">
+      <c r="R7" s="93" t="n">
         <f aca="false">P7*M$1</f>
         <v>0.812500000029104</v>
       </c>
-      <c r="S7" s="83" t="n">
+      <c r="S7" s="84" t="n">
         <f aca="false">DATE(YEAR(N7)+1,MONTH(N7),DAY(N7))</f>
         <v>48213</v>
       </c>
-      <c r="T7" s="93" t="n">
+      <c r="T7" s="94" t="n">
         <f aca="false">IF($C$18&gt;S7, R7*0.15, R7*0.35)</f>
         <v>0.284375000010186</v>
       </c>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
     </row>
     <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="87"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="83" t="n">
+      <c r="A8" s="88"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="84" t="n">
         <v>43602</v>
       </c>
-      <c r="N8" s="105" t="n">
+      <c r="N8" s="106" t="n">
         <v>47848</v>
       </c>
-      <c r="O8" s="84" t="n">
+      <c r="O8" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P8" s="85" t="n">
+      <c r="P8" s="86" t="n">
         <f aca="false">H6-I6</f>
         <v>0.58333333333394</v>
       </c>
-      <c r="Q8" s="91" t="n">
+      <c r="Q8" s="92" t="n">
         <f aca="false">O8*P8</f>
         <v>0.000641666666667334</v>
       </c>
-      <c r="R8" s="92" t="n">
+      <c r="R8" s="93" t="n">
         <f aca="false">P8*M$1</f>
         <v>1.45833333333485</v>
       </c>
-      <c r="S8" s="83" t="n">
+      <c r="S8" s="84" t="n">
         <f aca="false">DATE(YEAR(N8)+1,MONTH(N8),DAY(N8))</f>
         <v>48213</v>
       </c>
-      <c r="T8" s="93" t="n">
+      <c r="T8" s="94" t="n">
         <f aca="false">IF($C$18&gt;S8, R8*0.15, R8*0.35)</f>
         <v>0.510416666667197</v>
       </c>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="83" t="n">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="N9" s="105" t="n">
+      <c r="N9" s="106" t="n">
         <v>47848</v>
       </c>
-      <c r="O9" s="84" t="n">
+      <c r="O9" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P9" s="85" t="n">
+      <c r="P9" s="86" t="n">
         <f aca="false">H7-I7</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="91" t="n">
+      <c r="Q9" s="92" t="n">
         <f aca="false">O9*P9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="92" t="n">
+      <c r="R9" s="93" t="n">
         <f aca="false">P9*M$1</f>
         <v>0</v>
       </c>
-      <c r="S9" s="83" t="n">
+      <c r="S9" s="84" t="n">
         <f aca="false">DATE(YEAR(N9)+1,MONTH(N9),DAY(N9))</f>
         <v>48213</v>
       </c>
-      <c r="T9" s="93" t="n">
+      <c r="T9" s="94" t="n">
         <f aca="false">IF($C$18&gt;S9, R9*0.15, R9*0.35)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="107"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="108"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-    </row>
-    <row r="16" s="156" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="112" t="str">
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+    </row>
+    <row r="16" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="113" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114" t="n">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115" t="n">
         <f aca="false">SUM(C4:C7)</f>
         <v>330864</v>
       </c>
-      <c r="D16" s="155"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116" t="n">
+      <c r="D16" s="156"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117" t="n">
         <f aca="false">SUM(H4:H8)</f>
         <v>123769.908333333</v>
       </c>
-      <c r="I16" s="114" t="n">
+      <c r="I16" s="115" t="n">
         <f aca="false">SUM(I4:I8)</f>
         <v>123769</v>
       </c>
-      <c r="J16" s="118" t="n">
+      <c r="J16" s="119" t="n">
         <f aca="false">H16/C16</f>
         <v>0.374080916428905</v>
       </c>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120" t="s">
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="121" t="n">
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="122" t="n">
         <f aca="false">SUM(R4:R8)</f>
         <v>309424.770833333</v>
       </c>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="115"/>
-      <c r="AB16" s="115"/>
-      <c r="AC16" s="115"/>
-      <c r="AD16" s="115"/>
-    </row>
-    <row r="17" s="159" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="122"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="120" t="s">
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+    </row>
+    <row r="17" s="160" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="128" t="n">
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="129" t="n">
         <f aca="false">SUM(T4:T9)</f>
         <v>108298.669791667</v>
       </c>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="83"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="129" t="n">
+      <c r="C18" s="130" t="n">
         <v>44001</v>
       </c>
-      <c r="D18" s="129"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="131" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132" t="n">
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="133" t="n">
         <f aca="false">R16-R17</f>
         <v>201126.101041667</v>
       </c>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="83"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="133" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="134" t="n">
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="135" t="n">
         <f aca="false">(C16-H16)*M1*0.65</f>
         <v>336527.898958333</v>
       </c>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="120">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -194,12 +194,18 @@
     <t xml:space="preserve">LT Gains</t>
   </si>
   <si>
+    <t xml:space="preserve">April Exercise</t>
+  </si>
+  <si>
     <t xml:space="preserve">22%</t>
   </si>
   <si>
     <t xml:space="preserve">AGI</t>
   </si>
   <si>
+    <t xml:space="preserve">Orig Shares</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inflation</t>
   </si>
   <si>
@@ -215,10 +221,16 @@
     <t xml:space="preserve">Ordinary</t>
   </si>
   <si>
+    <t xml:space="preserve">Cost</t>
+  </si>
+  <si>
     <t xml:space="preserve">35%</t>
   </si>
   <si>
     <t xml:space="preserve">Invest Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMV</t>
   </si>
   <si>
     <t xml:space="preserve">37%</t>
@@ -788,7 +800,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -961,6 +973,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1005,7 +1025,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1363,10 +1383,6 @@
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1444,9 +1460,7 @@
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1519,7 +1533,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1537,7 +1551,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1618,7 +1632,7 @@
       </c>
       <c r="C4" s="10" t="n">
         <f aca="false">B4*$A$1</f>
-        <v>2030</v>
+        <v>1827</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>43831</v>
@@ -1643,7 +1657,7 @@
       </c>
       <c r="C5" s="10" t="n">
         <f aca="false">B5*$A$1</f>
-        <v>730</v>
+        <v>657</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>43831</v>
@@ -1668,7 +1682,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">B6*$A$1</f>
-        <v>2640</v>
+        <v>2376</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>43831</v>
@@ -1724,14 +1738,14 @@
       </c>
       <c r="C10" s="15" t="n">
         <f aca="false">SUM(C4:C7)</f>
-        <v>5400</v>
+        <v>4860</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">C10*12</f>
-        <v>64800</v>
+        <v>58320</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1754,7 @@
       </c>
       <c r="B11" s="18" t="n">
         <f aca="true">TODAY()</f>
-        <v>44533</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,15 +1804,15 @@
       </c>
       <c r="H16" s="21" t="n">
         <f aca="false">G16*$A$1</f>
-        <v>142410</v>
+        <v>128169</v>
       </c>
       <c r="I16" s="21" t="n">
         <f aca="false">H16*0.15</f>
-        <v>21361.5</v>
+        <v>19225.35</v>
       </c>
       <c r="J16" s="21" t="n">
         <f aca="false">H16-I16</f>
-        <v>121048.5</v>
+        <v>108943.65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,15 +1829,15 @@
       </c>
       <c r="H17" s="21" t="n">
         <f aca="false">G17*$A$1</f>
-        <v>150480</v>
+        <v>135432</v>
       </c>
       <c r="I17" s="21" t="n">
         <f aca="false">H17*0.35</f>
-        <v>52668</v>
+        <v>47401.2</v>
       </c>
       <c r="J17" s="21" t="n">
         <f aca="false">H17-I17</f>
-        <v>97812</v>
+        <v>88030.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,15 +1854,15 @@
       </c>
       <c r="H18" s="21" t="n">
         <f aca="false">G18*$A$1</f>
-        <v>18800</v>
+        <v>16920</v>
       </c>
       <c r="I18" s="21" t="n">
         <f aca="false">H18*0.35</f>
-        <v>6580</v>
+        <v>5922</v>
       </c>
       <c r="J18" s="21" t="n">
         <f aca="false">H18-I18</f>
-        <v>12220</v>
+        <v>10998</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,15 +1879,15 @@
       </c>
       <c r="H19" s="21" t="n">
         <f aca="false">G19*$A$1</f>
-        <v>18810</v>
+        <v>16929</v>
       </c>
       <c r="I19" s="21" t="n">
         <f aca="false">H19*0.35</f>
-        <v>6583.5</v>
+        <v>5925.15</v>
       </c>
       <c r="J19" s="21" t="n">
         <f aca="false">H19-I19</f>
-        <v>12226.5</v>
+        <v>11003.85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,15 +1904,15 @@
       </c>
       <c r="H20" s="21" t="n">
         <f aca="false">G20*$A$1</f>
-        <v>18810</v>
+        <v>16929</v>
       </c>
       <c r="I20" s="21" t="n">
         <f aca="false">H20*0.35</f>
-        <v>6583.5</v>
+        <v>5925.15</v>
       </c>
       <c r="J20" s="21" t="n">
         <f aca="false">H20-I20</f>
-        <v>12226.5</v>
+        <v>11003.85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,19 +1952,19 @@
       <c r="F23" s="8"/>
       <c r="G23" s="20" t="n">
         <f aca="false">AMT!O26</f>
-        <v>8050.51736538461</v>
+        <v>8496.89963675214</v>
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">G23*$A$1</f>
-        <v>80505.1736538461</v>
+        <v>76472.0967307692</v>
       </c>
       <c r="I23" s="21" t="n">
         <f aca="false">H23*0.15</f>
-        <v>12075.7760480769</v>
+        <v>11470.8145096154</v>
       </c>
       <c r="J23" s="21" t="n">
         <f aca="false">H23-I23</f>
-        <v>68429.3976057692</v>
+        <v>65001.2822211539</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,15 +1981,15 @@
       </c>
       <c r="H24" s="21" t="n">
         <f aca="false">G24*$A$1</f>
-        <v>18810</v>
+        <v>16929</v>
       </c>
       <c r="I24" s="21" t="n">
         <f aca="false">H24*0.35</f>
-        <v>6583.5</v>
+        <v>5925.15</v>
       </c>
       <c r="J24" s="21" t="n">
         <f aca="false">H24-I24</f>
-        <v>12226.5</v>
+        <v>11003.85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,15 +2006,15 @@
       </c>
       <c r="H25" s="21" t="n">
         <f aca="false">G25*$A$1</f>
-        <v>18810</v>
+        <v>16929</v>
       </c>
       <c r="I25" s="21" t="n">
         <f aca="false">H25*0.35</f>
-        <v>6583.5</v>
+        <v>5925.15</v>
       </c>
       <c r="J25" s="21" t="n">
         <f aca="false">H25-I25</f>
-        <v>12226.5</v>
+        <v>11003.85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,15 +2031,15 @@
       </c>
       <c r="H26" s="21" t="n">
         <f aca="false">G26*$A$1</f>
-        <v>18810</v>
+        <v>16929</v>
       </c>
       <c r="I26" s="21" t="n">
         <f aca="false">H26*0.35</f>
-        <v>6583.5</v>
+        <v>5925.15</v>
       </c>
       <c r="J26" s="21" t="n">
         <f aca="false">H26-I26</f>
-        <v>12226.5</v>
+        <v>11003.85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,15 +2056,15 @@
       </c>
       <c r="H27" s="21" t="n">
         <f aca="false">G27*$A$1</f>
-        <v>18810</v>
+        <v>16929</v>
       </c>
       <c r="I27" s="21" t="n">
         <f aca="false">H27*0.35</f>
-        <v>6583.5</v>
+        <v>5925.15</v>
       </c>
       <c r="J27" s="21" t="n">
         <f aca="false">H27-I27</f>
-        <v>12226.5</v>
+        <v>11003.85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,19 +2104,19 @@
       <c r="F30" s="8"/>
       <c r="G30" s="20" t="n">
         <f aca="false">AMT!H52</f>
-        <v>4544.09293984143</v>
+        <v>4759.60753999475</v>
       </c>
       <c r="H30" s="21" t="n">
         <f aca="false">G30*$A$1</f>
-        <v>45440.9293984143</v>
+        <v>42836.4678599527</v>
       </c>
       <c r="I30" s="21" t="n">
         <f aca="false">H30*0.15</f>
-        <v>6816.13940976214</v>
+        <v>6425.47017899291</v>
       </c>
       <c r="J30" s="21" t="n">
         <f aca="false">H30-I30</f>
-        <v>38624.7899886521</v>
+        <v>36410.9976809598</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,15 +2133,15 @@
       </c>
       <c r="H31" s="21" t="n">
         <f aca="false">G31*$A$1</f>
-        <v>18810</v>
+        <v>16929</v>
       </c>
       <c r="I31" s="21" t="n">
         <f aca="false">H31*0.35</f>
-        <v>6583.5</v>
+        <v>5925.15</v>
       </c>
       <c r="J31" s="21" t="n">
         <f aca="false">H31-I31</f>
-        <v>12226.5</v>
+        <v>11003.85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,19 +2169,19 @@
       <c r="F34" s="8"/>
       <c r="G34" s="20" t="n">
         <f aca="false">MIN(AMT!B10-G30-G23, AMT!O52)</f>
-        <v>3112.61602121243</v>
+        <v>2674.49282325311</v>
       </c>
       <c r="H34" s="21" t="n">
         <f aca="false">G34*$A$1</f>
-        <v>31126.1602121243</v>
+        <v>24070.435409278</v>
       </c>
       <c r="I34" s="21" t="n">
         <f aca="false">H34*0.15</f>
-        <v>4668.92403181865</v>
+        <v>3610.5653113917</v>
       </c>
       <c r="J34" s="21" t="n">
         <f aca="false">H34-I34</f>
-        <v>26457.2361803057</v>
+        <v>20459.8700978863</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,26 +2207,26 @@
       <c r="F36" s="19"/>
       <c r="G36" s="24" t="n">
         <f aca="false">SUM(G15:G34)</f>
-        <v>60043.2263264385</v>
+        <v>60267</v>
       </c>
       <c r="H36" s="25" t="n">
         <f aca="false">SUM(H15:H34)</f>
-        <v>600432.263264385</v>
+        <v>542403</v>
       </c>
       <c r="I36" s="25" t="n">
         <f aca="false">SUM(I15:I34)</f>
-        <v>150254.839489658</v>
+        <v>135531.45</v>
       </c>
       <c r="J36" s="25" t="n">
         <f aca="false">SUM(J15:J34)</f>
-        <v>450177.423774727</v>
+        <v>406871.55</v>
       </c>
       <c r="K36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="26" t="n">
         <f aca="false">I36/H36</f>
-        <v>0.250244446680402</v>
+        <v>0.249872235219938</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,14 +2235,14 @@
       </c>
       <c r="B38" s="20" t="n">
         <f aca="false">AMT!B10-G23-G30-G34</f>
-        <v>223.773673561531</v>
+        <v>0</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="10" t="n">
         <f aca="false">A1*B38</f>
-        <v>2237.73673561531</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2276,10 +2290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R52"/>
+  <dimension ref="A2:T52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2401,7 +2415,7 @@
       </c>
       <c r="P4" s="41" t="n">
         <f aca="false">175000+SUM(Schedule!H17:H20)</f>
-        <v>381900</v>
+        <v>361210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,12 +2457,16 @@
       </c>
       <c r="P5" s="41" t="n">
         <f aca="false">Schedule!H16+5000</f>
-        <v>147410</v>
-      </c>
+        <v>133169</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="39" t="n">
         <v>86375</v>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="41" t="n">
         <f aca="false">I4+I5</f>
         <v>160000</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L6" s="39" t="n">
         <v>89075</v>
@@ -2476,22 +2494,28 @@
         <v>10406</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6" s="41" t="n">
         <f aca="false">P4+P5</f>
-        <v>529310</v>
+        <v>494379</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>32400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1.0313</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="39" t="n">
         <v>164925</v>
@@ -2502,14 +2526,14 @@
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="41" t="n">
         <f aca="false">I6-$B$2</f>
         <v>147450</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L7" s="39" t="n">
         <v>170050</v>
@@ -2519,16 +2543,23 @@
         <v>19434</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" s="41" t="n">
         <f aca="false">P6-($B$2*$B$7)</f>
-        <v>516367.185</v>
+        <v>481436.185</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="44" t="n">
+        <f aca="false">(1831+656+468)</f>
+        <v>2955</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="39" t="n">
         <v>209425</v>
@@ -2539,14 +2570,14 @@
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I8" s="25" t="n">
         <f aca="false">SUM(F4:F10)</f>
         <v>29409</v>
       </c>
       <c r="K8" s="42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L8" s="39" t="n">
         <v>215950</v>
@@ -2556,16 +2587,22 @@
         <v>14688</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" s="25" t="n">
         <f aca="false">SUM(M4:M10)</f>
-        <v>102888.01475</v>
+        <v>95646.51475</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>35.64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="39" t="n">
         <v>523600</v>
@@ -2576,28 +2613,35 @@
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="43" t="n">
+        <v>67</v>
+      </c>
+      <c r="I9" s="45" t="n">
         <f aca="false">SUM(F14:F16)+SUM(F20:F21)</f>
         <v>0</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L9" s="39" t="n">
         <v>539900</v>
       </c>
       <c r="M9" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L8,MIN((L9-L8),((P$7-P$5)-L8))*K9, 0))</f>
-        <v>53552.51475</v>
+        <v>46311.01475</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="43" t="n">
+        <v>67</v>
+      </c>
+      <c r="P9" s="45" t="n">
         <f aca="false">SUM(M14:M16)+SUM(M20:M21)</f>
-        <v>29482</v>
+        <v>26633.8</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">T6*0.752</f>
+        <v>24364.8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,10 +2653,10 @@
         <v>15931</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="F10" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E9,((I$7-I$5)-E9)*D10, 0))</f>
@@ -2622,15 +2666,15 @@
       <c r="H10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="45" t="n">
+      <c r="I10" s="47" t="n">
         <f aca="false">(I8+I9)/I6</f>
         <v>0.18380625</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="M10" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L9,((P$7-P$5)-L9)*K10, 0))</f>
@@ -2639,31 +2683,31 @@
       <c r="O10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="45" t="n">
+      <c r="P10" s="47" t="n">
         <f aca="false">(P8+P9)/P6</f>
-        <v>0.250080321078385</v>
+        <v>0.247341239716897</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="P11" s="45"/>
-      <c r="R11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="P11" s="47"/>
+      <c r="R11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="K12" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="R12" s="48"/>
+      <c r="D12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="K12" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="R12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="34" t="s">
@@ -2672,24 +2716,24 @@
       <c r="E13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="50"/>
+      <c r="I13" s="52"/>
       <c r="K13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="52"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="54"/>
-      <c r="D14" s="55" t="n">
+      <c r="B14" s="56"/>
+      <c r="D14" s="57" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="39" t="n">
@@ -2699,8 +2743,8 @@
         <f aca="false">IF(I$6&lt;=E14, I$5*D14, 0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="K14" s="56" t="n">
+      <c r="I14" s="52"/>
+      <c r="K14" s="58" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="39" t="n">
@@ -2710,10 +2754,10 @@
         <f aca="false">IF(P$6&lt;=L14, P$5*K14, 0)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="52"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="55" t="n">
+      <c r="D15" s="57" t="n">
         <v>0.15</v>
       </c>
       <c r="E15" s="39" t="n">
@@ -2724,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I15" s="41" t="n">
-        <f aca="false">(1831+656+468)*9.5</f>
-        <v>28072.5</v>
-      </c>
-      <c r="K15" s="56" t="n">
+        <f aca="false">T9-T8</f>
+        <v>24329.16</v>
+      </c>
+      <c r="K15" s="58" t="n">
         <v>0.15</v>
       </c>
       <c r="L15" s="39" t="n">
@@ -2741,90 +2785,90 @@
         <v>0</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="P15" s="57" t="n">
+        <v>72</v>
+      </c>
+      <c r="P15" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="58" t="n">
+      <c r="D16" s="60" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>66</v>
+      <c r="E16" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="21" t="n">
         <f aca="false">IF(I$6&gt;E15,I$5*D16, 0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I16" s="41" t="n">
         <f aca="false">I6+I15</f>
-        <v>188072.5</v>
-      </c>
-      <c r="K16" s="59" t="n">
+        <v>184329.16</v>
+      </c>
+      <c r="K16" s="61" t="n">
         <v>0.2</v>
       </c>
-      <c r="L16" s="44" t="s">
-        <v>66</v>
+      <c r="L16" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="M16" s="21" t="n">
         <f aca="false">IF(P$6&gt;L15,P$5*K16, 0)</f>
-        <v>29482</v>
+        <v>26633.8</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="57" t="n">
+        <v>73</v>
+      </c>
+      <c r="P16" s="59" t="n">
         <f aca="false">P6+P15</f>
-        <v>529310</v>
+        <v>494379</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="46"/>
+      <c r="D17" s="48"/>
       <c r="H17" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I17" s="41" t="n">
         <f aca="false">MIN(B3,MAX(0,B5*(I16-B4)))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="47"/>
+      <c r="K17" s="49"/>
       <c r="O17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="57" t="n">
+        <v>74</v>
+      </c>
+      <c r="P17" s="59" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(P16-$B4)))</f>
-        <v>1427.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="D18" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="H18" s="40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I18" s="41" t="n">
         <f aca="false">I16-B3+I17-I5</f>
-        <v>114472.5</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+        <v>110729.16</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
       <c r="O18" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="57" t="n">
+        <v>76</v>
+      </c>
+      <c r="P18" s="59" t="n">
         <f aca="false">P16+P17-($B3*$B$7)-P5</f>
-        <v>307423.82</v>
+        <v>285306.32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,15 +2878,15 @@
       <c r="E19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="55" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="43" t="n">
+        <v>77</v>
+      </c>
+      <c r="I19" s="45" t="n">
         <f aca="false">F25+F26</f>
-        <v>29762.85</v>
+        <v>28789.5816</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>47</v>
@@ -2850,19 +2894,19 @@
       <c r="L19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="M19" s="55" t="s">
         <v>49</v>
       </c>
       <c r="O19" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="60" t="n">
+        <v>77</v>
+      </c>
+      <c r="P19" s="62" t="n">
         <f aca="false">M25+M26</f>
-        <v>81956.6696</v>
+        <v>75763.7696</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="61" t="n">
+      <c r="D20" s="63" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="39" t="n">
@@ -2873,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I20" s="25" t="n">
         <f aca="false">I9</f>
         <v>0</v>
       </c>
-      <c r="K20" s="62" t="n">
+      <c r="K20" s="64" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="39" t="n">
@@ -2890,19 +2934,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P20" s="25" t="n">
         <f aca="false">P9</f>
-        <v>29482</v>
+        <v>26633.8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="61" t="n">
+      <c r="D21" s="63" t="n">
         <v>0.038</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>66</v>
+      <c r="E21" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="F21" s="21" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E20,(I$5-E20)*D21, 0))</f>
@@ -2911,15 +2955,15 @@
       <c r="H21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="45" t="n">
+      <c r="I21" s="47" t="n">
         <f aca="false">(I19+I20)/I16</f>
-        <v>0.158252003881482</v>
-      </c>
-      <c r="K21" s="62" t="n">
+        <v>0.156185714729021</v>
+      </c>
+      <c r="K21" s="64" t="n">
         <v>0.038</v>
       </c>
-      <c r="L21" s="44" t="s">
-        <v>66</v>
+      <c r="L21" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="M21" s="21" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L20,(P$5-L20)*K21, 0))</f>
@@ -2928,42 +2972,42 @@
       <c r="O21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="45" t="n">
+      <c r="P21" s="47" t="n">
         <f aca="false">(P19+P20)/P16</f>
-        <v>0.210535734446733</v>
+        <v>0.207123622969422</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="46"/>
+      <c r="D22" s="48"/>
       <c r="H22" s="40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I22" s="41" t="n">
         <f aca="false">IF(I8&gt;I19,((I8+I9)-(I19+I20))/D25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="47"/>
+        <v>2382.37846153846</v>
+      </c>
+      <c r="K22" s="49"/>
       <c r="O22" s="40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P22" s="41" t="n">
         <f aca="false">IF(P8&gt;P19,((P8+P9)-(P19+P20))/K25,0)</f>
-        <v>80505.1736538461</v>
+        <v>76472.0967307692</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="K23" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="P23" s="52"/>
+      <c r="D23" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="K23" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="34" t="s">
@@ -2972,38 +3016,38 @@
       <c r="E24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="50"/>
+      <c r="I24" s="52"/>
       <c r="K24" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="53" t="s">
+      <c r="M24" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="52"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E25" s="39" t="n">
         <v>199900</v>
       </c>
       <c r="F25" s="21" t="n">
         <f aca="false">MIN((MIN(I18,E25)*D25),((I7-I5)*D25+I9))</f>
-        <v>29762.85</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="63"/>
+        <v>28789.5816</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="65"/>
       <c r="K25" s="42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L25" s="39" t="n">
         <v>206100</v>
@@ -3012,44 +3056,44 @@
         <f aca="false">MIN(P18,L25)*K25</f>
         <v>53586</v>
       </c>
-      <c r="O25" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" s="64"/>
+      <c r="O25" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="66"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="67" t="n">
+      <c r="D26" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="69" t="n">
         <f aca="false">MIN(IF(I18&gt;E25,(I18-E25)*D26, 0),IF((I5-I18)&gt;E25,(I5*D26),0))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69" t="n">
+      <c r="G26" s="70"/>
+      <c r="H26" s="71" t="n">
         <f aca="false">I22/Schedule!A1</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="69"/>
-      <c r="K26" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" s="67" t="n">
+        <v>264.708717948717</v>
+      </c>
+      <c r="I26" s="71"/>
+      <c r="K26" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="69" t="n">
         <f aca="false">IF(P18&gt;L25,(P18-L25)*K26, 0)</f>
-        <v>28370.6696</v>
-      </c>
-      <c r="N26" s="72"/>
-      <c r="O26" s="73" t="n">
+        <v>22177.7696</v>
+      </c>
+      <c r="N26" s="74"/>
+      <c r="O26" s="75" t="n">
         <f aca="false">P22/Schedule!A1</f>
-        <v>8050.51736538461</v>
-      </c>
-      <c r="P26" s="73"/>
+        <v>8496.89963675214</v>
+      </c>
+      <c r="P26" s="75"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="31" t="s">
@@ -3114,7 +3158,7 @@
       </c>
       <c r="I30" s="41" t="n">
         <f aca="false">182500+SUM(Schedule!H24:H27)</f>
-        <v>257740</v>
+        <v>250216</v>
       </c>
       <c r="K30" s="42" t="s">
         <v>51</v>
@@ -3132,7 +3176,7 @@
       </c>
       <c r="P30" s="41" t="n">
         <f aca="false">190000+Schedule!H31</f>
-        <v>208810</v>
+        <v>206929</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,7 +3196,7 @@
       </c>
       <c r="I31" s="41" t="n">
         <f aca="false">Schedule!H23+5000</f>
-        <v>85505.1736538461</v>
+        <v>81472.0967307692</v>
       </c>
       <c r="K31" s="42" t="s">
         <v>54</v>
@@ -3170,12 +3214,12 @@
       </c>
       <c r="P31" s="41" t="n">
         <f aca="false">Schedule!H30+5000</f>
-        <v>50440.9293984143</v>
+        <v>47836.4678599527</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="39" t="n">
         <f aca="false">L6*(L6/E6)</f>
@@ -3186,14 +3230,14 @@
         <v>10735.085454388</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I32" s="41" t="n">
         <f aca="false">I30+I31</f>
-        <v>343245.173653846</v>
+        <v>331688.096730769</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L32" s="39" t="n">
         <f aca="false">E32*$B$7</f>
@@ -3204,16 +3248,16 @@
         <v>11071.0936291103</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P32" s="41" t="n">
         <f aca="false">P30+P31</f>
-        <v>259250.929398414</v>
+        <v>254765.467859953</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="39" t="n">
         <f aca="false">L7*(L7/E7)</f>
@@ -3224,14 +3268,14 @@
         <v>20033.9660579832</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I33" s="41" t="n">
         <f aca="false">I32-($B$2*$B$7^2)</f>
-        <v>329897.248544346</v>
+        <v>318340.171621269</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L33" s="39" t="n">
         <f aca="false">E33*$B$7</f>
@@ -3242,16 +3286,16 @@
         <v>20661.029195598</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" s="41" t="n">
         <f aca="false">P32-($B$2*$B$7^3)</f>
-        <v>245485.214232987</v>
+        <v>240999.752694525</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="39" t="n">
         <f aca="false">L8*(L8/E8)</f>
@@ -3262,14 +3306,14 @@
         <v>15150.0927116442</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I34" s="25" t="n">
         <f aca="false">SUM(F30:F36)</f>
-        <v>58474.3806957477</v>
+        <v>55840.9806957477</v>
       </c>
       <c r="K34" s="42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L34" s="39" t="n">
         <f aca="false">E34*$B$7</f>
@@ -3277,19 +3321,19 @@
       </c>
       <c r="M34" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L33,MIN((L34-L33),((P$33-P$31)-L33))*K34, 0))</f>
-        <v>4551.06066023604</v>
+        <v>3949.14066023604</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" s="25" t="n">
         <f aca="false">SUM(M30:M36)</f>
-        <v>41393.7024196449</v>
+        <v>40791.7824196449</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E35" s="39" t="n">
         <f aca="false">L9*(L9/E9)</f>
@@ -3297,17 +3341,17 @@
       </c>
       <c r="F35" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E34,MIN((E35-E34),((I$33-I$31)-E34))*D35, 0))</f>
-        <v>7599.82200969355</v>
+        <v>4966.42200969356</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="43" t="n">
+        <v>67</v>
+      </c>
+      <c r="I35" s="45" t="n">
         <f aca="false">SUM(F40:F42)+SUM(F46:F47)</f>
-        <v>12825.7760480769</v>
+        <v>12220.8145096154</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L35" s="39" t="n">
         <f aca="false">E35*$B$7</f>
@@ -3318,19 +3362,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="P35" s="43" t="n">
+        <v>67</v>
+      </c>
+      <c r="P35" s="45" t="n">
         <f aca="false">SUM(M40:M42)+SUM(M46:M47)</f>
-        <v>7566.13940976214</v>
+        <v>7175.47017899291</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="F36" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E35,((I$33-I$31)-E35)*D36, 0))</f>
@@ -3339,15 +3383,15 @@
       <c r="H36" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="45" t="n">
+      <c r="I36" s="47" t="n">
         <f aca="false">(I34+I35)/I32</f>
-        <v>0.207723697859563</v>
+        <v>0.205198184306893</v>
       </c>
       <c r="K36" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="L36" s="44" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="L36" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="M36" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L35,((P$33-P$31)-L35)*K36, 0))</f>
@@ -3356,30 +3400,30 @@
       <c r="O36" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="45" t="n">
+      <c r="P36" s="47" t="n">
         <f aca="false">(P34+P35)/P32</f>
-        <v>0.18885117188593</v>
+        <v>0.188280040468459</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="47"/>
-      <c r="I37" s="45"/>
-      <c r="K37" s="47"/>
-      <c r="P37" s="45"/>
+      <c r="D37" s="49"/>
+      <c r="I37" s="47"/>
+      <c r="K37" s="49"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="I38" s="52"/>
-      <c r="K38" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="P38" s="52"/>
+      <c r="D38" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="I38" s="54"/>
+      <c r="K38" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="P38" s="54"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="37" t="s">
@@ -3388,23 +3432,23 @@
       <c r="E39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="52"/>
+      <c r="I39" s="54"/>
       <c r="K39" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="53" t="s">
+      <c r="M39" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P39" s="52"/>
+      <c r="P39" s="54"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="56" t="n">
+      <c r="D40" s="58" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="39" t="n">
@@ -3415,8 +3459,8 @@
         <f aca="false">IF(I$32&lt;=E40, I$32*D40, 0)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="K40" s="56" t="n">
+      <c r="I40" s="54"/>
+      <c r="K40" s="58" t="n">
         <v>0</v>
       </c>
       <c r="L40" s="39" t="n">
@@ -3427,10 +3471,10 @@
         <f aca="false">IF(P$32&lt;=L40, P$32*K40, 0)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="52"/>
+      <c r="P40" s="54"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="56" t="n">
+      <c r="D41" s="58" t="n">
         <v>0.15</v>
       </c>
       <c r="E41" s="39" t="n">
@@ -3439,15 +3483,15 @@
       </c>
       <c r="F41" s="21" t="n">
         <f aca="false">IF(I$32&gt;E40,IF(I$32&lt;=E41, I$31*D41, 0),0)</f>
-        <v>12825.7760480769</v>
+        <v>12220.8145096154</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="56" t="n">
+        <v>72</v>
+      </c>
+      <c r="I41" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="58" t="n">
         <v>0.15</v>
       </c>
       <c r="L41" s="39" t="n">
@@ -3456,93 +3500,93 @@
       </c>
       <c r="M41" s="21" t="n">
         <f aca="false">IF(P$32&gt;L40,IF(P$32&lt;=L41, P$31*K41, 0),0)</f>
-        <v>7566.13940976214</v>
+        <v>7175.47017899291</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="P41" s="57" t="n">
+        <v>72</v>
+      </c>
+      <c r="P41" s="59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="59" t="n">
+      <c r="D42" s="61" t="n">
         <v>0.2</v>
       </c>
-      <c r="E42" s="74" t="s">
-        <v>66</v>
+      <c r="E42" s="76" t="s">
+        <v>70</v>
       </c>
       <c r="F42" s="21" t="n">
         <f aca="false">IF(I$32&gt;E41,I$31*D42, 0)</f>
         <v>0</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="57" t="n">
+        <v>73</v>
+      </c>
+      <c r="I42" s="59" t="n">
         <f aca="false">I32+I41</f>
-        <v>343245.173653846</v>
-      </c>
-      <c r="K42" s="59" t="n">
+        <v>331688.096730769</v>
+      </c>
+      <c r="K42" s="61" t="n">
         <v>0.2</v>
       </c>
-      <c r="L42" s="44" t="s">
-        <v>66</v>
+      <c r="L42" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="M42" s="21" t="n">
         <f aca="false">IF(P$32&gt;L41,P$31*K42, 0)</f>
         <v>0</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P42" s="57" t="n">
+        <v>73</v>
+      </c>
+      <c r="P42" s="59" t="n">
         <f aca="false">P32+P41</f>
-        <v>259250.929398414</v>
+        <v>254765.467859953</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="47"/>
+      <c r="D43" s="49"/>
       <c r="H43" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I43" s="57" t="n">
+        <v>74</v>
+      </c>
+      <c r="I43" s="59" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(I42-$B4)))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="47"/>
+      <c r="K43" s="49"/>
       <c r="O43" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="P43" s="57" t="n">
+        <v>74</v>
+      </c>
+      <c r="P43" s="59" t="n">
         <f aca="false">MIN($B29,MAX(0,$B31*(P42-$B30)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="D44" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
       <c r="H44" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="I44" s="57" t="n">
+        <v>76</v>
+      </c>
+      <c r="I44" s="59" t="n">
         <f aca="false">I42+I43-($B3*$B$7^2)-I31</f>
-        <v>179460.534816</v>
-      </c>
-      <c r="K44" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
+        <v>171936.534816</v>
+      </c>
+      <c r="K44" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
       <c r="O44" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="P44" s="57" t="n">
+        <v>76</v>
+      </c>
+      <c r="P44" s="59" t="n">
         <f aca="false">P42+P43-($B3*$B$7^3)-P31</f>
-        <v>128080.387555741</v>
+        <v>126199.387555741</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,15 +3596,15 @@
       <c r="E45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="55" t="s">
         <v>49</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I45" s="60" t="n">
+        <v>77</v>
+      </c>
+      <c r="I45" s="62" t="n">
         <f aca="false">F51+F52</f>
-        <v>46659.73905216</v>
+        <v>44703.49905216</v>
       </c>
       <c r="K45" s="37" t="s">
         <v>47</v>
@@ -3568,19 +3612,19 @@
       <c r="L45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M45" s="53" t="s">
+      <c r="M45" s="55" t="s">
         <v>49</v>
       </c>
       <c r="O45" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P45" s="60" t="n">
+        <v>77</v>
+      </c>
+      <c r="P45" s="62" t="n">
         <f aca="false">M51+M52</f>
-        <v>33300.9007644926</v>
+        <v>32811.8407644926</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="62" t="n">
+      <c r="D46" s="64" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="39" t="n">
@@ -3591,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I46" s="25" t="n">
         <f aca="false">I35</f>
-        <v>12825.7760480769</v>
-      </c>
-      <c r="K46" s="62" t="n">
+        <v>12220.8145096154</v>
+      </c>
+      <c r="K46" s="64" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="39" t="n">
@@ -3608,19 +3652,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P46" s="25" t="n">
         <f aca="false">P35</f>
-        <v>7566.13940976214</v>
+        <v>7175.47017899291</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="62" t="n">
+      <c r="D47" s="64" t="n">
         <v>0.038</v>
       </c>
-      <c r="E47" s="74" t="s">
-        <v>66</v>
+      <c r="E47" s="76" t="s">
+        <v>70</v>
       </c>
       <c r="F47" s="21" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E46,(I$31-E46)*D47, 0))</f>
@@ -3629,15 +3673,15 @@
       <c r="H47" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="45" t="n">
+      <c r="I47" s="47" t="n">
         <f aca="false">I45/I42</f>
-        <v>0.135937057921214</v>
-      </c>
-      <c r="K47" s="62" t="n">
+        <v>0.134775710954879</v>
+      </c>
+      <c r="K47" s="64" t="n">
         <v>0.038</v>
       </c>
-      <c r="L47" s="44" t="s">
-        <v>66</v>
+      <c r="L47" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="M47" s="21" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L46,(P$31-L46)*K47, 0))</f>
@@ -3646,42 +3690,42 @@
       <c r="O47" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="P47" s="45" t="n">
+      <c r="P47" s="47" t="n">
         <f aca="false">P45/P42</f>
-        <v>0.128450458564475</v>
+        <v>0.128792340029888</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="47"/>
+      <c r="D48" s="49"/>
       <c r="H48" s="40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I48" s="41" t="n">
         <f aca="false">IF(I34&gt;I45,((I34+I35)-(I45+I46))/D51,0)</f>
-        <v>45440.9293984143</v>
-      </c>
-      <c r="K48" s="47"/>
+        <v>42836.4678599527</v>
+      </c>
+      <c r="K48" s="49"/>
       <c r="O48" s="40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P48" s="41" t="n">
         <f aca="false">IF(P34&gt;P45,((P34+P35)-(P45+P46))/K51,0)</f>
-        <v>31126.1602121243</v>
+        <v>30692.0832890473</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="I49" s="52"/>
-      <c r="K49" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="P49" s="52"/>
+      <c r="D49" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="I49" s="54"/>
+      <c r="K49" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="P49" s="54"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="37" t="s">
@@ -3690,24 +3734,24 @@
       <c r="E50" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="52"/>
+      <c r="I50" s="54"/>
       <c r="K50" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L50" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M50" s="53" t="s">
+      <c r="M50" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="P50" s="52"/>
+      <c r="P50" s="54"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E51" s="39" t="n">
         <f aca="false">L25*(L25/E25)</f>
@@ -3715,14 +3759,14 @@
       </c>
       <c r="F51" s="21" t="n">
         <f aca="false">MIN(I44,E51)*D51</f>
-        <v>46659.73905216</v>
-      </c>
-      <c r="H51" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" s="64"/>
+        <v>44703.49905216</v>
+      </c>
+      <c r="H51" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="66"/>
       <c r="K51" s="42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L51" s="39" t="n">
         <f aca="false">E51*$B$7</f>
@@ -3730,53 +3774,54 @@
       </c>
       <c r="M51" s="21" t="n">
         <f aca="false">MIN(P44,L51)*K51</f>
-        <v>33300.9007644926</v>
-      </c>
-      <c r="O51" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="P51" s="64"/>
+        <v>32811.8407644926</v>
+      </c>
+      <c r="O51" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" s="66"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="67" t="n">
+      <c r="D52" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="69" t="n">
         <f aca="false">IF(I44&gt;E51,(I44-E51)*D52, 0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="73" t="n">
+      <c r="G52" s="74"/>
+      <c r="H52" s="75" t="n">
         <f aca="false">I48/Schedule!$A$1</f>
-        <v>4544.09293984143</v>
-      </c>
-      <c r="I52" s="73"/>
-      <c r="K52" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="L52" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="M52" s="67" t="n">
+        <v>4759.60753999475</v>
+      </c>
+      <c r="I52" s="75"/>
+      <c r="K52" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="M52" s="69" t="n">
         <f aca="false">IF(P44&gt;L51,(P44-L51)*K52, 0)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="72"/>
-      <c r="O52" s="73" t="n">
+      <c r="N52" s="74"/>
+      <c r="O52" s="75" t="n">
         <f aca="false">P48/Schedule!$A$1</f>
-        <v>3112.61602121243</v>
-      </c>
-      <c r="P52" s="73"/>
+        <v>3410.23147656082</v>
+      </c>
+      <c r="P52" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:P3"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="D18:F18"/>
@@ -3847,175 +3892,175 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="77" t="n">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79" t="n">
         <f aca="false">N1*Q1</f>
         <v>0.8436</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77" t="n">
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79" t="n">
         <v>9.25</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="78" t="n">
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="80" t="n">
         <f aca="false">0.0912</f>
         <v>0.0912</v>
       </c>
-      <c r="R1" s="78"/>
+      <c r="R1" s="80"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
+      <c r="A2" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="81" t="s">
+      <c r="A3" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="81" t="s">
+      <c r="D3" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="84"/>
+      <c r="K3" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="L3" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="83" t="s">
+      <c r="O3" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="85" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84" t="n">
+      <c r="A4" s="86" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="85" t="n">
+      <c r="B4" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="86" t="n">
+      <c r="C4" s="88" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="88" t="n">
+      <c r="D4" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="90" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="F4" s="89" t="n">
+      <c r="F4" s="91" t="n">
         <f aca="false">0.25*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, MIN(36,E4)/36, 0)</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="86" t="n">
+      <c r="G4" s="88" t="n">
         <v>30000</v>
       </c>
-      <c r="H4" s="90" t="n">
+      <c r="H4" s="92" t="n">
         <f aca="false">IF(F4=C4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4*0.75/48, 0))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="84" t="n">
+      <c r="I4" s="86" t="n">
         <f aca="false">DATE(YEAR(A4)+1, MONTH(A4)+(0.75*48), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="84" t="n">
+      <c r="J4" s="93"/>
+      <c r="K4" s="86" t="n">
         <v>42457</v>
       </c>
-      <c r="L4" s="84" t="n">
+      <c r="L4" s="86" t="n">
         <v>44001</v>
       </c>
-      <c r="M4" s="85" t="n">
+      <c r="M4" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N4" s="86" t="n">
+      <c r="N4" s="88" t="n">
         <v>30000</v>
       </c>
-      <c r="O4" s="92" t="n">
+      <c r="O4" s="94" t="n">
         <f aca="false">N4*M4</f>
         <v>33</v>
       </c>
-      <c r="P4" s="93" t="n">
+      <c r="P4" s="95" t="n">
         <f aca="false">N4*K$1</f>
         <v>25308</v>
       </c>
-      <c r="Q4" s="84" t="n">
+      <c r="Q4" s="86" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
         <v>44366</v>
       </c>
-      <c r="R4" s="94" t="n">
+      <c r="R4" s="96" t="n">
         <f aca="false">IF($C$18&gt;Q4, P4*0.15, P4*0.35)</f>
         <v>3796.2</v>
       </c>
-      <c r="T4" s="95" t="n">
+      <c r="T4" s="97" t="n">
         <v>0.000276</v>
       </c>
       <c r="U4" s="20" t="n">
@@ -4024,67 +4069,67 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="84" t="n">
+      <c r="A5" s="86" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="85" t="n">
+      <c r="B5" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="86" t="n">
+      <c r="C5" s="88" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="88" t="n">
+      <c r="D5" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="90" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>36</v>
       </c>
-      <c r="F5" s="89" t="n">
+      <c r="F5" s="91" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*MIN(36,E5)/36</f>
         <v>123519</v>
       </c>
-      <c r="G5" s="96" t="n">
+      <c r="G5" s="98" t="n">
         <v>83375</v>
       </c>
-      <c r="H5" s="90" t="n">
+      <c r="H5" s="92" t="n">
         <f aca="false">IF(F5=C5, 0, C5*0.65/36)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="84" t="n">
+      <c r="I5" s="86" t="n">
         <f aca="false">DATE(YEAR(A5), MONTH(A5)+36, DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="84" t="n">
+      <c r="J5" s="99"/>
+      <c r="K5" s="86" t="n">
         <v>43447</v>
       </c>
-      <c r="L5" s="84" t="n">
+      <c r="L5" s="86" t="n">
         <v>44001</v>
       </c>
-      <c r="M5" s="85" t="n">
+      <c r="M5" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N5" s="96" t="n">
+      <c r="N5" s="98" t="n">
         <v>83375</v>
       </c>
-      <c r="O5" s="92" t="n">
+      <c r="O5" s="94" t="n">
         <f aca="false">M5*N5</f>
         <v>91.7125</v>
       </c>
-      <c r="P5" s="93" t="n">
+      <c r="P5" s="95" t="n">
         <f aca="false">N5*K$1</f>
         <v>70335.15</v>
       </c>
-      <c r="Q5" s="84" t="n">
+      <c r="Q5" s="86" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
         <v>44366</v>
       </c>
-      <c r="R5" s="94" t="n">
+      <c r="R5" s="96" t="n">
         <f aca="false">IF($C$18&gt;Q5, P5*0.15, P5*0.35)</f>
         <v>10550.2725</v>
       </c>
-      <c r="T5" s="95" t="n">
+      <c r="T5" s="97" t="n">
         <v>0.000766</v>
       </c>
       <c r="U5" s="20" t="n">
@@ -4093,67 +4138,67 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84" t="n">
+      <c r="A6" s="86" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="85" t="n">
+      <c r="B6" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="86" t="n">
+      <c r="C6" s="88" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="88" t="n">
+      <c r="D6" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="90" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$18,"M")-12))</f>
         <v>23</v>
       </c>
-      <c r="F6" s="89" t="n">
+      <c r="F6" s="91" t="n">
         <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
         <v>27985.4166666667</v>
       </c>
-      <c r="G6" s="96" t="n">
+      <c r="G6" s="98" t="n">
         <v>10394</v>
       </c>
-      <c r="H6" s="90" t="n">
+      <c r="H6" s="92" t="n">
         <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6/48, 0))</f>
         <v>799.583333333333</v>
       </c>
-      <c r="I6" s="84" t="n">
+      <c r="I6" s="86" t="n">
         <f aca="false">DATE(YEAR(A6)+1, MONTH(A6)+(48*0.75), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98" t="n">
+      <c r="J6" s="99"/>
+      <c r="K6" s="100" t="n">
         <v>43602</v>
       </c>
-      <c r="L6" s="98" t="n">
+      <c r="L6" s="100" t="n">
         <v>44001</v>
       </c>
-      <c r="M6" s="99" t="n">
+      <c r="M6" s="101" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N6" s="100" t="n">
+      <c r="N6" s="102" t="n">
         <v>10394</v>
       </c>
-      <c r="O6" s="101" t="n">
+      <c r="O6" s="103" t="n">
         <f aca="false">M6*N6</f>
         <v>11.4334</v>
       </c>
-      <c r="P6" s="102" t="n">
+      <c r="P6" s="104" t="n">
         <f aca="false">N6*K$1</f>
         <v>8768.3784</v>
       </c>
-      <c r="Q6" s="98" t="n">
+      <c r="Q6" s="100" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
         <v>44366</v>
       </c>
-      <c r="R6" s="103" t="n">
+      <c r="R6" s="105" t="n">
         <f aca="false">IF($C$18&gt;Q6, P6*0.15, P6*0.35)</f>
         <v>1315.25676</v>
       </c>
-      <c r="T6" s="95" t="n">
+      <c r="T6" s="97" t="n">
         <v>9.6E-005</v>
       </c>
       <c r="U6" s="20" t="n">
@@ -4162,394 +4207,394 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="84" t="n">
+      <c r="A7" s="86" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="85" t="n">
+      <c r="B7" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="86" t="n">
+      <c r="C7" s="88" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="88" t="n">
+      <c r="D7" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="90" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$18,"M")-12))</f>
         <v>17</v>
       </c>
-      <c r="F7" s="89" t="n">
+      <c r="F7" s="91" t="n">
         <f aca="false">0.25*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
         <v>83958.0208333333</v>
       </c>
-      <c r="G7" s="86" t="n">
+      <c r="G7" s="88" t="n">
         <v>32400</v>
       </c>
-      <c r="H7" s="90" t="n">
+      <c r="H7" s="92" t="n">
         <f aca="false">IF(F7=C7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7/48, 0))</f>
         <v>2895.10416666667</v>
       </c>
-      <c r="I7" s="84" t="n">
+      <c r="I7" s="86" t="n">
         <f aca="false">DATE(YEAR(A7)+1, MONTH(A7)+(48*0.75), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="J7" s="91"/>
-      <c r="Q7" s="104"/>
+      <c r="J7" s="93"/>
+      <c r="Q7" s="106"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="84" t="n">
+      <c r="A8" s="86" t="n">
         <v>44263</v>
       </c>
-      <c r="B8" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="86" t="n">
+      <c r="B8" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="88" t="n">
         <v>330000</v>
       </c>
-      <c r="D8" s="105" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="88" t="n">
+      <c r="D8" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="90" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A8,C$18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="89" t="n">
+      <c r="F8" s="91" t="n">
         <f aca="false">0.5*C8*IF($C$18 &gt;= DATE(2022,1,1), 1, 0) + 0.5*C8*IF(DATEDIF(A8,$C$18,"Y")&gt;=1, MIN(36,E8)/36, 0)</f>
         <v>169583.333333333</v>
       </c>
-      <c r="G8" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="90" t="n">
+      <c r="G8" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="92" t="n">
         <f aca="false">IF(F8=C8, 0, IF($C$18 &gt;= L9, C8*0.75/36, 0))</f>
         <v>6875</v>
       </c>
-      <c r="I8" s="84" t="n">
+      <c r="I8" s="86" t="n">
         <f aca="false">DATE(YEAR(A8), MONTH(A8)+36, DAY(A8))</f>
         <v>45359</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="84" t="n">
+      <c r="J8" s="93"/>
+      <c r="K8" s="86" t="n">
         <v>43769</v>
       </c>
-      <c r="L8" s="106" t="n">
+      <c r="L8" s="108" t="n">
         <v>44324</v>
       </c>
-      <c r="M8" s="85" t="n">
+      <c r="M8" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N8" s="86" t="n">
+      <c r="N8" s="88" t="n">
         <v>32400</v>
       </c>
-      <c r="O8" s="92" t="n">
+      <c r="O8" s="94" t="n">
         <f aca="false">M8*N8</f>
         <v>35.64</v>
       </c>
-      <c r="P8" s="93" t="n">
+      <c r="P8" s="95" t="n">
         <f aca="false">N8*$K$1</f>
         <v>27332.64</v>
       </c>
-      <c r="Q8" s="104" t="n">
+      <c r="Q8" s="106" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
         <v>44689</v>
       </c>
-      <c r="R8" s="94" t="n">
+      <c r="R8" s="96" t="n">
         <f aca="false">IF($C$18&gt;Q8, P8*0.15, P8*0.35)</f>
         <v>9566.424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="84" t="n">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="86" t="n">
         <v>44263</v>
       </c>
-      <c r="L9" s="106" t="n">
+      <c r="L9" s="108" t="n">
         <v>44642</v>
       </c>
-      <c r="M9" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="86" t="n">
+      <c r="M9" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="88" t="n">
         <v>165000</v>
       </c>
-      <c r="O9" s="92" t="n">
+      <c r="O9" s="94" t="n">
         <f aca="false">M9*N9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="93" t="n">
+      <c r="P9" s="95" t="n">
         <f aca="false">N9*$K$1</f>
         <v>139194</v>
       </c>
-      <c r="Q9" s="104" t="n">
+      <c r="Q9" s="106" t="n">
         <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
         <v>45007</v>
       </c>
-      <c r="R9" s="94" t="n">
+      <c r="R9" s="96" t="n">
         <f aca="false">IF($C$18&gt;Q9, P9*0.15, P9*0.35)</f>
         <v>48717.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="108"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="94"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="96"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="86"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="109"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="110"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="113" t="str">
+      <c r="A16" s="115" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115" t="n">
+      <c r="B16" s="116"/>
+      <c r="C16" s="117" t="n">
         <f aca="false">SUM(C4:C14)</f>
         <v>660864</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="117" t="n">
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119" t="n">
         <f aca="false">SUM(F4:F14)</f>
         <v>435045.770833333</v>
       </c>
-      <c r="G16" s="115" t="n">
+      <c r="G16" s="117" t="n">
         <f aca="false">SUM(G4:G14)</f>
         <v>156169</v>
       </c>
-      <c r="H16" s="118" t="n">
+      <c r="H16" s="120" t="n">
         <f aca="false">SUM(H4:H8)*K1</f>
         <v>8916.588375</v>
       </c>
-      <c r="I16" s="119"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="122" t="n">
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="124" t="n">
         <f aca="false">SUM(P4:P10)</f>
         <v>270938.1684</v>
       </c>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125" t="n">
+      <c r="A17" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127" t="n">
         <f aca="false">SUM(H4:H14)</f>
         <v>10569.6875</v>
       </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127" t="n">
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129" t="n">
         <f aca="false">F16/C16</f>
         <v>0.658298486274534</v>
       </c>
-      <c r="G17" s="127" t="n">
+      <c r="G17" s="129" t="n">
         <f aca="false">G16/F16</f>
         <v>0.358971424319002</v>
       </c>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="121" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="121"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="129" t="n">
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="131" t="n">
         <f aca="false">SUM(R4:R10)</f>
         <v>73946.05326</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="129"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="84"/>
-      <c r="B18" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="130" t="n">
+      <c r="A18" s="86"/>
+      <c r="B18" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="132" t="n">
         <v>44671</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="131" t="n">
+      <c r="D18" s="88"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="133" t="n">
         <f aca="false">H16*12</f>
         <v>106999.0605</v>
       </c>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="132" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133" t="n">
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135" t="n">
         <f aca="false">P16-P17</f>
         <v>196992.11514</v>
       </c>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="84"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="134" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="135" t="n">
+      <c r="A19" s="86"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137" t="n">
         <f aca="false">(C16-G16)*K1*0.65</f>
         <v>276744.4563</v>
       </c>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="137"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N23" s="0" t="n">
@@ -4637,15 +4682,15 @@
       <c r="B1" s="21" t="n">
         <v>12550</v>
       </c>
-      <c r="C1" s="136"/>
+      <c r="C1" s="138"/>
       <c r="D1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="21" t="n">
         <f aca="false">B8-B1+E2</f>
         <v>237450</v>
       </c>
-      <c r="F1" s="137"/>
+      <c r="F1" s="139"/>
       <c r="I1" s="7" t="s">
         <v>45</v>
       </c>
@@ -4653,13 +4698,13 @@
         <v>47</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4669,12 +4714,12 @@
       <c r="B2" s="0" t="n">
         <v>73600</v>
       </c>
-      <c r="C2" s="136"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2" s="21"/>
-      <c r="F2" s="137"/>
+      <c r="F2" s="139"/>
       <c r="I2" s="21" t="n">
         <f aca="false">MAX(0,E1-B18)*A19+MIN(B18-B17,MAX(0,E1-B17))*A18+MIN(B17-B16,MAX(0,E1-B16))*A17+MIN(B16-B15,MAX(0,E1-B15))*A16+MIN(B15-B14,MAX(0,E1-B14))*A15+MIN(B14-B13,MAX(0,E1-B13))*A14+MIN(B13,MAX(0,E1))*A13+MAX(0,IF(E4&gt;E13,(E4-E13)*D14, 0))+MAX(0,IF(E4&gt;B23,MIN((B24-B23),(E3-B23))*A24, 0))+MAX(0,IF(E4&gt;B24,(E3-B24)*A25, 0))</f>
         <v>59074.85</v>
@@ -4707,12 +4752,12 @@
       <c r="B3" s="0" t="n">
         <v>523600</v>
       </c>
-      <c r="C3" s="136"/>
+      <c r="C3" s="138"/>
       <c r="D3" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="138"/>
+      <c r="F3" s="140"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4721,86 +4766,86 @@
       <c r="B4" s="27" t="n">
         <v>0.25</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="138"/>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E4" s="21" t="n">
         <f aca="false">E1+E3</f>
         <v>237450</v>
       </c>
-      <c r="F4" s="138"/>
+      <c r="F4" s="140"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>44378</v>
       </c>
-      <c r="C5" s="136"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="137"/>
+      <c r="F5" s="139"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C6" s="136"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E6" s="21" t="n">
         <f aca="false">B8+E2+E3+E5</f>
         <v>250000</v>
       </c>
-      <c r="F6" s="137"/>
-      <c r="I6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="F6" s="139"/>
+      <c r="I6" s="50"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B7" s="11" t="n">
         <f aca="false">B5+B6</f>
         <v>44558</v>
       </c>
-      <c r="C7" s="136"/>
+      <c r="C7" s="138"/>
       <c r="D7" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E7" s="21" t="n">
         <f aca="false">MIN(B2,MAX(0,B4*(E6-B3)))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="137"/>
+      <c r="F7" s="139"/>
       <c r="I7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="53" t="n">
+        <v>112</v>
+      </c>
+      <c r="B8" s="55" t="n">
         <v>250000</v>
       </c>
-      <c r="C8" s="137"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E8" s="21" t="n">
         <f aca="false">E6-B2+E7</f>
         <v>176400</v>
       </c>
-      <c r="F8" s="137"/>
+      <c r="F8" s="139"/>
       <c r="I8" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,7 +4855,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="21"/>
@@ -4822,7 +4867,7 @@
       <c r="B12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="35" t="s">
         <v>47</v>
       </c>
@@ -4832,14 +4877,14 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="142" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="39" t="n">
         <v>9950</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="142" t="n">
+      <c r="C13" s="143"/>
+      <c r="D13" s="144" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="39" t="n">
@@ -4848,50 +4893,50 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="142" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="39" t="n">
         <v>40525</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142" t="n">
+      <c r="C14" s="143"/>
+      <c r="D14" s="144" t="n">
         <v>0.038</v>
       </c>
       <c r="F14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="140" t="s">
-        <v>56</v>
+      <c r="A15" s="142" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="39" t="n">
         <v>86375</v>
       </c>
-      <c r="C15" s="141"/>
+      <c r="C15" s="143"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="140" t="s">
-        <v>59</v>
+      <c r="A16" s="142" t="s">
+        <v>61</v>
       </c>
       <c r="B16" s="39" t="n">
         <v>164925</v>
       </c>
-      <c r="C16" s="141"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="140" t="s">
-        <v>61</v>
+      <c r="A17" s="142" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="39" t="n">
         <v>209425</v>
       </c>
-      <c r="C17" s="141"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="35" t="s">
         <v>47</v>
       </c>
@@ -4899,37 +4944,37 @@
         <v>48</v>
       </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="48"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="140" t="s">
-        <v>63</v>
+      <c r="A18" s="142" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="39" t="n">
         <v>523600</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="140" t="s">
-        <v>75</v>
+      <c r="C18" s="143"/>
+      <c r="D18" s="142" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="39" t="n">
         <v>199900</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="143"/>
+      <c r="A19" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="145"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="145"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -4941,34 +4986,34 @@
       <c r="B22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="144"/>
+      <c r="C22" s="43"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="145" t="n">
+      <c r="A23" s="146" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="39" t="n">
         <v>40400</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="50"/>
       <c r="F23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="145" t="n">
+      <c r="A24" s="146" t="n">
         <v>0.15</v>
       </c>
-      <c r="B24" s="143" t="n">
+      <c r="B24" s="145" t="n">
         <v>445850</v>
       </c>
-      <c r="C24" s="48"/>
+      <c r="C24" s="50"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="146" t="n">
+      <c r="A25" s="147" t="n">
         <v>0.2</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="50"/>
       <c r="F25" s="21"/>
     </row>
   </sheetData>
@@ -5001,949 +5046,949 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="147" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="148" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="147" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="147" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="147" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="147" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="147" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="147" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="147" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="147" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="147" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="148" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="148" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="148" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="149" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="148" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="148" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="148" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="148" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="148" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="148" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="148" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="148" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="148" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="148" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="148" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="148" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="148" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="148" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="148" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77" t="n">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79" t="n">
         <v>2.5</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="83"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="85"/>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
+      <c r="A2" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="81" t="s">
+      <c r="A3" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="81" t="s">
+      <c r="D3" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="84"/>
+      <c r="M3" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="N3" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="K3" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="83" t="s">
+      <c r="Q3" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84" t="n">
+      <c r="A4" s="86" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="85" t="n">
+      <c r="B4" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="86" t="n">
+      <c r="C4" s="88" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="149" t="n">
+      <c r="D4" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="151" t="n">
+      <c r="E4" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="152" t="n">
         <f aca="false">DATEDIF(A4,C18,"Y")</f>
         <v>4</v>
       </c>
-      <c r="G4" s="88" t="n">
+      <c r="G4" s="90" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="H4" s="89" t="n">
+      <c r="H4" s="91" t="n">
         <f aca="false">C4*0.25+C4*G4/48</f>
         <v>30000</v>
       </c>
-      <c r="I4" s="86" t="n">
+      <c r="I4" s="88" t="n">
         <v>30000</v>
       </c>
-      <c r="J4" s="152" t="n">
+      <c r="J4" s="153" t="n">
         <f aca="false">H4/C4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="84" t="n">
+      <c r="K4" s="86" t="n">
         <f aca="false">DATE(YEAR(A4)+4, MONTH(A4), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="84" t="n">
+      <c r="L4" s="93"/>
+      <c r="M4" s="86" t="n">
         <v>42457</v>
       </c>
-      <c r="N4" s="84" t="n">
+      <c r="N4" s="86" t="n">
         <v>44001</v>
       </c>
-      <c r="O4" s="85" t="n">
+      <c r="O4" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P4" s="86" t="n">
+      <c r="P4" s="88" t="n">
         <v>30000</v>
       </c>
-      <c r="Q4" s="92" t="n">
+      <c r="Q4" s="94" t="n">
         <f aca="false">P4*O4</f>
         <v>33</v>
       </c>
-      <c r="R4" s="93" t="n">
+      <c r="R4" s="95" t="n">
         <f aca="false">P4*M$1</f>
         <v>75000</v>
       </c>
-      <c r="S4" s="84" t="n">
+      <c r="S4" s="86" t="n">
         <f aca="false">DATE(YEAR(N4)+1,MONTH(N4),DAY(N4))</f>
         <v>44366</v>
       </c>
-      <c r="T4" s="94" t="n">
+      <c r="T4" s="96" t="n">
         <f aca="false">IF($C$18&gt;S4, R4*0.15, R4*0.35)</f>
         <v>26250</v>
       </c>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="84" t="n">
+      <c r="A5" s="86" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="85" t="n">
+      <c r="B5" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="86" t="n">
+      <c r="C5" s="88" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="149" t="n">
+      <c r="D5" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="153" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="88" t="n">
+      <c r="E5" s="151" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="90" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>18</v>
       </c>
-      <c r="H5" s="89" t="n">
+      <c r="H5" s="91" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*G5/36</f>
         <v>83375.325</v>
       </c>
-      <c r="I5" s="96" t="n">
+      <c r="I5" s="98" t="n">
         <v>83375</v>
       </c>
-      <c r="J5" s="152" t="n">
+      <c r="J5" s="153" t="n">
         <f aca="false">H5/C5</f>
         <v>0.675</v>
       </c>
-      <c r="K5" s="84" t="n">
+      <c r="K5" s="86" t="n">
         <f aca="false">DATE(YEAR(A5)+3, MONTH(A5), DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="L5" s="97"/>
-      <c r="M5" s="84" t="n">
+      <c r="L5" s="99"/>
+      <c r="M5" s="86" t="n">
         <v>43447</v>
       </c>
-      <c r="N5" s="84" t="n">
+      <c r="N5" s="86" t="n">
         <v>44001</v>
       </c>
-      <c r="O5" s="85" t="n">
+      <c r="O5" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P5" s="96" t="n">
+      <c r="P5" s="98" t="n">
         <v>83375</v>
       </c>
-      <c r="Q5" s="92" t="n">
+      <c r="Q5" s="94" t="n">
         <f aca="false">O5*P5</f>
         <v>91.7125</v>
       </c>
-      <c r="R5" s="93" t="n">
+      <c r="R5" s="95" t="n">
         <f aca="false">P5*M$1</f>
         <v>208437.5</v>
       </c>
-      <c r="S5" s="84" t="n">
+      <c r="S5" s="86" t="n">
         <f aca="false">DATE(YEAR(N5)+1,MONTH(N5),DAY(N5))</f>
         <v>44366</v>
       </c>
-      <c r="T5" s="94" t="n">
+      <c r="T5" s="96" t="n">
         <f aca="false">IF($C$18&gt;S5, R5*0.15, R5*0.35)</f>
         <v>72953.125</v>
       </c>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="84" t="n">
+      <c r="A6" s="86" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="85" t="n">
+      <c r="B6" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="86" t="n">
+      <c r="C6" s="88" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="149" t="n">
+      <c r="D6" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="151" t="n">
+      <c r="E6" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="152" t="n">
         <f aca="false">DATEDIF(A6,C18,"Y")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="88" t="n">
+      <c r="G6" s="90" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="H6" s="89" t="n">
+      <c r="H6" s="91" t="n">
         <f aca="false">C6*0.25+C6*G6/48</f>
         <v>10394.5833333333</v>
       </c>
-      <c r="I6" s="96" t="n">
+      <c r="I6" s="98" t="n">
         <v>10394</v>
       </c>
-      <c r="J6" s="152" t="n">
+      <c r="J6" s="153" t="n">
         <f aca="false">H6/C6</f>
         <v>0.270833333333333</v>
       </c>
-      <c r="K6" s="84" t="n">
+      <c r="K6" s="86" t="n">
         <f aca="false">DATE(YEAR(A6)+4, MONTH(A6), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98" t="n">
+      <c r="L6" s="99"/>
+      <c r="M6" s="100" t="n">
         <v>43602</v>
       </c>
-      <c r="N6" s="98" t="n">
+      <c r="N6" s="100" t="n">
         <v>44001</v>
       </c>
-      <c r="O6" s="99" t="n">
+      <c r="O6" s="101" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P6" s="100" t="n">
+      <c r="P6" s="102" t="n">
         <v>10394</v>
       </c>
-      <c r="Q6" s="101" t="n">
+      <c r="Q6" s="103" t="n">
         <f aca="false">O6*P6</f>
         <v>11.4334</v>
       </c>
-      <c r="R6" s="102" t="n">
+      <c r="R6" s="104" t="n">
         <f aca="false">P6*M$1</f>
         <v>25985</v>
       </c>
-      <c r="S6" s="98" t="n">
+      <c r="S6" s="100" t="n">
         <f aca="false">DATE(YEAR(N6)+1,MONTH(N6),DAY(N6))</f>
         <v>44366</v>
       </c>
-      <c r="T6" s="103" t="n">
+      <c r="T6" s="105" t="n">
         <f aca="false">IF($C$18&gt;S6, R6*0.15, R6*0.35)</f>
         <v>9094.75</v>
       </c>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="84" t="n">
+      <c r="A7" s="86" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="85" t="n">
+      <c r="B7" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="86" t="n">
+      <c r="C7" s="88" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="149" t="n">
+      <c r="D7" s="150" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="151" t="n">
+      <c r="E7" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="152" t="n">
         <f aca="false">DATEDIF(A7,C18,"Y")</f>
         <v>0</v>
       </c>
-      <c r="G7" s="88" t="n">
+      <c r="G7" s="90" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C18,"M")-12))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="89" t="n">
+      <c r="H7" s="91" t="n">
         <f aca="false">C7*IF(F7&gt;=1,0.25,0)+C7*G7/48</f>
         <v>0</v>
       </c>
-      <c r="I7" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="152" t="n">
+      <c r="I7" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="153" t="n">
         <f aca="false">H7/C7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="84" t="n">
+      <c r="K7" s="86" t="n">
         <f aca="false">DATE(YEAR(A7)+4, MONTH(A7), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="84" t="n">
+      <c r="L7" s="93"/>
+      <c r="M7" s="86" t="n">
         <v>43447</v>
       </c>
-      <c r="N7" s="106" t="n">
+      <c r="N7" s="108" t="n">
         <v>47848</v>
       </c>
-      <c r="O7" s="85" t="n">
+      <c r="O7" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P7" s="86" t="n">
+      <c r="P7" s="88" t="n">
         <f aca="false">H5-I5</f>
         <v>0.325000000011642</v>
       </c>
-      <c r="Q7" s="92" t="n">
+      <c r="Q7" s="94" t="n">
         <f aca="false">O7*P7</f>
         <v>0.000357500000012806</v>
       </c>
-      <c r="R7" s="93" t="n">
+      <c r="R7" s="95" t="n">
         <f aca="false">P7*M$1</f>
         <v>0.812500000029104</v>
       </c>
-      <c r="S7" s="84" t="n">
+      <c r="S7" s="86" t="n">
         <f aca="false">DATE(YEAR(N7)+1,MONTH(N7),DAY(N7))</f>
         <v>48213</v>
       </c>
-      <c r="T7" s="94" t="n">
+      <c r="T7" s="96" t="n">
         <f aca="false">IF($C$18&gt;S7, R7*0.15, R7*0.35)</f>
         <v>0.284375000010186</v>
       </c>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
     </row>
     <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="88"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="84" t="n">
+      <c r="A8" s="90"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="86" t="n">
         <v>43602</v>
       </c>
-      <c r="N8" s="106" t="n">
+      <c r="N8" s="108" t="n">
         <v>47848</v>
       </c>
-      <c r="O8" s="85" t="n">
+      <c r="O8" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P8" s="86" t="n">
+      <c r="P8" s="88" t="n">
         <f aca="false">H6-I6</f>
         <v>0.58333333333394</v>
       </c>
-      <c r="Q8" s="92" t="n">
+      <c r="Q8" s="94" t="n">
         <f aca="false">O8*P8</f>
         <v>0.000641666666667334</v>
       </c>
-      <c r="R8" s="93" t="n">
+      <c r="R8" s="95" t="n">
         <f aca="false">P8*M$1</f>
         <v>1.45833333333485</v>
       </c>
-      <c r="S8" s="84" t="n">
+      <c r="S8" s="86" t="n">
         <f aca="false">DATE(YEAR(N8)+1,MONTH(N8),DAY(N8))</f>
         <v>48213</v>
       </c>
-      <c r="T8" s="94" t="n">
+      <c r="T8" s="96" t="n">
         <f aca="false">IF($C$18&gt;S8, R8*0.15, R8*0.35)</f>
         <v>0.510416666667197</v>
       </c>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="84" t="n">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="86" t="n">
         <v>43769</v>
       </c>
-      <c r="N9" s="106" t="n">
+      <c r="N9" s="108" t="n">
         <v>47848</v>
       </c>
-      <c r="O9" s="85" t="n">
+      <c r="O9" s="87" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P9" s="86" t="n">
+      <c r="P9" s="88" t="n">
         <f aca="false">H7-I7</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="92" t="n">
+      <c r="Q9" s="94" t="n">
         <f aca="false">O9*P9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="93" t="n">
+      <c r="R9" s="95" t="n">
         <f aca="false">P9*M$1</f>
         <v>0</v>
       </c>
-      <c r="S9" s="84" t="n">
+      <c r="S9" s="86" t="n">
         <f aca="false">DATE(YEAR(N9)+1,MONTH(N9),DAY(N9))</f>
         <v>48213</v>
       </c>
-      <c r="T9" s="94" t="n">
+      <c r="T9" s="96" t="n">
         <f aca="false">IF($C$18&gt;S9, R9*0.15, R9*0.35)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="108"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="86"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="109"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="110"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-    </row>
-    <row r="16" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="113" t="str">
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+    </row>
+    <row r="16" s="158" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="115" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115" t="n">
+      <c r="B16" s="116"/>
+      <c r="C16" s="117" t="n">
         <f aca="false">SUM(C4:C7)</f>
         <v>330864</v>
       </c>
-      <c r="D16" s="156"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117" t="n">
+      <c r="D16" s="157"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119" t="n">
         <f aca="false">SUM(H4:H8)</f>
         <v>123769.908333333</v>
       </c>
-      <c r="I16" s="115" t="n">
+      <c r="I16" s="117" t="n">
         <f aca="false">SUM(I4:I8)</f>
         <v>123769</v>
       </c>
-      <c r="J16" s="119" t="n">
+      <c r="J16" s="121" t="n">
         <f aca="false">H16/C16</f>
         <v>0.374080916428905</v>
       </c>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="122" t="n">
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="124" t="n">
         <f aca="false">SUM(R4:R8)</f>
         <v>309424.770833333</v>
       </c>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-    </row>
-    <row r="17" s="160" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="121" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="121"/>
-      <c r="R17" s="129" t="n">
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+    </row>
+    <row r="17" s="161" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="125"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="131" t="n">
         <f aca="false">SUM(T4:T9)</f>
         <v>108298.669791667</v>
       </c>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
-      <c r="Y17" s="126"/>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="84"/>
-      <c r="B18" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="130" t="n">
+      <c r="A18" s="86"/>
+      <c r="B18" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="132" t="n">
         <v>44001</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="132" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="133" t="n">
+      <c r="D18" s="132"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135" t="n">
         <f aca="false">R16-R17</f>
         <v>201126.101041667</v>
       </c>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="84"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="134"/>
-      <c r="Q19" s="134"/>
-      <c r="R19" s="135" t="n">
+      <c r="A19" s="86"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="136"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="137" t="n">
         <f aca="false">(C16-H16)*M1*0.65</f>
         <v>336527.898958333</v>
       </c>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -800,7 +800,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="161">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -973,416 +973,412 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="13" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1532,7 +1528,7 @@
   </sheetPr>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -1628,11 +1624,11 @@
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">IF($B$11&lt;E4, 203, 0)</f>
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="C4" s="10" t="n">
         <f aca="false">B4*$A$1</f>
-        <v>1827</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>43831</v>
@@ -1734,18 +1730,18 @@
       </c>
       <c r="B10" s="14" t="n">
         <f aca="false">SUM(B4:B7)</f>
-        <v>540</v>
+        <v>337</v>
       </c>
       <c r="C10" s="15" t="n">
         <f aca="false">SUM(C4:C7)</f>
-        <v>4860</v>
+        <v>3033</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">C10*12</f>
-        <v>58320</v>
+        <v>36396</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,7 +1750,7 @@
       </c>
       <c r="B11" s="18" t="n">
         <f aca="true">TODAY()</f>
-        <v>44538</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2398,7 +2394,7 @@
         <v>52</v>
       </c>
       <c r="I4" s="41" t="n">
-        <v>160000</v>
+        <v>153000</v>
       </c>
       <c r="K4" s="42" t="s">
         <v>51</v>
@@ -2459,10 +2455,10 @@
         <f aca="false">Schedule!H16+5000</f>
         <v>133169</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="43"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="38" t="s">
@@ -2481,7 +2477,7 @@
       </c>
       <c r="I6" s="41" t="n">
         <f aca="false">I4+I5</f>
-        <v>160000</v>
+        <v>153000</v>
       </c>
       <c r="K6" s="42" t="s">
         <v>57</v>
@@ -2522,7 +2518,7 @@
       </c>
       <c r="F7" s="39" t="n">
         <f aca="false">MAX(0,IF((I$7-I$5)&gt;E6,MIN((E7-E6),((I$7-I$5)-E6))*D7, 0))</f>
-        <v>14658</v>
+        <v>12978</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="0" t="s">
@@ -2530,7 +2526,7 @@
       </c>
       <c r="I7" s="41" t="n">
         <f aca="false">I6-$B$2</f>
-        <v>147450</v>
+        <v>140450</v>
       </c>
       <c r="K7" s="42" t="s">
         <v>61</v>
@@ -2552,7 +2548,7 @@
       <c r="S7" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="44" t="n">
+      <c r="T7" s="43" t="n">
         <f aca="false">(1831+656+468)</f>
         <v>2955</v>
       </c>
@@ -2574,7 +2570,7 @@
       </c>
       <c r="I8" s="25" t="n">
         <f aca="false">SUM(F4:F10)</f>
-        <v>29409</v>
+        <v>27729</v>
       </c>
       <c r="K8" s="42" t="s">
         <v>63</v>
@@ -2615,7 +2611,7 @@
       <c r="H9" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="45" t="n">
+      <c r="I9" s="44" t="n">
         <f aca="false">SUM(F14:F16)+SUM(F20:F21)</f>
         <v>0</v>
       </c>
@@ -2632,7 +2628,7 @@
       <c r="O9" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="45" t="n">
+      <c r="P9" s="44" t="n">
         <f aca="false">SUM(M14:M16)+SUM(M20:M21)</f>
         <v>26633.8</v>
       </c>
@@ -2655,7 +2651,7 @@
       <c r="D10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="39" t="n">
@@ -2666,14 +2662,14 @@
       <c r="H10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="47" t="n">
+      <c r="I10" s="46" t="n">
         <f aca="false">(I8+I9)/I6</f>
-        <v>0.18380625</v>
+        <v>0.181235294117647</v>
       </c>
       <c r="K10" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M10" s="39" t="n">
@@ -2683,31 +2679,31 @@
       <c r="O10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="47" t="n">
+      <c r="P10" s="46" t="n">
         <f aca="false">(P8+P9)/P6</f>
         <v>0.247341239716897</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="P11" s="47"/>
-      <c r="R11" s="50"/>
+      <c r="D11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="P11" s="46"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="K12" s="53" t="s">
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="K12" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="R12" s="50"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="34" t="s">
@@ -2716,24 +2712,24 @@
       <c r="E13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="51"/>
       <c r="K13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="54"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="56"/>
-      <c r="D14" s="57" t="n">
+      <c r="B14" s="43"/>
+      <c r="D14" s="55" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="39" t="n">
@@ -2743,8 +2739,8 @@
         <f aca="false">IF(I$6&lt;=E14, I$5*D14, 0)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="K14" s="58" t="n">
+      <c r="I14" s="51"/>
+      <c r="K14" s="56" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="39" t="n">
@@ -2754,10 +2750,10 @@
         <f aca="false">IF(P$6&lt;=L14, P$5*K14, 0)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="54"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="57" t="n">
+      <c r="D15" s="55" t="n">
         <v>0.15</v>
       </c>
       <c r="E15" s="39" t="n">
@@ -2774,7 +2770,7 @@
         <f aca="false">T9-T8</f>
         <v>24329.16</v>
       </c>
-      <c r="K15" s="58" t="n">
+      <c r="K15" s="56" t="n">
         <v>0.15</v>
       </c>
       <c r="L15" s="39" t="n">
@@ -2787,15 +2783,15 @@
       <c r="O15" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="59" t="n">
+      <c r="P15" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="60" t="n">
+      <c r="D16" s="58" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="21" t="n">
@@ -2807,12 +2803,12 @@
       </c>
       <c r="I16" s="41" t="n">
         <f aca="false">I6+I15</f>
-        <v>184329.16</v>
-      </c>
-      <c r="K16" s="61" t="n">
+        <v>177329.16</v>
+      </c>
+      <c r="K16" s="59" t="n">
         <v>0.2</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M16" s="21" t="n">
@@ -2822,13 +2818,13 @@
       <c r="O16" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="P16" s="59" t="n">
+      <c r="P16" s="57" t="n">
         <f aca="false">P6+P15</f>
         <v>494379</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="48"/>
+      <c r="D17" s="47"/>
       <c r="H17" s="0" t="s">
         <v>74</v>
       </c>
@@ -2836,37 +2832,37 @@
         <f aca="false">MIN(B3,MAX(0,B5*(I16-B4)))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="48"/>
       <c r="O17" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="P17" s="59" t="n">
+      <c r="P17" s="57" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(P16-$B4)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="H18" s="40" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="41" t="n">
         <f aca="false">I16-B3+I17-I5</f>
-        <v>110729.16</v>
-      </c>
-      <c r="K18" s="53" t="s">
+        <v>103729.16</v>
+      </c>
+      <c r="K18" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
       <c r="O18" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="59" t="n">
+      <c r="P18" s="57" t="n">
         <f aca="false">P16+P17-($B3*$B$7)-P5</f>
         <v>285306.32</v>
       </c>
@@ -2878,15 +2874,15 @@
       <c r="E19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="54" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="45" t="n">
+      <c r="I19" s="44" t="n">
         <f aca="false">F25+F26</f>
-        <v>28789.5816</v>
+        <v>26969.5816</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>47</v>
@@ -2894,19 +2890,19 @@
       <c r="L19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="54" t="s">
         <v>49</v>
       </c>
       <c r="O19" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="P19" s="62" t="n">
+      <c r="P19" s="60" t="n">
         <f aca="false">M25+M26</f>
         <v>75763.7696</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="63" t="n">
+      <c r="D20" s="61" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="39" t="n">
@@ -2923,7 +2919,7 @@
         <f aca="false">I9</f>
         <v>0</v>
       </c>
-      <c r="K20" s="64" t="n">
+      <c r="K20" s="62" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="39" t="n">
@@ -2942,10 +2938,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="63" t="n">
+      <c r="D21" s="61" t="n">
         <v>0.038</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="21" t="n">
@@ -2955,14 +2951,14 @@
       <c r="H21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="47" t="n">
+      <c r="I21" s="46" t="n">
         <f aca="false">(I19+I20)/I16</f>
-        <v>0.156185714729021</v>
-      </c>
-      <c r="K21" s="64" t="n">
+        <v>0.152087685973362</v>
+      </c>
+      <c r="K21" s="62" t="n">
         <v>0.038</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M21" s="21" t="n">
@@ -2972,21 +2968,21 @@
       <c r="O21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="47" t="n">
+      <c r="P21" s="46" t="n">
         <f aca="false">(P19+P20)/P16</f>
         <v>0.207123622969422</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="48"/>
+      <c r="D22" s="47"/>
       <c r="H22" s="40" t="s">
         <v>78</v>
       </c>
       <c r="I22" s="41" t="n">
         <f aca="false">IF(I8&gt;I19,((I8+I9)-(I19+I20))/D25,0)</f>
-        <v>2382.37846153846</v>
-      </c>
-      <c r="K22" s="49"/>
+        <v>2920.83999999999</v>
+      </c>
+      <c r="K22" s="48"/>
       <c r="O22" s="40" t="s">
         <v>78</v>
       </c>
@@ -2996,18 +2992,18 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="K23" s="53" t="s">
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="K23" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="P23" s="54"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="34" t="s">
@@ -3016,20 +3012,20 @@
       <c r="E24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="52"/>
+      <c r="I24" s="51"/>
       <c r="K24" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="55" t="s">
+      <c r="M24" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="P24" s="54"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="38" t="s">
@@ -3040,12 +3036,12 @@
       </c>
       <c r="F25" s="21" t="n">
         <f aca="false">MIN((MIN(I18,E25)*D25),((I7-I5)*D25+I9))</f>
-        <v>28789.5816</v>
-      </c>
-      <c r="H25" s="65" t="s">
+        <v>26969.5816</v>
+      </c>
+      <c r="H25" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="65"/>
+      <c r="I25" s="63"/>
       <c r="K25" s="42" t="s">
         <v>79</v>
       </c>
@@ -3056,44 +3052,44 @@
         <f aca="false">MIN(P18,L25)*K25</f>
         <v>53586</v>
       </c>
-      <c r="O25" s="66" t="s">
+      <c r="O25" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="66"/>
+      <c r="P25" s="64"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="69" t="n">
+      <c r="F26" s="67" t="n">
         <f aca="false">MIN(IF(I18&gt;E25,(I18-E25)*D26, 0),IF((I5-I18)&gt;E25,(I5*D26),0))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="71" t="n">
+      <c r="G26" s="68"/>
+      <c r="H26" s="69" t="n">
         <f aca="false">I22/Schedule!A1</f>
-        <v>264.708717948717</v>
-      </c>
-      <c r="I26" s="71"/>
-      <c r="K26" s="72" t="s">
+        <v>324.537777777777</v>
+      </c>
+      <c r="I26" s="69"/>
+      <c r="K26" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="L26" s="73" t="s">
+      <c r="L26" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="69" t="n">
+      <c r="M26" s="67" t="n">
         <f aca="false">IF(P18&gt;L25,(P18-L25)*K26, 0)</f>
         <v>22177.7696</v>
       </c>
-      <c r="N26" s="74"/>
-      <c r="O26" s="75" t="n">
+      <c r="N26" s="72"/>
+      <c r="O26" s="73" t="n">
         <f aca="false">P22/Schedule!A1</f>
         <v>8496.89963675214</v>
       </c>
-      <c r="P26" s="75"/>
+      <c r="P26" s="73"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="31" t="s">
@@ -3346,7 +3342,7 @@
       <c r="H35" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="45" t="n">
+      <c r="I35" s="44" t="n">
         <f aca="false">SUM(F40:F42)+SUM(F46:F47)</f>
         <v>12220.8145096154</v>
       </c>
@@ -3364,7 +3360,7 @@
       <c r="O35" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P35" s="45" t="n">
+      <c r="P35" s="44" t="n">
         <f aca="false">SUM(M40:M42)+SUM(M46:M47)</f>
         <v>7175.47017899291</v>
       </c>
@@ -3373,7 +3369,7 @@
       <c r="D36" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="45" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="39" t="n">
@@ -3383,14 +3379,14 @@
       <c r="H36" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="47" t="n">
+      <c r="I36" s="46" t="n">
         <f aca="false">(I34+I35)/I32</f>
         <v>0.205198184306893</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="46" t="s">
+      <c r="L36" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M36" s="39" t="n">
@@ -3400,30 +3396,30 @@
       <c r="O36" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="47" t="n">
+      <c r="P36" s="46" t="n">
         <f aca="false">(P34+P35)/P32</f>
         <v>0.188280040468459</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="49"/>
-      <c r="I37" s="47"/>
-      <c r="K37" s="49"/>
-      <c r="P37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="I37" s="46"/>
+      <c r="K37" s="48"/>
+      <c r="P37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="I38" s="54"/>
-      <c r="K38" s="53" t="s">
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="K38" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="P38" s="54"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="P38" s="53"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="37" t="s">
@@ -3432,23 +3428,23 @@
       <c r="E39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="54"/>
+      <c r="I39" s="53"/>
       <c r="K39" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="P39" s="54"/>
+      <c r="P39" s="53"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="58" t="n">
+      <c r="D40" s="56" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="39" t="n">
@@ -3459,8 +3455,8 @@
         <f aca="false">IF(I$32&lt;=E40, I$32*D40, 0)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="54"/>
-      <c r="K40" s="58" t="n">
+      <c r="I40" s="53"/>
+      <c r="K40" s="56" t="n">
         <v>0</v>
       </c>
       <c r="L40" s="39" t="n">
@@ -3471,10 +3467,10 @@
         <f aca="false">IF(P$32&lt;=L40, P$32*K40, 0)</f>
         <v>0</v>
       </c>
-      <c r="P40" s="54"/>
+      <c r="P40" s="53"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="58" t="n">
+      <c r="D41" s="56" t="n">
         <v>0.15</v>
       </c>
       <c r="E41" s="39" t="n">
@@ -3488,10 +3484,10 @@
       <c r="H41" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="58" t="n">
+      <c r="I41" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="56" t="n">
         <v>0.15</v>
       </c>
       <c r="L41" s="39" t="n">
@@ -3505,15 +3501,15 @@
       <c r="O41" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P41" s="59" t="n">
+      <c r="P41" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="61" t="n">
+      <c r="D42" s="59" t="n">
         <v>0.2</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="74" t="s">
         <v>70</v>
       </c>
       <c r="F42" s="21" t="n">
@@ -3523,14 +3519,14 @@
       <c r="H42" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="59" t="n">
+      <c r="I42" s="57" t="n">
         <f aca="false">I32+I41</f>
         <v>331688.096730769</v>
       </c>
-      <c r="K42" s="61" t="n">
+      <c r="K42" s="59" t="n">
         <v>0.2</v>
       </c>
-      <c r="L42" s="46" t="s">
+      <c r="L42" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M42" s="21" t="n">
@@ -3540,51 +3536,51 @@
       <c r="O42" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="P42" s="59" t="n">
+      <c r="P42" s="57" t="n">
         <f aca="false">P32+P41</f>
         <v>254765.467859953</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="49"/>
+      <c r="D43" s="48"/>
       <c r="H43" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="59" t="n">
+      <c r="I43" s="57" t="n">
         <f aca="false">MIN($B3,MAX(0,$B5*(I42-$B4)))</f>
         <v>0</v>
       </c>
-      <c r="K43" s="49"/>
+      <c r="K43" s="48"/>
       <c r="O43" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="P43" s="59" t="n">
+      <c r="P43" s="57" t="n">
         <f aca="false">MIN($B29,MAX(0,$B31*(P42-$B30)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
       <c r="H44" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="59" t="n">
+      <c r="I44" s="57" t="n">
         <f aca="false">I42+I43-($B3*$B$7^2)-I31</f>
         <v>171936.534816</v>
       </c>
-      <c r="K44" s="53" t="s">
+      <c r="K44" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
       <c r="O44" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="P44" s="59" t="n">
+      <c r="P44" s="57" t="n">
         <f aca="false">P42+P43-($B3*$B$7^3)-P31</f>
         <v>126199.387555741</v>
       </c>
@@ -3596,13 +3592,13 @@
       <c r="E45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="54" t="s">
         <v>49</v>
       </c>
       <c r="H45" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="62" t="n">
+      <c r="I45" s="60" t="n">
         <f aca="false">F51+F52</f>
         <v>44703.49905216</v>
       </c>
@@ -3612,19 +3608,19 @@
       <c r="L45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M45" s="55" t="s">
+      <c r="M45" s="54" t="s">
         <v>49</v>
       </c>
       <c r="O45" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="P45" s="62" t="n">
+      <c r="P45" s="60" t="n">
         <f aca="false">M51+M52</f>
         <v>32811.8407644926</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="64" t="n">
+      <c r="D46" s="62" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="39" t="n">
@@ -3641,7 +3637,7 @@
         <f aca="false">I35</f>
         <v>12220.8145096154</v>
       </c>
-      <c r="K46" s="64" t="n">
+      <c r="K46" s="62" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="39" t="n">
@@ -3660,10 +3656,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="64" t="n">
+      <c r="D47" s="62" t="n">
         <v>0.038</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="74" t="s">
         <v>70</v>
       </c>
       <c r="F47" s="21" t="n">
@@ -3673,14 +3669,14 @@
       <c r="H47" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I47" s="47" t="n">
+      <c r="I47" s="46" t="n">
         <f aca="false">I45/I42</f>
         <v>0.134775710954879</v>
       </c>
-      <c r="K47" s="64" t="n">
+      <c r="K47" s="62" t="n">
         <v>0.038</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L47" s="45" t="s">
         <v>70</v>
       </c>
       <c r="M47" s="21" t="n">
@@ -3690,13 +3686,13 @@
       <c r="O47" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="P47" s="47" t="n">
+      <c r="P47" s="46" t="n">
         <f aca="false">P45/P42</f>
         <v>0.128792340029888</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="49"/>
+      <c r="D48" s="48"/>
       <c r="H48" s="40" t="s">
         <v>78</v>
       </c>
@@ -3704,7 +3700,7 @@
         <f aca="false">IF(I34&gt;I45,((I34+I35)-(I45+I46))/D51,0)</f>
         <v>42836.4678599527</v>
       </c>
-      <c r="K48" s="49"/>
+      <c r="K48" s="48"/>
       <c r="O48" s="40" t="s">
         <v>78</v>
       </c>
@@ -3714,18 +3710,18 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="I49" s="54"/>
-      <c r="K49" s="53" t="s">
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="K49" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="P49" s="54"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="P49" s="53"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="37" t="s">
@@ -3734,20 +3730,20 @@
       <c r="E50" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="F50" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="54"/>
+      <c r="I50" s="53"/>
       <c r="K50" s="37" t="s">
         <v>47</v>
       </c>
       <c r="L50" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="M50" s="55" t="s">
+      <c r="M50" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="P50" s="54"/>
+      <c r="P50" s="53"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="42" t="s">
@@ -3761,10 +3757,10 @@
         <f aca="false">MIN(I44,E51)*D51</f>
         <v>44703.49905216</v>
       </c>
-      <c r="H51" s="66" t="s">
+      <c r="H51" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="I51" s="66"/>
+      <c r="I51" s="64"/>
       <c r="K51" s="42" t="s">
         <v>79</v>
       </c>
@@ -3776,44 +3772,44 @@
         <f aca="false">MIN(P44,L51)*K51</f>
         <v>32811.8407644926</v>
       </c>
-      <c r="O51" s="66" t="s">
+      <c r="O51" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="66"/>
+      <c r="P51" s="64"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="73" t="s">
+      <c r="E52" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="69" t="n">
+      <c r="F52" s="67" t="n">
         <f aca="false">IF(I44&gt;E51,(I44-E51)*D52, 0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="74"/>
-      <c r="H52" s="75" t="n">
+      <c r="G52" s="72"/>
+      <c r="H52" s="73" t="n">
         <f aca="false">I48/Schedule!$A$1</f>
         <v>4759.60753999475</v>
       </c>
-      <c r="I52" s="75"/>
-      <c r="K52" s="72" t="s">
+      <c r="I52" s="73"/>
+      <c r="K52" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="L52" s="73" t="s">
+      <c r="L52" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="M52" s="69" t="n">
+      <c r="M52" s="67" t="n">
         <f aca="false">IF(P44&gt;L51,(P44-L51)*K52, 0)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="74"/>
-      <c r="O52" s="75" t="n">
+      <c r="N52" s="72"/>
+      <c r="O52" s="73" t="n">
         <f aca="false">P48/Schedule!$A$1</f>
         <v>3410.23147656082</v>
       </c>
-      <c r="P52" s="75"/>
+      <c r="P52" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3892,175 +3888,175 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79" t="n">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="n">
         <f aca="false">N1*Q1</f>
         <v>0.8436</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79" t="n">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77" t="n">
         <v>9.25</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="80" t="n">
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78" t="n">
         <f aca="false">0.0912</f>
         <v>0.0912</v>
       </c>
-      <c r="R1" s="80"/>
+      <c r="R1" s="78"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="83" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="85" t="s">
+      <c r="Q3" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="86" t="n">
+      <c r="A4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="87" t="n">
+      <c r="B4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="88" t="n">
+      <c r="C4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="90" t="n">
+      <c r="E4" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="F4" s="91" t="n">
+      <c r="F4" s="89" t="n">
         <f aca="false">0.25*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C4*IF(DATEDIF(A4,$C$18,"Y")&gt;=1, MIN(36,E4)/36, 0)</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="88" t="n">
+      <c r="G4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="H4" s="92" t="n">
+      <c r="H4" s="90" t="n">
         <f aca="false">IF(F4=C4, 0, IF(DATEDIF(A4,$C$18,"Y")&gt;=1, C4*0.75/48, 0))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="86" t="n">
+      <c r="I4" s="84" t="n">
         <f aca="false">DATE(YEAR(A4)+1, MONTH(A4)+(0.75*48), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="86" t="n">
+      <c r="J4" s="91"/>
+      <c r="K4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="L4" s="86" t="n">
+      <c r="L4" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="M4" s="87" t="n">
+      <c r="M4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N4" s="88" t="n">
+      <c r="N4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="O4" s="94" t="n">
+      <c r="O4" s="92" t="n">
         <f aca="false">N4*M4</f>
         <v>33</v>
       </c>
-      <c r="P4" s="95" t="n">
+      <c r="P4" s="93" t="n">
         <f aca="false">N4*K$1</f>
         <v>25308</v>
       </c>
-      <c r="Q4" s="86" t="n">
+      <c r="Q4" s="84" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
         <v>44366</v>
       </c>
-      <c r="R4" s="96" t="n">
+      <c r="R4" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q4, P4*0.15, P4*0.35)</f>
         <v>3796.2</v>
       </c>
-      <c r="T4" s="97" t="n">
+      <c r="T4" s="95" t="n">
         <v>0.000276</v>
       </c>
       <c r="U4" s="20" t="n">
@@ -4069,67 +4065,67 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="86" t="n">
+      <c r="A5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="87" t="n">
+      <c r="B5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="88" t="n">
+      <c r="C5" s="86" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="90" t="n">
+      <c r="E5" s="88" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>36</v>
       </c>
-      <c r="F5" s="91" t="n">
+      <c r="F5" s="89" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*MIN(36,E5)/36</f>
         <v>123519</v>
       </c>
-      <c r="G5" s="98" t="n">
+      <c r="G5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="H5" s="92" t="n">
+      <c r="H5" s="90" t="n">
         <f aca="false">IF(F5=C5, 0, C5*0.65/36)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="86" t="n">
+      <c r="I5" s="84" t="n">
         <f aca="false">DATE(YEAR(A5), MONTH(A5)+36, DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="J5" s="99"/>
-      <c r="K5" s="86" t="n">
+      <c r="J5" s="97"/>
+      <c r="K5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="L5" s="86" t="n">
+      <c r="L5" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="M5" s="87" t="n">
+      <c r="M5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N5" s="98" t="n">
+      <c r="N5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="O5" s="94" t="n">
+      <c r="O5" s="92" t="n">
         <f aca="false">M5*N5</f>
         <v>91.7125</v>
       </c>
-      <c r="P5" s="95" t="n">
+      <c r="P5" s="93" t="n">
         <f aca="false">N5*K$1</f>
         <v>70335.15</v>
       </c>
-      <c r="Q5" s="86" t="n">
+      <c r="Q5" s="84" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
         <v>44366</v>
       </c>
-      <c r="R5" s="96" t="n">
+      <c r="R5" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q5, P5*0.15, P5*0.35)</f>
         <v>10550.2725</v>
       </c>
-      <c r="T5" s="97" t="n">
+      <c r="T5" s="95" t="n">
         <v>0.000766</v>
       </c>
       <c r="U5" s="20" t="n">
@@ -4138,67 +4134,67 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="86" t="n">
+      <c r="A6" s="84" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="87" t="n">
+      <c r="B6" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="88" t="n">
+      <c r="C6" s="86" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="90" t="n">
+      <c r="E6" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$18,"M")-12))</f>
         <v>23</v>
       </c>
-      <c r="F6" s="91" t="n">
+      <c r="F6" s="89" t="n">
         <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$18,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
         <v>27985.4166666667</v>
       </c>
-      <c r="G6" s="98" t="n">
+      <c r="G6" s="96" t="n">
         <v>10394</v>
       </c>
-      <c r="H6" s="92" t="n">
+      <c r="H6" s="90" t="n">
         <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$18,"Y")&gt;=1, C6/48, 0))</f>
         <v>799.583333333333</v>
       </c>
-      <c r="I6" s="86" t="n">
+      <c r="I6" s="84" t="n">
         <f aca="false">DATE(YEAR(A6)+1, MONTH(A6)+(48*0.75), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="100" t="n">
+      <c r="J6" s="97"/>
+      <c r="K6" s="98" t="n">
         <v>43602</v>
       </c>
-      <c r="L6" s="100" t="n">
+      <c r="L6" s="98" t="n">
         <v>44001</v>
       </c>
-      <c r="M6" s="101" t="n">
+      <c r="M6" s="99" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N6" s="102" t="n">
+      <c r="N6" s="100" t="n">
         <v>10394</v>
       </c>
-      <c r="O6" s="103" t="n">
+      <c r="O6" s="101" t="n">
         <f aca="false">M6*N6</f>
         <v>11.4334</v>
       </c>
-      <c r="P6" s="104" t="n">
+      <c r="P6" s="102" t="n">
         <f aca="false">N6*K$1</f>
         <v>8768.3784</v>
       </c>
-      <c r="Q6" s="100" t="n">
+      <c r="Q6" s="98" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
         <v>44366</v>
       </c>
-      <c r="R6" s="105" t="n">
+      <c r="R6" s="103" t="n">
         <f aca="false">IF($C$18&gt;Q6, P6*0.15, P6*0.35)</f>
         <v>1315.25676</v>
       </c>
-      <c r="T6" s="97" t="n">
+      <c r="T6" s="95" t="n">
         <v>9.6E-005</v>
       </c>
       <c r="U6" s="20" t="n">
@@ -4207,394 +4203,394 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="86" t="n">
+      <c r="A7" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="87" t="n">
+      <c r="B7" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="88" t="n">
+      <c r="C7" s="86" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="90" t="n">
+      <c r="E7" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$18,"M")-12))</f>
         <v>17</v>
       </c>
-      <c r="F7" s="91" t="n">
+      <c r="F7" s="89" t="n">
         <f aca="false">0.25*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, 1, 0) + 0.75*C7*IF(DATEDIF(A7,$C$18,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
         <v>83958.0208333333</v>
       </c>
-      <c r="G7" s="88" t="n">
+      <c r="G7" s="86" t="n">
         <v>32400</v>
       </c>
-      <c r="H7" s="92" t="n">
+      <c r="H7" s="90" t="n">
         <f aca="false">IF(F7=C7, 0, IF(DATEDIF(A7,$C$18,"Y")&gt;=1, C7/48, 0))</f>
         <v>2895.10416666667</v>
       </c>
-      <c r="I7" s="86" t="n">
+      <c r="I7" s="84" t="n">
         <f aca="false">DATE(YEAR(A7)+1, MONTH(A7)+(48*0.75), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="Q7" s="106"/>
+      <c r="J7" s="91"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="86" t="n">
+      <c r="A8" s="84" t="n">
         <v>44263</v>
       </c>
-      <c r="B8" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="88" t="n">
+      <c r="B8" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="86" t="n">
         <v>330000</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="90" t="n">
+      <c r="E8" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A8,C$18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="91" t="n">
+      <c r="F8" s="89" t="n">
         <f aca="false">0.5*C8*IF($C$18 &gt;= DATE(2022,1,1), 1, 0) + 0.5*C8*IF(DATEDIF(A8,$C$18,"Y")&gt;=1, MIN(36,E8)/36, 0)</f>
         <v>169583.333333333</v>
       </c>
-      <c r="G8" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="92" t="n">
+      <c r="G8" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="90" t="n">
         <f aca="false">IF(F8=C8, 0, IF($C$18 &gt;= L9, C8*0.75/36, 0))</f>
         <v>6875</v>
       </c>
-      <c r="I8" s="86" t="n">
+      <c r="I8" s="84" t="n">
         <f aca="false">DATE(YEAR(A8), MONTH(A8)+36, DAY(A8))</f>
         <v>45359</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="86" t="n">
+      <c r="J8" s="91"/>
+      <c r="K8" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="L8" s="108" t="n">
+      <c r="L8" s="106" t="n">
         <v>44324</v>
       </c>
-      <c r="M8" s="87" t="n">
+      <c r="M8" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="N8" s="88" t="n">
+      <c r="N8" s="86" t="n">
         <v>32400</v>
       </c>
-      <c r="O8" s="94" t="n">
+      <c r="O8" s="92" t="n">
         <f aca="false">M8*N8</f>
         <v>35.64</v>
       </c>
-      <c r="P8" s="95" t="n">
+      <c r="P8" s="93" t="n">
         <f aca="false">N8*$K$1</f>
         <v>27332.64</v>
       </c>
-      <c r="Q8" s="106" t="n">
+      <c r="Q8" s="104" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
         <v>44689</v>
       </c>
-      <c r="R8" s="96" t="n">
+      <c r="R8" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q8, P8*0.15, P8*0.35)</f>
         <v>9566.424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="86" t="n">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="84" t="n">
         <v>44263</v>
       </c>
-      <c r="L9" s="108" t="n">
+      <c r="L9" s="106" t="n">
         <v>44642</v>
       </c>
-      <c r="M9" s="87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="88" t="n">
+      <c r="M9" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="86" t="n">
         <v>165000</v>
       </c>
-      <c r="O9" s="94" t="n">
+      <c r="O9" s="92" t="n">
         <f aca="false">M9*N9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="95" t="n">
+      <c r="P9" s="93" t="n">
         <f aca="false">N9*$K$1</f>
         <v>139194</v>
       </c>
-      <c r="Q9" s="106" t="n">
+      <c r="Q9" s="104" t="n">
         <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
         <v>45007</v>
       </c>
-      <c r="R9" s="96" t="n">
+      <c r="R9" s="94" t="n">
         <f aca="false">IF($C$18&gt;Q9, P9*0.15, P9*0.35)</f>
         <v>48717.9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="110"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="96"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="94"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="111"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="112"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="str">
+      <c r="A16" s="113" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117" t="n">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115" t="n">
         <f aca="false">SUM(C4:C14)</f>
         <v>660864</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119" t="n">
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="117" t="n">
         <f aca="false">SUM(F4:F14)</f>
         <v>435045.770833333</v>
       </c>
-      <c r="G16" s="117" t="n">
+      <c r="G16" s="115" t="n">
         <f aca="false">SUM(G4:G14)</f>
         <v>156169</v>
       </c>
-      <c r="H16" s="120" t="n">
+      <c r="H16" s="118" t="n">
         <f aca="false">SUM(H4:H8)*K1</f>
         <v>8916.588375</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="123" t="s">
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="124" t="n">
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="122" t="n">
         <f aca="false">SUM(P4:P10)</f>
         <v>270938.1684</v>
       </c>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127" t="n">
+      <c r="B17" s="124"/>
+      <c r="C17" s="125" t="n">
         <f aca="false">SUM(H4:H14)</f>
         <v>10569.6875</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129" t="n">
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127" t="n">
         <f aca="false">F16/C16</f>
         <v>0.658298486274534</v>
       </c>
-      <c r="G17" s="129" t="n">
+      <c r="G17" s="127" t="n">
         <f aca="false">G16/F16</f>
         <v>0.358971424319002</v>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="123" t="s">
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="131" t="n">
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="129" t="n">
         <f aca="false">SUM(R4:R10)</f>
         <v>73946.05326</v>
       </c>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="86"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="132" t="n">
+      <c r="C18" s="130" t="n">
         <v>44671</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="133" t="n">
+      <c r="D18" s="86"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="131" t="n">
         <f aca="false">H16*12</f>
         <v>106999.0605</v>
       </c>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="134" t="s">
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135" t="n">
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133" t="n">
         <f aca="false">P16-P17</f>
         <v>196992.11514</v>
       </c>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="86"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="136" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137" t="n">
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135" t="n">
         <f aca="false">(C16-G16)*K1*0.65</f>
         <v>276744.4563</v>
       </c>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="137"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N23" s="0" t="n">
@@ -4682,7 +4678,7 @@
       <c r="B1" s="21" t="n">
         <v>12550</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="136"/>
       <c r="D1" s="0" t="s">
         <v>58</v>
       </c>
@@ -4690,7 +4686,7 @@
         <f aca="false">B8-B1+E2</f>
         <v>237450</v>
       </c>
-      <c r="F1" s="139"/>
+      <c r="F1" s="137"/>
       <c r="I1" s="7" t="s">
         <v>45</v>
       </c>
@@ -4714,12 +4710,12 @@
       <c r="B2" s="0" t="n">
         <v>73600</v>
       </c>
-      <c r="C2" s="138"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="0" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="21"/>
-      <c r="F2" s="139"/>
+      <c r="F2" s="137"/>
       <c r="I2" s="21" t="n">
         <f aca="false">MAX(0,E1-B18)*A19+MIN(B18-B17,MAX(0,E1-B17))*A18+MIN(B17-B16,MAX(0,E1-B16))*A17+MIN(B16-B15,MAX(0,E1-B15))*A16+MIN(B15-B14,MAX(0,E1-B14))*A15+MIN(B14-B13,MAX(0,E1-B13))*A14+MIN(B13,MAX(0,E1))*A13+MAX(0,IF(E4&gt;E13,(E4-E13)*D14, 0))+MAX(0,IF(E4&gt;B23,MIN((B24-B23),(E3-B23))*A24, 0))+MAX(0,IF(E4&gt;B24,(E3-B24)*A25, 0))</f>
         <v>59074.85</v>
@@ -4752,12 +4748,12 @@
       <c r="B3" s="0" t="n">
         <v>523600</v>
       </c>
-      <c r="C3" s="138"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="21"/>
-      <c r="F3" s="140"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4766,7 +4762,7 @@
       <c r="B4" s="27" t="n">
         <v>0.25</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="0" t="s">
         <v>106</v>
       </c>
@@ -4774,7 +4770,7 @@
         <f aca="false">E1+E3</f>
         <v>237450</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="138"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -4783,14 +4779,14 @@
       <c r="B5" s="11" t="n">
         <v>44378</v>
       </c>
-      <c r="C5" s="138"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="139"/>
+      <c r="F5" s="137"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -4799,7 +4795,7 @@
       <c r="B6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C6" s="138"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="0" t="s">
         <v>109</v>
       </c>
@@ -4807,9 +4803,9 @@
         <f aca="false">B8+E2+E3+E5</f>
         <v>250000</v>
       </c>
-      <c r="F6" s="139"/>
-      <c r="I6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="F6" s="137"/>
+      <c r="I6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -4819,7 +4815,7 @@
         <f aca="false">B5+B6</f>
         <v>44558</v>
       </c>
-      <c r="C7" s="138"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="0" t="s">
         <v>111</v>
       </c>
@@ -4827,17 +4823,17 @@
         <f aca="false">MIN(B2,MAX(0,B4*(E6-B3)))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="139"/>
+      <c r="F7" s="137"/>
       <c r="I7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="55" t="n">
+      <c r="B8" s="54" t="n">
         <v>250000</v>
       </c>
-      <c r="C8" s="139"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="40" t="s">
         <v>76</v>
       </c>
@@ -4845,7 +4841,7 @@
         <f aca="false">E6-B2+E7</f>
         <v>176400</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="137"/>
       <c r="I8" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,7 +4863,7 @@
       <c r="B12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="35" t="s">
         <v>47</v>
       </c>
@@ -4877,14 +4873,14 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="140" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="39" t="n">
         <v>9950</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144" t="n">
+      <c r="C13" s="141"/>
+      <c r="D13" s="142" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="39" t="n">
@@ -4893,36 +4889,36 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="140" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="39" t="n">
         <v>40525</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144" t="n">
+      <c r="C14" s="141"/>
+      <c r="D14" s="142" t="n">
         <v>0.038</v>
       </c>
       <c r="F14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="140" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="39" t="n">
         <v>86375</v>
       </c>
-      <c r="C15" s="143"/>
+      <c r="C15" s="141"/>
       <c r="F15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="140" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="39" t="n">
         <v>164925</v>
       </c>
-      <c r="C16" s="143"/>
+      <c r="C16" s="141"/>
       <c r="D16" s="19" t="s">
         <v>77</v>
       </c>
@@ -4930,13 +4926,13 @@
       <c r="F16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="140" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="39" t="n">
         <v>209425</v>
       </c>
-      <c r="C17" s="143"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="35" t="s">
         <v>47</v>
       </c>
@@ -4944,17 +4940,17 @@
         <v>48</v>
       </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="140" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="39" t="n">
         <v>523600</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="142" t="s">
+      <c r="C18" s="141"/>
+      <c r="D18" s="140" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="39" t="n">
@@ -4962,15 +4958,15 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="145"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="142" t="s">
+      <c r="B19" s="143"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="145"/>
+      <c r="E19" s="143"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
@@ -4986,34 +4982,34 @@
       <c r="B22" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="144"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="146" t="n">
+      <c r="A23" s="145" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="39" t="n">
         <v>40400</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="F23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="146" t="n">
+      <c r="A24" s="145" t="n">
         <v>0.15</v>
       </c>
-      <c r="B24" s="145" t="n">
+      <c r="B24" s="143" t="n">
         <v>445850</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="49"/>
       <c r="F24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="147" t="n">
+      <c r="A25" s="146" t="n">
         <v>0.2</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="49"/>
       <c r="F25" s="21"/>
     </row>
   </sheetData>
@@ -5046,949 +5042,949 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="148" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="148" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="148" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="149" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="148" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="148" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="148" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="148" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="148" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="148" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="148" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="148" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="148" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="148" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="148" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="148" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="148" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="148" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="148" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="147" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="148" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="147" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="147" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="147" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="147" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="147" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="147" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="147" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="147" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="147" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79" t="n">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77" t="n">
         <v>2.5</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="85"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="83"/>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="83" t="s">
+      <c r="L3" s="82"/>
+      <c r="M3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="85" t="s">
+      <c r="S3" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="T3" s="85" t="s">
+      <c r="T3" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="86" t="n">
+      <c r="A4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="B4" s="87" t="n">
+      <c r="B4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C4" s="88" t="n">
+      <c r="C4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="D4" s="150" t="n">
+      <c r="D4" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="152" t="n">
+      <c r="F4" s="151" t="n">
         <f aca="false">DATEDIF(A4,C18,"Y")</f>
         <v>4</v>
       </c>
-      <c r="G4" s="90" t="n">
+      <c r="G4" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A4,C18,"M")-12))</f>
         <v>36</v>
       </c>
-      <c r="H4" s="91" t="n">
+      <c r="H4" s="89" t="n">
         <f aca="false">C4*0.25+C4*G4/48</f>
         <v>30000</v>
       </c>
-      <c r="I4" s="88" t="n">
+      <c r="I4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="J4" s="153" t="n">
+      <c r="J4" s="152" t="n">
         <f aca="false">H4/C4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="86" t="n">
+      <c r="K4" s="84" t="n">
         <f aca="false">DATE(YEAR(A4)+4, MONTH(A4), DAY(A4))</f>
         <v>43918</v>
       </c>
-      <c r="L4" s="93"/>
-      <c r="M4" s="86" t="n">
+      <c r="L4" s="91"/>
+      <c r="M4" s="84" t="n">
         <v>42457</v>
       </c>
-      <c r="N4" s="86" t="n">
+      <c r="N4" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="O4" s="87" t="n">
+      <c r="O4" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P4" s="88" t="n">
+      <c r="P4" s="86" t="n">
         <v>30000</v>
       </c>
-      <c r="Q4" s="94" t="n">
+      <c r="Q4" s="92" t="n">
         <f aca="false">P4*O4</f>
         <v>33</v>
       </c>
-      <c r="R4" s="95" t="n">
+      <c r="R4" s="93" t="n">
         <f aca="false">P4*M$1</f>
         <v>75000</v>
       </c>
-      <c r="S4" s="86" t="n">
+      <c r="S4" s="84" t="n">
         <f aca="false">DATE(YEAR(N4)+1,MONTH(N4),DAY(N4))</f>
         <v>44366</v>
       </c>
-      <c r="T4" s="96" t="n">
+      <c r="T4" s="94" t="n">
         <f aca="false">IF($C$18&gt;S4, R4*0.15, R4*0.35)</f>
         <v>26250</v>
       </c>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="86" t="n">
+      <c r="A5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="B5" s="87" t="n">
+      <c r="B5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C5" s="88" t="n">
+      <c r="C5" s="86" t="n">
         <v>123519</v>
       </c>
-      <c r="D5" s="150" t="n">
+      <c r="D5" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="154" t="s">
+      <c r="F5" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="90" t="n">
+      <c r="G5" s="88" t="n">
         <f aca="false">MAX(0,MIN(36,DATEDIF(A5,C18,"M")))</f>
         <v>18</v>
       </c>
-      <c r="H5" s="91" t="n">
+      <c r="H5" s="89" t="n">
         <f aca="false">C5*0.35+(C5*0.65)*G5/36</f>
         <v>83375.325</v>
       </c>
-      <c r="I5" s="98" t="n">
+      <c r="I5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="J5" s="153" t="n">
+      <c r="J5" s="152" t="n">
         <f aca="false">H5/C5</f>
         <v>0.675</v>
       </c>
-      <c r="K5" s="86" t="n">
+      <c r="K5" s="84" t="n">
         <f aca="false">DATE(YEAR(A5)+3, MONTH(A5), DAY(A5))</f>
         <v>44543</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="86" t="n">
+      <c r="L5" s="97"/>
+      <c r="M5" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="N5" s="86" t="n">
+      <c r="N5" s="84" t="n">
         <v>44001</v>
       </c>
-      <c r="O5" s="87" t="n">
+      <c r="O5" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P5" s="98" t="n">
+      <c r="P5" s="96" t="n">
         <v>83375</v>
       </c>
-      <c r="Q5" s="94" t="n">
+      <c r="Q5" s="92" t="n">
         <f aca="false">O5*P5</f>
         <v>91.7125</v>
       </c>
-      <c r="R5" s="95" t="n">
+      <c r="R5" s="93" t="n">
         <f aca="false">P5*M$1</f>
         <v>208437.5</v>
       </c>
-      <c r="S5" s="86" t="n">
+      <c r="S5" s="84" t="n">
         <f aca="false">DATE(YEAR(N5)+1,MONTH(N5),DAY(N5))</f>
         <v>44366</v>
       </c>
-      <c r="T5" s="96" t="n">
+      <c r="T5" s="94" t="n">
         <f aca="false">IF($C$18&gt;S5, R5*0.15, R5*0.35)</f>
         <v>72953.125</v>
       </c>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="86" t="n">
+      <c r="A6" s="84" t="n">
         <v>43602</v>
       </c>
-      <c r="B6" s="87" t="n">
+      <c r="B6" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C6" s="88" t="n">
+      <c r="C6" s="86" t="n">
         <v>38380</v>
       </c>
-      <c r="D6" s="150" t="n">
+      <c r="D6" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="151" t="s">
+      <c r="E6" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="152" t="n">
+      <c r="F6" s="151" t="n">
         <f aca="false">DATEDIF(A6,C18,"Y")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="90" t="n">
+      <c r="G6" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C18,"M")-12))</f>
         <v>1</v>
       </c>
-      <c r="H6" s="91" t="n">
+      <c r="H6" s="89" t="n">
         <f aca="false">C6*0.25+C6*G6/48</f>
         <v>10394.5833333333</v>
       </c>
-      <c r="I6" s="98" t="n">
+      <c r="I6" s="96" t="n">
         <v>10394</v>
       </c>
-      <c r="J6" s="153" t="n">
+      <c r="J6" s="152" t="n">
         <f aca="false">H6/C6</f>
         <v>0.270833333333333</v>
       </c>
-      <c r="K6" s="86" t="n">
+      <c r="K6" s="84" t="n">
         <f aca="false">DATE(YEAR(A6)+4, MONTH(A6), DAY(A6))</f>
         <v>45063</v>
       </c>
-      <c r="L6" s="99"/>
-      <c r="M6" s="100" t="n">
+      <c r="L6" s="97"/>
+      <c r="M6" s="98" t="n">
         <v>43602</v>
       </c>
-      <c r="N6" s="100" t="n">
+      <c r="N6" s="98" t="n">
         <v>44001</v>
       </c>
-      <c r="O6" s="101" t="n">
+      <c r="O6" s="99" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P6" s="102" t="n">
+      <c r="P6" s="100" t="n">
         <v>10394</v>
       </c>
-      <c r="Q6" s="103" t="n">
+      <c r="Q6" s="101" t="n">
         <f aca="false">O6*P6</f>
         <v>11.4334</v>
       </c>
-      <c r="R6" s="104" t="n">
+      <c r="R6" s="102" t="n">
         <f aca="false">P6*M$1</f>
         <v>25985</v>
       </c>
-      <c r="S6" s="100" t="n">
+      <c r="S6" s="98" t="n">
         <f aca="false">DATE(YEAR(N6)+1,MONTH(N6),DAY(N6))</f>
         <v>44366</v>
       </c>
-      <c r="T6" s="105" t="n">
+      <c r="T6" s="103" t="n">
         <f aca="false">IF($C$18&gt;S6, R6*0.15, R6*0.35)</f>
         <v>9094.75</v>
       </c>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="86" t="n">
+      <c r="A7" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="B7" s="87" t="n">
+      <c r="B7" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="C7" s="88" t="n">
+      <c r="C7" s="86" t="n">
         <v>138965</v>
       </c>
-      <c r="D7" s="150" t="n">
+      <c r="D7" s="149" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="151" t="s">
+      <c r="E7" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="152" t="n">
+      <c r="F7" s="151" t="n">
         <f aca="false">DATEDIF(A7,C18,"Y")</f>
         <v>0</v>
       </c>
-      <c r="G7" s="90" t="n">
+      <c r="G7" s="88" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C18,"M")-12))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="91" t="n">
+      <c r="H7" s="89" t="n">
         <f aca="false">C7*IF(F7&gt;=1,0.25,0)+C7*G7/48</f>
         <v>0</v>
       </c>
-      <c r="I7" s="88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="153" t="n">
+      <c r="I7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="152" t="n">
         <f aca="false">H7/C7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="86" t="n">
+      <c r="K7" s="84" t="n">
         <f aca="false">DATE(YEAR(A7)+4, MONTH(A7), DAY(A7))</f>
         <v>45230</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="86" t="n">
+      <c r="L7" s="91"/>
+      <c r="M7" s="84" t="n">
         <v>43447</v>
       </c>
-      <c r="N7" s="108" t="n">
+      <c r="N7" s="106" t="n">
         <v>47848</v>
       </c>
-      <c r="O7" s="87" t="n">
+      <c r="O7" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P7" s="88" t="n">
+      <c r="P7" s="86" t="n">
         <f aca="false">H5-I5</f>
         <v>0.325000000011642</v>
       </c>
-      <c r="Q7" s="94" t="n">
+      <c r="Q7" s="92" t="n">
         <f aca="false">O7*P7</f>
         <v>0.000357500000012806</v>
       </c>
-      <c r="R7" s="95" t="n">
+      <c r="R7" s="93" t="n">
         <f aca="false">P7*M$1</f>
         <v>0.812500000029104</v>
       </c>
-      <c r="S7" s="86" t="n">
+      <c r="S7" s="84" t="n">
         <f aca="false">DATE(YEAR(N7)+1,MONTH(N7),DAY(N7))</f>
         <v>48213</v>
       </c>
-      <c r="T7" s="96" t="n">
+      <c r="T7" s="94" t="n">
         <f aca="false">IF($C$18&gt;S7, R7*0.15, R7*0.35)</f>
         <v>0.284375000010186</v>
       </c>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
     </row>
     <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="86" t="n">
+      <c r="A8" s="88"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="84" t="n">
         <v>43602</v>
       </c>
-      <c r="N8" s="108" t="n">
+      <c r="N8" s="106" t="n">
         <v>47848</v>
       </c>
-      <c r="O8" s="87" t="n">
+      <c r="O8" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P8" s="88" t="n">
+      <c r="P8" s="86" t="n">
         <f aca="false">H6-I6</f>
         <v>0.58333333333394</v>
       </c>
-      <c r="Q8" s="94" t="n">
+      <c r="Q8" s="92" t="n">
         <f aca="false">O8*P8</f>
         <v>0.000641666666667334</v>
       </c>
-      <c r="R8" s="95" t="n">
+      <c r="R8" s="93" t="n">
         <f aca="false">P8*M$1</f>
         <v>1.45833333333485</v>
       </c>
-      <c r="S8" s="86" t="n">
+      <c r="S8" s="84" t="n">
         <f aca="false">DATE(YEAR(N8)+1,MONTH(N8),DAY(N8))</f>
         <v>48213</v>
       </c>
-      <c r="T8" s="96" t="n">
+      <c r="T8" s="94" t="n">
         <f aca="false">IF($C$18&gt;S8, R8*0.15, R8*0.35)</f>
         <v>0.510416666667197</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="86" t="n">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="84" t="n">
         <v>43769</v>
       </c>
-      <c r="N9" s="108" t="n">
+      <c r="N9" s="106" t="n">
         <v>47848</v>
       </c>
-      <c r="O9" s="87" t="n">
+      <c r="O9" s="85" t="n">
         <v>0.0011</v>
       </c>
-      <c r="P9" s="88" t="n">
+      <c r="P9" s="86" t="n">
         <f aca="false">H7-I7</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="94" t="n">
+      <c r="Q9" s="92" t="n">
         <f aca="false">O9*P9</f>
         <v>0</v>
       </c>
-      <c r="R9" s="95" t="n">
+      <c r="R9" s="93" t="n">
         <f aca="false">P9*M$1</f>
         <v>0</v>
       </c>
-      <c r="S9" s="86" t="n">
+      <c r="S9" s="84" t="n">
         <f aca="false">DATE(YEAR(N9)+1,MONTH(N9),DAY(N9))</f>
         <v>48213</v>
       </c>
-      <c r="T9" s="96" t="n">
+      <c r="T9" s="94" t="n">
         <f aca="false">IF($C$18&gt;S9, R9*0.15, R9*0.35)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="110"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
     </row>
     <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="88"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
     </row>
     <row r="12" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="111"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="112"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
     </row>
     <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-    </row>
-    <row r="16" s="158" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="str">
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+    </row>
+    <row r="16" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="113" t="str">
         <f aca="false">"Grants: "&amp;COUNT(A4:A7)</f>
         <v>Grants: 4</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117" t="n">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115" t="n">
         <f aca="false">SUM(C4:C7)</f>
         <v>330864</v>
       </c>
-      <c r="D16" s="157"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119" t="n">
+      <c r="D16" s="156"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117" t="n">
         <f aca="false">SUM(H4:H8)</f>
         <v>123769.908333333</v>
       </c>
-      <c r="I16" s="117" t="n">
+      <c r="I16" s="115" t="n">
         <f aca="false">SUM(I4:I8)</f>
         <v>123769</v>
       </c>
-      <c r="J16" s="121" t="n">
+      <c r="J16" s="119" t="n">
         <f aca="false">H16/C16</f>
         <v>0.374080916428905</v>
       </c>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="123" t="s">
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124" t="n">
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="122" t="n">
         <f aca="false">SUM(R4:R8)</f>
         <v>309424.770833333</v>
       </c>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-    </row>
-    <row r="17" s="161" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="125"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="123" t="s">
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+    </row>
+    <row r="17" s="160" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="131" t="n">
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="129" t="n">
         <f aca="false">SUM(T4:T9)</f>
         <v>108298.669791667</v>
       </c>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="126"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="86"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="132" t="n">
+      <c r="C18" s="130" t="n">
         <v>44001</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="134" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="135" t="n">
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="133" t="n">
         <f aca="false">R16-R17</f>
         <v>201126.101041667</v>
       </c>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="86"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="136" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="137" t="n">
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="135" t="n">
         <f aca="false">(C16-H16)*M1*0.65</f>
         <v>336527.898958333</v>
       </c>
-      <c r="S19" s="137"/>
-      <c r="T19" s="137"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -1528,8 +1528,8 @@
   </sheetPr>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1547,7 +1547,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C5" s="10" t="n">
         <f aca="false">B5*$A$1</f>
-        <v>657</v>
+        <v>438</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>43831</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">B6*$A$1</f>
-        <v>2376</v>
+        <v>1584</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>43831</v>
@@ -1734,14 +1734,14 @@
       </c>
       <c r="C10" s="15" t="n">
         <f aca="false">SUM(C4:C7)</f>
-        <v>3033</v>
+        <v>2022</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">C10*12</f>
-        <v>36396</v>
+        <v>24264</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B11" s="18" t="n">
         <f aca="true">TODAY()</f>
-        <v>44544</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,15 +1800,15 @@
       </c>
       <c r="H16" s="21" t="n">
         <f aca="false">G16*$A$1</f>
-        <v>128169</v>
+        <v>85446</v>
       </c>
       <c r="I16" s="21" t="n">
         <f aca="false">H16*0.15</f>
-        <v>19225.35</v>
+        <v>12816.9</v>
       </c>
       <c r="J16" s="21" t="n">
         <f aca="false">H16-I16</f>
-        <v>108943.65</v>
+        <v>72629.1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,15 +1825,15 @@
       </c>
       <c r="H17" s="21" t="n">
         <f aca="false">G17*$A$1</f>
-        <v>135432</v>
+        <v>90288</v>
       </c>
       <c r="I17" s="21" t="n">
         <f aca="false">H17*0.35</f>
-        <v>47401.2</v>
+        <v>31600.8</v>
       </c>
       <c r="J17" s="21" t="n">
         <f aca="false">H17-I17</f>
-        <v>88030.8</v>
+        <v>58687.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,15 +1850,15 @@
       </c>
       <c r="H18" s="21" t="n">
         <f aca="false">G18*$A$1</f>
-        <v>16920</v>
+        <v>11280</v>
       </c>
       <c r="I18" s="21" t="n">
         <f aca="false">H18*0.35</f>
-        <v>5922</v>
+        <v>3948</v>
       </c>
       <c r="J18" s="21" t="n">
         <f aca="false">H18-I18</f>
-        <v>10998</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,15 +1875,15 @@
       </c>
       <c r="H19" s="21" t="n">
         <f aca="false">G19*$A$1</f>
-        <v>16929</v>
+        <v>11286</v>
       </c>
       <c r="I19" s="21" t="n">
         <f aca="false">H19*0.35</f>
-        <v>5925.15</v>
+        <v>3950.1</v>
       </c>
       <c r="J19" s="21" t="n">
         <f aca="false">H19-I19</f>
-        <v>11003.85</v>
+        <v>7335.9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,15 +1900,15 @@
       </c>
       <c r="H20" s="21" t="n">
         <f aca="false">G20*$A$1</f>
-        <v>16929</v>
+        <v>11286</v>
       </c>
       <c r="I20" s="21" t="n">
         <f aca="false">H20*0.35</f>
-        <v>5925.15</v>
+        <v>3950.1</v>
       </c>
       <c r="J20" s="21" t="n">
         <f aca="false">H20-I20</f>
-        <v>11003.85</v>
+        <v>7335.9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,19 +1948,19 @@
       <c r="F23" s="8"/>
       <c r="G23" s="20" t="n">
         <f aca="false">AMT!O26</f>
-        <v>8496.89963675214</v>
+        <v>9960.15714743589</v>
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">G23*$A$1</f>
-        <v>76472.0967307692</v>
+        <v>59760.9428846154</v>
       </c>
       <c r="I23" s="21" t="n">
         <f aca="false">H23*0.15</f>
-        <v>11470.8145096154</v>
+        <v>8964.14143269231</v>
       </c>
       <c r="J23" s="21" t="n">
         <f aca="false">H23-I23</f>
-        <v>65001.2822211539</v>
+        <v>50796.8014519231</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,15 +1977,15 @@
       </c>
       <c r="H24" s="21" t="n">
         <f aca="false">G24*$A$1</f>
-        <v>16929</v>
+        <v>11286</v>
       </c>
       <c r="I24" s="21" t="n">
         <f aca="false">H24*0.35</f>
-        <v>5925.15</v>
+        <v>3950.1</v>
       </c>
       <c r="J24" s="21" t="n">
         <f aca="false">H24-I24</f>
-        <v>11003.85</v>
+        <v>7335.9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,15 +2002,15 @@
       </c>
       <c r="H25" s="21" t="n">
         <f aca="false">G25*$A$1</f>
-        <v>16929</v>
+        <v>11286</v>
       </c>
       <c r="I25" s="21" t="n">
         <f aca="false">H25*0.35</f>
-        <v>5925.15</v>
+        <v>3950.1</v>
       </c>
       <c r="J25" s="21" t="n">
         <f aca="false">H25-I25</f>
-        <v>11003.85</v>
+        <v>7335.9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,15 +2027,15 @@
       </c>
       <c r="H26" s="21" t="n">
         <f aca="false">G26*$A$1</f>
-        <v>16929</v>
+        <v>11286</v>
       </c>
       <c r="I26" s="21" t="n">
         <f aca="false">H26*0.35</f>
-        <v>5925.15</v>
+        <v>3950.1</v>
       </c>
       <c r="J26" s="21" t="n">
         <f aca="false">H26-I26</f>
-        <v>11003.85</v>
+        <v>7335.9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,15 +2052,15 @@
       </c>
       <c r="H27" s="21" t="n">
         <f aca="false">G27*$A$1</f>
-        <v>16929</v>
+        <v>11286</v>
       </c>
       <c r="I27" s="21" t="n">
         <f aca="false">H27*0.35</f>
-        <v>5925.15</v>
+        <v>3950.1</v>
       </c>
       <c r="J27" s="21" t="n">
         <f aca="false">H27-I27</f>
-        <v>11003.85</v>
+        <v>7335.9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,19 +2100,19 @@
       <c r="F30" s="8"/>
       <c r="G30" s="20" t="n">
         <f aca="false">AMT!H52</f>
-        <v>4759.60753999475</v>
+        <v>5998.37713363534</v>
       </c>
       <c r="H30" s="21" t="n">
         <f aca="false">G30*$A$1</f>
-        <v>42836.4678599527</v>
+        <v>35990.262801812</v>
       </c>
       <c r="I30" s="21" t="n">
         <f aca="false">H30*0.15</f>
-        <v>6425.47017899291</v>
+        <v>5398.5394202718</v>
       </c>
       <c r="J30" s="21" t="n">
         <f aca="false">H30-I30</f>
-        <v>36410.9976809598</v>
+        <v>30591.7233815402</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,15 +2129,15 @@
       </c>
       <c r="H31" s="21" t="n">
         <f aca="false">G31*$A$1</f>
-        <v>16929</v>
+        <v>11286</v>
       </c>
       <c r="I31" s="21" t="n">
         <f aca="false">H31*0.35</f>
-        <v>5925.15</v>
+        <v>3950.1</v>
       </c>
       <c r="J31" s="21" t="n">
         <f aca="false">H31-I31</f>
-        <v>11003.85</v>
+        <v>7335.9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,20 +2164,20 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="20" t="n">
-        <f aca="false">MIN(AMT!B10-G30-G23, AMT!O52)</f>
-        <v>2674.49282325311</v>
+        <f aca="false">MAX(0, MIN(AMT!B10-G30-G23, AMT!O52))</f>
+        <v>0</v>
       </c>
       <c r="H34" s="21" t="n">
         <f aca="false">G34*$A$1</f>
-        <v>24070.435409278</v>
+        <v>0</v>
       </c>
       <c r="I34" s="21" t="n">
         <f aca="false">H34*0.15</f>
-        <v>3610.5653113917</v>
+        <v>0</v>
       </c>
       <c r="J34" s="21" t="n">
         <f aca="false">H34-I34</f>
-        <v>20459.8700978863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,26 +2203,26 @@
       <c r="F36" s="19"/>
       <c r="G36" s="24" t="n">
         <f aca="false">SUM(G15:G34)</f>
-        <v>60267</v>
+        <v>60294.5342810712</v>
       </c>
       <c r="H36" s="25" t="n">
         <f aca="false">SUM(H15:H34)</f>
-        <v>542403</v>
+        <v>361767.205686427</v>
       </c>
       <c r="I36" s="25" t="n">
         <f aca="false">SUM(I15:I34)</f>
-        <v>135531.45</v>
+        <v>90379.0808529641</v>
       </c>
       <c r="J36" s="25" t="n">
         <f aca="false">SUM(J15:J34)</f>
-        <v>406871.55</v>
+        <v>271388.124833463</v>
       </c>
       <c r="K36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I37" s="26" t="n">
         <f aca="false">I36/H36</f>
-        <v>0.249872235219938</v>
+        <v>0.249826627268429</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,14 +2231,14 @@
       </c>
       <c r="B38" s="20" t="n">
         <f aca="false">AMT!B10-G23-G30-G34</f>
-        <v>0</v>
+        <v>-27.5342810712318</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="10" t="n">
         <f aca="false">A1*B38</f>
-        <v>0</v>
+        <v>-165.205686427391</v>
       </c>
     </row>
   </sheetData>
@@ -2288,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="P4" s="41" t="n">
         <f aca="false">175000+SUM(Schedule!H17:H20)</f>
-        <v>361210</v>
+        <v>299140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="P5" s="41" t="n">
         <f aca="false">Schedule!H16+5000</f>
-        <v>133169</v>
+        <v>90446</v>
       </c>
       <c r="S5" s="19" t="s">
         <v>56</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="P6" s="41" t="n">
         <f aca="false">P4+P5</f>
-        <v>494379</v>
+        <v>389586</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>59</v>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="P7" s="41" t="n">
         <f aca="false">P6-($B$2*$B$7)</f>
-        <v>481436.185</v>
+        <v>376643.185</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>4</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="P8" s="25" t="n">
         <f aca="false">SUM(M4:M10)</f>
-        <v>95646.51475</v>
+        <v>73922.01475</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>65</v>
@@ -2623,14 +2623,14 @@
       </c>
       <c r="M9" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L8,MIN((L9-L8),((P$7-P$5)-L8))*K9, 0))</f>
-        <v>46311.01475</v>
+        <v>24586.51475</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>67</v>
       </c>
       <c r="P9" s="44" t="n">
         <f aca="false">SUM(M14:M16)+SUM(M20:M21)</f>
-        <v>26633.8</v>
+        <v>13566.9</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>68</v>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="P10" s="46" t="n">
         <f aca="false">(P8+P9)/P6</f>
-        <v>0.247341239716897</v>
+        <v>0.224568939207261</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="M15" s="21" t="n">
         <f aca="false">IF(P$6&gt;L14,IF(P$6&lt;=L15, P$5*K15, 0),0)</f>
-        <v>0</v>
+        <v>13566.9</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>72</v>
@@ -2813,14 +2813,14 @@
       </c>
       <c r="M16" s="21" t="n">
         <f aca="false">IF(P$6&gt;L15,P$5*K16, 0)</f>
-        <v>26633.8</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>73</v>
       </c>
       <c r="P16" s="57" t="n">
         <f aca="false">P6+P15</f>
-        <v>494379</v>
+        <v>389586</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="P18" s="57" t="n">
         <f aca="false">P16+P17-($B3*$B$7)-P5</f>
-        <v>285306.32</v>
+        <v>223236.32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="P19" s="60" t="n">
         <f aca="false">M25+M26</f>
-        <v>75763.7696</v>
+        <v>58384.1696</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="P20" s="25" t="n">
         <f aca="false">P9</f>
-        <v>26633.8</v>
+        <v>13566.9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="P21" s="46" t="n">
         <f aca="false">(P19+P20)/P16</f>
-        <v>0.207123622969422</v>
+        <v>0.184685973315263</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="P22" s="41" t="n">
         <f aca="false">IF(P8&gt;P19,((P8+P9)-(P19+P20))/K25,0)</f>
-        <v>76472.0967307692</v>
+        <v>59760.9428846154</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,7 +3071,7 @@
       <c r="G26" s="68"/>
       <c r="H26" s="69" t="n">
         <f aca="false">I22/Schedule!A1</f>
-        <v>324.537777777777</v>
+        <v>486.806666666665</v>
       </c>
       <c r="I26" s="69"/>
       <c r="K26" s="70" t="s">
@@ -3082,12 +3082,12 @@
       </c>
       <c r="M26" s="67" t="n">
         <f aca="false">IF(P18&gt;L25,(P18-L25)*K26, 0)</f>
-        <v>22177.7696</v>
+        <v>4798.1696</v>
       </c>
       <c r="N26" s="72"/>
       <c r="O26" s="73" t="n">
         <f aca="false">P22/Schedule!A1</f>
-        <v>8496.89963675214</v>
+        <v>9960.15714743589</v>
       </c>
       <c r="P26" s="73"/>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="I30" s="41" t="n">
         <f aca="false">182500+SUM(Schedule!H24:H27)</f>
-        <v>250216</v>
+        <v>227644</v>
       </c>
       <c r="K30" s="42" t="s">
         <v>51</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="P30" s="41" t="n">
         <f aca="false">190000+Schedule!H31</f>
-        <v>206929</v>
+        <v>201286</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="I31" s="41" t="n">
         <f aca="false">Schedule!H23+5000</f>
-        <v>81472.0967307692</v>
+        <v>64760.9428846154</v>
       </c>
       <c r="K31" s="42" t="s">
         <v>54</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="P31" s="41" t="n">
         <f aca="false">Schedule!H30+5000</f>
-        <v>47836.4678599527</v>
+        <v>40990.262801812</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="I32" s="41" t="n">
         <f aca="false">I30+I31</f>
-        <v>331688.096730769</v>
+        <v>292404.942884615</v>
       </c>
       <c r="K32" s="42" t="s">
         <v>57</v>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="P32" s="41" t="n">
         <f aca="false">P30+P31</f>
-        <v>254765.467859953</v>
+        <v>242276.262801812</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="I33" s="41" t="n">
         <f aca="false">I32-($B$2*$B$7^2)</f>
-        <v>318340.171621269</v>
+        <v>279057.017775115</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>61</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="P33" s="41" t="n">
         <f aca="false">P32-($B$2*$B$7^3)</f>
-        <v>240999.752694525</v>
+        <v>228510.547636385</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,14 +3299,14 @@
       </c>
       <c r="F34" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E33,MIN((E34-E33),((I$33-I$31)-E33))*D34, 0))</f>
-        <v>15150.0927116442</v>
+        <v>12467.7814062211</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>64</v>
       </c>
       <c r="I34" s="25" t="n">
         <f aca="false">SUM(F30:F36)</f>
-        <v>55840.9806957477</v>
+        <v>48192.2473806311</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>63</v>
@@ -3317,14 +3317,14 @@
       </c>
       <c r="M34" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L33,MIN((L34-L33),((P$33-P$31)-L33))*K34, 0))</f>
-        <v>3949.14066023604</v>
+        <v>2143.38066023604</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>64</v>
       </c>
       <c r="P34" s="25" t="n">
         <f aca="false">SUM(M30:M36)</f>
-        <v>40791.7824196449</v>
+        <v>38986.0224196449</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,14 +3337,14 @@
       </c>
       <c r="F35" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E34,MIN((E35-E34),((I$33-I$31)-E34))*D35, 0))</f>
-        <v>4966.42200969356</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>67</v>
       </c>
       <c r="I35" s="44" t="n">
         <f aca="false">SUM(F40:F42)+SUM(F46:F47)</f>
-        <v>12220.8145096154</v>
+        <v>9714.14143269231</v>
       </c>
       <c r="K35" s="42" t="s">
         <v>66</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="P35" s="44" t="n">
         <f aca="false">SUM(M40:M42)+SUM(M46:M47)</f>
-        <v>7175.47017899291</v>
+        <v>6148.5394202718</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I36" s="46" t="n">
         <f aca="false">(I34+I35)/I32</f>
-        <v>0.205198184306893</v>
+        <v>0.198034917748205</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>69</v>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="P36" s="46" t="n">
         <f aca="false">(P34+P35)/P32</f>
-        <v>0.188280040468459</v>
+        <v>0.186293784285578</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="F41" s="21" t="n">
         <f aca="false">IF(I$32&gt;E40,IF(I$32&lt;=E41, I$31*D41, 0),0)</f>
-        <v>12220.8145096154</v>
+        <v>9714.14143269231</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>72</v>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="M41" s="21" t="n">
         <f aca="false">IF(P$32&gt;L40,IF(P$32&lt;=L41, P$31*K41, 0),0)</f>
-        <v>7175.47017899291</v>
+        <v>6148.5394202718</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>72</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="I42" s="57" t="n">
         <f aca="false">I32+I41</f>
-        <v>331688.096730769</v>
+        <v>292404.942884615</v>
       </c>
       <c r="K42" s="59" t="n">
         <v>0.2</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="P42" s="57" t="n">
         <f aca="false">P32+P41</f>
-        <v>254765.467859953</v>
+        <v>242276.262801812</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="I44" s="57" t="n">
         <f aca="false">I42+I43-($B3*$B$7^2)-I31</f>
-        <v>171936.534816</v>
+        <v>149364.534816</v>
       </c>
       <c r="K44" s="52" t="s">
         <v>75</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="P44" s="57" t="n">
         <f aca="false">P42+P43-($B3*$B$7^3)-P31</f>
-        <v>126199.387555741</v>
+        <v>120556.387555741</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="I45" s="60" t="n">
         <f aca="false">F51+F52</f>
-        <v>44703.49905216</v>
+        <v>38834.77905216</v>
       </c>
       <c r="K45" s="37" t="s">
         <v>47</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="P45" s="60" t="n">
         <f aca="false">M51+M52</f>
-        <v>32811.8407644926</v>
+        <v>31344.6607644926</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="I46" s="25" t="n">
         <f aca="false">I35</f>
-        <v>12220.8145096154</v>
+        <v>9714.14143269231</v>
       </c>
       <c r="K46" s="62" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="P46" s="25" t="n">
         <f aca="false">P35</f>
-        <v>7175.47017899291</v>
+        <v>6148.5394202718</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="I47" s="46" t="n">
         <f aca="false">I45/I42</f>
-        <v>0.134775710954879</v>
+        <v>0.132811636729015</v>
       </c>
       <c r="K47" s="62" t="n">
         <v>0.038</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P47" s="46" t="n">
         <f aca="false">P45/P42</f>
-        <v>0.128792340029888</v>
+        <v>0.129375698642559</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="I48" s="41" t="n">
         <f aca="false">IF(I34&gt;I45,((I34+I35)-(I45+I46))/D51,0)</f>
-        <v>42836.4678599527</v>
+        <v>35990.262801812</v>
       </c>
       <c r="K48" s="48"/>
       <c r="O48" s="40" t="s">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="P48" s="41" t="n">
         <f aca="false">IF(P34&gt;P45,((P34+P35)-(P45+P46))/K51,0)</f>
-        <v>30692.0832890473</v>
+        <v>29389.8525198166</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="F51" s="21" t="n">
         <f aca="false">MIN(I44,E51)*D51</f>
-        <v>44703.49905216</v>
+        <v>38834.77905216</v>
       </c>
       <c r="H51" s="64" t="s">
         <v>80</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="M51" s="21" t="n">
         <f aca="false">MIN(P44,L51)*K51</f>
-        <v>32811.8407644926</v>
+        <v>31344.6607644926</v>
       </c>
       <c r="O51" s="64" t="s">
         <v>80</v>
@@ -3791,7 +3791,7 @@
       <c r="G52" s="72"/>
       <c r="H52" s="73" t="n">
         <f aca="false">I48/Schedule!$A$1</f>
-        <v>4759.60753999475</v>
+        <v>5998.37713363534</v>
       </c>
       <c r="I52" s="73"/>
       <c r="K52" s="70" t="s">
@@ -3807,7 +3807,7 @@
       <c r="N52" s="72"/>
       <c r="O52" s="73" t="n">
         <f aca="false">P48/Schedule!$A$1</f>
-        <v>3410.23147656082</v>
+        <v>4898.30875330277</v>
       </c>
       <c r="P52" s="73"/>
     </row>

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -334,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="19">
+  <numFmts count="18">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0;\-[$$-409]#,##0"/>
@@ -353,7 +353,6 @@
     <numFmt numFmtId="179" formatCode="0.0000%"/>
     <numFmt numFmtId="180" formatCode="0.0000"/>
     <numFmt numFmtId="181" formatCode="0"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -709,7 +708,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -910,7 +909,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1164,10 +1163,6 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1345,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,7 +1359,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1470,7 +1465,7 @@
       </c>
       <c r="C5" s="10" t="n">
         <f aca="false">B5*$A$1</f>
-        <v>288.35</v>
+        <v>237.25</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>43831</v>
@@ -1495,7 +1490,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">B6*$A$1</f>
-        <v>1042.8</v>
+        <v>858</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>43831</v>
@@ -1551,14 +1546,14 @@
       </c>
       <c r="C10" s="15" t="n">
         <f aca="false">SUM(C4:C7)</f>
-        <v>1331.15</v>
+        <v>1095.25</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">C10*12</f>
-        <v>15973.8</v>
+        <v>13143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,7 +1562,7 @@
       </c>
       <c r="B11" s="18" t="n">
         <f aca="true">TODAY()</f>
-        <v>44567</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,15 +1612,15 @@
       </c>
       <c r="H16" s="21" t="n">
         <f aca="false">G16*$A$1</f>
-        <v>56251.95</v>
+        <v>46283.25</v>
       </c>
       <c r="I16" s="21" t="n">
         <f aca="false">H16*0.15</f>
-        <v>8437.7925</v>
+        <v>6942.4875</v>
       </c>
       <c r="J16" s="21" t="n">
         <f aca="false">H16-I16</f>
-        <v>47814.1575</v>
+        <v>39340.7625</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,15 +1637,15 @@
       </c>
       <c r="H17" s="21" t="n">
         <f aca="false">G17*$A$1</f>
-        <v>59439.6</v>
+        <v>48906</v>
       </c>
       <c r="I17" s="21" t="n">
         <f aca="false">H17*0.35</f>
-        <v>20803.86</v>
+        <v>17117.1</v>
       </c>
       <c r="J17" s="21" t="n">
         <f aca="false">H17-I17</f>
-        <v>38635.74</v>
+        <v>31788.9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,15 +1662,15 @@
       </c>
       <c r="H18" s="21" t="n">
         <f aca="false">G18*$A$1</f>
-        <v>7426</v>
+        <v>6110</v>
       </c>
       <c r="I18" s="21" t="n">
         <f aca="false">H18*0.35</f>
-        <v>2599.1</v>
+        <v>2138.5</v>
       </c>
       <c r="J18" s="21" t="n">
         <f aca="false">H18-I18</f>
-        <v>4826.9</v>
+        <v>3971.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,15 +1687,15 @@
       </c>
       <c r="H19" s="21" t="n">
         <f aca="false">G19*$A$1</f>
-        <v>7429.95</v>
+        <v>6113.25</v>
       </c>
       <c r="I19" s="21" t="n">
         <f aca="false">H19*0.35</f>
-        <v>2600.4825</v>
+        <v>2139.6375</v>
       </c>
       <c r="J19" s="21" t="n">
         <f aca="false">H19-I19</f>
-        <v>4829.4675</v>
+        <v>3973.6125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,15 +1712,15 @@
       </c>
       <c r="H20" s="21" t="n">
         <f aca="false">G20*$A$1</f>
-        <v>7429.95</v>
+        <v>6113.25</v>
       </c>
       <c r="I20" s="21" t="n">
         <f aca="false">H20*0.35</f>
-        <v>2600.4825</v>
+        <v>2139.6375</v>
       </c>
       <c r="J20" s="21" t="n">
         <f aca="false">H20-I20</f>
-        <v>4829.4675</v>
+        <v>3973.6125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,19 +1759,19 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="20" t="n">
-        <v>8291</v>
+        <v>8884</v>
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">G23*$A$1</f>
-        <v>32749.45</v>
+        <v>28873</v>
       </c>
       <c r="I23" s="21" t="n">
         <f aca="false">H23*0.15</f>
-        <v>4912.4175</v>
+        <v>4330.95</v>
       </c>
       <c r="J23" s="21" t="n">
         <f aca="false">H23-I23</f>
-        <v>27837.0325</v>
+        <v>24542.05</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,19 +1785,19 @@
       <c r="F24" s="8"/>
       <c r="G24" s="20" t="n">
         <f aca="false">AMT!O26</f>
-        <v>3336.738218111</v>
+        <v>2096.53319526628</v>
       </c>
       <c r="H24" s="21" t="n">
         <f aca="false">G24*$A$1</f>
-        <v>13180.1159615384</v>
+        <v>6813.7328846154</v>
       </c>
       <c r="I24" s="21" t="n">
         <f aca="false">H24*0.15</f>
-        <v>1977.01739423077</v>
+        <v>1022.05993269231</v>
       </c>
       <c r="J24" s="21" t="n">
         <f aca="false">H24-I24</f>
-        <v>11203.0985673077</v>
+        <v>5791.67295192309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,15 +1814,15 @@
       </c>
       <c r="H25" s="21" t="n">
         <f aca="false">G25*$A$1</f>
-        <v>7429.95</v>
+        <v>6113.25</v>
       </c>
       <c r="I25" s="21" t="n">
         <f aca="false">H25*0.35</f>
-        <v>2600.4825</v>
+        <v>2139.6375</v>
       </c>
       <c r="J25" s="21" t="n">
         <f aca="false">H25-I25</f>
-        <v>4829.4675</v>
+        <v>3973.6125</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,15 +1839,15 @@
       </c>
       <c r="H26" s="21" t="n">
         <f aca="false">G26*$A$1</f>
-        <v>7429.95</v>
+        <v>6113.25</v>
       </c>
       <c r="I26" s="21" t="n">
         <f aca="false">H26*0.35</f>
-        <v>2600.4825</v>
+        <v>2139.6375</v>
       </c>
       <c r="J26" s="21" t="n">
         <f aca="false">H26-I26</f>
-        <v>4829.4675</v>
+        <v>3973.6125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,15 +1864,15 @@
       </c>
       <c r="H27" s="21" t="n">
         <f aca="false">G27*$A$1</f>
-        <v>7429.95</v>
+        <v>6113.25</v>
       </c>
       <c r="I27" s="21" t="n">
         <f aca="false">H27*0.35</f>
-        <v>2600.4825</v>
+        <v>2139.6375</v>
       </c>
       <c r="J27" s="21" t="n">
         <f aca="false">H27-I27</f>
-        <v>4829.4675</v>
+        <v>3973.6125</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,15 +1889,15 @@
       </c>
       <c r="H28" s="21" t="n">
         <f aca="false">G28*$A$1</f>
-        <v>7429.95</v>
+        <v>6113.25</v>
       </c>
       <c r="I28" s="21" t="n">
         <f aca="false">H28*0.35</f>
-        <v>2600.4825</v>
+        <v>2139.6375</v>
       </c>
       <c r="J28" s="21" t="n">
         <f aca="false">H28-I28</f>
-        <v>4829.4675</v>
+        <v>3973.6125</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,19 +1937,19 @@
       <c r="F31" s="8"/>
       <c r="G31" s="20" t="n">
         <f aca="false">AMT!H52</f>
-        <v>4303.261781889</v>
+        <v>4950.46680473372</v>
       </c>
       <c r="H31" s="21" t="n">
         <f aca="false">G31*$A$1</f>
-        <v>16997.8840384616</v>
+        <v>16089.0171153846</v>
       </c>
       <c r="I31" s="21" t="n">
         <f aca="false">H31*0.15</f>
-        <v>2549.68260576923</v>
+        <v>2413.35256730769</v>
       </c>
       <c r="J31" s="21" t="n">
         <f aca="false">H31-I31</f>
-        <v>14448.2014326923</v>
+        <v>13675.6645480769</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,15 +1966,15 @@
       </c>
       <c r="H32" s="21" t="n">
         <f aca="false">G32*$A$1</f>
-        <v>7429.95</v>
+        <v>6113.25</v>
       </c>
       <c r="I32" s="21" t="n">
         <f aca="false">H32*0.35</f>
-        <v>2600.4825</v>
+        <v>2139.6375</v>
       </c>
       <c r="J32" s="21" t="n">
         <f aca="false">H32-I32</f>
-        <v>4829.4675</v>
+        <v>3973.6125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,15 +2044,15 @@
       </c>
       <c r="H37" s="25" t="n">
         <f aca="false">SUM(H15:H35)</f>
-        <v>238054.65</v>
+        <v>195867.75</v>
       </c>
       <c r="I37" s="25" t="n">
         <f aca="false">SUM(I15:I35)</f>
-        <v>59483.2475</v>
+        <v>48941.9125</v>
       </c>
       <c r="J37" s="25" t="n">
         <f aca="false">SUM(J15:J35)</f>
-        <v>178571.4025</v>
+        <v>146925.8375</v>
       </c>
       <c r="K37" s="26"/>
     </row>
@@ -2132,7 +2127,7 @@
   <dimension ref="A2:T52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T21" activeCellId="0" sqref="T21"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2254,7 +2249,7 @@
       </c>
       <c r="P4" s="41" t="n">
         <f aca="false">175000+SUM(Schedule!H17:H20)</f>
-        <v>256725.5</v>
+        <v>242242.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2291,7 @@
       </c>
       <c r="P5" s="41" t="n">
         <f aca="false">Schedule!H16+5000</f>
-        <v>61251.95</v>
+        <v>51283.25</v>
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
@@ -2335,7 +2330,7 @@
       </c>
       <c r="P6" s="41" t="n">
         <f aca="false">P4+P5</f>
-        <v>317977.45</v>
+        <v>293525.75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2373,7 @@
       </c>
       <c r="P7" s="41" t="n">
         <f aca="false">P6-($B$2*$B$7)</f>
-        <v>305034.635</v>
+        <v>280582.935</v>
       </c>
       <c r="T7" s="43"/>
     </row>
@@ -2416,7 +2411,7 @@
       </c>
       <c r="P8" s="25" t="n">
         <f aca="false">SUM(M4:M10)</f>
-        <v>59076.93975</v>
+        <v>54007.88975</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,14 +2447,14 @@
       </c>
       <c r="M9" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L8,MIN((L9-L8),((P$7-P$5)-L8))*K9, 0))</f>
-        <v>9741.43975</v>
+        <v>4672.38975</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>65</v>
       </c>
       <c r="P9" s="44" t="n">
         <f aca="false">SUM(M14:M16)+SUM(M20:M21)</f>
-        <v>9187.7925</v>
+        <v>7692.4875</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,8 +2462,8 @@
         <v>42</v>
       </c>
       <c r="B10" s="0" t="n">
-        <f aca="false">B9-14241-8291</f>
-        <v>7640</v>
+        <f aca="false">B9-14241-8291-593</f>
+        <v>7047</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>66</v>
@@ -2503,7 +2498,7 @@
       </c>
       <c r="P10" s="46" t="n">
         <f aca="false">(P8+P9)/P6</f>
-        <v>0.214684193014316</v>
+        <v>0.210204308310259</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,13 +2597,13 @@
       </c>
       <c r="M15" s="21" t="n">
         <f aca="false">IF(P$6&gt;L14,IF(P$6&lt;=L15, P$5*K15, 0),0)</f>
-        <v>9187.7925</v>
+        <v>7692.4875</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>69</v>
       </c>
       <c r="P15" s="58" t="n">
-        <v>32650</v>
+        <v>34570.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2639,7 @@
       </c>
       <c r="P16" s="58" t="n">
         <f aca="false">P6+P15</f>
-        <v>350627.45</v>
+        <v>328095.85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +2683,7 @@
       </c>
       <c r="P18" s="58" t="n">
         <f aca="false">P16+P17-($B3*$B$7)-P5</f>
-        <v>213471.82</v>
+        <v>200908.92</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,7 +2717,7 @@
       </c>
       <c r="P19" s="61" t="n">
         <f aca="false">M25+M26</f>
-        <v>55650.1096</v>
+        <v>52236.3192</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2753,7 @@
       </c>
       <c r="P20" s="25" t="n">
         <f aca="false">P9</f>
-        <v>9187.7925</v>
+        <v>7692.4875</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2789,7 @@
       </c>
       <c r="P21" s="46" t="n">
         <f aca="false">(P19+P20)/P16</f>
-        <v>0.184919640775416</v>
+        <v>0.182656399646628</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,7 +2807,7 @@
       </c>
       <c r="P22" s="41" t="n">
         <f aca="false">IF(P8&gt;P19,((P8+P9)-(P19+P20))/K25,0)</f>
-        <v>13180.1159615384</v>
+        <v>6813.7328846154</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,7 +2869,7 @@
       </c>
       <c r="M25" s="21" t="n">
         <f aca="false">MIN(P18,L25)*K25</f>
-        <v>53586</v>
+        <v>52236.3192</v>
       </c>
       <c r="O25" s="65" t="s">
         <v>77</v>
@@ -2895,7 +2890,7 @@
       <c r="G26" s="69"/>
       <c r="H26" s="70" t="n">
         <f aca="false">I22/Schedule!A1</f>
-        <v>739.453164556961</v>
+        <v>898.719999999997</v>
       </c>
       <c r="I26" s="70"/>
       <c r="K26" s="71" t="s">
@@ -2906,12 +2901,12 @@
       </c>
       <c r="M26" s="68" t="n">
         <f aca="false">IF(P18&gt;L25,(P18-L25)*K26, 0)</f>
-        <v>2064.1096</v>
+        <v>0</v>
       </c>
       <c r="N26" s="73"/>
       <c r="O26" s="74" t="n">
         <f aca="false">MIN(B10, P22/Schedule!A1)</f>
-        <v>3336.738218111</v>
+        <v>2096.53319526628</v>
       </c>
       <c r="P26" s="74"/>
     </row>
@@ -2978,7 +2973,7 @@
       </c>
       <c r="I30" s="41" t="n">
         <f aca="false">182500+SUM(Schedule!H25:H28)</f>
-        <v>212219.8</v>
+        <v>206953</v>
       </c>
       <c r="K30" s="42" t="s">
         <v>51</v>
@@ -2996,7 +2991,7 @@
       </c>
       <c r="P30" s="41" t="n">
         <f aca="false">190000+Schedule!H32</f>
-        <v>197429.95</v>
+        <v>196113.25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,14 +3004,14 @@
       </c>
       <c r="F31" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E30,MIN((E31-E30),((I$33-I$31)-E30))*D31, 0))</f>
-        <v>3894.35290424981</v>
+        <v>3894.35290424982</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>55</v>
       </c>
       <c r="I31" s="41" t="n">
         <f aca="false">Schedule!H24+5000</f>
-        <v>18180.1159615384</v>
+        <v>11813.7328846154</v>
       </c>
       <c r="K31" s="42" t="s">
         <v>54</v>
@@ -3027,14 +3022,14 @@
       </c>
       <c r="M31" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L30,MIN((L31-L30),((P$33-P$31)-L30))*K31, 0))</f>
-        <v>4016.24615015283</v>
+        <v>4016.24615015284</v>
       </c>
       <c r="O31" s="0" t="s">
         <v>55</v>
       </c>
       <c r="P31" s="41" t="n">
         <f aca="false">Schedule!H31+5000</f>
-        <v>21997.8840384616</v>
+        <v>21089.0171153846</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,7 +3049,7 @@
       </c>
       <c r="I32" s="41" t="n">
         <f aca="false">I30+I31</f>
-        <v>230399.915961538</v>
+        <v>218766.732884615</v>
       </c>
       <c r="K32" s="42" t="s">
         <v>56</v>
@@ -3065,14 +3060,14 @@
       </c>
       <c r="M32" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L31,MIN((L32-L31),((P$33-P$31)-L31))*K32, 0))</f>
-        <v>11071.0936291104</v>
+        <v>11071.0936291103</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>57</v>
       </c>
       <c r="P32" s="41" t="n">
         <f aca="false">P30+P31</f>
-        <v>219427.834038462</v>
+        <v>217202.267115385</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,7 +3087,7 @@
       </c>
       <c r="I33" s="41" t="n">
         <f aca="false">I32-($B$2*$B$7^2)</f>
-        <v>217051.990852038</v>
+        <v>205418.807775115</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>59</v>
@@ -3103,14 +3098,14 @@
       </c>
       <c r="M33" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L32,MIN((L33-L32),((P$33-P$31)-L32))*K33, 0))</f>
-        <v>20661.0291955981</v>
+        <v>20661.029195598</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>60</v>
       </c>
       <c r="P33" s="41" t="n">
         <f aca="false">P32-($B$2*$B$7^3)</f>
-        <v>205662.118873034</v>
+        <v>203436.551949957</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3123,14 +3118,14 @@
       </c>
       <c r="F34" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E33,MIN((E34-E33),((I$33-I$31)-E33))*D34, 0))</f>
-        <v>7532.03740622117</v>
+        <v>5846.66140622112</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I34" s="25" t="n">
         <f aca="false">SUM(F30:F36)</f>
-        <v>43256.5033806311</v>
+        <v>41571.1273806311</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>61</v>
@@ -3141,14 +3136,14 @@
       </c>
       <c r="M34" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L33,MIN((L34-L33),((P$33-P$31)-L33))*K34, 0))</f>
-        <v>909.444660235895</v>
+        <v>488.10066023604</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>62</v>
       </c>
       <c r="P34" s="25" t="n">
         <f aca="false">SUM(M30:M36)</f>
-        <v>37752.0864196449</v>
+        <v>37330.7424196449</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3163,7 @@
       </c>
       <c r="I35" s="44" t="n">
         <f aca="false">SUM(F40:F42)+SUM(F46:F47)</f>
-        <v>2727.01739423077</v>
+        <v>1772.05993269231</v>
       </c>
       <c r="K35" s="42" t="s">
         <v>64</v>
@@ -3186,7 +3181,7 @@
       </c>
       <c r="P35" s="44" t="n">
         <f aca="false">SUM(M40:M42)+SUM(M46:M47)</f>
-        <v>3299.68260576923</v>
+        <v>3163.35256730769</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,7 +3200,7 @@
       </c>
       <c r="I36" s="46" t="n">
         <f aca="false">(I34+I35)/I32</f>
-        <v>0.199581326160458</v>
+        <v>0.198125129638353</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>66</v>
@@ -3222,7 +3217,7 @@
       </c>
       <c r="P36" s="46" t="n">
         <f aca="false">(P34+P35)/P32</f>
-        <v>0.18708551358265</v>
+        <v>0.186434955420796</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,7 +3298,7 @@
       </c>
       <c r="F41" s="21" t="n">
         <f aca="false">IF(I$32&gt;E40,IF(I$32&lt;=E41, I$31*D41, 0),0)</f>
-        <v>2727.01739423077</v>
+        <v>1772.05993269231</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>69</v>
@@ -3320,7 +3315,7 @@
       </c>
       <c r="M41" s="21" t="n">
         <f aca="false">IF(P$32&gt;L40,IF(P$32&lt;=L41, P$31*K41, 0),0)</f>
-        <v>3299.68260576923</v>
+        <v>3163.35256730769</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>69</v>
@@ -3345,7 +3340,7 @@
       </c>
       <c r="I42" s="58" t="n">
         <f aca="false">I32+I41</f>
-        <v>230399.915961538</v>
+        <v>218766.732884615</v>
       </c>
       <c r="K42" s="60" t="n">
         <v>0.2</v>
@@ -3362,7 +3357,7 @@
       </c>
       <c r="P42" s="58" t="n">
         <f aca="false">P32+P41</f>
-        <v>219427.834038462</v>
+        <v>217202.267115385</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,7 +3389,7 @@
       </c>
       <c r="I44" s="58" t="n">
         <f aca="false">I42+I43-($B3*$B$7^2)-I31</f>
-        <v>133940.334816</v>
+        <v>128673.534816</v>
       </c>
       <c r="K44" s="53" t="s">
         <v>72</v>
@@ -3406,7 +3401,7 @@
       </c>
       <c r="P44" s="58" t="n">
         <f aca="false">P42+P43-($B3*$B$7^3)-P31</f>
-        <v>116700.337555741</v>
+        <v>115383.637555741</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,7 +3419,7 @@
       </c>
       <c r="I45" s="61" t="n">
         <f aca="false">F51+F52</f>
-        <v>34824.48705216</v>
+        <v>33455.11905216</v>
       </c>
       <c r="K45" s="37" t="s">
         <v>47</v>
@@ -3440,7 +3435,7 @@
       </c>
       <c r="P45" s="61" t="n">
         <f aca="false">M51+M52</f>
-        <v>30342.0877644926</v>
+        <v>29999.7457644926</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,7 +3454,7 @@
       </c>
       <c r="I46" s="25" t="n">
         <f aca="false">I35</f>
-        <v>2727.01739423077</v>
+        <v>1772.05993269231</v>
       </c>
       <c r="K46" s="63" t="n">
         <v>0</v>
@@ -3476,7 +3471,7 @@
       </c>
       <c r="P46" s="25" t="n">
         <f aca="false">P35</f>
-        <v>3299.68260576923</v>
+        <v>3163.35256730769</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,7 +3490,7 @@
       </c>
       <c r="I47" s="46" t="n">
         <f aca="false">I45/I42</f>
-        <v>0.151148002406274</v>
+        <v>0.15292598929932</v>
       </c>
       <c r="K47" s="63" t="n">
         <v>0.038</v>
@@ -3512,7 +3507,7 @@
       </c>
       <c r="P47" s="46" t="n">
         <f aca="false">P45/P42</f>
-        <v>0.138278208402559</v>
+        <v>0.138118934774082</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,7 +3517,7 @@
       </c>
       <c r="I48" s="41" t="n">
         <f aca="false">IF(I34&gt;I45,((I34+I35)-(I45+I46))/D51,0)</f>
-        <v>32430.8320325814</v>
+        <v>31215.4166479659</v>
       </c>
       <c r="K48" s="48"/>
       <c r="O48" s="40" t="s">
@@ -3530,7 +3525,7 @@
       </c>
       <c r="P48" s="41" t="n">
         <f aca="false">IF(P34&gt;P45,((P34+P35)-(P45+P46))/K51,0)</f>
-        <v>28499.9948275089</v>
+        <v>28196.1409813551</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3579,7 +3574,7 @@
       </c>
       <c r="F51" s="21" t="n">
         <f aca="false">MIN(I44,E51)*D51</f>
-        <v>34824.48705216</v>
+        <v>33455.11905216</v>
       </c>
       <c r="H51" s="65" t="s">
         <v>77</v>
@@ -3594,7 +3589,7 @@
       </c>
       <c r="M51" s="21" t="n">
         <f aca="false">MIN(P44,L51)*K51</f>
-        <v>30342.0877644926</v>
+        <v>29999.7457644926</v>
       </c>
       <c r="O51" s="65" t="s">
         <v>77</v>
@@ -3615,7 +3610,7 @@
       <c r="G52" s="73"/>
       <c r="H52" s="74" t="n">
         <f aca="false">MIN(I48/Schedule!$A$1, (B10-O26))</f>
-        <v>4303.261781889</v>
+        <v>4950.46680473372</v>
       </c>
       <c r="I52" s="74"/>
       <c r="K52" s="71" t="s">
@@ -3683,10 +3678,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3804,18 +3799,18 @@
         <v>93</v>
       </c>
       <c r="E3" s="85" t="n">
-        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A3,C17,"M")-12))</f>
+        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A3,C20,"M")-12))</f>
         <v>36</v>
       </c>
       <c r="F3" s="86" t="n">
-        <f aca="false">0.25*C3*IF(DATEDIF(A3,$C$17,"Y")&gt;=1, 1, 0) + 0.75*C3*IF(DATEDIF(A3,$C$17,"Y")&gt;=1, MIN(36,E3)/36, 0)</f>
+        <f aca="false">0.25*C3*IF(DATEDIF(A3,$C$20,"Y")&gt;=1, 1, 0) + 0.75*C3*IF(DATEDIF(A3,$C$20,"Y")&gt;=1, MIN(36,E3)/36, 0)</f>
         <v>2735</v>
       </c>
       <c r="G3" s="83" t="n">
         <v>2735</v>
       </c>
       <c r="H3" s="87" t="n">
-        <f aca="false">IF(F3=C3, 0, IF(DATEDIF(A3,$C$17,"Y")&gt;=1, C3*0.75/48, 0))</f>
+        <f aca="false">IF(F3=C3, 0, IF(DATEDIF(A3,$C$20,"Y")&gt;=1, C3*0.75/48, 0))</f>
         <v>0</v>
       </c>
       <c r="I3" s="81" t="n">
@@ -3841,15 +3836,15 @@
       </c>
       <c r="P3" s="93" t="n">
         <f aca="false">Schedule!A$1 * N3</f>
-        <v>10803.25</v>
+        <v>8888.75</v>
       </c>
       <c r="Q3" s="89" t="n">
         <f aca="false">MAX(DATE(YEAR(L3)+1,MONTH(L3),DAY(L3)),DATE(YEAR(K3)+2,MONTH(K3),DAY(K3)))</f>
         <v>44366</v>
       </c>
       <c r="R3" s="93" t="n">
-        <f aca="false">IF($C$17&gt;Q3, P3*0.15, P3*0.35)</f>
-        <v>1620.4875</v>
+        <f aca="false">IF($C$20&gt;Q3, P3*0.15, P3*0.35)</f>
+        <v>1333.3125</v>
       </c>
       <c r="T3" s="94"/>
       <c r="U3" s="20"/>
@@ -3868,7 +3863,7 @@
         <v>94</v>
       </c>
       <c r="E4" s="85" t="n">
-        <f aca="false">MAX(0,MIN(36,DATEDIF(A4,C17,"M")))</f>
+        <f aca="false">MAX(0,MIN(36,DATEDIF(A4,C20,"M")))</f>
         <v>36</v>
       </c>
       <c r="F4" s="86" t="n">
@@ -3905,15 +3900,15 @@
       </c>
       <c r="P4" s="93" t="n">
         <f aca="false">Schedule!A$1 * N4</f>
-        <v>30031.85</v>
+        <v>24709.75</v>
       </c>
       <c r="Q4" s="89" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
         <v>44366</v>
       </c>
       <c r="R4" s="93" t="n">
-        <f aca="false">IF($C$17&gt;Q4, P4*0.15, P4*0.35)</f>
-        <v>4504.7775</v>
+        <f aca="false">IF($C$20&gt;Q4, P4*0.15, P4*0.35)</f>
+        <v>3706.4625</v>
       </c>
       <c r="T4" s="94"/>
       <c r="U4" s="20"/>
@@ -3932,18 +3927,18 @@
         <v>93</v>
       </c>
       <c r="E5" s="99" t="n">
-        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A5,C$17,"M")-12))</f>
+        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A5,C$20,"M")-12))</f>
         <v>19</v>
       </c>
       <c r="F5" s="100" t="n">
-        <f aca="false">0.25*C5*IF(DATEDIF(A5,$C$17,"Y")&gt;=1, 1, 0) + 0.75*C5*IF(DATEDIF(A5,$C$17,"Y")&gt;=1, MIN(36,E5)/36, 0)</f>
+        <f aca="false">0.25*C5*IF(DATEDIF(A5,$C$20,"Y")&gt;=1, 1, 0) + 0.75*C5*IF(DATEDIF(A5,$C$20,"Y")&gt;=1, MIN(36,E5)/36, 0)</f>
         <v>2260.41666666667</v>
       </c>
       <c r="G5" s="97" t="n">
         <v>2261</v>
       </c>
       <c r="H5" s="101" t="n">
-        <f aca="false">IF(F5=C5, 0, IF(DATEDIF(A5,$C$17,"Y")&gt;=1, C5/48, 0))</f>
+        <f aca="false">IF(F5=C5, 0, IF(DATEDIF(A5,$C$20,"Y")&gt;=1, C5/48, 0))</f>
         <v>72.9166666666667</v>
       </c>
       <c r="I5" s="89" t="n">
@@ -3969,15 +3964,15 @@
       </c>
       <c r="P5" s="93" t="n">
         <f aca="false">Schedule!A$1 * N5</f>
-        <v>3744.6</v>
+        <v>3081</v>
       </c>
       <c r="Q5" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
         <v>44366</v>
       </c>
       <c r="R5" s="105" t="n">
-        <f aca="false">IF($C$17&gt;Q5, P5*0.15, P5*0.35)</f>
-        <v>561.69</v>
+        <f aca="false">IF($C$20&gt;Q5, P5*0.15, P5*0.35)</f>
+        <v>462.15</v>
       </c>
       <c r="T5" s="94"/>
       <c r="U5" s="20"/>
@@ -3996,18 +3991,19 @@
         <v>93</v>
       </c>
       <c r="E6" s="99" t="n">
-        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$17,"M")-12))</f>
+        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$20,"M")-12))</f>
         <v>14</v>
       </c>
       <c r="F6" s="100" t="n">
-        <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$17,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$17,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
+        <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$20,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$20,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
         <v>6864.54166666667</v>
       </c>
       <c r="G6" s="91" t="n">
-        <v>6272</v>
+        <f aca="false">6272+593</f>
+        <v>6865</v>
       </c>
       <c r="H6" s="101" t="n">
-        <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$17,"Y")&gt;=1, C6/48, 0))</f>
+        <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$20,"Y")&gt;=1, C6/48, 0))</f>
         <v>264.020833333333</v>
       </c>
       <c r="I6" s="89" t="n">
@@ -4033,15 +4029,15 @@
       </c>
       <c r="P6" s="93" t="n">
         <f aca="false">Schedule!A$1 * N6</f>
-        <v>7232.45</v>
+        <v>5950.75</v>
       </c>
       <c r="Q6" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
         <v>44658</v>
       </c>
       <c r="R6" s="105" t="n">
-        <f aca="false">IF($C$17&gt;Q6, P6*0.15, P6*0.35)</f>
-        <v>2531.3575</v>
+        <f aca="false">IF($C$20&gt;Q6, P6*0.15, P6*0.35)</f>
+        <v>2082.7625</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,18 +4054,18 @@
         <v>95</v>
       </c>
       <c r="E7" s="99" t="n">
-        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$17,"M")-12))</f>
+        <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A7,C$20,"M")-12))</f>
         <v>0</v>
       </c>
       <c r="F7" s="100" t="n">
-        <f aca="false">0.5*C7*IF($C$17 &gt;= DATE(2022,3,10), 1, 0) + 0.5*C7*IF(DATEDIF(A7,$C$17,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
+        <f aca="false">0.5*C7*IF($C$20 &gt;= DATE(2022,3,10), 1, 0) + 0.5*C7*IF(DATEDIF(A7,$C$20,"Y")&gt;=1, MIN(36,E7)/36, 0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="91" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="101" t="n">
-        <f aca="false">IF(F7=C7, 0, IF($C$17 &gt;= DATE(2022,3,10), C7*0.75/36, 0))</f>
+        <f aca="false">IF(F7=C7, 0, IF($C$20 &gt;= DATE(2022,3,10), C7*0.75/36, 0))</f>
         <v>0</v>
       </c>
       <c r="I7" s="89" t="n">
@@ -4095,15 +4091,15 @@
       </c>
       <c r="P7" s="93" t="n">
         <f aca="false">Schedule!A$1 * N7</f>
-        <v>2591.2</v>
+        <v>2132</v>
       </c>
       <c r="Q7" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L7)+1,MONTH(L7),DAY(L7)),DATE(YEAR(K7)+2,MONTH(K7),DAY(K7)))</f>
         <v>44658</v>
       </c>
       <c r="R7" s="105" t="n">
-        <f aca="false">IF($C$17&gt;Q7, P7*0.15, P7*0.35)</f>
-        <v>906.92</v>
+        <f aca="false">IF($C$20&gt;Q7, P7*0.15, P7*0.35)</f>
+        <v>746.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,15 +4131,15 @@
       </c>
       <c r="P8" s="93" t="n">
         <f aca="false">Schedule!A$1 * N8</f>
-        <v>1848.6</v>
+        <v>1521</v>
       </c>
       <c r="Q8" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
         <v>44658</v>
       </c>
       <c r="R8" s="105" t="n">
-        <f aca="false">IF($C$17&gt;Q8, P8*0.15, P8*0.35)</f>
-        <v>647.01</v>
+        <f aca="false">IF($C$20&gt;Q8, P8*0.15, P8*0.35)</f>
+        <v>532.35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,16 +4172,17 @@
       </c>
       <c r="P9" s="93" t="n">
         <f aca="false">Schedule!A$1 * N9</f>
-        <v>7228.5</v>
+        <v>5947.5</v>
       </c>
       <c r="Q9" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
         <v>44932</v>
       </c>
       <c r="R9" s="105" t="n">
-        <f aca="false">IF($C$17&gt;Q9, P9*0.15, P9*0.35)</f>
-        <v>2529.975</v>
-      </c>
+        <f aca="false">IF($C$20&gt;Q9, P9*0.15, P9*0.35)</f>
+        <v>2081.625</v>
+      </c>
+      <c r="T9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="91"/>
@@ -4217,16 +4214,17 @@
       </c>
       <c r="P10" s="93" t="n">
         <f aca="false">Schedule!A$1 * N10</f>
-        <v>2595.15</v>
+        <v>2135.25</v>
       </c>
       <c r="Q10" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L10)+1,MONTH(L10),DAY(L10)),DATE(YEAR(K10)+2,MONTH(K10),DAY(K10)))</f>
         <v>44932</v>
       </c>
       <c r="R10" s="105" t="n">
-        <f aca="false">IF($C$17&gt;Q10, P10*0.15, P10*0.35)</f>
-        <v>908.3025</v>
-      </c>
+        <f aca="false">IF($C$20&gt;Q10, P10*0.15, P10*0.35)</f>
+        <v>747.3375</v>
+      </c>
+      <c r="T10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="110"/>
@@ -4258,16 +4256,17 @@
       </c>
       <c r="P11" s="93" t="n">
         <f aca="false">Schedule!A$1 * N11</f>
-        <v>22925.8</v>
+        <v>18863</v>
       </c>
       <c r="Q11" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L11)+1,MONTH(L11),DAY(L11)),DATE(YEAR(K11)+2,MONTH(K11),DAY(K11)))</f>
         <v>44932</v>
       </c>
       <c r="R11" s="105" t="n">
-        <f aca="false">IF($C$17&gt;Q11, P11*0.15, P11*0.35)</f>
-        <v>8024.03</v>
-      </c>
+        <f aca="false">IF($C$20&gt;Q11, P11*0.15, P11*0.35)</f>
+        <v>6602.05</v>
+      </c>
+      <c r="T11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="111"/>
@@ -4280,195 +4279,277 @@
       <c r="H12" s="80"/>
       <c r="I12" s="80"/>
       <c r="J12" s="113"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
+      <c r="K12" s="102" t="n">
+        <v>43893</v>
+      </c>
+      <c r="L12" s="106" t="n">
+        <v>44574</v>
+      </c>
+      <c r="M12" s="90" t="n">
+        <v>0.012062</v>
+      </c>
+      <c r="N12" s="91" t="n">
+        <f aca="false">593</f>
+        <v>593</v>
+      </c>
+      <c r="O12" s="104" t="n">
+        <f aca="false">N12*M12</f>
+        <v>7.152766</v>
+      </c>
+      <c r="P12" s="93" t="n">
+        <f aca="false">Schedule!A$1 * N12</f>
+        <v>1927.25</v>
+      </c>
+      <c r="Q12" s="102" t="n">
+        <f aca="false">MAX(DATE(YEAR(L12)+1,MONTH(L12),DAY(L12)),DATE(YEAR(K12)+2,MONTH(K12),DAY(K12)))</f>
+        <v>44939</v>
+      </c>
+      <c r="R12" s="105" t="n">
+        <f aca="false">IF($C$20&gt;Q12, P12*0.15, P12*0.35)</f>
+        <v>674.5375</v>
+      </c>
+      <c r="T12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="99"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="108"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="113"/>
       <c r="K13" s="99"/>
       <c r="L13" s="99"/>
       <c r="M13" s="99"/>
-      <c r="N13" s="114"/>
+      <c r="N13" s="91"/>
       <c r="O13" s="92"/>
       <c r="P13" s="99"/>
       <c r="Q13" s="99"/>
       <c r="R13" s="99"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="99"/>
       <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="108"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="113"/>
       <c r="K14" s="99"/>
       <c r="L14" s="99"/>
       <c r="M14" s="99"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="99"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="92"/>
       <c r="P14" s="99"/>
       <c r="Q14" s="99"/>
       <c r="R14" s="99"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="115" t="str">
-        <f aca="false">"Grants: "&amp;COUNT(A3:A6)</f>
-        <v>Grants: 4</v>
-      </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117" t="n">
-        <f aca="false">SUM(C3:C13)</f>
-        <v>60267</v>
-      </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="119" t="n">
-        <f aca="false">SUM(F3:F13)</f>
-        <v>23123.9583333333</v>
-      </c>
-      <c r="G15" s="117" t="n">
-        <f aca="false">SUM(G3:G13)</f>
-        <v>22532</v>
-      </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="123"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="124" t="n">
-        <f aca="false">SUM(P3:P11)</f>
-        <v>89001.4</v>
-      </c>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="127" t="n">
-        <f aca="false">SUM(H3:H13)</f>
-        <v>336.9375</v>
-      </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129" t="n">
-        <f aca="false">F15/C15</f>
-        <v>0.383691876704222</v>
-      </c>
-      <c r="G16" s="129" t="n">
-        <f aca="false">G15/F15</f>
-        <v>0.974400648677868</v>
-      </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="131" t="n">
-        <f aca="false">SUM(R3:R11)</f>
-        <v>22234.55</v>
-      </c>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-    </row>
-    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="89"/>
-      <c r="B17" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="132" t="n">
-        <f aca="true">TODAY()</f>
-        <v>44567</v>
-      </c>
-      <c r="D17" s="91"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="99"/>
       <c r="F17" s="99"/>
       <c r="G17" s="99"/>
-      <c r="H17" s="133"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="134" t="s">
+      <c r="J17" s="108"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="114" t="str">
+        <f aca="false">"Grants: "&amp;COUNT(A3:A6)</f>
+        <v>Grants: 4</v>
+      </c>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116" t="n">
+        <f aca="false">SUM(C3:C16)</f>
+        <v>60267</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118" t="n">
+        <f aca="false">SUM(F3:F16)</f>
+        <v>23123.9583333333</v>
+      </c>
+      <c r="G18" s="116" t="n">
+        <f aca="false">SUM(G3:G16)</f>
+        <v>23125</v>
+      </c>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="123" t="n">
+        <f aca="false">SUM(P3:P17)</f>
+        <v>75156.25</v>
+      </c>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="125"/>
+      <c r="C19" s="126" t="n">
+        <f aca="false">SUM(H3:H16)</f>
+        <v>336.9375</v>
+      </c>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128" t="n">
+        <f aca="false">F18/C18</f>
+        <v>0.383691876704222</v>
+      </c>
+      <c r="G19" s="128" t="n">
+        <f aca="false">G18/F18</f>
+        <v>1.00004504707419</v>
+      </c>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="130" t="n">
+        <f aca="false">SUM(R3:R17)</f>
+        <v>18968.7875</v>
+      </c>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+    </row>
+    <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="89"/>
+      <c r="B20" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="131" t="n">
+        <f aca="true">TODAY()</f>
+        <v>44574</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="135" t="n">
-        <f aca="false">P15-P16</f>
-        <v>66766.85</v>
-      </c>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="89"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="136" t="s">
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="134" t="n">
+        <f aca="false">P18-P19</f>
+        <v>56187.4625</v>
+      </c>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="89"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137" t="n">
-        <f aca="false">(C15-G15)*Schedule!A1*0.65</f>
-        <v>96884.6125</v>
-      </c>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="136" t="n">
+        <f aca="false">(C18-G18)*Schedule!A1*0.65</f>
+        <v>78462.475</v>
+      </c>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:R1"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:R17"/>
     <mergeCell ref="K18:O18"/>
     <mergeCell ref="P18:R18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P21:R21"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I7">
     <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/Spreadsheets/Stock Options.xlsx
+++ b/Spreadsheets/Stock Options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="102">
   <si>
     <t xml:space="preserve">STOCK PRICE</t>
   </si>
@@ -1338,10 +1338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1359,7 +1359,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C5" s="10" t="n">
         <f aca="false">B5*$A$1</f>
-        <v>237.25</v>
+        <v>202.94</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>43831</v>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C6" s="10" t="n">
         <f aca="false">B6*$A$1</f>
-        <v>858</v>
+        <v>733.92</v>
       </c>
       <c r="D6" s="11" t="n">
         <v>43831</v>
@@ -1546,14 +1546,14 @@
       </c>
       <c r="C10" s="15" t="n">
         <f aca="false">SUM(C4:C7)</f>
-        <v>1095.25</v>
+        <v>936.86</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">C10*12</f>
-        <v>13143</v>
+        <v>11242.32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B11" s="18" t="n">
         <f aca="true">TODAY()</f>
-        <v>44574</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1612,15 +1612,15 @@
       </c>
       <c r="H16" s="21" t="n">
         <f aca="false">G16*$A$1</f>
-        <v>46283.25</v>
+        <v>39589.98</v>
       </c>
       <c r="I16" s="21" t="n">
         <f aca="false">H16*0.15</f>
-        <v>6942.4875</v>
+        <v>5938.497</v>
       </c>
       <c r="J16" s="21" t="n">
         <f aca="false">H16-I16</f>
-        <v>39340.7625</v>
+        <v>33651.483</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,15 +1637,15 @@
       </c>
       <c r="H17" s="21" t="n">
         <f aca="false">G17*$A$1</f>
-        <v>48906</v>
+        <v>41833.44</v>
       </c>
       <c r="I17" s="21" t="n">
         <f aca="false">H17*0.35</f>
-        <v>17117.1</v>
+        <v>14641.704</v>
       </c>
       <c r="J17" s="21" t="n">
         <f aca="false">H17-I17</f>
-        <v>31788.9</v>
+        <v>27191.736</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,15 +1662,15 @@
       </c>
       <c r="H18" s="21" t="n">
         <f aca="false">G18*$A$1</f>
-        <v>6110</v>
+        <v>5226.4</v>
       </c>
       <c r="I18" s="21" t="n">
         <f aca="false">H18*0.35</f>
-        <v>2138.5</v>
+        <v>1829.24</v>
       </c>
       <c r="J18" s="21" t="n">
         <f aca="false">H18-I18</f>
-        <v>3971.5</v>
+        <v>3397.16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="H19" s="21" t="n">
         <f aca="false">G19*$A$1</f>
-        <v>6113.25</v>
+        <v>5229.18</v>
       </c>
       <c r="I19" s="21" t="n">
         <f aca="false">H19*0.35</f>
-        <v>2139.6375</v>
+        <v>1830.213</v>
       </c>
       <c r="J19" s="21" t="n">
         <f aca="false">H19-I19</f>
-        <v>3973.6125</v>
+        <v>3398.967</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,15 +1712,15 @@
       </c>
       <c r="H20" s="21" t="n">
         <f aca="false">G20*$A$1</f>
-        <v>6113.25</v>
+        <v>5229.18</v>
       </c>
       <c r="I20" s="21" t="n">
         <f aca="false">H20*0.35</f>
-        <v>2139.6375</v>
+        <v>1830.213</v>
       </c>
       <c r="J20" s="21" t="n">
         <f aca="false">H20-I20</f>
-        <v>3973.6125</v>
+        <v>3398.967</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,15 +1763,15 @@
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">G23*$A$1</f>
-        <v>28873</v>
+        <v>24697.52</v>
       </c>
       <c r="I23" s="21" t="n">
         <f aca="false">H23*0.15</f>
-        <v>4330.95</v>
+        <v>3704.628</v>
       </c>
       <c r="J23" s="21" t="n">
         <f aca="false">H23-I23</f>
-        <v>24542.05</v>
+        <v>20992.892</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,24 +1785,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="20" t="n">
         <f aca="false">AMT!O26</f>
-        <v>2096.53319526628</v>
+        <v>904.614762036505</v>
       </c>
       <c r="H24" s="21" t="n">
         <f aca="false">G24*$A$1</f>
-        <v>6813.7328846154</v>
+        <v>2514.82903846148</v>
       </c>
       <c r="I24" s="21" t="n">
         <f aca="false">H24*0.15</f>
-        <v>1022.05993269231</v>
+        <v>377.224355769222</v>
       </c>
       <c r="J24" s="21" t="n">
         <f aca="false">H24-I24</f>
-        <v>5791.67295192309</v>
+        <v>2137.60468269226</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1810,24 +1810,24 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="20" t="n">
-        <v>1881</v>
+        <v>337</v>
       </c>
       <c r="H25" s="21" t="n">
         <f aca="false">G25*$A$1</f>
-        <v>6113.25</v>
+        <v>936.86</v>
       </c>
       <c r="I25" s="21" t="n">
-        <f aca="false">H25*0.35</f>
-        <v>2139.6375</v>
+        <f aca="false">H25*0.15</f>
+        <v>140.529</v>
       </c>
       <c r="J25" s="21" t="n">
         <f aca="false">H25-I25</f>
-        <v>3973.6125</v>
+        <v>796.331</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1839,20 +1839,20 @@
       </c>
       <c r="H26" s="21" t="n">
         <f aca="false">G26*$A$1</f>
-        <v>6113.25</v>
+        <v>5229.18</v>
       </c>
       <c r="I26" s="21" t="n">
         <f aca="false">H26*0.35</f>
-        <v>2139.6375</v>
+        <v>1830.213</v>
       </c>
       <c r="J26" s="21" t="n">
         <f aca="false">H26-I26</f>
-        <v>3973.6125</v>
+        <v>3398.967</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1864,20 +1864,20 @@
       </c>
       <c r="H27" s="21" t="n">
         <f aca="false">G27*$A$1</f>
-        <v>6113.25</v>
+        <v>5229.18</v>
       </c>
       <c r="I27" s="21" t="n">
         <f aca="false">H27*0.35</f>
-        <v>2139.6375</v>
+        <v>1830.213</v>
       </c>
       <c r="J27" s="21" t="n">
         <f aca="false">H27-I27</f>
-        <v>3973.6125</v>
+        <v>3398.967</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1889,33 +1889,44 @@
       </c>
       <c r="H28" s="21" t="n">
         <f aca="false">G28*$A$1</f>
-        <v>6113.25</v>
+        <v>5229.18</v>
       </c>
       <c r="I28" s="21" t="n">
         <f aca="false">H28*0.35</f>
-        <v>2139.6375</v>
+        <v>1830.213</v>
       </c>
       <c r="J28" s="21" t="n">
         <f aca="false">H28-I28</f>
-        <v>3973.6125</v>
+        <v>3398.967</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="20" t="n">
+        <v>1881</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <f aca="false">G29*$A$1</f>
+        <v>5229.18</v>
+      </c>
+      <c r="I29" s="21" t="n">
+        <f aca="false">H29*0.35</f>
+        <v>1830.213</v>
+      </c>
+      <c r="J29" s="21" t="n">
+        <f aca="false">H29-I29</f>
+        <v>3398.967</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1928,33 +1939,21 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="20" t="n">
-        <f aca="false">AMT!H52</f>
-        <v>4950.46680473372</v>
-      </c>
-      <c r="H31" s="21" t="n">
-        <f aca="false">G31*$A$1</f>
-        <v>16089.0171153846</v>
-      </c>
-      <c r="I31" s="21" t="n">
-        <f aca="false">H31*0.15</f>
-        <v>2413.35256730769</v>
-      </c>
-      <c r="J31" s="21" t="n">
-        <f aca="false">H31-I31</f>
-        <v>13675.6645480769</v>
-      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1962,124 +1961,150 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="20" t="n">
-        <v>1881</v>
+        <f aca="false">AMT!H52</f>
+        <v>5805.3852379635</v>
       </c>
       <c r="H32" s="21" t="n">
         <f aca="false">G32*$A$1</f>
-        <v>6113.25</v>
+        <v>16138.9709615385</v>
       </c>
       <c r="I32" s="21" t="n">
-        <f aca="false">H32*0.35</f>
-        <v>2139.6375</v>
+        <f aca="false">H32*0.15</f>
+        <v>2420.84564423078</v>
       </c>
       <c r="J32" s="21" t="n">
         <f aca="false">H32-I32</f>
-        <v>3973.6125</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+        <v>13718.1253173077</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="20" t="n">
+        <v>1881</v>
+      </c>
+      <c r="H33" s="21" t="n">
+        <f aca="false">G33*$A$1</f>
+        <v>5229.18</v>
+      </c>
+      <c r="I33" s="21" t="n">
+        <f aca="false">H33*0.35</f>
+        <v>1830.213</v>
+      </c>
+      <c r="J33" s="21" t="n">
+        <f aca="false">H33-I33</f>
+        <v>3398.967</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="20" t="n">
-        <f aca="false">MAX(0, MIN(AMT!B10-G31-G24, AMT!O52))</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="21" t="n">
-        <f aca="false">G35*$A$1</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="21" t="n">
-        <f aca="false">H35*0.15</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="21" t="n">
-        <f aca="false">H35-I35</f>
-        <v>0</v>
-      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
+      <c r="A36" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="G36" s="20" t="n">
+        <f aca="false">MAX(0, MIN(AMT!B10-G32-G24, AMT!O52))</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="21" t="n">
+        <f aca="false">G36*$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="21" t="n">
+        <f aca="false">H36*0.15</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="21" t="n">
+        <f aca="false">H36-I36</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="24" t="n">
-        <f aca="false">SUM(G15:G35)</f>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="24" t="n">
+        <f aca="false">SUM(G15:G36)</f>
         <v>60267</v>
       </c>
-      <c r="H37" s="25" t="n">
-        <f aca="false">SUM(H15:H35)</f>
-        <v>195867.75</v>
-      </c>
-      <c r="I37" s="25" t="n">
-        <f aca="false">SUM(I15:I35)</f>
-        <v>48941.9125</v>
-      </c>
-      <c r="J37" s="25" t="n">
-        <f aca="false">SUM(J15:J35)</f>
-        <v>146925.8375</v>
-      </c>
-      <c r="K37" s="26"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="26" t="n">
-        <f aca="false">I37/H37</f>
+      <c r="H38" s="25" t="n">
+        <f aca="false">SUM(H15:H36)</f>
+        <v>167542.26</v>
+      </c>
+      <c r="I38" s="25" t="n">
+        <f aca="false">SUM(I15:I36)</f>
+        <v>41864.159</v>
+      </c>
+      <c r="J38" s="25" t="n">
+        <f aca="false">SUM(J15:J36)</f>
+        <v>125678.101</v>
+      </c>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="26" t="n">
+        <f aca="false">I38/H38</f>
         <v>0.249872235219938</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="20" t="n">
-        <f aca="false">AMT!B9-G37+30095</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="27" t="s">
+      <c r="B40" s="20" t="n">
+        <f aca="false">AMT!B9-G38+30095</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="10" t="n">
-        <f aca="false">A1*B39</f>
+      <c r="D40" s="10" t="n">
+        <f aca="false">A1*B40</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -2102,12 +2127,13 @@
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A29:F29"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2126,8 +2152,8 @@
   </sheetPr>
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2249,7 +2275,7 @@
       </c>
       <c r="P4" s="41" t="n">
         <f aca="false">175000+SUM(Schedule!H17:H20)</f>
-        <v>242242.5</v>
+        <v>232518.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,7 +2317,7 @@
       </c>
       <c r="P5" s="41" t="n">
         <f aca="false">Schedule!H16+5000</f>
-        <v>51283.25</v>
+        <v>44589.98</v>
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
@@ -2330,7 +2356,7 @@
       </c>
       <c r="P6" s="41" t="n">
         <f aca="false">P4+P5</f>
-        <v>293525.75</v>
+        <v>277108.18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2399,7 @@
       </c>
       <c r="P7" s="41" t="n">
         <f aca="false">P6-($B$2*$B$7)</f>
-        <v>280582.935</v>
+        <v>264165.365</v>
       </c>
       <c r="T7" s="43"/>
     </row>
@@ -2411,7 +2437,7 @@
       </c>
       <c r="P8" s="25" t="n">
         <f aca="false">SUM(M4:M10)</f>
-        <v>54007.88975</v>
+        <v>50604.38475</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,14 +2473,14 @@
       </c>
       <c r="M9" s="39" t="n">
         <f aca="false">MAX(0,IF((P$7-P$5)&gt;L8,MIN((L9-L8),((P$7-P$5)-L8))*K9, 0))</f>
-        <v>4672.38975</v>
+        <v>1268.88474999999</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>65</v>
       </c>
       <c r="P9" s="44" t="n">
         <f aca="false">SUM(M14:M16)+SUM(M20:M21)</f>
-        <v>7692.4875</v>
+        <v>6688.497</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,8 +2488,8 @@
         <v>42</v>
       </c>
       <c r="B10" s="0" t="n">
-        <f aca="false">B9-14241-8291-593</f>
-        <v>7047</v>
+        <f aca="false">B9-14241-8291-593-337</f>
+        <v>6710</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>66</v>
@@ -2498,7 +2524,7 @@
       </c>
       <c r="P10" s="46" t="n">
         <f aca="false">(P8+P9)/P6</f>
-        <v>0.210204308310259</v>
+        <v>0.206752762585356</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,13 +2623,13 @@
       </c>
       <c r="M15" s="21" t="n">
         <f aca="false">IF(P$6&gt;L14,IF(P$6&lt;=L15, P$5*K15, 0),0)</f>
-        <v>7692.4875</v>
+        <v>6688.497</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>69</v>
       </c>
       <c r="P15" s="58" t="n">
-        <v>34570.1</v>
+        <v>35502.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,7 +2665,7 @@
       </c>
       <c r="P16" s="58" t="n">
         <f aca="false">P6+P15</f>
-        <v>328095.85</v>
+        <v>312611.08</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2709,7 @@
       </c>
       <c r="P18" s="58" t="n">
         <f aca="false">P16+P17-($B3*$B$7)-P5</f>
-        <v>200908.92</v>
+        <v>192117.42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2743,7 @@
       </c>
       <c r="P19" s="61" t="n">
         <f aca="false">M25+M26</f>
-        <v>52236.3192</v>
+        <v>49950.5292</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,7 +2779,7 @@
       </c>
       <c r="P20" s="25" t="n">
         <f aca="false">P9</f>
-        <v>7692.4875</v>
+        <v>6688.497</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,7 +2815,7 @@
       </c>
       <c r="P21" s="46" t="n">
         <f aca="false">(P19+P20)/P16</f>
-        <v>0.182656399646628</v>
+        <v>0.181180482150537</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,7 +2833,7 @@
       </c>
       <c r="P22" s="41" t="n">
         <f aca="false">IF(P8&gt;P19,((P8+P9)-(P19+P20))/K25,0)</f>
-        <v>6813.7328846154</v>
+        <v>2514.82903846148</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +2895,7 @@
       </c>
       <c r="M25" s="21" t="n">
         <f aca="false">MIN(P18,L25)*K25</f>
-        <v>52236.3192</v>
+        <v>49950.5292</v>
       </c>
       <c r="O25" s="65" t="s">
         <v>77</v>
@@ -2890,7 +2916,7 @@
       <c r="G26" s="69"/>
       <c r="H26" s="70" t="n">
         <f aca="false">I22/Schedule!A1</f>
-        <v>898.719999999997</v>
+        <v>1050.66187050359</v>
       </c>
       <c r="I26" s="70"/>
       <c r="K26" s="71" t="s">
@@ -2906,7 +2932,7 @@
       <c r="N26" s="73"/>
       <c r="O26" s="74" t="n">
         <f aca="false">MIN(B10, P22/Schedule!A1)</f>
-        <v>2096.53319526628</v>
+        <v>904.614762036505</v>
       </c>
       <c r="P26" s="74"/>
     </row>
@@ -2972,8 +2998,8 @@
         <v>52</v>
       </c>
       <c r="I30" s="41" t="n">
-        <f aca="false">182500+SUM(Schedule!H25:H28)</f>
-        <v>206953</v>
+        <f aca="false">182500+SUM(Schedule!H26:H29)</f>
+        <v>203416.72</v>
       </c>
       <c r="K30" s="42" t="s">
         <v>51</v>
@@ -2990,8 +3016,8 @@
         <v>52</v>
       </c>
       <c r="P30" s="41" t="n">
-        <f aca="false">190000+Schedule!H32</f>
-        <v>196113.25</v>
+        <f aca="false">190000+Schedule!H33</f>
+        <v>195229.18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,7 +3037,7 @@
       </c>
       <c r="I31" s="41" t="n">
         <f aca="false">Schedule!H24+5000</f>
-        <v>11813.7328846154</v>
+        <v>7514.82903846148</v>
       </c>
       <c r="K31" s="42" t="s">
         <v>54</v>
@@ -3028,8 +3054,8 @@
         <v>55</v>
       </c>
       <c r="P31" s="41" t="n">
-        <f aca="false">Schedule!H31+5000</f>
-        <v>21089.0171153846</v>
+        <f aca="false">Schedule!H32+5000</f>
+        <v>21138.9709615385</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3075,7 @@
       </c>
       <c r="I32" s="41" t="n">
         <f aca="false">I30+I31</f>
-        <v>218766.732884615</v>
+        <v>210931.549038462</v>
       </c>
       <c r="K32" s="42" t="s">
         <v>56</v>
@@ -3067,7 +3093,7 @@
       </c>
       <c r="P32" s="41" t="n">
         <f aca="false">P30+P31</f>
-        <v>217202.267115385</v>
+        <v>216368.150961538</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,7 +3113,7 @@
       </c>
       <c r="I33" s="41" t="n">
         <f aca="false">I32-($B$2*$B$7^2)</f>
-        <v>205418.807775115</v>
+        <v>197583.623928962</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>59</v>
@@ -3105,7 +3131,7 @@
       </c>
       <c r="P33" s="41" t="n">
         <f aca="false">P32-($B$2*$B$7^3)</f>
-        <v>203436.551949957</v>
+        <v>202602.435796111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,14 +3144,14 @@
       </c>
       <c r="F34" s="39" t="n">
         <f aca="false">MAX(0,IF((I$33-I$31)&gt;E33,MIN((E34-E33),((I$33-I$31)-E33))*D34, 0))</f>
-        <v>5846.66140622112</v>
+        <v>4715.05180622112</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I34" s="25" t="n">
         <f aca="false">SUM(F30:F36)</f>
-        <v>41571.1273806311</v>
+        <v>40439.5177806311</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>61</v>
@@ -3136,14 +3162,14 @@
       </c>
       <c r="M34" s="39" t="n">
         <f aca="false">MAX(0,IF((P$33-P$31)&gt;L33,MIN((L34-L33),((P$33-P$31)-L33))*K34, 0))</f>
-        <v>488.10066023604</v>
+        <v>205.198260236038</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>62</v>
       </c>
       <c r="P34" s="25" t="n">
         <f aca="false">SUM(M30:M36)</f>
-        <v>37330.7424196449</v>
+        <v>37047.8400196449</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,7 +3189,7 @@
       </c>
       <c r="I35" s="44" t="n">
         <f aca="false">SUM(F40:F42)+SUM(F46:F47)</f>
-        <v>1772.05993269231</v>
+        <v>1127.22435576922</v>
       </c>
       <c r="K35" s="42" t="s">
         <v>64</v>
@@ -3181,7 +3207,7 @@
       </c>
       <c r="P35" s="44" t="n">
         <f aca="false">SUM(M40:M42)+SUM(M46:M47)</f>
-        <v>3163.35256730769</v>
+        <v>3170.84564423078</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3226,7 @@
       </c>
       <c r="I36" s="46" t="n">
         <f aca="false">(I34+I35)/I32</f>
-        <v>0.198125129638353</v>
+        <v>0.197062707432263</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>66</v>
@@ -3217,7 +3243,7 @@
       </c>
       <c r="P36" s="46" t="n">
         <f aca="false">(P34+P35)/P32</f>
-        <v>0.186434955420796</v>
+        <v>0.185880803090215</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,7 +3324,7 @@
       </c>
       <c r="F41" s="21" t="n">
         <f aca="false">IF(I$32&gt;E40,IF(I$32&lt;=E41, I$31*D41, 0),0)</f>
-        <v>1772.05993269231</v>
+        <v>1127.22435576922</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>69</v>
@@ -3315,7 +3341,7 @@
       </c>
       <c r="M41" s="21" t="n">
         <f aca="false">IF(P$32&gt;L40,IF(P$32&lt;=L41, P$31*K41, 0),0)</f>
-        <v>3163.35256730769</v>
+        <v>3170.84564423078</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>69</v>
@@ -3340,7 +3366,7 @@
       </c>
       <c r="I42" s="58" t="n">
         <f aca="false">I32+I41</f>
-        <v>218766.732884615</v>
+        <v>210931.549038462</v>
       </c>
       <c r="K42" s="60" t="n">
         <v>0.2</v>
@@ -3357,7 +3383,7 @@
       </c>
       <c r="P42" s="58" t="n">
         <f aca="false">P32+P41</f>
-        <v>217202.267115385</v>
+        <v>216368.150961538</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,7 +3415,7 @@
       </c>
       <c r="I44" s="58" t="n">
         <f aca="false">I42+I43-($B3*$B$7^2)-I31</f>
-        <v>128673.534816</v>
+        <v>125137.254816</v>
       </c>
       <c r="K44" s="53" t="s">
         <v>72</v>
@@ -3401,7 +3427,7 @@
       </c>
       <c r="P44" s="58" t="n">
         <f aca="false">P42+P43-($B3*$B$7^3)-P31</f>
-        <v>115383.637555741</v>
+        <v>114499.567555741</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,7 +3445,7 @@
       </c>
       <c r="I45" s="61" t="n">
         <f aca="false">F51+F52</f>
-        <v>33455.11905216</v>
+        <v>32535.68625216</v>
       </c>
       <c r="K45" s="37" t="s">
         <v>47</v>
@@ -3435,7 +3461,7 @@
       </c>
       <c r="P45" s="61" t="n">
         <f aca="false">M51+M52</f>
-        <v>29999.7457644926</v>
+        <v>29769.8875644926</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3480,7 @@
       </c>
       <c r="I46" s="25" t="n">
         <f aca="false">I35</f>
-        <v>1772.05993269231</v>
+        <v>1127.22435576922</v>
       </c>
       <c r="K46" s="63" t="n">
         <v>0</v>
@@ -3471,7 +3497,7 @@
       </c>
       <c r="P46" s="25" t="n">
         <f aca="false">P35</f>
-        <v>3163.35256730769</v>
+        <v>3170.84564423078</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,7 +3516,7 @@
       </c>
       <c r="I47" s="46" t="n">
         <f aca="false">I45/I42</f>
-        <v>0.15292598929932</v>
+        <v>0.154247604971731</v>
       </c>
       <c r="K47" s="63" t="n">
         <v>0.038</v>
@@ -3507,7 +3533,7 @@
       </c>
       <c r="P47" s="46" t="n">
         <f aca="false">P45/P42</f>
-        <v>0.138118934774082</v>
+        <v>0.137589046410922</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,7 +3543,7 @@
       </c>
       <c r="I48" s="41" t="n">
         <f aca="false">IF(I34&gt;I45,((I34+I35)-(I45+I46))/D51,0)</f>
-        <v>31215.4166479659</v>
+        <v>30399.3520325812</v>
       </c>
       <c r="K48" s="48"/>
       <c r="O48" s="40" t="s">
@@ -3525,7 +3551,7 @@
       </c>
       <c r="P48" s="41" t="n">
         <f aca="false">IF(P34&gt;P45,((P34+P35)-(P45+P46))/K51,0)</f>
-        <v>28196.1409813551</v>
+        <v>27992.1248275089</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3600,7 @@
       </c>
       <c r="F51" s="21" t="n">
         <f aca="false">MIN(I44,E51)*D51</f>
-        <v>33455.11905216</v>
+        <v>32535.68625216</v>
       </c>
       <c r="H51" s="65" t="s">
         <v>77</v>
@@ -3589,7 +3615,7 @@
       </c>
       <c r="M51" s="21" t="n">
         <f aca="false">MIN(P44,L51)*K51</f>
-        <v>29999.7457644926</v>
+        <v>29769.8875644926</v>
       </c>
       <c r="O51" s="65" t="s">
         <v>77</v>
@@ -3610,7 +3636,7 @@
       <c r="G52" s="73"/>
       <c r="H52" s="74" t="n">
         <f aca="false">MIN(I48/Schedule!$A$1, (B10-O26))</f>
-        <v>4950.46680473372</v>
+        <v>5805.3852379635</v>
       </c>
       <c r="I52" s="74"/>
       <c r="K52" s="71" t="s">
@@ -3681,7 +3707,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3836,7 +3862,7 @@
       </c>
       <c r="P3" s="93" t="n">
         <f aca="false">Schedule!A$1 * N3</f>
-        <v>8888.75</v>
+        <v>7603.3</v>
       </c>
       <c r="Q3" s="89" t="n">
         <f aca="false">MAX(DATE(YEAR(L3)+1,MONTH(L3),DAY(L3)),DATE(YEAR(K3)+2,MONTH(K3),DAY(K3)))</f>
@@ -3844,7 +3870,7 @@
       </c>
       <c r="R3" s="93" t="n">
         <f aca="false">IF($C$20&gt;Q3, P3*0.15, P3*0.35)</f>
-        <v>1333.3125</v>
+        <v>1140.495</v>
       </c>
       <c r="T3" s="94"/>
       <c r="U3" s="20"/>
@@ -3900,7 +3926,7 @@
       </c>
       <c r="P4" s="93" t="n">
         <f aca="false">Schedule!A$1 * N4</f>
-        <v>24709.75</v>
+        <v>21136.34</v>
       </c>
       <c r="Q4" s="89" t="n">
         <f aca="false">MAX(DATE(YEAR(L4)+1,MONTH(L4),DAY(L4)),DATE(YEAR(K4)+2,MONTH(K4),DAY(K4)))</f>
@@ -3908,7 +3934,7 @@
       </c>
       <c r="R4" s="93" t="n">
         <f aca="false">IF($C$20&gt;Q4, P4*0.15, P4*0.35)</f>
-        <v>3706.4625</v>
+        <v>3170.451</v>
       </c>
       <c r="T4" s="94"/>
       <c r="U4" s="20"/>
@@ -3928,14 +3954,14 @@
       </c>
       <c r="E5" s="99" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A5,C$20,"M")-12))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="100" t="n">
         <f aca="false">0.25*C5*IF(DATEDIF(A5,$C$20,"Y")&gt;=1, 1, 0) + 0.75*C5*IF(DATEDIF(A5,$C$20,"Y")&gt;=1, MIN(36,E5)/36, 0)</f>
-        <v>2260.41666666667</v>
+        <v>2333.33333333333</v>
       </c>
       <c r="G5" s="97" t="n">
-        <v>2261</v>
+        <v>2334</v>
       </c>
       <c r="H5" s="101" t="n">
         <f aca="false">IF(F5=C5, 0, IF(DATEDIF(A5,$C$20,"Y")&gt;=1, C5/48, 0))</f>
@@ -3964,7 +3990,7 @@
       </c>
       <c r="P5" s="93" t="n">
         <f aca="false">Schedule!A$1 * N5</f>
-        <v>3081</v>
+        <v>2635.44</v>
       </c>
       <c r="Q5" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L5)+1,MONTH(L5),DAY(L5)),DATE(YEAR(K5)+2,MONTH(K5),DAY(K5)))</f>
@@ -3972,7 +3998,7 @@
       </c>
       <c r="R5" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q5, P5*0.15, P5*0.35)</f>
-        <v>462.15</v>
+        <v>395.316</v>
       </c>
       <c r="T5" s="94"/>
       <c r="U5" s="20"/>
@@ -3992,15 +4018,15 @@
       </c>
       <c r="E6" s="99" t="n">
         <f aca="false">MAX(0,MIN(48*0.75,DATEDIF(A6,C$20,"M")-12))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="100" t="n">
         <f aca="false">0.25*C6*IF(DATEDIF(A6,$C$20,"Y")&gt;=1, 1, 0) + 0.75*C6*IF(DATEDIF(A6,$C$20,"Y")&gt;=1, MIN(36,E6)/36, 0)</f>
-        <v>6864.54166666667</v>
+        <v>7128.5625</v>
       </c>
       <c r="G6" s="91" t="n">
-        <f aca="false">6272+593</f>
-        <v>6865</v>
+        <f aca="false">6272+593+264</f>
+        <v>7129</v>
       </c>
       <c r="H6" s="101" t="n">
         <f aca="false">IF(F6=C6, 0, IF(DATEDIF(A6,$C$20,"Y")&gt;=1, C6/48, 0))</f>
@@ -4029,7 +4055,7 @@
       </c>
       <c r="P6" s="93" t="n">
         <f aca="false">Schedule!A$1 * N6</f>
-        <v>5950.75</v>
+        <v>5090.18</v>
       </c>
       <c r="Q6" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L6)+1,MONTH(L6),DAY(L6)),DATE(YEAR(K6)+2,MONTH(K6),DAY(K6)))</f>
@@ -4037,7 +4063,7 @@
       </c>
       <c r="R6" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q6, P6*0.15, P6*0.35)</f>
-        <v>2082.7625</v>
+        <v>1781.563</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,7 +4117,7 @@
       </c>
       <c r="P7" s="93" t="n">
         <f aca="false">Schedule!A$1 * N7</f>
-        <v>2132</v>
+        <v>1823.68</v>
       </c>
       <c r="Q7" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L7)+1,MONTH(L7),DAY(L7)),DATE(YEAR(K7)+2,MONTH(K7),DAY(K7)))</f>
@@ -4099,7 +4125,7 @@
       </c>
       <c r="R7" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q7, P7*0.15, P7*0.35)</f>
-        <v>746.2</v>
+        <v>638.288</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +4157,7 @@
       </c>
       <c r="P8" s="93" t="n">
         <f aca="false">Schedule!A$1 * N8</f>
-        <v>1521</v>
+        <v>1301.04</v>
       </c>
       <c r="Q8" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L8)+1,MONTH(L8),DAY(L8)),DATE(YEAR(K8)+2,MONTH(K8),DAY(K8)))</f>
@@ -4139,7 +4165,7 @@
       </c>
       <c r="R8" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q8, P8*0.15, P8*0.35)</f>
-        <v>532.35</v>
+        <v>455.364</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,7 +4198,7 @@
       </c>
       <c r="P9" s="93" t="n">
         <f aca="false">Schedule!A$1 * N9</f>
-        <v>5947.5</v>
+        <v>5087.4</v>
       </c>
       <c r="Q9" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L9)+1,MONTH(L9),DAY(L9)),DATE(YEAR(K9)+2,MONTH(K9),DAY(K9)))</f>
@@ -4180,7 +4206,7 @@
       </c>
       <c r="R9" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q9, P9*0.15, P9*0.35)</f>
-        <v>2081.625</v>
+        <v>1780.59</v>
       </c>
       <c r="T9" s="49"/>
     </row>
@@ -4214,7 +4240,7 @@
       </c>
       <c r="P10" s="93" t="n">
         <f aca="false">Schedule!A$1 * N10</f>
-        <v>2135.25</v>
+        <v>1826.46</v>
       </c>
       <c r="Q10" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L10)+1,MONTH(L10),DAY(L10)),DATE(YEAR(K10)+2,MONTH(K10),DAY(K10)))</f>
@@ -4222,7 +4248,7 @@
       </c>
       <c r="R10" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q10, P10*0.15, P10*0.35)</f>
-        <v>747.3375</v>
+        <v>639.261</v>
       </c>
       <c r="T10" s="49"/>
     </row>
@@ -4256,7 +4282,7 @@
       </c>
       <c r="P11" s="93" t="n">
         <f aca="false">Schedule!A$1 * N11</f>
-        <v>18863</v>
+        <v>16135.12</v>
       </c>
       <c r="Q11" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L11)+1,MONTH(L11),DAY(L11)),DATE(YEAR(K11)+2,MONTH(K11),DAY(K11)))</f>
@@ -4264,7 +4290,7 @@
       </c>
       <c r="R11" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q11, P11*0.15, P11*0.35)</f>
-        <v>6602.05</v>
+        <v>5647.292</v>
       </c>
       <c r="T11" s="49"/>
     </row>
@@ -4298,7 +4324,7 @@
       </c>
       <c r="P12" s="93" t="n">
         <f aca="false">Schedule!A$1 * N12</f>
-        <v>1927.25</v>
+        <v>1648.54</v>
       </c>
       <c r="Q12" s="102" t="n">
         <f aca="false">MAX(DATE(YEAR(L12)+1,MONTH(L12),DAY(L12)),DATE(YEAR(K12)+2,MONTH(K12),DAY(K12)))</f>
@@ -4306,7 +4332,7 @@
       </c>
       <c r="R12" s="105" t="n">
         <f aca="false">IF($C$20&gt;Q12, P12*0.15, P12*0.35)</f>
-        <v>674.5375</v>
+        <v>576.989</v>
       </c>
       <c r="T12" s="49"/>
     </row>
@@ -4321,14 +4347,34 @@
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
       <c r="J13" s="113"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
+      <c r="K13" s="102" t="n">
+        <v>43602</v>
+      </c>
+      <c r="L13" s="106" t="n">
+        <v>44594</v>
+      </c>
+      <c r="M13" s="90" t="n">
+        <v>0.012062</v>
+      </c>
+      <c r="N13" s="91" t="n">
+        <v>73</v>
+      </c>
+      <c r="O13" s="104" t="n">
+        <f aca="false">N13*M13</f>
+        <v>0.880526</v>
+      </c>
+      <c r="P13" s="93" t="n">
+        <f aca="false">Schedule!A$1 * N13</f>
+        <v>202.94</v>
+      </c>
+      <c r="Q13" s="102" t="n">
+        <f aca="false">MAX(DATE(YEAR(L13)+1,MONTH(L13),DAY(L13)),DATE(YEAR(K13)+2,MONTH(K13),DAY(K13)))</f>
+        <v>44959</v>
+      </c>
+      <c r="R13" s="105" t="n">
+        <f aca="false">IF($C$20&gt;Q13, P13*0.15, P13*0.35)</f>
+        <v>71.029</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="111"/>
@@ -4341,14 +4387,34 @@
       <c r="H14" s="80"/>
       <c r="I14" s="80"/>
       <c r="J14" s="113"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
+      <c r="K14" s="102" t="n">
+        <v>43893</v>
+      </c>
+      <c r="L14" s="106" t="n">
+        <v>44594</v>
+      </c>
+      <c r="M14" s="90" t="n">
+        <v>0.012062</v>
+      </c>
+      <c r="N14" s="91" t="n">
+        <v>264</v>
+      </c>
+      <c r="O14" s="104" t="n">
+        <f aca="false">N14*M14</f>
+        <v>3.184368</v>
+      </c>
+      <c r="P14" s="93" t="n">
+        <f aca="false">Schedule!A$1 * N14</f>
+        <v>733.92</v>
+      </c>
+      <c r="Q14" s="102" t="n">
+        <f aca="false">MAX(DATE(YEAR(L14)+1,MONTH(L14),DAY(L14)),DATE(YEAR(K14)+2,MONTH(K14),DAY(K14)))</f>
+        <v>44959</v>
+      </c>
+      <c r="R14" s="105" t="n">
+        <f aca="false">IF($C$20&gt;Q14, P14*0.15, P14*0.35)</f>
+        <v>256.872</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="111"/>
@@ -4424,11 +4490,11 @@
       <c r="E18" s="117"/>
       <c r="F18" s="118" t="n">
         <f aca="false">SUM(F3:F16)</f>
-        <v>23123.9583333333</v>
+        <v>23460.8958333333</v>
       </c>
       <c r="G18" s="116" t="n">
         <f aca="false">SUM(G3:G16)</f>
-        <v>23125</v>
+        <v>23462</v>
       </c>
       <c r="H18" s="119"/>
       <c r="I18" s="120"/>
@@ -4442,7 +4508,7 @@
       <c r="O18" s="122"/>
       <c r="P18" s="123" t="n">
         <f aca="false">SUM(P3:P17)</f>
-        <v>75156.25</v>
+        <v>65224.36</v>
       </c>
       <c r="Q18" s="123"/>
       <c r="R18" s="123"/>
@@ -4460,11 +4526,11 @@
       <c r="E19" s="127"/>
       <c r="F19" s="128" t="n">
         <f aca="false">F18/C18</f>
-        <v>0.383691876704222</v>
+        <v>0.389282622883723</v>
       </c>
       <c r="G19" s="128" t="n">
         <f aca="false">G18/F18</f>
-        <v>1.00004504707419</v>
+        <v>1.00004706413065</v>
       </c>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -4478,7 +4544,7 @@
       <c r="O19" s="122"/>
       <c r="P19" s="130" t="n">
         <f aca="false">SUM(R3:R17)</f>
-        <v>18968.7875</v>
+        <v>16553.51</v>
       </c>
       <c r="Q19" s="130"/>
       <c r="R19" s="130"/>
@@ -4490,7 +4556,7 @@
       </c>
       <c r="C20" s="131" t="n">
         <f aca="true">TODAY()</f>
-        <v>44574</v>
+        <v>44594</v>
       </c>
       <c r="D20" s="91"/>
       <c r="E20" s="99"/>
@@ -4508,7 +4574,7 @@
       <c r="O20" s="133"/>
       <c r="P20" s="134" t="n">
         <f aca="false">P18-P19</f>
-        <v>56187.4625</v>
+        <v>48670.85</v>
       </c>
       <c r="Q20" s="134"/>
       <c r="R20" s="134"/>
@@ -4533,7 +4599,7 @@
       <c r="O21" s="135"/>
       <c r="P21" s="136" t="n">
         <f aca="false">(C18-G18)*Schedule!A1*0.65</f>
-        <v>78462.475</v>
+        <v>66506.635</v>
       </c>
       <c r="Q21" s="136"/>
       <c r="R21" s="136"/>
